--- a/java01t/index.xlsx
+++ b/java01t/index.xlsx
@@ -5,11 +5,11 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eomjinyoung/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eomjinyoung/git/Java67/java01t/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16640" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="20480" windowHeight="14820" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="554">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="585">
   <si>
     <t>주제</t>
   </si>
@@ -1686,6 +1686,99 @@
   </si>
   <si>
     <t>step21/ex1/Test4</t>
+  </si>
+  <si>
+    <t>4월9일</t>
+  </si>
+  <si>
+    <t>이너클래스 만들기: top level, member, local</t>
+  </si>
+  <si>
+    <t>step21/ex2/Test1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">이너클래스 만들기: 익명 이너 클래스 </t>
+  </si>
+  <si>
+    <t>step21/ex2/Test2</t>
+  </si>
+  <si>
+    <t>이너클래스 만들기: 인터페이스 구현 익명 이너 클래스</t>
+  </si>
+  <si>
+    <t>step21/ex2/Test3</t>
+  </si>
+  <si>
+    <t>이너클래스 만들기: 멤버 이너 클래스로 리스너 만들기</t>
+  </si>
+  <si>
+    <t>step21/ex2/Test4</t>
+  </si>
+  <si>
+    <t>이너클래스 만들기: 로컬 이너 클래스로 리스너 만들기</t>
+  </si>
+  <si>
+    <t>step21/ex2/Test5</t>
+  </si>
+  <si>
+    <t>이너클래스 만들기: 로컬 익명 이너클래스로 리스너 만들기</t>
+  </si>
+  <si>
+    <t>step21/ex2/Test6</t>
+  </si>
+  <si>
+    <t>이너클래스 만들기: 바깥 클래스의 멤버 참조하기</t>
+  </si>
+  <si>
+    <t>step21/ex2/Test7</t>
+  </si>
+  <si>
+    <t>top level 이너 클래스의 활용</t>
+  </si>
+  <si>
+    <t>step21/ex3/*</t>
+  </si>
+  <si>
+    <t>미니 윈도우 프로그래밍</t>
+  </si>
+  <si>
+    <t>기본 윈도우 준비</t>
+  </si>
+  <si>
+    <t>step21/ex4/*, step21/server</t>
+  </si>
+  <si>
+    <t>4월10일</t>
+  </si>
+  <si>
+    <t>Connectionful 방식 통신</t>
+  </si>
+  <si>
+    <t>step21/ex5/stateful/*</t>
+  </si>
+  <si>
+    <t>Connecitonless 방식 통신</t>
+  </si>
+  <si>
+    <t>step21/ex5/stateless/*</t>
+  </si>
+  <si>
+    <t>Connectionless 방식 통신2</t>
+  </si>
+  <si>
+    <t>step21/ex5/stateless2/*</t>
+  </si>
+  <si>
+    <t>4월13일</t>
+  </si>
+  <si>
+    <t>HTML, HTTP, 웹 개요</t>
+  </si>
+  <si>
+    <t>HTTP 클라이언트 만들기</t>
+  </si>
+  <si>
+    <t>step21/ex6/Test1</t>
   </si>
 </sst>
 </file>
@@ -2944,10 +3037,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J302"/>
+  <dimension ref="A1:J316"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A292" workbookViewId="0">
-      <selection activeCell="J200" sqref="J200"/>
+    <sheetView tabSelected="1" topLeftCell="A287" workbookViewId="0">
+      <selection activeCell="A303" sqref="A303:J316"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -5334,6 +5427,142 @@
         <v>553</v>
       </c>
     </row>
+    <row r="303" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A303" s="4">
+        <v>29</v>
+      </c>
+      <c r="B303" s="4" t="s">
+        <v>554</v>
+      </c>
+      <c r="C303" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="D303" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="J303" s="4" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="304" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D304" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="J304" s="4" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="305" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D305" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="J305" s="4" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="306" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D306" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="J306" s="4" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="307" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D307" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="J307" s="4" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="308" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D308" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="J308" s="4" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="309" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D309" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="J309" s="4" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="310" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D310" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="J310" s="4" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="311" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C311" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="D311" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="J311" s="4" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="312" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A312" s="4">
+        <v>30</v>
+      </c>
+      <c r="B312" s="4" t="s">
+        <v>574</v>
+      </c>
+      <c r="C312" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="D312" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="J312" s="4" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="313" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D313" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="J313" s="4" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="314" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D314" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="J314" s="4" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="315" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A315" s="4">
+        <v>31</v>
+      </c>
+      <c r="B315" s="4" t="s">
+        <v>581</v>
+      </c>
+      <c r="D315" s="1" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="316" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D316" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="J316" s="4" t="s">
+        <v>584</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/java01t/index.xlsx
+++ b/java01t/index.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="585">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="698">
   <si>
     <t>주제</t>
   </si>
@@ -1779,6 +1779,345 @@
   </si>
   <si>
     <t>step21/ex6/Test1</t>
+  </si>
+  <si>
+    <t>Servlet Container 개요</t>
+  </si>
+  <si>
+    <t>실무 웹 애플리케이션 서버 구축 사례</t>
+  </si>
+  <si>
+    <t>톰캣 서버 설치 및 실행</t>
+  </si>
+  <si>
+    <t>톰캣 실행 환경 설정</t>
+  </si>
+  <si>
+    <t>web0 애플리케이션 폴더 준비 및 테스트</t>
+  </si>
+  <si>
+    <t>4월14일</t>
+  </si>
+  <si>
+    <t>HTML5</t>
+  </si>
+  <si>
+    <t>HTML DOCTYPE 구조 해부</t>
+  </si>
+  <si>
+    <t>web1t: step01/Test00.html</t>
+  </si>
+  <si>
+    <t>HTML 기본 구조: head와 body</t>
+  </si>
+  <si>
+    <t>web1t: step01/Test01.html</t>
+  </si>
+  <si>
+    <t>제목 출력하기: h1, h2, …</t>
+  </si>
+  <si>
+    <t>web1t: step01/Test02.html</t>
+  </si>
+  <si>
+    <t>문단 출력하기: p</t>
+  </si>
+  <si>
+    <t>web1t: step01/Test03.html</t>
+  </si>
+  <si>
+    <t>강제 줄바꿈 및 수평 선 그리기: br, hr</t>
+  </si>
+  <si>
+    <t>web1t: step01/Test04.html</t>
+  </si>
+  <si>
+    <t>다른 문서를 연결하기: a</t>
+  </si>
+  <si>
+    <t>web1t: step01/Test05.html</t>
+  </si>
+  <si>
+    <t>문서의 특정 위치를 태깅하기: a, id속성</t>
+  </si>
+  <si>
+    <t>web1t: step01/Test06.html</t>
+  </si>
+  <si>
+    <t>시맨틱 웹 개념: b, string, I, address</t>
+  </si>
+  <si>
+    <t>web1t: step01/Test07.html</t>
+  </si>
+  <si>
+    <t>기타 inline 태그: small, sub, sup, ins, del</t>
+  </si>
+  <si>
+    <t>web1t: step01/Test08.html</t>
+  </si>
+  <si>
+    <t>기타 inline 태그: ruby</t>
+  </si>
+  <si>
+    <t>web1t: step01/Test09.html</t>
+  </si>
+  <si>
+    <t>사용자 정의 태그의 활용: food, price</t>
+  </si>
+  <si>
+    <t>web1t: step01/Test10.html</t>
+  </si>
+  <si>
+    <t>단순 목록 출력하기: ol, ul</t>
+  </si>
+  <si>
+    <t>web1t: step01/Test12.html</t>
+  </si>
+  <si>
+    <t>목록 중첩하기: ol, ul</t>
+  </si>
+  <si>
+    <t>web1t: step01/Test13.html</t>
+  </si>
+  <si>
+    <t>HTML5 목록 출력 태그: dl, dt, dd</t>
+  </si>
+  <si>
+    <t>web1t: step01/Test14.html</t>
+  </si>
+  <si>
+    <t>테이블 만들기: table, tr, th, td</t>
+  </si>
+  <si>
+    <t>web1t: step01/Test15.html</t>
+  </si>
+  <si>
+    <t>테이블 만들기: caption, colgroup, thead, tbody, tfoot</t>
+  </si>
+  <si>
+    <t>web1t: step01/Test16.html</t>
+  </si>
+  <si>
+    <t>테이블 만들기: 셀병합</t>
+  </si>
+  <si>
+    <t>web1t: step01/Test17.html</t>
+  </si>
+  <si>
+    <t>그림 출력: img</t>
+  </si>
+  <si>
+    <t>web1t: step01/Test18.html</t>
+  </si>
+  <si>
+    <t>오디오 출력: audio</t>
+  </si>
+  <si>
+    <t>web1t: step01/Test19.html</t>
+  </si>
+  <si>
+    <t>비디오 출력: video</t>
+  </si>
+  <si>
+    <t>web1t: step01/Test20.html</t>
+  </si>
+  <si>
+    <t>폼 만들기: form</t>
+  </si>
+  <si>
+    <t>web1t: step01/Test21.html</t>
+  </si>
+  <si>
+    <t>폼 만들기: method와 action 속성</t>
+  </si>
+  <si>
+    <t>web1t: step01/Test22.html</t>
+  </si>
+  <si>
+    <t>폼 만들기: post 방식과 get 방식의 데이터 전송의 차이점</t>
+  </si>
+  <si>
+    <t>web1t: step01/Test23.html</t>
+  </si>
+  <si>
+    <t>4월15일</t>
+  </si>
+  <si>
+    <t>인코딩/디코딩 개요</t>
+  </si>
+  <si>
+    <t>step22/ex1/Test1</t>
+  </si>
+  <si>
+    <t>Base64 인코딩</t>
+  </si>
+  <si>
+    <t>step22/ex1/Test2</t>
+  </si>
+  <si>
+    <t>img 태그에 Base64로 인코딩된 데이터 삽입하기</t>
+  </si>
+  <si>
+    <t>web1t: step01/Test24.html</t>
+  </si>
+  <si>
+    <t>네이버 검색 폼 만들기: get/post 방식의 데이터 전송 차이점 확인</t>
+  </si>
+  <si>
+    <t>web1t: step01/Test25.html</t>
+  </si>
+  <si>
+    <t>input 유형 총정리</t>
+  </si>
+  <si>
+    <t>web1t: step01/Test26.html</t>
+  </si>
+  <si>
+    <t>여러 줄 입력 받기: textarea</t>
+  </si>
+  <si>
+    <t>web1t: step01/Test27.html</t>
+  </si>
+  <si>
+    <t>입력 항목에 초기값 설정하기: value 속성</t>
+  </si>
+  <si>
+    <t>web1t: step01/Test28.html</t>
+  </si>
+  <si>
+    <t>입력 안내 문구 출력하기: placeholder 속성</t>
+  </si>
+  <si>
+    <t>web1t: step01/Test29.html</t>
+  </si>
+  <si>
+    <t>콤보 박스 만들기: select</t>
+  </si>
+  <si>
+    <t>web1t: step01/Test30.html</t>
+  </si>
+  <si>
+    <t>div와 span의 활용</t>
+  </si>
+  <si>
+    <t>web1t: step01/Test31.html</t>
+  </si>
+  <si>
+    <t>CSS3</t>
+  </si>
+  <si>
+    <t>HTML,CSS,JS 역할 및 DOM 트리, 셀렉터(태그, pseudo)</t>
+  </si>
+  <si>
+    <t>web1t: step02/ex1/Test01.html</t>
+  </si>
+  <si>
+    <t>4월16일</t>
+  </si>
+  <si>
+    <t>*, 아이디, 클래스 셀렉터</t>
+  </si>
+  <si>
+    <t>web1t: step02/ex1/Test02.html</t>
+  </si>
+  <si>
+    <t>복합 셀렉터</t>
+  </si>
+  <si>
+    <t>web1t: step02/ex1/Test03.html</t>
+  </si>
+  <si>
+    <t>pseudo 클래스 - :first-child, :last-child</t>
+  </si>
+  <si>
+    <t>web1t: step02/ex1/Test04.html</t>
+  </si>
+  <si>
+    <t>pseudo 클래스 - :link, :visited</t>
+  </si>
+  <si>
+    <t>web1t: step02/ex1/Test05.html</t>
+  </si>
+  <si>
+    <t>pseudo 클래스 - :active, :focus</t>
+  </si>
+  <si>
+    <t>web1t: step02/ex1/Test06.html</t>
+  </si>
+  <si>
+    <t>기타 셀렉터: +, ~</t>
+  </si>
+  <si>
+    <t>web1t: step02/ex1/Test07.html</t>
+  </si>
+  <si>
+    <t>조건 셀렉터: [속성], [속성="값"], [속성$="값"], [속성^="값"]</t>
+  </si>
+  <si>
+    <t>web1t: step02/ex1/Test08.html</t>
+  </si>
+  <si>
+    <t>셀렉터 적용순서</t>
+  </si>
+  <si>
+    <t>web1t: step02/ex1/Test09.html</t>
+  </si>
+  <si>
+    <t>셀렉터 specificity 값으로 적용 우선순위 계산하기</t>
+  </si>
+  <si>
+    <t>web1t: step02/ex1/Test10.html</t>
+  </si>
+  <si>
+    <t>pseudo 클래스 - :nth-child(x)</t>
+  </si>
+  <si>
+    <t>web1t: step02/ex1/Test11.html</t>
+  </si>
+  <si>
+    <t>폰트: font-family</t>
+  </si>
+  <si>
+    <t>web1t: step02/ex2/Test01.html</t>
+  </si>
+  <si>
+    <t>폰트: font-size</t>
+  </si>
+  <si>
+    <t>web1t: step02/ex2/Test02.html</t>
+  </si>
+  <si>
+    <t>폰트: font-style, font-weight, text-decoration</t>
+  </si>
+  <si>
+    <t>web1t: step02/ex2/Test03.html</t>
+  </si>
+  <si>
+    <t>배경: 색상의 표현법</t>
+  </si>
+  <si>
+    <t>web1t: step02/ex3/Test01.html</t>
+  </si>
+  <si>
+    <t>배경: background-image</t>
+  </si>
+  <si>
+    <t>web1t: step02/ex3/Test02.html</t>
+  </si>
+  <si>
+    <t>배경: background-repeat</t>
+  </si>
+  <si>
+    <t>web1t: step02/ex3/Test03.html</t>
+  </si>
+  <si>
+    <t>배경: background-position, background-color, 단축 표기법</t>
+  </si>
+  <si>
+    <t>web1t: step02/ex3/Test04.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -3037,10 +3376,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J316"/>
+  <dimension ref="A1:J374"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A287" workbookViewId="0">
-      <selection activeCell="A303" sqref="A303:J316"/>
+    <sheetView tabSelected="1" topLeftCell="A350" workbookViewId="0">
+      <selection activeCell="D374" sqref="D374"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -5563,6 +5902,468 @@
         <v>584</v>
       </c>
     </row>
+    <row r="317" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D317" s="1" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="318" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D318" s="1" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="319" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D319" s="1" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="320" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D320" s="1" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="321" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D321" s="1" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="322" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A322" s="4">
+        <v>32</v>
+      </c>
+      <c r="B322" s="4" t="s">
+        <v>590</v>
+      </c>
+      <c r="C322" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="D322" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="J322" s="4" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="323" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D323" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="J323" s="4" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="324" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D324" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="J324" s="4" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="325" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D325" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="J325" s="4" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="326" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D326" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="J326" s="4" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="327" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D327" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="J327" s="4" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="328" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D328" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="J328" s="4" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="329" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D329" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="J329" s="4" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="330" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D330" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="J330" s="4" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="331" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D331" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="J331" s="4" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="332" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D332" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="J332" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="333" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D333" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="J333" s="4" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="334" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D334" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="J334" s="4" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="335" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D335" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="J335" s="4" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="336" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D336" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="J336" s="4" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="337" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D337" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="J337" s="4" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="338" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D338" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="J338" s="4" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="339" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D339" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="J339" s="4" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="340" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D340" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="J340" s="4" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="341" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D341" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="J341" s="4" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="342" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D342" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="J342" s="4" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="343" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D343" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="J343" s="4" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="344" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D344" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="J344" s="4" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="345" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A345" s="4">
+        <v>33</v>
+      </c>
+      <c r="B345" s="4" t="s">
+        <v>638</v>
+      </c>
+      <c r="D345" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="J345" s="4" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="346" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D346" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="J346" s="4" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="347" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D347" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="J347" s="4" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="348" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D348" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="J348" s="4" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="349" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D349" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="J349" s="4" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="350" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D350" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="J350" s="4" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="351" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D351" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="J351" s="4" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="352" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D352" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="J352" s="4" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="353" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D353" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="J353" s="4" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="354" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D354" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="J354" s="4" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="355" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C355" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="D355" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="J355" s="4" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="356" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A356" s="4">
+        <v>34</v>
+      </c>
+      <c r="B356" s="4" t="s">
+        <v>662</v>
+      </c>
+      <c r="D356" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="J356" s="4" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="357" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D357" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="J357" s="4" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="358" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D358" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="J358" s="4" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="359" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D359" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="J359" s="4" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="360" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D360" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="J360" s="4" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="361" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D361" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="J361" s="4" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="362" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D362" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="J362" s="4" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="363" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D363" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="J363" s="4" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="364" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D364" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="J364" s="4" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="365" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D365" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="J365" s="4" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="366" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D366" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="J366" s="4" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="367" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D367" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="J367" s="4" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="368" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D368" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="J368" s="4" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="369" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D369" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="J369" s="4" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="370" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D370" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="J370" s="4" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="371" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D371" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="J371" s="4" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="372" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D372" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="J372" s="4" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="374" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D374" s="1" t="s">
+        <v>697</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/java01t/index.xlsx
+++ b/java01t/index.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="698">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="737">
   <si>
     <t>주제</t>
   </si>
@@ -179,9 +179,6 @@
     <t>폰트 파일의 의미</t>
   </si>
   <si>
-    <t>래스터 방식과 벡터 방식은 나중에 추가 설명할 것</t>
-  </si>
-  <si>
     <t>이클립스에서 클래스 만들고 테스트: 무소속 클래스, 패키지 소속 클래스</t>
   </si>
   <si>
@@ -2117,7 +2114,127 @@
     <t>web1t: step02/ex3/Test04.html</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
+    <t>4월17일</t>
+  </si>
+  <si>
+    <t>배경: background-size</t>
+  </si>
+  <si>
+    <t>web1t: step02/ex3/Test05.html</t>
+  </si>
+  <si>
+    <t>배경: 여러 개 그림 다루기</t>
+  </si>
+  <si>
+    <t>web1t: step02/ex3/Test06.html</t>
+  </si>
+  <si>
+    <t>테두리 다루기: border 속성</t>
+  </si>
+  <si>
+    <t>web1t: step02/ex4/Test01.html</t>
+  </si>
+  <si>
+    <t>테두리 다루기: padding 속성, line-height 속성</t>
+  </si>
+  <si>
+    <t>web1t: step02/ex4/Test02.html</t>
+  </si>
+  <si>
+    <t>테두리 다루기: border-radius 속성</t>
+  </si>
+  <si>
+    <t>web1t: step02/ex4/Test03.html</t>
+  </si>
+  <si>
+    <t>상자 다루기: display 속성</t>
+  </si>
+  <si>
+    <t>web1t: step02/ex5/Test01.html</t>
+  </si>
+  <si>
+    <t>상자 다루기: visibility 속성</t>
+  </si>
+  <si>
+    <t>web1t: step02/ex5/Test02.html</t>
+  </si>
+  <si>
+    <t>상자 다루기: box-sizing 속성</t>
+  </si>
+  <si>
+    <t>web1t: step02/ex5/Test03.html</t>
+  </si>
+  <si>
+    <t>상자 다루기: box-shadow</t>
+  </si>
+  <si>
+    <t>web1t: step02/ex5/Test04.html</t>
+  </si>
+  <si>
+    <t>상자 위치 지정: 화면 준비</t>
+  </si>
+  <si>
+    <t>web1t: step02/ex6/Test01.html</t>
+  </si>
+  <si>
+    <t>상자 위치 지정: float, clear</t>
+  </si>
+  <si>
+    <t>web1t: step02/ex6/Test02.html</t>
+  </si>
+  <si>
+    <t>상자 위치 지정: position: absolute</t>
+  </si>
+  <si>
+    <t>web1t: step02/ex6/Test03.html</t>
+  </si>
+  <si>
+    <t>상자 위치 지정: absolute 위치 지정 조건</t>
+  </si>
+  <si>
+    <t>web1t: step02/ex6/Test04.html</t>
+  </si>
+  <si>
+    <t>상자 위치 지정: relative</t>
+  </si>
+  <si>
+    <t>web1t: step02/ex6/Test05.html</t>
+  </si>
+  <si>
+    <t>상자 위치 지정: fixed</t>
+  </si>
+  <si>
+    <t>web1t: step02/ex6/Test06.html</t>
+  </si>
+  <si>
+    <t>상자 위치 지정: fixed 응용</t>
+  </si>
+  <si>
+    <t>web1t: step02/ex6/Test07.html</t>
+  </si>
+  <si>
+    <t>상자 위치 지정: 컨텐츠 가운데 정렬하기, text-shadow</t>
+  </si>
+  <si>
+    <t>web1t: step02/ex6/Test08.html</t>
+  </si>
+  <si>
+    <t>스타일 파일 분리</t>
+  </si>
+  <si>
+    <t>web1t: step02/ex7/Test01.html</t>
+  </si>
+  <si>
+    <t>HTML5 레이아웃 관련 태그 활용</t>
+  </si>
+  <si>
+    <t>web1t: step02/ex7/Test02.html</t>
+  </si>
+  <si>
+    <t>Bootstrap 라이브러리 사용</t>
+  </si>
+  <si>
+    <t>web1t: step02/ex7/Test03.html</t>
   </si>
 </sst>
 </file>
@@ -3376,10 +3493,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J374"/>
+  <dimension ref="A1:J392"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A350" workbookViewId="0">
-      <selection activeCell="D374" sqref="D374"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -3394,10 +3511,10 @@
   <sheetData>
     <row r="1" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>0</v>
@@ -3406,418 +3523,470 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
       <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
       <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
       <c r="C5" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
       <c r="C6" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
       <c r="C7" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
       <c r="C8" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>2</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
       <c r="C10" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
       <c r="C11" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
       <c r="C12" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
       <c r="C13" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
       <c r="C14" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
       <c r="C15" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>3</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C17" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D19" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D20" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="21" spans="3:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D21" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D22" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D23" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="24" spans="3:4" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="24" spans="3:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D24" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D26" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D27" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="28" spans="3:4" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="28" spans="3:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D28" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D30" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D31" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D32" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D33" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D34" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D35" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D36" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D38" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="39" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D39" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="40" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D40" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D41" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="42" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D42" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="43" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D43" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="44" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D44" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="45" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="46" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D46" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="47" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D47" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="48" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D48" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="4"/>
+      <c r="B49" s="4"/>
       <c r="D49" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="4"/>
+      <c r="B50" s="4"/>
       <c r="C50" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="4"/>
+      <c r="B51" s="4"/>
       <c r="C51" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D51" s="3" t="s">
+      <c r="D51" s="3"/>
+    </row>
+    <row r="52" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="4"/>
+      <c r="B52" s="4"/>
+      <c r="C52" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C52" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
         <v>4</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C53" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="4"/>
+      <c r="B54" s="4"/>
+      <c r="C54" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C54" s="1" t="s">
+    <row r="55" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="4"/>
+      <c r="B55" s="4"/>
+      <c r="D55" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D55" s="1" t="s">
+    <row r="56" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="4"/>
+      <c r="B56" s="4"/>
+      <c r="D56" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="4"/>
+      <c r="B57" s="4"/>
+      <c r="D57" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D56" s="1" t="s">
+    <row r="58" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="4"/>
+      <c r="B58" s="4"/>
+      <c r="D58" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="4"/>
+      <c r="B59" s="4"/>
+      <c r="D59" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="4"/>
+      <c r="B60" s="4"/>
+      <c r="C60" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="4"/>
+      <c r="B61" s="4"/>
+      <c r="D61" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D57" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D58" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D59" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C60" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D61" s="1" t="s">
+    <row r="62" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="4"/>
+      <c r="B62" s="4"/>
+      <c r="D62" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D62" s="1" t="s">
+    <row r="63" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="4"/>
+      <c r="B63" s="4"/>
+      <c r="D63" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D63" s="1" t="s">
+    <row r="64" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="4"/>
+      <c r="B64" s="4"/>
+      <c r="D64" s="1" t="s">
         <v>62</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D64" s="1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D65" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C66" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D67" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D68" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D69" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C70" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D71" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J71" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D72" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D73" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D74" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J74" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C75" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J75" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C76" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J76" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
@@ -3825,118 +3994,118 @@
         <v>5</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J77" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D78" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C79" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D79" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D79" s="1" t="s">
-        <v>79</v>
-      </c>
       <c r="J79" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D80" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D81" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D82" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J82" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C83" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D84" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J84" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D85" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J85" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D86" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C87" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D88" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J88" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D89" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D90" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J90" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D91" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J91" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J92" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
@@ -3944,92 +4113,92 @@
         <v>6</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J93" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D94" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D95" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D96" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J96" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D97" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J97" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D98" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J98" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D99" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J99" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C100" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D101" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J101" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D102" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J102" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D103" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="J103" s="4" t="s">
         <v>132</v>
-      </c>
-      <c r="J103" s="4" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D104" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J104" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
@@ -4037,34 +4206,34 @@
         <v>7</v>
       </c>
       <c r="B105" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C105" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D106" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="J106" s="4" t="s">
         <v>137</v>
-      </c>
-      <c r="J106" s="4" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D107" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="J107" s="4" t="s">
         <v>139</v>
-      </c>
-      <c r="J107" s="4" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D108" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="J108" s="4" t="s">
         <v>141</v>
-      </c>
-      <c r="J108" s="4" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
@@ -4072,71 +4241,71 @@
         <v>3</v>
       </c>
       <c r="J109" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D110" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J110" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D111" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J111" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D112" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J112" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D113" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J113" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D114" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="J114" s="4" t="s">
         <v>152</v>
-      </c>
-      <c r="J114" s="4" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D115" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="J115" s="4" t="s">
         <v>154</v>
-      </c>
-      <c r="J115" s="4" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D116" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J116" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D117" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J117" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
@@ -4144,66 +4313,66 @@
         <v>8</v>
       </c>
       <c r="B118" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C118" s="1" t="s">
         <v>160</v>
-      </c>
-      <c r="C118" s="1" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D119" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J119" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D120" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J120" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D121" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="J121" s="4" t="s">
         <v>166</v>
-      </c>
-      <c r="J121" s="4" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D122" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="J122" s="4" t="s">
         <v>168</v>
-      </c>
-      <c r="J122" s="4" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D123" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="J123" s="4" t="s">
         <v>170</v>
-      </c>
-      <c r="J123" s="4" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D124" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J124" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D125" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="J125" s="4" t="s">
         <v>174</v>
-      </c>
-      <c r="J125" s="4" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
@@ -4211,74 +4380,74 @@
         <v>9</v>
       </c>
       <c r="B126" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C126" s="1" t="s">
         <v>176</v>
-      </c>
-      <c r="C126" s="1" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D127" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="J127" s="4" t="s">
         <v>178</v>
-      </c>
-      <c r="J127" s="4" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D128" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="J128" s="4" t="s">
         <v>180</v>
-      </c>
-      <c r="J128" s="4" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D129" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J129" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D130" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="J130" s="4" t="s">
         <v>184</v>
-      </c>
-      <c r="J130" s="4" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D131" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="J131" s="4" t="s">
         <v>186</v>
-      </c>
-      <c r="J131" s="4" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D132" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="J132" s="4" t="s">
         <v>188</v>
-      </c>
-      <c r="J132" s="4" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D133" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J133" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D134" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="J134" s="4" t="s">
         <v>192</v>
-      </c>
-      <c r="J134" s="4" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
@@ -4286,69 +4455,69 @@
         <v>10</v>
       </c>
       <c r="B135" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="J135" s="4" t="s">
         <v>195</v>
-      </c>
-      <c r="D135" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="J135" s="4" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D136" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="J136" s="4" t="s">
         <v>197</v>
-      </c>
-      <c r="J136" s="4" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D137" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="J137" s="4" t="s">
         <v>199</v>
-      </c>
-      <c r="J137" s="4" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D138" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="J138" s="4" t="s">
         <v>201</v>
-      </c>
-      <c r="J138" s="4" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D139" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J139" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D140" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="J140" s="4" t="s">
         <v>207</v>
-      </c>
-      <c r="J140" s="4" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D141" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="J141" s="4" t="s">
         <v>205</v>
-      </c>
-      <c r="J141" s="4" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D142" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="J142" s="4" t="s">
         <v>209</v>
-      </c>
-      <c r="J142" s="4" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.25">
@@ -4356,93 +4525,93 @@
         <v>11</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D143" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="J143" s="4" t="s">
         <v>211</v>
-      </c>
-      <c r="J143" s="4" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D144" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="J144" s="4" t="s">
         <v>214</v>
-      </c>
-      <c r="J144" s="4" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D145" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="J145" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D146" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="J146" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D147" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="J147" s="4" t="s">
         <v>220</v>
-      </c>
-      <c r="J147" s="4" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D148" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="J148" s="4" t="s">
         <v>222</v>
-      </c>
-      <c r="J148" s="4" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D149" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="J149" s="4" t="s">
         <v>224</v>
-      </c>
-      <c r="J149" s="4" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D150" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="J150" s="4" t="s">
         <v>226</v>
-      </c>
-      <c r="J150" s="4" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D151" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="J151" s="4" t="s">
         <v>228</v>
-      </c>
-      <c r="J151" s="4" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D152" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="J152" s="4" t="s">
         <v>230</v>
-      </c>
-      <c r="J152" s="4" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D153" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="J153" s="4" t="s">
         <v>232</v>
-      </c>
-      <c r="J153" s="4" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.25">
@@ -4450,120 +4619,120 @@
         <v>12</v>
       </c>
       <c r="B154" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="D154" s="1" t="s">
         <v>234</v>
-      </c>
-      <c r="D154" s="1" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C155" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D155" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="J155" s="4" t="s">
         <v>236</v>
-      </c>
-      <c r="J155" s="4" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D156" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="J156" s="4" t="s">
         <v>238</v>
-      </c>
-      <c r="J156" s="4" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D157" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="J157" s="4" t="s">
         <v>240</v>
-      </c>
-      <c r="J157" s="4" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D158" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="J158" s="4" t="s">
         <v>242</v>
-      </c>
-      <c r="J158" s="4" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D159" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="J159" s="4" t="s">
         <v>244</v>
-      </c>
-      <c r="J159" s="4" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D160" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="J160" s="4" t="s">
         <v>246</v>
-      </c>
-      <c r="J160" s="4" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D161" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="J161" s="4" t="s">
         <v>248</v>
-      </c>
-      <c r="J161" s="4" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D162" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="J162" s="4" t="s">
         <v>250</v>
-      </c>
-      <c r="J162" s="4" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D163" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="J163" s="4" t="s">
         <v>252</v>
-      </c>
-      <c r="J163" s="4" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D164" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="J164" s="4" t="s">
         <v>254</v>
-      </c>
-      <c r="J164" s="4" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C165" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="D165" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="D165" s="1" t="s">
+      <c r="J165" s="4" t="s">
         <v>257</v>
-      </c>
-      <c r="J165" s="4" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D166" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="J166" s="4" t="s">
         <v>260</v>
-      </c>
-      <c r="J166" s="4" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D167" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="J167" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.25">
@@ -4571,37 +4740,37 @@
         <v>13</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="J168" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D169" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J169" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D170" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="J170" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D171" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="J171" s="4" t="s">
         <v>270</v>
-      </c>
-      <c r="J171" s="4" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.25">
@@ -4609,56 +4778,56 @@
         <v>14</v>
       </c>
       <c r="B172" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="D172" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="D172" s="1" t="s">
-        <v>273</v>
-      </c>
       <c r="J172" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C173" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="J173" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D174" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="J174" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D175" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="J175" s="4" t="s">
         <v>278</v>
-      </c>
-      <c r="J175" s="4" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D176" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="J176" s="4" t="s">
         <v>281</v>
-      </c>
-      <c r="J176" s="4" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D177" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J177" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.25">
@@ -4666,91 +4835,91 @@
         <v>15</v>
       </c>
       <c r="B178" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="D178" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="J178" s="4" t="s">
         <v>285</v>
-      </c>
-      <c r="C178" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="D178" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="J178" s="4" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D179" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J179" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D180" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="J180" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D181" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="J181" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D182" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="J182" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D183" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="J183" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D184" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="J184" s="4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D185" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="J185" s="4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D186" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="J186" s="4" t="s">
         <v>294</v>
-      </c>
-      <c r="J186" s="4" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C187" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D187" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="J187" s="4" t="s">
         <v>296</v>
-      </c>
-      <c r="J187" s="4" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.25">
@@ -4758,64 +4927,64 @@
         <v>16</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="J188" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D189" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="J189" s="4" t="s">
         <v>312</v>
-      </c>
-      <c r="J189" s="4" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D190" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="J190" s="4" t="s">
         <v>314</v>
-      </c>
-      <c r="J190" s="4" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C191" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="D191" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="D191" s="1" t="s">
+      <c r="J191" s="4" t="s">
         <v>317</v>
-      </c>
-      <c r="J191" s="4" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D192" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="J192" s="4" t="s">
         <v>319</v>
-      </c>
-      <c r="J192" s="4" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D193" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="J193" s="4" t="s">
         <v>321</v>
-      </c>
-      <c r="J193" s="4" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D194" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="J194" s="4" t="s">
         <v>323</v>
-      </c>
-      <c r="J194" s="4" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="195" spans="1:10" x14ac:dyDescent="0.25">
@@ -4823,88 +4992,88 @@
         <v>17</v>
       </c>
       <c r="B195" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="D195" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="D195" s="1" t="s">
+      <c r="J195" s="4" t="s">
         <v>326</v>
-      </c>
-      <c r="J195" s="4" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="196" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D196" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="J196" s="4" t="s">
         <v>328</v>
-      </c>
-      <c r="J196" s="4" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="197" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D197" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="J197" s="4" t="s">
         <v>330</v>
-      </c>
-      <c r="J197" s="4" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="198" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D198" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="J198" s="4" t="s">
         <v>332</v>
-      </c>
-      <c r="J198" s="4" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="199" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D199" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="J199" s="4" t="s">
         <v>335</v>
-      </c>
-      <c r="J199" s="4" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C200" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D200" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="J200" s="4" t="s">
         <v>337</v>
-      </c>
-      <c r="J200" s="4" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D201" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="J201" s="4" t="s">
         <v>339</v>
-      </c>
-      <c r="J201" s="4" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="202" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D202" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="J202" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="203" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D203" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="J203" s="4" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="204" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D204" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="J204" s="4" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="205" spans="1:10" x14ac:dyDescent="0.25">
@@ -4912,56 +5081,56 @@
         <v>18</v>
       </c>
       <c r="B205" s="4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D205" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="J205" s="4" t="s">
         <v>347</v>
-      </c>
-      <c r="J205" s="4" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="206" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D206" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="J206" s="4" t="s">
         <v>349</v>
-      </c>
-      <c r="J206" s="4" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="207" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D207" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="J207" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="208" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D208" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="J208" s="4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="209" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D209" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="J209" s="4" t="s">
         <v>355</v>
-      </c>
-      <c r="J209" s="4" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="210" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C210" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="D210" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="D210" s="1" t="s">
+      <c r="J210" s="4" t="s">
         <v>358</v>
-      </c>
-      <c r="J210" s="4" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="211" spans="1:10" x14ac:dyDescent="0.25">
@@ -4969,109 +5138,109 @@
         <v>19</v>
       </c>
       <c r="B211" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="D211" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="J211" s="4" t="s">
         <v>361</v>
-      </c>
-      <c r="D211" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="J211" s="4" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="212" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D212" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="J212" s="4" t="s">
         <v>364</v>
-      </c>
-      <c r="J212" s="4" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="213" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D213" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="J213" s="4" t="s">
         <v>366</v>
-      </c>
-      <c r="J213" s="4" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="214" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D214" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="J214" s="4" t="s">
         <v>368</v>
-      </c>
-      <c r="J214" s="4" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="215" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D215" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J215" s="4" t="s">
         <v>370</v>
-      </c>
-      <c r="J215" s="4" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="216" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D216" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="J216" s="4" t="s">
         <v>372</v>
-      </c>
-      <c r="J216" s="4" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="217" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D217" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="J217" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="218" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D218" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="J218" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="219" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D219" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="J219" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="220" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D220" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="J220" s="4" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="221" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D221" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="J221" s="4" t="s">
         <v>382</v>
-      </c>
-      <c r="J221" s="4" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="222" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D222" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="J222" s="4" t="s">
         <v>384</v>
-      </c>
-      <c r="J222" s="4" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="223" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D223" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="J223" s="4" t="s">
         <v>386</v>
-      </c>
-      <c r="J223" s="4" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="224" spans="1:10" x14ac:dyDescent="0.25">
@@ -5079,77 +5248,77 @@
         <v>20</v>
       </c>
       <c r="B224" s="4" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D224" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="J224" s="4" t="s">
         <v>388</v>
-      </c>
-      <c r="J224" s="4" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="225" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D225" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="J225" s="4" t="s">
         <v>390</v>
-      </c>
-      <c r="J225" s="4" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="226" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D226" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="J226" s="4" t="s">
         <v>392</v>
-      </c>
-      <c r="J226" s="4" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="227" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D227" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="J227" s="4" t="s">
         <v>394</v>
-      </c>
-      <c r="J227" s="4" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="228" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D228" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="J228" s="4" t="s">
         <v>396</v>
-      </c>
-      <c r="J228" s="4" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="229" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D229" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="J229" s="4" t="s">
         <v>399</v>
-      </c>
-      <c r="J229" s="4" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="230" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D230" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="J230" s="4" t="s">
         <v>401</v>
-      </c>
-      <c r="J230" s="4" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="231" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D231" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="J231" s="4" t="s">
         <v>403</v>
-      </c>
-      <c r="J231" s="4" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="232" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D232" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="J232" s="4" t="s">
         <v>405</v>
-      </c>
-      <c r="J232" s="4" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="233" spans="1:10" x14ac:dyDescent="0.25">
@@ -5157,58 +5326,58 @@
         <v>21</v>
       </c>
       <c r="B233" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="D233" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="J233" s="4" t="s">
         <v>407</v>
-      </c>
-      <c r="D233" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="J233" s="4" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="234" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D234" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="J234" s="4" t="s">
         <v>410</v>
-      </c>
-      <c r="J234" s="4" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="235" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C235" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D235" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="236" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D236" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="237" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D237" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="J237" s="4" t="s">
         <v>414</v>
-      </c>
-      <c r="J237" s="4" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="238" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D238" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="J238" s="4" t="s">
         <v>416</v>
-      </c>
-      <c r="J238" s="4" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="239" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D239" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="J239" s="4" t="s">
         <v>418</v>
-      </c>
-      <c r="J239" s="4" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="240" spans="1:10" x14ac:dyDescent="0.25">
@@ -5216,96 +5385,96 @@
         <v>22</v>
       </c>
       <c r="B240" s="4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D240" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="J240" s="4" t="s">
         <v>420</v>
-      </c>
-      <c r="J240" s="4" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="241" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D241" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="J241" s="4" t="s">
         <v>423</v>
-      </c>
-      <c r="J241" s="4" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="242" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D242" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="J242" s="4" t="s">
         <v>425</v>
-      </c>
-      <c r="J242" s="4" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="243" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C243" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D243" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="J243" s="4" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="244" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D244" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="J244" s="4" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="245" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D245" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="J245" s="4" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="246" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D246" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="J246" s="4" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="247" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D247" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="J247" s="4" t="s">
         <v>435</v>
-      </c>
-      <c r="J247" s="4" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="248" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D248" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="J248" s="4" t="s">
         <v>437</v>
-      </c>
-      <c r="J248" s="4" t="s">
-        <v>438</v>
       </c>
     </row>
     <row r="249" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D249" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="J249" s="4" t="s">
         <v>439</v>
-      </c>
-      <c r="J249" s="4" t="s">
-        <v>440</v>
       </c>
     </row>
     <row r="250" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D250" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="J250" s="4" t="s">
         <v>441</v>
-      </c>
-      <c r="J250" s="4" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="251" spans="1:10" x14ac:dyDescent="0.25">
@@ -5313,64 +5482,64 @@
         <v>23</v>
       </c>
       <c r="B251" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="D251" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="D251" s="1" t="s">
-        <v>444</v>
-      </c>
       <c r="J251" s="4" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="252" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D252" s="1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="J252" s="4" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="253" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D253" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="J253" s="4" t="s">
         <v>446</v>
-      </c>
-      <c r="J253" s="4" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="254" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D254" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="J254" s="4" t="s">
         <v>448</v>
-      </c>
-      <c r="J254" s="4" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="255" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D255" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="J255" s="4" t="s">
         <v>450</v>
-      </c>
-      <c r="J255" s="4" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="256" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C256" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="D256" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="D256" s="1" t="s">
+      <c r="J256" s="4" t="s">
         <v>455</v>
-      </c>
-      <c r="J256" s="4" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="257" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D257" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="J257" s="4" t="s">
         <v>457</v>
-      </c>
-      <c r="J257" s="4" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="258" spans="1:10" x14ac:dyDescent="0.25">
@@ -5378,13 +5547,13 @@
         <v>24</v>
       </c>
       <c r="B258" s="4" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D258" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="J258" s="4" t="s">
         <v>462</v>
-      </c>
-      <c r="J258" s="4" t="s">
-        <v>463</v>
       </c>
     </row>
     <row r="259" spans="1:10" x14ac:dyDescent="0.25">
@@ -5392,60 +5561,60 @@
         <v>2</v>
       </c>
       <c r="D259" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="260" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D260" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="261" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D261" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="J261" s="4" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="262" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D262" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="J262" s="4" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="263" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D263" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J263" s="6" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="264" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D264" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="J264" s="6" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="265" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D265" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="J265" s="6" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="266" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D266" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="J266" s="6" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="267" spans="1:10" x14ac:dyDescent="0.25">
@@ -5453,53 +5622,53 @@
         <v>25</v>
       </c>
       <c r="B267" s="4" t="s">
+        <v>476</v>
+      </c>
+      <c r="D267" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="D267" s="1" t="s">
+      <c r="J267" s="6" t="s">
         <v>478</v>
-      </c>
-      <c r="J267" s="6" t="s">
-        <v>479</v>
       </c>
     </row>
     <row r="268" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D268" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="J268" s="6" t="s">
         <v>480</v>
-      </c>
-      <c r="J268" s="6" t="s">
-        <v>481</v>
       </c>
     </row>
     <row r="269" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D269" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="J269" s="6" t="s">
         <v>482</v>
-      </c>
-      <c r="J269" s="6" t="s">
-        <v>483</v>
       </c>
     </row>
     <row r="270" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D270" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="J270" s="6" t="s">
         <v>484</v>
-      </c>
-      <c r="J270" s="6" t="s">
-        <v>485</v>
       </c>
     </row>
     <row r="271" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D271" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="J271" s="6" t="s">
         <v>487</v>
-      </c>
-      <c r="J271" s="6" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="272" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D272" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="J272" s="6" t="s">
         <v>489</v>
-      </c>
-      <c r="J272" s="6" t="s">
-        <v>490</v>
       </c>
     </row>
     <row r="273" spans="1:10" x14ac:dyDescent="0.25">
@@ -5507,72 +5676,72 @@
         <v>26</v>
       </c>
       <c r="B273" s="4" t="s">
+        <v>490</v>
+      </c>
+      <c r="D273" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="D273" s="1" t="s">
+      <c r="J273" s="4" t="s">
         <v>492</v>
-      </c>
-      <c r="J273" s="4" t="s">
-        <v>493</v>
       </c>
     </row>
     <row r="274" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D274" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="J274" s="4" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="275" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D275" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="J275" s="4" t="s">
         <v>497</v>
-      </c>
-      <c r="J275" s="4" t="s">
-        <v>498</v>
       </c>
     </row>
     <row r="276" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D276" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="J276" s="4" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="277" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D277" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="J277" s="4" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="278" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C278" s="1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D278" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="J278" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="279" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D279" s="1" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="J279" s="4" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="280" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D280" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="J280" s="4" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="281" spans="1:10" x14ac:dyDescent="0.25">
@@ -5580,80 +5749,80 @@
         <v>27</v>
       </c>
       <c r="B281" s="4" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D281" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="J281" s="4" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="282" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D282" s="1" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="J282" s="4" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="283" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D283" s="7" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="J283" s="4" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="284" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D284" s="1" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="J284" s="4" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="285" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D285" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="J285" s="4" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="286" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C286" s="1" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D286" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="J286" s="4" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="287" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D287" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="J287" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="288" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D288" s="1" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="J288" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="289" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D289" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="J289" s="4" t="s">
         <v>525</v>
-      </c>
-      <c r="J289" s="4" t="s">
-        <v>526</v>
       </c>
     </row>
     <row r="290" spans="1:10" x14ac:dyDescent="0.25">
@@ -5661,109 +5830,109 @@
         <v>28</v>
       </c>
       <c r="B290" s="4" t="s">
+        <v>526</v>
+      </c>
+      <c r="D290" s="1" t="s">
         <v>527</v>
       </c>
-      <c r="D290" s="1" t="s">
+      <c r="J290" s="4" t="s">
         <v>528</v>
-      </c>
-      <c r="J290" s="4" t="s">
-        <v>529</v>
       </c>
     </row>
     <row r="291" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D291" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="J291" s="4" t="s">
         <v>530</v>
-      </c>
-      <c r="J291" s="4" t="s">
-        <v>531</v>
       </c>
     </row>
     <row r="292" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D292" s="1" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="J292" s="4" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="293" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D293" s="1" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J293" s="4" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="294" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D294" s="7" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="J294" s="4" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="295" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D295" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="J295" s="4" t="s">
         <v>538</v>
-      </c>
-      <c r="J295" s="4" t="s">
-        <v>539</v>
       </c>
     </row>
     <row r="296" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D296" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="J296" s="4" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="297" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D297" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="J297" s="4" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="298" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C298" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="D298" s="1" t="s">
         <v>544</v>
-      </c>
-      <c r="D298" s="1" t="s">
-        <v>545</v>
       </c>
     </row>
     <row r="299" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D299" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="J299" s="4" t="s">
         <v>546</v>
-      </c>
-      <c r="J299" s="4" t="s">
-        <v>547</v>
       </c>
     </row>
     <row r="300" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D300" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="J300" s="4" t="s">
         <v>548</v>
-      </c>
-      <c r="J300" s="4" t="s">
-        <v>549</v>
       </c>
     </row>
     <row r="301" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D301" s="1" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="J301" s="4" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="302" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D302" s="1" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="J302" s="4" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="303" spans="1:10" x14ac:dyDescent="0.25">
@@ -5771,83 +5940,83 @@
         <v>29</v>
       </c>
       <c r="B303" s="4" t="s">
+        <v>553</v>
+      </c>
+      <c r="C303" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="D303" s="1" t="s">
         <v>554</v>
       </c>
-      <c r="C303" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="D303" s="1" t="s">
+      <c r="J303" s="4" t="s">
         <v>555</v>
-      </c>
-      <c r="J303" s="4" t="s">
-        <v>556</v>
       </c>
     </row>
     <row r="304" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D304" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="J304" s="4" t="s">
         <v>557</v>
-      </c>
-      <c r="J304" s="4" t="s">
-        <v>558</v>
       </c>
     </row>
     <row r="305" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D305" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="J305" s="4" t="s">
         <v>559</v>
-      </c>
-      <c r="J305" s="4" t="s">
-        <v>560</v>
       </c>
     </row>
     <row r="306" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D306" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="J306" s="4" t="s">
         <v>561</v>
-      </c>
-      <c r="J306" s="4" t="s">
-        <v>562</v>
       </c>
     </row>
     <row r="307" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D307" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="J307" s="4" t="s">
         <v>563</v>
-      </c>
-      <c r="J307" s="4" t="s">
-        <v>564</v>
       </c>
     </row>
     <row r="308" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D308" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="J308" s="4" t="s">
         <v>565</v>
-      </c>
-      <c r="J308" s="4" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="309" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D309" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="J309" s="4" t="s">
         <v>567</v>
-      </c>
-      <c r="J309" s="4" t="s">
-        <v>568</v>
       </c>
     </row>
     <row r="310" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D310" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="J310" s="4" t="s">
         <v>569</v>
-      </c>
-      <c r="J310" s="4" t="s">
-        <v>570</v>
       </c>
     </row>
     <row r="311" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C311" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="D311" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="D311" s="1" t="s">
+      <c r="J311" s="4" t="s">
         <v>572</v>
-      </c>
-      <c r="J311" s="4" t="s">
-        <v>573</v>
       </c>
     </row>
     <row r="312" spans="1:10" x14ac:dyDescent="0.25">
@@ -5855,32 +6024,32 @@
         <v>30</v>
       </c>
       <c r="B312" s="4" t="s">
+        <v>573</v>
+      </c>
+      <c r="C312" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="D312" s="1" t="s">
         <v>574</v>
       </c>
-      <c r="C312" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="D312" s="1" t="s">
+      <c r="J312" s="4" t="s">
         <v>575</v>
-      </c>
-      <c r="J312" s="4" t="s">
-        <v>576</v>
       </c>
     </row>
     <row r="313" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D313" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="J313" s="4" t="s">
         <v>577</v>
-      </c>
-      <c r="J313" s="4" t="s">
-        <v>578</v>
       </c>
     </row>
     <row r="314" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D314" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="J314" s="4" t="s">
         <v>579</v>
-      </c>
-      <c r="J314" s="4" t="s">
-        <v>580</v>
       </c>
     </row>
     <row r="315" spans="1:10" x14ac:dyDescent="0.25">
@@ -5888,43 +6057,43 @@
         <v>31</v>
       </c>
       <c r="B315" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="D315" s="1" t="s">
         <v>581</v>
-      </c>
-      <c r="D315" s="1" t="s">
-        <v>582</v>
       </c>
     </row>
     <row r="316" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D316" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="J316" s="4" t="s">
         <v>583</v>
-      </c>
-      <c r="J316" s="4" t="s">
-        <v>584</v>
       </c>
     </row>
     <row r="317" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D317" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="318" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D318" s="1" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="319" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D319" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="320" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D320" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="321" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D321" s="1" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="322" spans="1:10" x14ac:dyDescent="0.25">
@@ -5932,192 +6101,192 @@
         <v>32</v>
       </c>
       <c r="B322" s="4" t="s">
+        <v>589</v>
+      </c>
+      <c r="C322" s="1" t="s">
         <v>590</v>
       </c>
-      <c r="C322" s="1" t="s">
+      <c r="D322" s="1" t="s">
         <v>591</v>
       </c>
-      <c r="D322" s="1" t="s">
+      <c r="J322" s="4" t="s">
         <v>592</v>
-      </c>
-      <c r="J322" s="4" t="s">
-        <v>593</v>
       </c>
     </row>
     <row r="323" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D323" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="J323" s="4" t="s">
         <v>594</v>
-      </c>
-      <c r="J323" s="4" t="s">
-        <v>595</v>
       </c>
     </row>
     <row r="324" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D324" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="J324" s="4" t="s">
         <v>596</v>
-      </c>
-      <c r="J324" s="4" t="s">
-        <v>597</v>
       </c>
     </row>
     <row r="325" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D325" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="J325" s="4" t="s">
         <v>598</v>
-      </c>
-      <c r="J325" s="4" t="s">
-        <v>599</v>
       </c>
     </row>
     <row r="326" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D326" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="J326" s="4" t="s">
         <v>600</v>
-      </c>
-      <c r="J326" s="4" t="s">
-        <v>601</v>
       </c>
     </row>
     <row r="327" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D327" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="J327" s="4" t="s">
         <v>602</v>
-      </c>
-      <c r="J327" s="4" t="s">
-        <v>603</v>
       </c>
     </row>
     <row r="328" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D328" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="J328" s="4" t="s">
         <v>604</v>
-      </c>
-      <c r="J328" s="4" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="329" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D329" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="J329" s="4" t="s">
         <v>606</v>
-      </c>
-      <c r="J329" s="4" t="s">
-        <v>607</v>
       </c>
     </row>
     <row r="330" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D330" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="J330" s="4" t="s">
         <v>608</v>
-      </c>
-      <c r="J330" s="4" t="s">
-        <v>609</v>
       </c>
     </row>
     <row r="331" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D331" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="J331" s="4" t="s">
         <v>610</v>
-      </c>
-      <c r="J331" s="4" t="s">
-        <v>611</v>
       </c>
     </row>
     <row r="332" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D332" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="J332" s="4" t="s">
         <v>612</v>
-      </c>
-      <c r="J332" s="4" t="s">
-        <v>613</v>
       </c>
     </row>
     <row r="333" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D333" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="J333" s="4" t="s">
         <v>614</v>
-      </c>
-      <c r="J333" s="4" t="s">
-        <v>615</v>
       </c>
     </row>
     <row r="334" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D334" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="J334" s="4" t="s">
         <v>616</v>
-      </c>
-      <c r="J334" s="4" t="s">
-        <v>617</v>
       </c>
     </row>
     <row r="335" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D335" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="J335" s="4" t="s">
         <v>618</v>
-      </c>
-      <c r="J335" s="4" t="s">
-        <v>619</v>
       </c>
     </row>
     <row r="336" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D336" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="J336" s="4" t="s">
         <v>620</v>
-      </c>
-      <c r="J336" s="4" t="s">
-        <v>621</v>
       </c>
     </row>
     <row r="337" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D337" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="J337" s="4" t="s">
         <v>622</v>
-      </c>
-      <c r="J337" s="4" t="s">
-        <v>623</v>
       </c>
     </row>
     <row r="338" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D338" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="J338" s="4" t="s">
         <v>624</v>
-      </c>
-      <c r="J338" s="4" t="s">
-        <v>625</v>
       </c>
     </row>
     <row r="339" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D339" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="J339" s="4" t="s">
         <v>626</v>
-      </c>
-      <c r="J339" s="4" t="s">
-        <v>627</v>
       </c>
     </row>
     <row r="340" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D340" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="J340" s="4" t="s">
         <v>628</v>
-      </c>
-      <c r="J340" s="4" t="s">
-        <v>629</v>
       </c>
     </row>
     <row r="341" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D341" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="J341" s="4" t="s">
         <v>630</v>
-      </c>
-      <c r="J341" s="4" t="s">
-        <v>631</v>
       </c>
     </row>
     <row r="342" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D342" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="J342" s="4" t="s">
         <v>632</v>
-      </c>
-      <c r="J342" s="4" t="s">
-        <v>633</v>
       </c>
     </row>
     <row r="343" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D343" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="J343" s="4" t="s">
         <v>634</v>
-      </c>
-      <c r="J343" s="4" t="s">
-        <v>635</v>
       </c>
     </row>
     <row r="344" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D344" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="J344" s="4" t="s">
         <v>636</v>
-      </c>
-      <c r="J344" s="4" t="s">
-        <v>637</v>
       </c>
     </row>
     <row r="345" spans="1:10" x14ac:dyDescent="0.25">
@@ -6125,96 +6294,96 @@
         <v>33</v>
       </c>
       <c r="B345" s="4" t="s">
+        <v>637</v>
+      </c>
+      <c r="D345" s="1" t="s">
         <v>638</v>
       </c>
-      <c r="D345" s="1" t="s">
+      <c r="J345" s="4" t="s">
         <v>639</v>
-      </c>
-      <c r="J345" s="4" t="s">
-        <v>640</v>
       </c>
     </row>
     <row r="346" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D346" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="J346" s="4" t="s">
         <v>641</v>
-      </c>
-      <c r="J346" s="4" t="s">
-        <v>642</v>
       </c>
     </row>
     <row r="347" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D347" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="J347" s="4" t="s">
         <v>643</v>
-      </c>
-      <c r="J347" s="4" t="s">
-        <v>644</v>
       </c>
     </row>
     <row r="348" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D348" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="J348" s="4" t="s">
         <v>645</v>
-      </c>
-      <c r="J348" s="4" t="s">
-        <v>646</v>
       </c>
     </row>
     <row r="349" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D349" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="J349" s="4" t="s">
         <v>647</v>
-      </c>
-      <c r="J349" s="4" t="s">
-        <v>648</v>
       </c>
     </row>
     <row r="350" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D350" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="J350" s="4" t="s">
         <v>649</v>
-      </c>
-      <c r="J350" s="4" t="s">
-        <v>650</v>
       </c>
     </row>
     <row r="351" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D351" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="J351" s="4" t="s">
         <v>651</v>
-      </c>
-      <c r="J351" s="4" t="s">
-        <v>652</v>
       </c>
     </row>
     <row r="352" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D352" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="J352" s="4" t="s">
         <v>653</v>
-      </c>
-      <c r="J352" s="4" t="s">
-        <v>654</v>
       </c>
     </row>
     <row r="353" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D353" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="J353" s="4" t="s">
         <v>655</v>
-      </c>
-      <c r="J353" s="4" t="s">
-        <v>656</v>
       </c>
     </row>
     <row r="354" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D354" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="J354" s="4" t="s">
         <v>657</v>
-      </c>
-      <c r="J354" s="4" t="s">
-        <v>658</v>
       </c>
     </row>
     <row r="355" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C355" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="D355" s="1" t="s">
         <v>659</v>
       </c>
-      <c r="D355" s="1" t="s">
+      <c r="J355" s="4" t="s">
         <v>660</v>
-      </c>
-      <c r="J355" s="4" t="s">
-        <v>661</v>
       </c>
     </row>
     <row r="356" spans="1:10" x14ac:dyDescent="0.25">
@@ -6222,146 +6391,307 @@
         <v>34</v>
       </c>
       <c r="B356" s="4" t="s">
+        <v>661</v>
+      </c>
+      <c r="D356" s="1" t="s">
         <v>662</v>
       </c>
-      <c r="D356" s="1" t="s">
+      <c r="J356" s="4" t="s">
         <v>663</v>
-      </c>
-      <c r="J356" s="4" t="s">
-        <v>664</v>
       </c>
     </row>
     <row r="357" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D357" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="J357" s="4" t="s">
         <v>665</v>
-      </c>
-      <c r="J357" s="4" t="s">
-        <v>666</v>
       </c>
     </row>
     <row r="358" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D358" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="J358" s="4" t="s">
         <v>667</v>
-      </c>
-      <c r="J358" s="4" t="s">
-        <v>668</v>
       </c>
     </row>
     <row r="359" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D359" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="J359" s="4" t="s">
         <v>669</v>
-      </c>
-      <c r="J359" s="4" t="s">
-        <v>670</v>
       </c>
     </row>
     <row r="360" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D360" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="J360" s="4" t="s">
         <v>671</v>
-      </c>
-      <c r="J360" s="4" t="s">
-        <v>672</v>
       </c>
     </row>
     <row r="361" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D361" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="J361" s="4" t="s">
         <v>673</v>
-      </c>
-      <c r="J361" s="4" t="s">
-        <v>674</v>
       </c>
     </row>
     <row r="362" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D362" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="J362" s="4" t="s">
         <v>675</v>
-      </c>
-      <c r="J362" s="4" t="s">
-        <v>676</v>
       </c>
     </row>
     <row r="363" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D363" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="J363" s="4" t="s">
         <v>677</v>
-      </c>
-      <c r="J363" s="4" t="s">
-        <v>678</v>
       </c>
     </row>
     <row r="364" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D364" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="J364" s="4" t="s">
         <v>679</v>
-      </c>
-      <c r="J364" s="4" t="s">
-        <v>680</v>
       </c>
     </row>
     <row r="365" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D365" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="J365" s="4" t="s">
         <v>681</v>
-      </c>
-      <c r="J365" s="4" t="s">
-        <v>682</v>
       </c>
     </row>
     <row r="366" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D366" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="J366" s="4" t="s">
         <v>683</v>
-      </c>
-      <c r="J366" s="4" t="s">
-        <v>684</v>
       </c>
     </row>
     <row r="367" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D367" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="J367" s="4" t="s">
         <v>685</v>
-      </c>
-      <c r="J367" s="4" t="s">
-        <v>686</v>
       </c>
     </row>
     <row r="368" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D368" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="J368" s="4" t="s">
         <v>687</v>
       </c>
-      <c r="J368" s="4" t="s">
+    </row>
+    <row r="369" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D369" s="1" t="s">
         <v>688</v>
       </c>
-    </row>
-    <row r="369" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D369" s="1" t="s">
+      <c r="J369" s="4" t="s">
         <v>689</v>
       </c>
-      <c r="J369" s="4" t="s">
+    </row>
+    <row r="370" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D370" s="1" t="s">
         <v>690</v>
       </c>
-    </row>
-    <row r="370" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D370" s="1" t="s">
+      <c r="J370" s="4" t="s">
         <v>691</v>
       </c>
-      <c r="J370" s="4" t="s">
+    </row>
+    <row r="371" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D371" s="1" t="s">
         <v>692</v>
       </c>
-    </row>
-    <row r="371" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D371" s="1" t="s">
+      <c r="J371" s="4" t="s">
         <v>693</v>
       </c>
-      <c r="J371" s="4" t="s">
+    </row>
+    <row r="372" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D372" s="1" t="s">
         <v>694</v>
       </c>
-    </row>
-    <row r="372" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D372" s="1" t="s">
+      <c r="J372" s="4" t="s">
         <v>695</v>
       </c>
-      <c r="J372" s="4" t="s">
+    </row>
+    <row r="373" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A373" s="4">
+        <v>35</v>
+      </c>
+      <c r="B373" s="4" t="s">
         <v>696</v>
       </c>
-    </row>
-    <row r="374" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D373" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="J373" s="4" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="374" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D374" s="1" t="s">
-        <v>697</v>
+        <v>699</v>
+      </c>
+      <c r="J374" s="4" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="375" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D375" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="J375" s="4" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="376" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D376" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="J376" s="4" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="377" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D377" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="J377" s="4" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="378" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D378" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="J378" s="4" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="379" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D379" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="J379" s="4" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="380" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D380" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="J380" s="4" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="381" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D381" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="J381" s="4" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="382" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D382" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="J382" s="4" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="383" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D383" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="J383" s="4" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="384" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D384" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="J384" s="4" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="385" spans="4:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D385" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="J385" s="4" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="386" spans="4:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D386" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="J386" s="4" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="387" spans="4:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D387" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="J387" s="4" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="388" spans="4:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D388" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="J388" s="4" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="389" spans="4:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D389" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="J389" s="4" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="390" spans="4:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D390" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="J390" s="4" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="391" spans="4:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D391" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="J391" s="4" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="392" spans="4:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D392" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="J392" s="4" t="s">
+        <v>736</v>
       </c>
     </row>
   </sheetData>

--- a/java01t/index.xlsx
+++ b/java01t/index.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="737">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="766">
   <si>
     <t>주제</t>
   </si>
@@ -2235,6 +2235,93 @@
   </si>
   <si>
     <t>web1t: step02/ex7/Test03.html</t>
+  </si>
+  <si>
+    <t>4월20일</t>
+  </si>
+  <si>
+    <t>자바스크립트</t>
+  </si>
+  <si>
+    <t>NodeJS 개요 및 설치</t>
+  </si>
+  <si>
+    <t>폰갭 프로젝트 생성 및 테스트</t>
+  </si>
+  <si>
+    <t>주석과 콘솔 출력</t>
+  </si>
+  <si>
+    <t>web1t: step03/ex1/test01.html</t>
+  </si>
+  <si>
+    <t>스크립트 실행순서</t>
+  </si>
+  <si>
+    <t>web1t: step03/ex1/test02.html</t>
+  </si>
+  <si>
+    <t>HTML 태그와 스크립트 태그의 실행순서</t>
+  </si>
+  <si>
+    <t>web1t: step03/ex1/test03.html</t>
+  </si>
+  <si>
+    <t>스크립트 태그의 적절한 위치</t>
+  </si>
+  <si>
+    <t>web1t: step03/ex1/test04.html</t>
+  </si>
+  <si>
+    <t>변수 선언</t>
+  </si>
+  <si>
+    <t>web1t: step03/ex1/test05.html</t>
+  </si>
+  <si>
+    <t>변수의 범위</t>
+  </si>
+  <si>
+    <t>web1t: step03/ex1/test06.html</t>
+  </si>
+  <si>
+    <t>변수와 window 객체</t>
+  </si>
+  <si>
+    <t>web1t: step03/ex1/test07.html</t>
+  </si>
+  <si>
+    <t>변수와 블록</t>
+  </si>
+  <si>
+    <t>web1t: step03/ex1/test08.html</t>
+  </si>
+  <si>
+    <t>변수의 종류</t>
+  </si>
+  <si>
+    <t>web1t: step03/ex1/test09.html</t>
+  </si>
+  <si>
+    <t>strict 모드</t>
+  </si>
+  <si>
+    <t>web1t: step03/ex1/test10.html</t>
+  </si>
+  <si>
+    <t>web1t: step03/ex1/test11.html</t>
+  </si>
+  <si>
+    <t>undefined와 undeclared</t>
+  </si>
+  <si>
+    <t>web1t: step03/ex1/test12.html</t>
+  </si>
+  <si>
+    <t>문자열 다루기</t>
+  </si>
+  <si>
+    <t>web1t: step03/ex1/test13.html</t>
   </si>
 </sst>
 </file>
@@ -2725,20 +2812,20 @@
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="16" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="419">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -3493,23 +3580,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J392"/>
+  <dimension ref="A1:J407"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="D51" sqref="D51"/>
+    <sheetView tabSelected="1" topLeftCell="A378" workbookViewId="0">
+      <selection sqref="A1:J407"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="9" width="10.83203125" style="1"/>
-    <col min="10" max="10" width="37.83203125" style="4" customWidth="1"/>
+    <col min="10" max="10" width="37.83203125" style="3" customWidth="1"/>
     <col min="11" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>458</v>
       </c>
@@ -3522,469 +3609,1083 @@
       <c r="D1" s="4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>2</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>3</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="17" spans="3:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="1" t="s">
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="18" spans="3:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C18" s="1" t="s">
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="19" spans="3:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D19" s="1" t="s">
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="20" spans="3:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D20" s="1" t="s">
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="21" spans="3:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D21" s="1" t="s">
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="22" spans="3:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D22" s="1" t="s">
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="23" spans="3:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D23" s="1" t="s">
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="24" spans="3:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D24" s="1" t="s">
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="25" spans="3:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C25" s="1" t="s">
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="26" spans="3:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D26" s="1" t="s">
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="5"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="27" spans="3:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D27" s="1" t="s">
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="28" spans="3:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D28" s="1" t="s">
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="5"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="29" spans="3:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C29" s="1" t="s">
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="5"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="30" spans="3:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D30" s="1" t="s">
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="5"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="31" spans="3:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D31" s="1" t="s">
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="5"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="32" spans="3:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D32" s="1" t="s">
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="5"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="33" spans="3:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D33" s="1" t="s">
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="5"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="34" spans="3:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D34" s="1" t="s">
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="5"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="35" spans="3:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D35" s="1" t="s">
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="5"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="36" spans="3:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D36" s="2" t="s">
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="5"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="6" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="37" spans="3:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C37" s="1" t="s">
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="5"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="38" spans="3:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D38" s="1" t="s">
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="5"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="5"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="39" spans="3:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D39" s="1" t="s">
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="5"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="5"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="40" spans="3:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D40" s="1" t="s">
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="5"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="5"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="41" spans="3:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D41" s="1" t="s">
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="5"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="5"/>
+      <c r="B41" s="5"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="42" spans="3:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D42" s="1" t="s">
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="5"/>
+      <c r="J41" s="5"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="5"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="43" spans="3:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D43" s="1" t="s">
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="5"/>
+      <c r="J42" s="5"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="5"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="44" spans="3:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D44" s="1" t="s">
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
+      <c r="I43" s="5"/>
+      <c r="J43" s="5"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="5"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="45" spans="3:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C45" s="1" t="s">
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="5"/>
+      <c r="I44" s="5"/>
+      <c r="J44" s="5"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" s="5"/>
+      <c r="B45" s="5"/>
+      <c r="C45" s="5" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="46" spans="3:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D46" s="1" t="s">
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="5"/>
+      <c r="I45" s="5"/>
+      <c r="J45" s="5"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" s="5"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="47" spans="3:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D47" s="1" t="s">
+      <c r="E46" s="5"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="5"/>
+      <c r="I46" s="5"/>
+      <c r="J46" s="5"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" s="5"/>
+      <c r="B47" s="5"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="48" spans="3:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D48" s="1" t="s">
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="5"/>
+      <c r="I47" s="5"/>
+      <c r="J47" s="5"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" s="5"/>
+      <c r="B48" s="5"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E48" s="5"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="5"/>
+      <c r="H48" s="5"/>
+      <c r="I48" s="5"/>
+      <c r="J48" s="5"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
-      <c r="D49" s="1" t="s">
+      <c r="C49" s="5"/>
+      <c r="D49" s="5" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E49" s="5"/>
+      <c r="F49" s="5"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="5"/>
+      <c r="I49" s="5"/>
+      <c r="J49" s="5"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
-      <c r="C50" s="1" t="s">
+      <c r="C50" s="5" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D50" s="5"/>
+      <c r="E50" s="5"/>
+      <c r="F50" s="5"/>
+      <c r="G50" s="5"/>
+      <c r="H50" s="5"/>
+      <c r="I50" s="5"/>
+      <c r="J50" s="5"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
-      <c r="C51" s="1" t="s">
+      <c r="C51" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D51" s="3"/>
-    </row>
-    <row r="52" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D51" s="2"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="5"/>
+      <c r="G51" s="5"/>
+      <c r="H51" s="5"/>
+      <c r="I51" s="5"/>
+      <c r="J51" s="5"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
-      <c r="C52" s="1" t="s">
+      <c r="C52" s="5" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D52" s="5"/>
+      <c r="E52" s="5"/>
+      <c r="F52" s="5"/>
+      <c r="G52" s="5"/>
+      <c r="H52" s="5"/>
+      <c r="I52" s="5"/>
+      <c r="J52" s="5"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
         <v>4</v>
       </c>
-      <c r="B53" s="5" t="s">
+      <c r="B53" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C53" s="5" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D53" s="5"/>
+      <c r="E53" s="5"/>
+      <c r="F53" s="5"/>
+      <c r="G53" s="5"/>
+      <c r="H53" s="5"/>
+      <c r="I53" s="5"/>
+      <c r="J53" s="5"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="4"/>
       <c r="B54" s="4"/>
-      <c r="C54" s="1" t="s">
+      <c r="C54" s="5" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D54" s="5"/>
+      <c r="E54" s="5"/>
+      <c r="F54" s="5"/>
+      <c r="G54" s="5"/>
+      <c r="H54" s="5"/>
+      <c r="I54" s="5"/>
+      <c r="J54" s="5"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="4"/>
       <c r="B55" s="4"/>
-      <c r="D55" s="1" t="s">
+      <c r="C55" s="5"/>
+      <c r="D55" s="5" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E55" s="5"/>
+      <c r="F55" s="5"/>
+      <c r="G55" s="5"/>
+      <c r="H55" s="5"/>
+      <c r="I55" s="5"/>
+      <c r="J55" s="5"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="4"/>
       <c r="B56" s="4"/>
-      <c r="D56" s="1" t="s">
+      <c r="C56" s="5"/>
+      <c r="D56" s="5" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E56" s="5"/>
+      <c r="F56" s="5"/>
+      <c r="G56" s="5"/>
+      <c r="H56" s="5"/>
+      <c r="I56" s="5"/>
+      <c r="J56" s="5"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
-      <c r="D57" s="1" t="s">
+      <c r="C57" s="5"/>
+      <c r="D57" s="5" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E57" s="5"/>
+      <c r="F57" s="5"/>
+      <c r="G57" s="5"/>
+      <c r="H57" s="5"/>
+      <c r="I57" s="5"/>
+      <c r="J57" s="5"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="4"/>
       <c r="B58" s="4"/>
-      <c r="D58" s="1" t="s">
+      <c r="C58" s="5"/>
+      <c r="D58" s="5" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E58" s="5"/>
+      <c r="F58" s="5"/>
+      <c r="G58" s="5"/>
+      <c r="H58" s="5"/>
+      <c r="I58" s="5"/>
+      <c r="J58" s="5"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="4"/>
       <c r="B59" s="4"/>
-      <c r="D59" s="1" t="s">
+      <c r="C59" s="5"/>
+      <c r="D59" s="5" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E59" s="5"/>
+      <c r="F59" s="5"/>
+      <c r="G59" s="5"/>
+      <c r="H59" s="5"/>
+      <c r="I59" s="5"/>
+      <c r="J59" s="5"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="4"/>
       <c r="B60" s="4"/>
-      <c r="C60" s="1" t="s">
+      <c r="C60" s="5" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D60" s="5"/>
+      <c r="E60" s="5"/>
+      <c r="F60" s="5"/>
+      <c r="G60" s="5"/>
+      <c r="H60" s="5"/>
+      <c r="I60" s="5"/>
+      <c r="J60" s="5"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="4"/>
       <c r="B61" s="4"/>
-      <c r="D61" s="1" t="s">
+      <c r="C61" s="5"/>
+      <c r="D61" s="5" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E61" s="5"/>
+      <c r="F61" s="5"/>
+      <c r="G61" s="5"/>
+      <c r="H61" s="5"/>
+      <c r="I61" s="5"/>
+      <c r="J61" s="5"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="4"/>
       <c r="B62" s="4"/>
-      <c r="D62" s="1" t="s">
+      <c r="C62" s="5"/>
+      <c r="D62" s="5" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E62" s="5"/>
+      <c r="F62" s="5"/>
+      <c r="G62" s="5"/>
+      <c r="H62" s="5"/>
+      <c r="I62" s="5"/>
+      <c r="J62" s="5"/>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="4"/>
       <c r="B63" s="4"/>
-      <c r="D63" s="1" t="s">
+      <c r="C63" s="5"/>
+      <c r="D63" s="5" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E63" s="5"/>
+      <c r="F63" s="5"/>
+      <c r="G63" s="5"/>
+      <c r="H63" s="5"/>
+      <c r="I63" s="5"/>
+      <c r="J63" s="5"/>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="4"/>
       <c r="B64" s="4"/>
-      <c r="D64" s="1" t="s">
+      <c r="C64" s="5"/>
+      <c r="D64" s="5" t="s">
         <v>62</v>
       </c>
+      <c r="E64" s="5"/>
+      <c r="F64" s="5"/>
+      <c r="G64" s="5"/>
+      <c r="H64" s="5"/>
+      <c r="I64" s="5"/>
+      <c r="J64" s="5"/>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D65" s="1" t="s">
+      <c r="A65" s="4"/>
+      <c r="B65" s="4"/>
+      <c r="C65" s="5"/>
+      <c r="D65" s="5" t="s">
         <v>63</v>
       </c>
+      <c r="E65" s="5"/>
+      <c r="F65" s="5"/>
+      <c r="G65" s="5"/>
+      <c r="H65" s="5"/>
+      <c r="I65" s="5"/>
+      <c r="J65" s="4"/>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C66" s="1" t="s">
+      <c r="A66" s="4"/>
+      <c r="B66" s="4"/>
+      <c r="C66" s="5" t="s">
         <v>64</v>
       </c>
+      <c r="D66" s="5"/>
+      <c r="E66" s="5"/>
+      <c r="F66" s="5"/>
+      <c r="G66" s="5"/>
+      <c r="H66" s="5"/>
+      <c r="I66" s="5"/>
+      <c r="J66" s="4"/>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D67" s="1" t="s">
+      <c r="A67" s="4"/>
+      <c r="B67" s="4"/>
+      <c r="C67" s="5"/>
+      <c r="D67" s="5" t="s">
         <v>65</v>
       </c>
+      <c r="E67" s="5"/>
+      <c r="F67" s="5"/>
+      <c r="G67" s="5"/>
+      <c r="H67" s="5"/>
+      <c r="I67" s="5"/>
+      <c r="J67" s="4"/>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D68" s="1" t="s">
+      <c r="A68" s="4"/>
+      <c r="B68" s="4"/>
+      <c r="C68" s="5"/>
+      <c r="D68" s="5" t="s">
         <v>67</v>
       </c>
+      <c r="E68" s="5"/>
+      <c r="F68" s="5"/>
+      <c r="G68" s="5"/>
+      <c r="H68" s="5"/>
+      <c r="I68" s="5"/>
+      <c r="J68" s="4"/>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D69" s="1" t="s">
+      <c r="A69" s="4"/>
+      <c r="B69" s="4"/>
+      <c r="C69" s="5"/>
+      <c r="D69" s="5" t="s">
         <v>66</v>
       </c>
+      <c r="E69" s="5"/>
+      <c r="F69" s="5"/>
+      <c r="G69" s="5"/>
+      <c r="H69" s="5"/>
+      <c r="I69" s="5"/>
+      <c r="J69" s="4"/>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C70" s="1" t="s">
+      <c r="A70" s="4"/>
+      <c r="B70" s="4"/>
+      <c r="C70" s="5" t="s">
         <v>68</v>
       </c>
+      <c r="D70" s="5"/>
+      <c r="E70" s="5"/>
+      <c r="F70" s="5"/>
+      <c r="G70" s="5"/>
+      <c r="H70" s="5"/>
+      <c r="I70" s="5"/>
+      <c r="J70" s="4"/>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D71" s="1" t="s">
+      <c r="A71" s="4"/>
+      <c r="B71" s="4"/>
+      <c r="C71" s="5"/>
+      <c r="D71" s="5" t="s">
         <v>69</v>
       </c>
+      <c r="E71" s="5"/>
+      <c r="F71" s="5"/>
+      <c r="G71" s="5"/>
+      <c r="H71" s="5"/>
+      <c r="I71" s="5"/>
       <c r="J71" s="4" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D72" s="1" t="s">
+      <c r="A72" s="4"/>
+      <c r="B72" s="4"/>
+      <c r="C72" s="5"/>
+      <c r="D72" s="5" t="s">
         <v>70</v>
       </c>
+      <c r="E72" s="5"/>
+      <c r="F72" s="5"/>
+      <c r="G72" s="5"/>
+      <c r="H72" s="5"/>
+      <c r="I72" s="5"/>
+      <c r="J72" s="4"/>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D73" s="1" t="s">
+      <c r="A73" s="4"/>
+      <c r="B73" s="4"/>
+      <c r="C73" s="5"/>
+      <c r="D73" s="5" t="s">
         <v>71</v>
       </c>
+      <c r="E73" s="5"/>
+      <c r="F73" s="5"/>
+      <c r="G73" s="5"/>
+      <c r="H73" s="5"/>
+      <c r="I73" s="5"/>
+      <c r="J73" s="4"/>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D74" s="1" t="s">
+      <c r="A74" s="4"/>
+      <c r="B74" s="4"/>
+      <c r="C74" s="5"/>
+      <c r="D74" s="5" t="s">
         <v>72</v>
       </c>
+      <c r="E74" s="5"/>
+      <c r="F74" s="5"/>
+      <c r="G74" s="5"/>
+      <c r="H74" s="5"/>
+      <c r="I74" s="5"/>
       <c r="J74" s="4" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C75" s="1" t="s">
+      <c r="A75" s="4"/>
+      <c r="B75" s="4"/>
+      <c r="C75" s="5" t="s">
         <v>73</v>
       </c>
+      <c r="D75" s="5"/>
+      <c r="E75" s="5"/>
+      <c r="F75" s="5"/>
+      <c r="G75" s="5"/>
+      <c r="H75" s="5"/>
+      <c r="I75" s="5"/>
       <c r="J75" s="4" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C76" s="1" t="s">
+      <c r="A76" s="4"/>
+      <c r="B76" s="4"/>
+      <c r="C76" s="5" t="s">
         <v>74</v>
       </c>
+      <c r="D76" s="5"/>
+      <c r="E76" s="5"/>
+      <c r="F76" s="5"/>
+      <c r="G76" s="5"/>
+      <c r="H76" s="5"/>
+      <c r="I76" s="5"/>
       <c r="J76" s="4" t="s">
         <v>129</v>
       </c>
@@ -3996,114 +4697,245 @@
       <c r="B77" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="C77" s="1" t="s">
+      <c r="C77" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D77" s="1" t="s">
+      <c r="D77" s="5" t="s">
         <v>75</v>
       </c>
+      <c r="E77" s="5"/>
+      <c r="F77" s="5"/>
+      <c r="G77" s="5"/>
+      <c r="H77" s="5"/>
+      <c r="I77" s="5"/>
       <c r="J77" s="4" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D78" s="1" t="s">
+      <c r="A78" s="4"/>
+      <c r="B78" s="4"/>
+      <c r="C78" s="5"/>
+      <c r="D78" s="5" t="s">
         <v>76</v>
       </c>
+      <c r="E78" s="5"/>
+      <c r="F78" s="5"/>
+      <c r="G78" s="5"/>
+      <c r="H78" s="5"/>
+      <c r="I78" s="5"/>
+      <c r="J78" s="4"/>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C79" s="1" t="s">
+      <c r="A79" s="4"/>
+      <c r="B79" s="4"/>
+      <c r="C79" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="D79" s="1" t="s">
+      <c r="D79" s="5" t="s">
         <v>78</v>
       </c>
+      <c r="E79" s="5"/>
+      <c r="F79" s="5"/>
+      <c r="G79" s="5"/>
+      <c r="H79" s="5"/>
+      <c r="I79" s="5"/>
       <c r="J79" s="4" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D80" s="1" t="s">
+      <c r="A80" s="4"/>
+      <c r="B80" s="4"/>
+      <c r="C80" s="5"/>
+      <c r="D80" s="5" t="s">
         <v>79</v>
       </c>
+      <c r="E80" s="5"/>
+      <c r="F80" s="5"/>
+      <c r="G80" s="5"/>
+      <c r="H80" s="5"/>
+      <c r="I80" s="5"/>
+      <c r="J80" s="4"/>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D81" s="1" t="s">
+      <c r="A81" s="4"/>
+      <c r="B81" s="4"/>
+      <c r="C81" s="5"/>
+      <c r="D81" s="5" t="s">
         <v>80</v>
       </c>
+      <c r="E81" s="5"/>
+      <c r="F81" s="5"/>
+      <c r="G81" s="5"/>
+      <c r="H81" s="5"/>
+      <c r="I81" s="5"/>
+      <c r="J81" s="4"/>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D82" s="1" t="s">
+      <c r="A82" s="4"/>
+      <c r="B82" s="4"/>
+      <c r="C82" s="5"/>
+      <c r="D82" s="5" t="s">
         <v>82</v>
       </c>
+      <c r="E82" s="5"/>
+      <c r="F82" s="5"/>
+      <c r="G82" s="5"/>
+      <c r="H82" s="5"/>
+      <c r="I82" s="5"/>
       <c r="J82" s="4" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C83" s="1" t="s">
+      <c r="A83" s="4"/>
+      <c r="B83" s="4"/>
+      <c r="C83" s="5" t="s">
         <v>83</v>
       </c>
+      <c r="D83" s="5"/>
+      <c r="E83" s="5"/>
+      <c r="F83" s="5"/>
+      <c r="G83" s="5"/>
+      <c r="H83" s="5"/>
+      <c r="I83" s="5"/>
+      <c r="J83" s="4"/>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D84" s="1" t="s">
+      <c r="A84" s="4"/>
+      <c r="B84" s="4"/>
+      <c r="C84" s="5"/>
+      <c r="D84" s="5" t="s">
         <v>84</v>
       </c>
+      <c r="E84" s="5"/>
+      <c r="F84" s="5"/>
+      <c r="G84" s="5"/>
+      <c r="H84" s="5"/>
+      <c r="I84" s="5"/>
       <c r="J84" s="4" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D85" s="1" t="s">
+      <c r="A85" s="4"/>
+      <c r="B85" s="4"/>
+      <c r="C85" s="5"/>
+      <c r="D85" s="5" t="s">
         <v>86</v>
       </c>
+      <c r="E85" s="5"/>
+      <c r="F85" s="5"/>
+      <c r="G85" s="5"/>
+      <c r="H85" s="5"/>
+      <c r="I85" s="5"/>
       <c r="J85" s="4" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D86" s="1" t="s">
+      <c r="A86" s="4"/>
+      <c r="B86" s="4"/>
+      <c r="C86" s="5"/>
+      <c r="D86" s="5" t="s">
         <v>85</v>
       </c>
+      <c r="E86" s="5"/>
+      <c r="F86" s="5"/>
+      <c r="G86" s="5"/>
+      <c r="H86" s="5"/>
+      <c r="I86" s="5"/>
+      <c r="J86" s="4"/>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C87" s="1" t="s">
+      <c r="A87" s="4"/>
+      <c r="B87" s="4"/>
+      <c r="C87" s="5" t="s">
         <v>58</v>
       </c>
+      <c r="D87" s="5"/>
+      <c r="E87" s="5"/>
+      <c r="F87" s="5"/>
+      <c r="G87" s="5"/>
+      <c r="H87" s="5"/>
+      <c r="I87" s="5"/>
+      <c r="J87" s="4"/>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D88" s="1" t="s">
+      <c r="A88" s="4"/>
+      <c r="B88" s="4"/>
+      <c r="C88" s="5"/>
+      <c r="D88" s="5" t="s">
         <v>87</v>
       </c>
+      <c r="E88" s="5"/>
+      <c r="F88" s="5"/>
+      <c r="G88" s="5"/>
+      <c r="H88" s="5"/>
+      <c r="I88" s="5"/>
       <c r="J88" s="4" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D89" s="1" t="s">
+      <c r="A89" s="4"/>
+      <c r="B89" s="4"/>
+      <c r="C89" s="5"/>
+      <c r="D89" s="5" t="s">
         <v>88</v>
       </c>
+      <c r="E89" s="5"/>
+      <c r="F89" s="5"/>
+      <c r="G89" s="5"/>
+      <c r="H89" s="5"/>
+      <c r="I89" s="5"/>
+      <c r="J89" s="4"/>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D90" s="1" t="s">
+      <c r="A90" s="4"/>
+      <c r="B90" s="4"/>
+      <c r="C90" s="5"/>
+      <c r="D90" s="5" t="s">
         <v>89</v>
       </c>
+      <c r="E90" s="5"/>
+      <c r="F90" s="5"/>
+      <c r="G90" s="5"/>
+      <c r="H90" s="5"/>
+      <c r="I90" s="5"/>
       <c r="J90" s="4" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D91" s="1" t="s">
+      <c r="A91" s="4"/>
+      <c r="B91" s="4"/>
+      <c r="C91" s="5"/>
+      <c r="D91" s="5" t="s">
         <v>90</v>
       </c>
+      <c r="E91" s="5"/>
+      <c r="F91" s="5"/>
+      <c r="G91" s="5"/>
+      <c r="H91" s="5"/>
+      <c r="I91" s="5"/>
       <c r="J91" s="4" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D92" s="1" t="s">
+      <c r="A92" s="4"/>
+      <c r="B92" s="4"/>
+      <c r="C92" s="5"/>
+      <c r="D92" s="5" t="s">
         <v>91</v>
       </c>
+      <c r="E92" s="5"/>
+      <c r="F92" s="5"/>
+      <c r="G92" s="5"/>
+      <c r="H92" s="5"/>
+      <c r="I92" s="5"/>
       <c r="J92" s="4" t="s">
         <v>108</v>
       </c>
@@ -4115,88 +4947,185 @@
       <c r="B93" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="D93" s="1" t="s">
+      <c r="C93" s="5"/>
+      <c r="D93" s="5" t="s">
         <v>92</v>
       </c>
+      <c r="E93" s="5"/>
+      <c r="F93" s="5"/>
+      <c r="G93" s="5"/>
+      <c r="H93" s="5"/>
+      <c r="I93" s="5"/>
       <c r="J93" s="4" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D94" s="1" t="s">
+      <c r="A94" s="4"/>
+      <c r="B94" s="4"/>
+      <c r="C94" s="5"/>
+      <c r="D94" s="5" t="s">
         <v>100</v>
       </c>
+      <c r="E94" s="5"/>
+      <c r="F94" s="5"/>
+      <c r="G94" s="5"/>
+      <c r="H94" s="5"/>
+      <c r="I94" s="5"/>
+      <c r="J94" s="4"/>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D95" s="1" t="s">
+      <c r="A95" s="4"/>
+      <c r="B95" s="4"/>
+      <c r="C95" s="5"/>
+      <c r="D95" s="5" t="s">
         <v>99</v>
       </c>
+      <c r="E95" s="5"/>
+      <c r="F95" s="5"/>
+      <c r="G95" s="5"/>
+      <c r="H95" s="5"/>
+      <c r="I95" s="5"/>
+      <c r="J95" s="4"/>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D96" s="1" t="s">
+      <c r="A96" s="4"/>
+      <c r="B96" s="4"/>
+      <c r="C96" s="5"/>
+      <c r="D96" s="5" t="s">
         <v>93</v>
       </c>
+      <c r="E96" s="5"/>
+      <c r="F96" s="5"/>
+      <c r="G96" s="5"/>
+      <c r="H96" s="5"/>
+      <c r="I96" s="5"/>
       <c r="J96" s="4" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D97" s="1" t="s">
+      <c r="A97" s="4"/>
+      <c r="B97" s="4"/>
+      <c r="C97" s="5"/>
+      <c r="D97" s="5" t="s">
         <v>94</v>
       </c>
+      <c r="E97" s="5"/>
+      <c r="F97" s="5"/>
+      <c r="G97" s="5"/>
+      <c r="H97" s="5"/>
+      <c r="I97" s="5"/>
       <c r="J97" s="4" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D98" s="1" t="s">
+      <c r="A98" s="4"/>
+      <c r="B98" s="4"/>
+      <c r="C98" s="5"/>
+      <c r="D98" s="5" t="s">
         <v>95</v>
       </c>
+      <c r="E98" s="5"/>
+      <c r="F98" s="5"/>
+      <c r="G98" s="5"/>
+      <c r="H98" s="5"/>
+      <c r="I98" s="5"/>
       <c r="J98" s="4" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D99" s="1" t="s">
+      <c r="A99" s="4"/>
+      <c r="B99" s="4"/>
+      <c r="C99" s="5"/>
+      <c r="D99" s="5" t="s">
         <v>96</v>
       </c>
+      <c r="E99" s="5"/>
+      <c r="F99" s="5"/>
+      <c r="G99" s="5"/>
+      <c r="H99" s="5"/>
+      <c r="I99" s="5"/>
       <c r="J99" s="4" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C100" s="1" t="s">
+      <c r="A100" s="4"/>
+      <c r="B100" s="4"/>
+      <c r="C100" s="5" t="s">
         <v>97</v>
       </c>
+      <c r="D100" s="5"/>
+      <c r="E100" s="5"/>
+      <c r="F100" s="5"/>
+      <c r="G100" s="5"/>
+      <c r="H100" s="5"/>
+      <c r="I100" s="5"/>
+      <c r="J100" s="4"/>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D101" s="1" t="s">
+      <c r="A101" s="4"/>
+      <c r="B101" s="4"/>
+      <c r="C101" s="5"/>
+      <c r="D101" s="5" t="s">
         <v>101</v>
       </c>
+      <c r="E101" s="5"/>
+      <c r="F101" s="5"/>
+      <c r="G101" s="5"/>
+      <c r="H101" s="5"/>
+      <c r="I101" s="5"/>
       <c r="J101" s="4" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D102" s="1" t="s">
+      <c r="A102" s="4"/>
+      <c r="B102" s="4"/>
+      <c r="C102" s="5"/>
+      <c r="D102" s="5" t="s">
         <v>102</v>
       </c>
+      <c r="E102" s="5"/>
+      <c r="F102" s="5"/>
+      <c r="G102" s="5"/>
+      <c r="H102" s="5"/>
+      <c r="I102" s="5"/>
       <c r="J102" s="4" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D103" s="1" t="s">
+      <c r="A103" s="4"/>
+      <c r="B103" s="4"/>
+      <c r="C103" s="5"/>
+      <c r="D103" s="5" t="s">
         <v>131</v>
       </c>
+      <c r="E103" s="5"/>
+      <c r="F103" s="5"/>
+      <c r="G103" s="5"/>
+      <c r="H103" s="5"/>
+      <c r="I103" s="5"/>
       <c r="J103" s="4" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D104" s="1" t="s">
+      <c r="A104" s="4"/>
+      <c r="B104" s="4"/>
+      <c r="C104" s="5"/>
+      <c r="D104" s="5" t="s">
         <v>133</v>
       </c>
+      <c r="E104" s="5"/>
+      <c r="F104" s="5"/>
+      <c r="G104" s="5"/>
+      <c r="H104" s="5"/>
+      <c r="I104" s="5"/>
       <c r="J104" s="4" t="s">
         <v>108</v>
       </c>
@@ -4208,102 +5137,205 @@
       <c r="B105" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="C105" s="1" t="s">
+      <c r="C105" s="5" t="s">
         <v>135</v>
       </c>
+      <c r="D105" s="5"/>
+      <c r="E105" s="5"/>
+      <c r="F105" s="5"/>
+      <c r="G105" s="5"/>
+      <c r="H105" s="5"/>
+      <c r="I105" s="5"/>
+      <c r="J105" s="4"/>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D106" s="1" t="s">
+      <c r="A106" s="4"/>
+      <c r="B106" s="4"/>
+      <c r="C106" s="5"/>
+      <c r="D106" s="5" t="s">
         <v>136</v>
       </c>
+      <c r="E106" s="5"/>
+      <c r="F106" s="5"/>
+      <c r="G106" s="5"/>
+      <c r="H106" s="5"/>
+      <c r="I106" s="5"/>
       <c r="J106" s="4" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D107" s="1" t="s">
+      <c r="A107" s="4"/>
+      <c r="B107" s="4"/>
+      <c r="C107" s="5"/>
+      <c r="D107" s="5" t="s">
         <v>138</v>
       </c>
+      <c r="E107" s="5"/>
+      <c r="F107" s="5"/>
+      <c r="G107" s="5"/>
+      <c r="H107" s="5"/>
+      <c r="I107" s="5"/>
       <c r="J107" s="4" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D108" s="1" t="s">
+      <c r="A108" s="4"/>
+      <c r="B108" s="4"/>
+      <c r="C108" s="5"/>
+      <c r="D108" s="5" t="s">
         <v>140</v>
       </c>
+      <c r="E108" s="5"/>
+      <c r="F108" s="5"/>
+      <c r="G108" s="5"/>
+      <c r="H108" s="5"/>
+      <c r="I108" s="5"/>
       <c r="J108" s="4" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D109" s="1" t="s">
+      <c r="A109" s="4"/>
+      <c r="B109" s="4"/>
+      <c r="C109" s="5"/>
+      <c r="D109" s="5" t="s">
         <v>3</v>
       </c>
+      <c r="E109" s="5"/>
+      <c r="F109" s="5"/>
+      <c r="G109" s="5"/>
+      <c r="H109" s="5"/>
+      <c r="I109" s="5"/>
       <c r="J109" s="4" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D110" s="1" t="s">
+      <c r="A110" s="4"/>
+      <c r="B110" s="4"/>
+      <c r="C110" s="5"/>
+      <c r="D110" s="5" t="s">
         <v>143</v>
       </c>
+      <c r="E110" s="5"/>
+      <c r="F110" s="5"/>
+      <c r="G110" s="5"/>
+      <c r="H110" s="5"/>
+      <c r="I110" s="5"/>
       <c r="J110" s="4" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D111" s="1" t="s">
+      <c r="A111" s="4"/>
+      <c r="B111" s="4"/>
+      <c r="C111" s="5"/>
+      <c r="D111" s="5" t="s">
         <v>144</v>
       </c>
+      <c r="E111" s="5"/>
+      <c r="F111" s="5"/>
+      <c r="G111" s="5"/>
+      <c r="H111" s="5"/>
+      <c r="I111" s="5"/>
       <c r="J111" s="4" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D112" s="1" t="s">
+      <c r="A112" s="4"/>
+      <c r="B112" s="4"/>
+      <c r="C112" s="5"/>
+      <c r="D112" s="5" t="s">
         <v>145</v>
       </c>
+      <c r="E112" s="5"/>
+      <c r="F112" s="5"/>
+      <c r="G112" s="5"/>
+      <c r="H112" s="5"/>
+      <c r="I112" s="5"/>
       <c r="J112" s="4" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D113" s="1" t="s">
+      <c r="A113" s="4"/>
+      <c r="B113" s="4"/>
+      <c r="C113" s="5"/>
+      <c r="D113" s="5" t="s">
         <v>146</v>
       </c>
+      <c r="E113" s="5"/>
+      <c r="F113" s="5"/>
+      <c r="G113" s="5"/>
+      <c r="H113" s="5"/>
+      <c r="I113" s="5"/>
       <c r="J113" s="4" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D114" s="1" t="s">
+      <c r="A114" s="4"/>
+      <c r="B114" s="4"/>
+      <c r="C114" s="5"/>
+      <c r="D114" s="5" t="s">
         <v>151</v>
       </c>
+      <c r="E114" s="5"/>
+      <c r="F114" s="5"/>
+      <c r="G114" s="5"/>
+      <c r="H114" s="5"/>
+      <c r="I114" s="5"/>
       <c r="J114" s="4" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D115" s="1" t="s">
+      <c r="A115" s="4"/>
+      <c r="B115" s="4"/>
+      <c r="C115" s="5"/>
+      <c r="D115" s="5" t="s">
         <v>153</v>
       </c>
+      <c r="E115" s="5"/>
+      <c r="F115" s="5"/>
+      <c r="G115" s="5"/>
+      <c r="H115" s="5"/>
+      <c r="I115" s="5"/>
       <c r="J115" s="4" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D116" s="1" t="s">
+      <c r="A116" s="4"/>
+      <c r="B116" s="4"/>
+      <c r="C116" s="5"/>
+      <c r="D116" s="5" t="s">
         <v>155</v>
       </c>
+      <c r="E116" s="5"/>
+      <c r="F116" s="5"/>
+      <c r="G116" s="5"/>
+      <c r="H116" s="5"/>
+      <c r="I116" s="5"/>
       <c r="J116" s="4" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D117" s="1" t="s">
+      <c r="A117" s="4"/>
+      <c r="B117" s="4"/>
+      <c r="C117" s="5"/>
+      <c r="D117" s="5" t="s">
         <v>156</v>
       </c>
+      <c r="E117" s="5"/>
+      <c r="F117" s="5"/>
+      <c r="G117" s="5"/>
+      <c r="H117" s="5"/>
+      <c r="I117" s="5"/>
       <c r="J117" s="4" t="s">
         <v>158</v>
       </c>
@@ -4315,62 +5347,125 @@
       <c r="B118" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="C118" s="1" t="s">
+      <c r="C118" s="5" t="s">
         <v>160</v>
       </c>
+      <c r="D118" s="5"/>
+      <c r="E118" s="5"/>
+      <c r="F118" s="5"/>
+      <c r="G118" s="5"/>
+      <c r="H118" s="5"/>
+      <c r="I118" s="5"/>
+      <c r="J118" s="4"/>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D119" s="1" t="s">
+      <c r="A119" s="4"/>
+      <c r="B119" s="4"/>
+      <c r="C119" s="5"/>
+      <c r="D119" s="5" t="s">
         <v>161</v>
       </c>
+      <c r="E119" s="5"/>
+      <c r="F119" s="5"/>
+      <c r="G119" s="5"/>
+      <c r="H119" s="5"/>
+      <c r="I119" s="5"/>
       <c r="J119" s="4" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D120" s="1" t="s">
+      <c r="A120" s="4"/>
+      <c r="B120" s="4"/>
+      <c r="C120" s="5"/>
+      <c r="D120" s="5" t="s">
         <v>162</v>
       </c>
+      <c r="E120" s="5"/>
+      <c r="F120" s="5"/>
+      <c r="G120" s="5"/>
+      <c r="H120" s="5"/>
+      <c r="I120" s="5"/>
       <c r="J120" s="4" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D121" s="1" t="s">
+      <c r="A121" s="4"/>
+      <c r="B121" s="4"/>
+      <c r="C121" s="5"/>
+      <c r="D121" s="5" t="s">
         <v>165</v>
       </c>
+      <c r="E121" s="5"/>
+      <c r="F121" s="5"/>
+      <c r="G121" s="5"/>
+      <c r="H121" s="5"/>
+      <c r="I121" s="5"/>
       <c r="J121" s="4" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D122" s="1" t="s">
+      <c r="A122" s="4"/>
+      <c r="B122" s="4"/>
+      <c r="C122" s="5"/>
+      <c r="D122" s="5" t="s">
         <v>167</v>
       </c>
+      <c r="E122" s="5"/>
+      <c r="F122" s="5"/>
+      <c r="G122" s="5"/>
+      <c r="H122" s="5"/>
+      <c r="I122" s="5"/>
       <c r="J122" s="4" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D123" s="1" t="s">
+      <c r="A123" s="4"/>
+      <c r="B123" s="4"/>
+      <c r="C123" s="5"/>
+      <c r="D123" s="5" t="s">
         <v>169</v>
       </c>
+      <c r="E123" s="5"/>
+      <c r="F123" s="5"/>
+      <c r="G123" s="5"/>
+      <c r="H123" s="5"/>
+      <c r="I123" s="5"/>
       <c r="J123" s="4" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D124" s="1" t="s">
+      <c r="A124" s="4"/>
+      <c r="B124" s="4"/>
+      <c r="C124" s="5"/>
+      <c r="D124" s="5" t="s">
         <v>172</v>
       </c>
+      <c r="E124" s="5"/>
+      <c r="F124" s="5"/>
+      <c r="G124" s="5"/>
+      <c r="H124" s="5"/>
+      <c r="I124" s="5"/>
       <c r="J124" s="4" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D125" s="1" t="s">
+      <c r="A125" s="4"/>
+      <c r="B125" s="4"/>
+      <c r="C125" s="5"/>
+      <c r="D125" s="5" t="s">
         <v>173</v>
       </c>
+      <c r="E125" s="5"/>
+      <c r="F125" s="5"/>
+      <c r="G125" s="5"/>
+      <c r="H125" s="5"/>
+      <c r="I125" s="5"/>
       <c r="J125" s="4" t="s">
         <v>174</v>
       </c>
@@ -4382,70 +5477,141 @@
       <c r="B126" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="C126" s="1" t="s">
+      <c r="C126" s="5" t="s">
         <v>176</v>
       </c>
+      <c r="D126" s="5"/>
+      <c r="E126" s="5"/>
+      <c r="F126" s="5"/>
+      <c r="G126" s="5"/>
+      <c r="H126" s="5"/>
+      <c r="I126" s="5"/>
+      <c r="J126" s="4"/>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D127" s="1" t="s">
+      <c r="A127" s="4"/>
+      <c r="B127" s="4"/>
+      <c r="C127" s="5"/>
+      <c r="D127" s="5" t="s">
         <v>177</v>
       </c>
+      <c r="E127" s="5"/>
+      <c r="F127" s="5"/>
+      <c r="G127" s="5"/>
+      <c r="H127" s="5"/>
+      <c r="I127" s="5"/>
       <c r="J127" s="4" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D128" s="1" t="s">
+      <c r="A128" s="4"/>
+      <c r="B128" s="4"/>
+      <c r="C128" s="5"/>
+      <c r="D128" s="5" t="s">
         <v>179</v>
       </c>
+      <c r="E128" s="5"/>
+      <c r="F128" s="5"/>
+      <c r="G128" s="5"/>
+      <c r="H128" s="5"/>
+      <c r="I128" s="5"/>
       <c r="J128" s="4" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D129" s="1" t="s">
+      <c r="A129" s="4"/>
+      <c r="B129" s="4"/>
+      <c r="C129" s="5"/>
+      <c r="D129" s="5" t="s">
         <v>182</v>
       </c>
+      <c r="E129" s="5"/>
+      <c r="F129" s="5"/>
+      <c r="G129" s="5"/>
+      <c r="H129" s="5"/>
+      <c r="I129" s="5"/>
       <c r="J129" s="4" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D130" s="1" t="s">
+      <c r="A130" s="4"/>
+      <c r="B130" s="4"/>
+      <c r="C130" s="5"/>
+      <c r="D130" s="5" t="s">
         <v>183</v>
       </c>
+      <c r="E130" s="5"/>
+      <c r="F130" s="5"/>
+      <c r="G130" s="5"/>
+      <c r="H130" s="5"/>
+      <c r="I130" s="5"/>
       <c r="J130" s="4" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D131" s="1" t="s">
+      <c r="A131" s="4"/>
+      <c r="B131" s="4"/>
+      <c r="C131" s="5"/>
+      <c r="D131" s="5" t="s">
         <v>185</v>
       </c>
+      <c r="E131" s="5"/>
+      <c r="F131" s="5"/>
+      <c r="G131" s="5"/>
+      <c r="H131" s="5"/>
+      <c r="I131" s="5"/>
       <c r="J131" s="4" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D132" s="1" t="s">
+      <c r="A132" s="4"/>
+      <c r="B132" s="4"/>
+      <c r="C132" s="5"/>
+      <c r="D132" s="5" t="s">
         <v>187</v>
       </c>
+      <c r="E132" s="5"/>
+      <c r="F132" s="5"/>
+      <c r="G132" s="5"/>
+      <c r="H132" s="5"/>
+      <c r="I132" s="5"/>
       <c r="J132" s="4" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D133" s="1" t="s">
+      <c r="A133" s="4"/>
+      <c r="B133" s="4"/>
+      <c r="C133" s="5"/>
+      <c r="D133" s="5" t="s">
         <v>190</v>
       </c>
+      <c r="E133" s="5"/>
+      <c r="F133" s="5"/>
+      <c r="G133" s="5"/>
+      <c r="H133" s="5"/>
+      <c r="I133" s="5"/>
       <c r="J133" s="4" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D134" s="1" t="s">
+      <c r="A134" s="4"/>
+      <c r="B134" s="4"/>
+      <c r="C134" s="5"/>
+      <c r="D134" s="5" t="s">
         <v>191</v>
       </c>
+      <c r="E134" s="5"/>
+      <c r="F134" s="5"/>
+      <c r="G134" s="5"/>
+      <c r="H134" s="5"/>
+      <c r="I134" s="5"/>
       <c r="J134" s="4" t="s">
         <v>192</v>
       </c>
@@ -4457,65 +5623,127 @@
       <c r="B135" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="D135" s="1" t="s">
+      <c r="C135" s="5"/>
+      <c r="D135" s="5" t="s">
         <v>193</v>
       </c>
+      <c r="E135" s="5"/>
+      <c r="F135" s="5"/>
+      <c r="G135" s="5"/>
+      <c r="H135" s="5"/>
+      <c r="I135" s="5"/>
       <c r="J135" s="4" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D136" s="1" t="s">
+      <c r="A136" s="4"/>
+      <c r="B136" s="4"/>
+      <c r="C136" s="5"/>
+      <c r="D136" s="5" t="s">
         <v>196</v>
       </c>
+      <c r="E136" s="5"/>
+      <c r="F136" s="5"/>
+      <c r="G136" s="5"/>
+      <c r="H136" s="5"/>
+      <c r="I136" s="5"/>
       <c r="J136" s="4" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D137" s="1" t="s">
+      <c r="A137" s="4"/>
+      <c r="B137" s="4"/>
+      <c r="C137" s="5"/>
+      <c r="D137" s="5" t="s">
         <v>198</v>
       </c>
+      <c r="E137" s="5"/>
+      <c r="F137" s="5"/>
+      <c r="G137" s="5"/>
+      <c r="H137" s="5"/>
+      <c r="I137" s="5"/>
       <c r="J137" s="4" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D138" s="1" t="s">
+      <c r="A138" s="4"/>
+      <c r="B138" s="4"/>
+      <c r="C138" s="5"/>
+      <c r="D138" s="5" t="s">
         <v>200</v>
       </c>
+      <c r="E138" s="5"/>
+      <c r="F138" s="5"/>
+      <c r="G138" s="5"/>
+      <c r="H138" s="5"/>
+      <c r="I138" s="5"/>
       <c r="J138" s="4" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D139" s="1" t="s">
+      <c r="A139" s="4"/>
+      <c r="B139" s="4"/>
+      <c r="C139" s="5"/>
+      <c r="D139" s="5" t="s">
         <v>203</v>
       </c>
+      <c r="E139" s="5"/>
+      <c r="F139" s="5"/>
+      <c r="G139" s="5"/>
+      <c r="H139" s="5"/>
+      <c r="I139" s="5"/>
       <c r="J139" s="4" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D140" s="1" t="s">
+      <c r="A140" s="4"/>
+      <c r="B140" s="4"/>
+      <c r="C140" s="5"/>
+      <c r="D140" s="5" t="s">
         <v>206</v>
       </c>
+      <c r="E140" s="5"/>
+      <c r="F140" s="5"/>
+      <c r="G140" s="5"/>
+      <c r="H140" s="5"/>
+      <c r="I140" s="5"/>
       <c r="J140" s="4" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D141" s="1" t="s">
+      <c r="A141" s="4"/>
+      <c r="B141" s="4"/>
+      <c r="C141" s="5"/>
+      <c r="D141" s="5" t="s">
         <v>204</v>
       </c>
+      <c r="E141" s="5"/>
+      <c r="F141" s="5"/>
+      <c r="G141" s="5"/>
+      <c r="H141" s="5"/>
+      <c r="I141" s="5"/>
       <c r="J141" s="4" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D142" s="1" t="s">
+      <c r="A142" s="4"/>
+      <c r="B142" s="4"/>
+      <c r="C142" s="5"/>
+      <c r="D142" s="5" t="s">
         <v>208</v>
       </c>
+      <c r="E142" s="5"/>
+      <c r="F142" s="5"/>
+      <c r="G142" s="5"/>
+      <c r="H142" s="5"/>
+      <c r="I142" s="5"/>
       <c r="J142" s="4" t="s">
         <v>209</v>
       </c>
@@ -4527,89 +5755,175 @@
       <c r="B143" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="D143" s="1" t="s">
+      <c r="C143" s="5"/>
+      <c r="D143" s="5" t="s">
         <v>210</v>
       </c>
+      <c r="E143" s="5"/>
+      <c r="F143" s="5"/>
+      <c r="G143" s="5"/>
+      <c r="H143" s="5"/>
+      <c r="I143" s="5"/>
       <c r="J143" s="4" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D144" s="1" t="s">
+      <c r="A144" s="4"/>
+      <c r="B144" s="4"/>
+      <c r="C144" s="5"/>
+      <c r="D144" s="5" t="s">
         <v>213</v>
       </c>
+      <c r="E144" s="5"/>
+      <c r="F144" s="5"/>
+      <c r="G144" s="5"/>
+      <c r="H144" s="5"/>
+      <c r="I144" s="5"/>
       <c r="J144" s="4" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D145" s="1" t="s">
+      <c r="A145" s="4"/>
+      <c r="B145" s="4"/>
+      <c r="C145" s="5"/>
+      <c r="D145" s="5" t="s">
         <v>217</v>
       </c>
+      <c r="E145" s="5"/>
+      <c r="F145" s="5"/>
+      <c r="G145" s="5"/>
+      <c r="H145" s="5"/>
+      <c r="I145" s="5"/>
       <c r="J145" s="4" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D146" s="1" t="s">
+      <c r="A146" s="4"/>
+      <c r="B146" s="4"/>
+      <c r="C146" s="5"/>
+      <c r="D146" s="5" t="s">
         <v>216</v>
       </c>
+      <c r="E146" s="5"/>
+      <c r="F146" s="5"/>
+      <c r="G146" s="5"/>
+      <c r="H146" s="5"/>
+      <c r="I146" s="5"/>
       <c r="J146" s="4" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D147" s="1" t="s">
+      <c r="A147" s="4"/>
+      <c r="B147" s="4"/>
+      <c r="C147" s="5"/>
+      <c r="D147" s="5" t="s">
         <v>219</v>
       </c>
+      <c r="E147" s="5"/>
+      <c r="F147" s="5"/>
+      <c r="G147" s="5"/>
+      <c r="H147" s="5"/>
+      <c r="I147" s="5"/>
       <c r="J147" s="4" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D148" s="1" t="s">
+      <c r="A148" s="4"/>
+      <c r="B148" s="4"/>
+      <c r="C148" s="5"/>
+      <c r="D148" s="5" t="s">
         <v>221</v>
       </c>
+      <c r="E148" s="5"/>
+      <c r="F148" s="5"/>
+      <c r="G148" s="5"/>
+      <c r="H148" s="5"/>
+      <c r="I148" s="5"/>
       <c r="J148" s="4" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D149" s="1" t="s">
+      <c r="A149" s="4"/>
+      <c r="B149" s="4"/>
+      <c r="C149" s="5"/>
+      <c r="D149" s="5" t="s">
         <v>223</v>
       </c>
+      <c r="E149" s="5"/>
+      <c r="F149" s="5"/>
+      <c r="G149" s="5"/>
+      <c r="H149" s="5"/>
+      <c r="I149" s="5"/>
       <c r="J149" s="4" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D150" s="1" t="s">
+      <c r="A150" s="4"/>
+      <c r="B150" s="4"/>
+      <c r="C150" s="5"/>
+      <c r="D150" s="5" t="s">
         <v>225</v>
       </c>
+      <c r="E150" s="5"/>
+      <c r="F150" s="5"/>
+      <c r="G150" s="5"/>
+      <c r="H150" s="5"/>
+      <c r="I150" s="5"/>
       <c r="J150" s="4" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D151" s="1" t="s">
+      <c r="A151" s="4"/>
+      <c r="B151" s="4"/>
+      <c r="C151" s="5"/>
+      <c r="D151" s="5" t="s">
         <v>227</v>
       </c>
+      <c r="E151" s="5"/>
+      <c r="F151" s="5"/>
+      <c r="G151" s="5"/>
+      <c r="H151" s="5"/>
+      <c r="I151" s="5"/>
       <c r="J151" s="4" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D152" s="1" t="s">
+      <c r="A152" s="4"/>
+      <c r="B152" s="4"/>
+      <c r="C152" s="5"/>
+      <c r="D152" s="5" t="s">
         <v>229</v>
       </c>
+      <c r="E152" s="5"/>
+      <c r="F152" s="5"/>
+      <c r="G152" s="5"/>
+      <c r="H152" s="5"/>
+      <c r="I152" s="5"/>
       <c r="J152" s="4" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D153" s="1" t="s">
+      <c r="A153" s="4"/>
+      <c r="B153" s="4"/>
+      <c r="C153" s="5"/>
+      <c r="D153" s="5" t="s">
         <v>231</v>
       </c>
+      <c r="E153" s="5"/>
+      <c r="F153" s="5"/>
+      <c r="G153" s="5"/>
+      <c r="H153" s="5"/>
+      <c r="I153" s="5"/>
       <c r="J153" s="4" t="s">
         <v>232</v>
       </c>
@@ -4621,116 +5935,225 @@
       <c r="B154" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="D154" s="1" t="s">
+      <c r="C154" s="5"/>
+      <c r="D154" s="5" t="s">
         <v>234</v>
       </c>
+      <c r="E154" s="5"/>
+      <c r="F154" s="5"/>
+      <c r="G154" s="5"/>
+      <c r="H154" s="5"/>
+      <c r="I154" s="5"/>
+      <c r="J154" s="4"/>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C155" s="1" t="s">
+      <c r="A155" s="4"/>
+      <c r="B155" s="4"/>
+      <c r="C155" s="5" t="s">
         <v>298</v>
       </c>
-      <c r="D155" s="1" t="s">
+      <c r="D155" s="5" t="s">
         <v>235</v>
       </c>
+      <c r="E155" s="5"/>
+      <c r="F155" s="5"/>
+      <c r="G155" s="5"/>
+      <c r="H155" s="5"/>
+      <c r="I155" s="5"/>
       <c r="J155" s="4" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D156" s="1" t="s">
+      <c r="A156" s="4"/>
+      <c r="B156" s="4"/>
+      <c r="C156" s="5"/>
+      <c r="D156" s="5" t="s">
         <v>237</v>
       </c>
+      <c r="E156" s="5"/>
+      <c r="F156" s="5"/>
+      <c r="G156" s="5"/>
+      <c r="H156" s="5"/>
+      <c r="I156" s="5"/>
       <c r="J156" s="4" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D157" s="1" t="s">
+      <c r="A157" s="4"/>
+      <c r="B157" s="4"/>
+      <c r="C157" s="5"/>
+      <c r="D157" s="5" t="s">
         <v>239</v>
       </c>
+      <c r="E157" s="5"/>
+      <c r="F157" s="5"/>
+      <c r="G157" s="5"/>
+      <c r="H157" s="5"/>
+      <c r="I157" s="5"/>
       <c r="J157" s="4" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D158" s="1" t="s">
+      <c r="A158" s="4"/>
+      <c r="B158" s="4"/>
+      <c r="C158" s="5"/>
+      <c r="D158" s="5" t="s">
         <v>241</v>
       </c>
+      <c r="E158" s="5"/>
+      <c r="F158" s="5"/>
+      <c r="G158" s="5"/>
+      <c r="H158" s="5"/>
+      <c r="I158" s="5"/>
       <c r="J158" s="4" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D159" s="1" t="s">
+      <c r="A159" s="4"/>
+      <c r="B159" s="4"/>
+      <c r="C159" s="5"/>
+      <c r="D159" s="5" t="s">
         <v>243</v>
       </c>
+      <c r="E159" s="5"/>
+      <c r="F159" s="5"/>
+      <c r="G159" s="5"/>
+      <c r="H159" s="5"/>
+      <c r="I159" s="5"/>
       <c r="J159" s="4" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D160" s="1" t="s">
+      <c r="A160" s="4"/>
+      <c r="B160" s="4"/>
+      <c r="C160" s="5"/>
+      <c r="D160" s="5" t="s">
         <v>245</v>
       </c>
+      <c r="E160" s="5"/>
+      <c r="F160" s="5"/>
+      <c r="G160" s="5"/>
+      <c r="H160" s="5"/>
+      <c r="I160" s="5"/>
       <c r="J160" s="4" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D161" s="1" t="s">
+      <c r="A161" s="4"/>
+      <c r="B161" s="4"/>
+      <c r="C161" s="5"/>
+      <c r="D161" s="5" t="s">
         <v>247</v>
       </c>
+      <c r="E161" s="5"/>
+      <c r="F161" s="5"/>
+      <c r="G161" s="5"/>
+      <c r="H161" s="5"/>
+      <c r="I161" s="5"/>
       <c r="J161" s="4" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D162" s="1" t="s">
+      <c r="A162" s="4"/>
+      <c r="B162" s="4"/>
+      <c r="C162" s="5"/>
+      <c r="D162" s="5" t="s">
         <v>249</v>
       </c>
+      <c r="E162" s="5"/>
+      <c r="F162" s="5"/>
+      <c r="G162" s="5"/>
+      <c r="H162" s="5"/>
+      <c r="I162" s="5"/>
       <c r="J162" s="4" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D163" s="1" t="s">
+      <c r="A163" s="4"/>
+      <c r="B163" s="4"/>
+      <c r="C163" s="5"/>
+      <c r="D163" s="5" t="s">
         <v>251</v>
       </c>
+      <c r="E163" s="5"/>
+      <c r="F163" s="5"/>
+      <c r="G163" s="5"/>
+      <c r="H163" s="5"/>
+      <c r="I163" s="5"/>
       <c r="J163" s="4" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D164" s="1" t="s">
+      <c r="A164" s="4"/>
+      <c r="B164" s="4"/>
+      <c r="C164" s="5"/>
+      <c r="D164" s="5" t="s">
         <v>253</v>
       </c>
+      <c r="E164" s="5"/>
+      <c r="F164" s="5"/>
+      <c r="G164" s="5"/>
+      <c r="H164" s="5"/>
+      <c r="I164" s="5"/>
       <c r="J164" s="4" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C165" s="1" t="s">
+      <c r="A165" s="4"/>
+      <c r="B165" s="4"/>
+      <c r="C165" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="D165" s="1" t="s">
+      <c r="D165" s="5" t="s">
         <v>256</v>
       </c>
+      <c r="E165" s="5"/>
+      <c r="F165" s="5"/>
+      <c r="G165" s="5"/>
+      <c r="H165" s="5"/>
+      <c r="I165" s="5"/>
       <c r="J165" s="4" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D166" s="1" t="s">
+      <c r="A166" s="4"/>
+      <c r="B166" s="4"/>
+      <c r="C166" s="5"/>
+      <c r="D166" s="5" t="s">
         <v>259</v>
       </c>
+      <c r="E166" s="5"/>
+      <c r="F166" s="5"/>
+      <c r="G166" s="5"/>
+      <c r="H166" s="5"/>
+      <c r="I166" s="5"/>
       <c r="J166" s="4" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D167" s="1" t="s">
+      <c r="A167" s="4"/>
+      <c r="B167" s="4"/>
+      <c r="C167" s="5"/>
+      <c r="D167" s="5" t="s">
         <v>258</v>
       </c>
+      <c r="E167" s="5"/>
+      <c r="F167" s="5"/>
+      <c r="G167" s="5"/>
+      <c r="H167" s="5"/>
+      <c r="I167" s="5"/>
       <c r="J167" s="4" t="s">
         <v>261</v>
       </c>
@@ -4742,33 +6165,63 @@
       <c r="B168" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="D168" s="1" t="s">
+      <c r="C168" s="5"/>
+      <c r="D168" s="5" t="s">
         <v>265</v>
       </c>
+      <c r="E168" s="5"/>
+      <c r="F168" s="5"/>
+      <c r="G168" s="5"/>
+      <c r="H168" s="5"/>
+      <c r="I168" s="5"/>
       <c r="J168" s="4" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D169" s="1" t="s">
+      <c r="A169" s="4"/>
+      <c r="B169" s="4"/>
+      <c r="C169" s="5"/>
+      <c r="D169" s="5" t="s">
         <v>267</v>
       </c>
+      <c r="E169" s="5"/>
+      <c r="F169" s="5"/>
+      <c r="G169" s="5"/>
+      <c r="H169" s="5"/>
+      <c r="I169" s="5"/>
       <c r="J169" s="4" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D170" s="1" t="s">
+      <c r="A170" s="4"/>
+      <c r="B170" s="4"/>
+      <c r="C170" s="5"/>
+      <c r="D170" s="5" t="s">
         <v>266</v>
       </c>
+      <c r="E170" s="5"/>
+      <c r="F170" s="5"/>
+      <c r="G170" s="5"/>
+      <c r="H170" s="5"/>
+      <c r="I170" s="5"/>
       <c r="J170" s="4" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D171" s="1" t="s">
+      <c r="A171" s="4"/>
+      <c r="B171" s="4"/>
+      <c r="C171" s="5"/>
+      <c r="D171" s="5" t="s">
         <v>269</v>
       </c>
+      <c r="E171" s="5"/>
+      <c r="F171" s="5"/>
+      <c r="G171" s="5"/>
+      <c r="H171" s="5"/>
+      <c r="I171" s="5"/>
       <c r="J171" s="4" t="s">
         <v>270</v>
       </c>
@@ -4780,52 +6233,97 @@
       <c r="B172" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="D172" s="1" t="s">
+      <c r="C172" s="5"/>
+      <c r="D172" s="5" t="s">
         <v>272</v>
       </c>
+      <c r="E172" s="5"/>
+      <c r="F172" s="5"/>
+      <c r="G172" s="5"/>
+      <c r="H172" s="5"/>
+      <c r="I172" s="5"/>
       <c r="J172" s="4" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C173" s="1" t="s">
+      <c r="A173" s="4"/>
+      <c r="B173" s="4"/>
+      <c r="C173" s="5" t="s">
         <v>299</v>
       </c>
-      <c r="D173" s="1" t="s">
+      <c r="D173" s="5" t="s">
         <v>273</v>
       </c>
+      <c r="E173" s="5"/>
+      <c r="F173" s="5"/>
+      <c r="G173" s="5"/>
+      <c r="H173" s="5"/>
+      <c r="I173" s="5"/>
       <c r="J173" s="4" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D174" s="1" t="s">
+      <c r="A174" s="4"/>
+      <c r="B174" s="4"/>
+      <c r="C174" s="5"/>
+      <c r="D174" s="5" t="s">
         <v>274</v>
       </c>
+      <c r="E174" s="5"/>
+      <c r="F174" s="5"/>
+      <c r="G174" s="5"/>
+      <c r="H174" s="5"/>
+      <c r="I174" s="5"/>
       <c r="J174" s="4" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D175" s="1" t="s">
+      <c r="A175" s="4"/>
+      <c r="B175" s="4"/>
+      <c r="C175" s="5"/>
+      <c r="D175" s="5" t="s">
         <v>277</v>
       </c>
+      <c r="E175" s="5"/>
+      <c r="F175" s="5"/>
+      <c r="G175" s="5"/>
+      <c r="H175" s="5"/>
+      <c r="I175" s="5"/>
       <c r="J175" s="4" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D176" s="1" t="s">
+      <c r="A176" s="4"/>
+      <c r="B176" s="4"/>
+      <c r="C176" s="5"/>
+      <c r="D176" s="5" t="s">
         <v>280</v>
       </c>
+      <c r="E176" s="5"/>
+      <c r="F176" s="5"/>
+      <c r="G176" s="5"/>
+      <c r="H176" s="5"/>
+      <c r="I176" s="5"/>
       <c r="J176" s="4" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D177" s="1" t="s">
+      <c r="A177" s="4"/>
+      <c r="B177" s="4"/>
+      <c r="C177" s="5"/>
+      <c r="D177" s="5" t="s">
         <v>283</v>
       </c>
+      <c r="E177" s="5"/>
+      <c r="F177" s="5"/>
+      <c r="G177" s="5"/>
+      <c r="H177" s="5"/>
+      <c r="I177" s="5"/>
       <c r="J177" s="4" t="s">
         <v>282</v>
       </c>
@@ -4837,87 +6335,163 @@
       <c r="B178" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="C178" s="1" t="s">
+      <c r="C178" s="5" t="s">
         <v>300</v>
       </c>
-      <c r="D178" s="1" t="s">
+      <c r="D178" s="5" t="s">
         <v>301</v>
       </c>
+      <c r="E178" s="5"/>
+      <c r="F178" s="5"/>
+      <c r="G178" s="5"/>
+      <c r="H178" s="5"/>
+      <c r="I178" s="5"/>
       <c r="J178" s="4" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D179" s="1" t="s">
+      <c r="A179" s="4"/>
+      <c r="B179" s="4"/>
+      <c r="C179" s="5"/>
+      <c r="D179" s="5" t="s">
         <v>302</v>
       </c>
+      <c r="E179" s="5"/>
+      <c r="F179" s="5"/>
+      <c r="G179" s="5"/>
+      <c r="H179" s="5"/>
+      <c r="I179" s="5"/>
       <c r="J179" s="4" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D180" s="1" t="s">
+      <c r="A180" s="4"/>
+      <c r="B180" s="4"/>
+      <c r="C180" s="5"/>
+      <c r="D180" s="5" t="s">
         <v>303</v>
       </c>
+      <c r="E180" s="5"/>
+      <c r="F180" s="5"/>
+      <c r="G180" s="5"/>
+      <c r="H180" s="5"/>
+      <c r="I180" s="5"/>
       <c r="J180" s="4" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D181" s="1" t="s">
+      <c r="A181" s="4"/>
+      <c r="B181" s="4"/>
+      <c r="C181" s="5"/>
+      <c r="D181" s="5" t="s">
         <v>304</v>
       </c>
+      <c r="E181" s="5"/>
+      <c r="F181" s="5"/>
+      <c r="G181" s="5"/>
+      <c r="H181" s="5"/>
+      <c r="I181" s="5"/>
       <c r="J181" s="4" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D182" s="1" t="s">
+      <c r="A182" s="4"/>
+      <c r="B182" s="4"/>
+      <c r="C182" s="5"/>
+      <c r="D182" s="5" t="s">
         <v>305</v>
       </c>
+      <c r="E182" s="5"/>
+      <c r="F182" s="5"/>
+      <c r="G182" s="5"/>
+      <c r="H182" s="5"/>
+      <c r="I182" s="5"/>
       <c r="J182" s="4" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D183" s="1" t="s">
+      <c r="A183" s="4"/>
+      <c r="B183" s="4"/>
+      <c r="C183" s="5"/>
+      <c r="D183" s="5" t="s">
         <v>306</v>
       </c>
+      <c r="E183" s="5"/>
+      <c r="F183" s="5"/>
+      <c r="G183" s="5"/>
+      <c r="H183" s="5"/>
+      <c r="I183" s="5"/>
       <c r="J183" s="4" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D184" s="1" t="s">
+      <c r="A184" s="4"/>
+      <c r="B184" s="4"/>
+      <c r="C184" s="5"/>
+      <c r="D184" s="5" t="s">
         <v>307</v>
       </c>
+      <c r="E184" s="5"/>
+      <c r="F184" s="5"/>
+      <c r="G184" s="5"/>
+      <c r="H184" s="5"/>
+      <c r="I184" s="5"/>
       <c r="J184" s="4" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D185" s="1" t="s">
+      <c r="A185" s="4"/>
+      <c r="B185" s="4"/>
+      <c r="C185" s="5"/>
+      <c r="D185" s="5" t="s">
         <v>308</v>
       </c>
+      <c r="E185" s="5"/>
+      <c r="F185" s="5"/>
+      <c r="G185" s="5"/>
+      <c r="H185" s="5"/>
+      <c r="I185" s="5"/>
       <c r="J185" s="4" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D186" s="1" t="s">
+      <c r="A186" s="4"/>
+      <c r="B186" s="4"/>
+      <c r="C186" s="5"/>
+      <c r="D186" s="5" t="s">
         <v>293</v>
       </c>
+      <c r="E186" s="5"/>
+      <c r="F186" s="5"/>
+      <c r="G186" s="5"/>
+      <c r="H186" s="5"/>
+      <c r="I186" s="5"/>
       <c r="J186" s="4" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C187" s="1" t="s">
+      <c r="A187" s="4"/>
+      <c r="B187" s="4"/>
+      <c r="C187" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="D187" s="1" t="s">
+      <c r="D187" s="5" t="s">
         <v>295</v>
       </c>
+      <c r="E187" s="5"/>
+      <c r="F187" s="5"/>
+      <c r="G187" s="5"/>
+      <c r="H187" s="5"/>
+      <c r="I187" s="5"/>
       <c r="J187" s="4" t="s">
         <v>296</v>
       </c>
@@ -4929,60 +6503,113 @@
       <c r="B188" s="4" t="s">
         <v>297</v>
       </c>
-      <c r="D188" s="1" t="s">
+      <c r="C188" s="5"/>
+      <c r="D188" s="5" t="s">
         <v>310</v>
       </c>
+      <c r="E188" s="5"/>
+      <c r="F188" s="5"/>
+      <c r="G188" s="5"/>
+      <c r="H188" s="5"/>
+      <c r="I188" s="5"/>
       <c r="J188" s="4" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D189" s="1" t="s">
+      <c r="A189" s="4"/>
+      <c r="B189" s="4"/>
+      <c r="C189" s="5"/>
+      <c r="D189" s="5" t="s">
         <v>311</v>
       </c>
+      <c r="E189" s="5"/>
+      <c r="F189" s="5"/>
+      <c r="G189" s="5"/>
+      <c r="H189" s="5"/>
+      <c r="I189" s="5"/>
       <c r="J189" s="4" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D190" s="1" t="s">
+      <c r="A190" s="4"/>
+      <c r="B190" s="4"/>
+      <c r="C190" s="5"/>
+      <c r="D190" s="5" t="s">
         <v>313</v>
       </c>
+      <c r="E190" s="5"/>
+      <c r="F190" s="5"/>
+      <c r="G190" s="5"/>
+      <c r="H190" s="5"/>
+      <c r="I190" s="5"/>
       <c r="J190" s="4" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C191" s="1" t="s">
+      <c r="A191" s="4"/>
+      <c r="B191" s="4"/>
+      <c r="C191" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="D191" s="1" t="s">
+      <c r="D191" s="5" t="s">
         <v>316</v>
       </c>
+      <c r="E191" s="5"/>
+      <c r="F191" s="5"/>
+      <c r="G191" s="5"/>
+      <c r="H191" s="5"/>
+      <c r="I191" s="5"/>
       <c r="J191" s="4" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D192" s="1" t="s">
+      <c r="A192" s="4"/>
+      <c r="B192" s="4"/>
+      <c r="C192" s="5"/>
+      <c r="D192" s="5" t="s">
         <v>318</v>
       </c>
+      <c r="E192" s="5"/>
+      <c r="F192" s="5"/>
+      <c r="G192" s="5"/>
+      <c r="H192" s="5"/>
+      <c r="I192" s="5"/>
       <c r="J192" s="4" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D193" s="1" t="s">
+      <c r="A193" s="4"/>
+      <c r="B193" s="4"/>
+      <c r="C193" s="5"/>
+      <c r="D193" s="5" t="s">
         <v>320</v>
       </c>
+      <c r="E193" s="5"/>
+      <c r="F193" s="5"/>
+      <c r="G193" s="5"/>
+      <c r="H193" s="5"/>
+      <c r="I193" s="5"/>
       <c r="J193" s="4" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D194" s="1" t="s">
+      <c r="A194" s="4"/>
+      <c r="B194" s="4"/>
+      <c r="C194" s="5"/>
+      <c r="D194" s="5" t="s">
         <v>322</v>
       </c>
+      <c r="E194" s="5"/>
+      <c r="F194" s="5"/>
+      <c r="G194" s="5"/>
+      <c r="H194" s="5"/>
+      <c r="I194" s="5"/>
       <c r="J194" s="4" t="s">
         <v>323</v>
       </c>
@@ -4994,84 +6621,161 @@
       <c r="B195" s="4" t="s">
         <v>324</v>
       </c>
-      <c r="D195" s="1" t="s">
+      <c r="C195" s="5"/>
+      <c r="D195" s="5" t="s">
         <v>325</v>
       </c>
+      <c r="E195" s="5"/>
+      <c r="F195" s="5"/>
+      <c r="G195" s="5"/>
+      <c r="H195" s="5"/>
+      <c r="I195" s="5"/>
       <c r="J195" s="4" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="196" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D196" s="1" t="s">
+      <c r="A196" s="4"/>
+      <c r="B196" s="4"/>
+      <c r="C196" s="5"/>
+      <c r="D196" s="5" t="s">
         <v>327</v>
       </c>
+      <c r="E196" s="5"/>
+      <c r="F196" s="5"/>
+      <c r="G196" s="5"/>
+      <c r="H196" s="5"/>
+      <c r="I196" s="5"/>
       <c r="J196" s="4" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="197" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D197" s="1" t="s">
+      <c r="A197" s="4"/>
+      <c r="B197" s="4"/>
+      <c r="C197" s="5"/>
+      <c r="D197" s="5" t="s">
         <v>329</v>
       </c>
+      <c r="E197" s="5"/>
+      <c r="F197" s="5"/>
+      <c r="G197" s="5"/>
+      <c r="H197" s="5"/>
+      <c r="I197" s="5"/>
       <c r="J197" s="4" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="198" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D198" s="1" t="s">
+      <c r="A198" s="4"/>
+      <c r="B198" s="4"/>
+      <c r="C198" s="5"/>
+      <c r="D198" s="5" t="s">
         <v>331</v>
       </c>
+      <c r="E198" s="5"/>
+      <c r="F198" s="5"/>
+      <c r="G198" s="5"/>
+      <c r="H198" s="5"/>
+      <c r="I198" s="5"/>
       <c r="J198" s="4" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="199" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D199" s="1" t="s">
+      <c r="A199" s="4"/>
+      <c r="B199" s="4"/>
+      <c r="C199" s="5"/>
+      <c r="D199" s="5" t="s">
         <v>334</v>
       </c>
+      <c r="E199" s="5"/>
+      <c r="F199" s="5"/>
+      <c r="G199" s="5"/>
+      <c r="H199" s="5"/>
+      <c r="I199" s="5"/>
       <c r="J199" s="4" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C200" s="1" t="s">
+      <c r="A200" s="4"/>
+      <c r="B200" s="4"/>
+      <c r="C200" s="5" t="s">
         <v>333</v>
       </c>
-      <c r="D200" s="1" t="s">
+      <c r="D200" s="5" t="s">
         <v>336</v>
       </c>
+      <c r="E200" s="5"/>
+      <c r="F200" s="5"/>
+      <c r="G200" s="5"/>
+      <c r="H200" s="5"/>
+      <c r="I200" s="5"/>
       <c r="J200" s="4" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D201" s="1" t="s">
+      <c r="A201" s="4"/>
+      <c r="B201" s="4"/>
+      <c r="C201" s="5"/>
+      <c r="D201" s="5" t="s">
         <v>338</v>
       </c>
+      <c r="E201" s="5"/>
+      <c r="F201" s="5"/>
+      <c r="G201" s="5"/>
+      <c r="H201" s="5"/>
+      <c r="I201" s="5"/>
       <c r="J201" s="4" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="202" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D202" s="1" t="s">
+      <c r="A202" s="4"/>
+      <c r="B202" s="4"/>
+      <c r="C202" s="5"/>
+      <c r="D202" s="5" t="s">
         <v>341</v>
       </c>
+      <c r="E202" s="5"/>
+      <c r="F202" s="5"/>
+      <c r="G202" s="5"/>
+      <c r="H202" s="5"/>
+      <c r="I202" s="5"/>
       <c r="J202" s="4" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="203" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D203" s="1" t="s">
+      <c r="A203" s="4"/>
+      <c r="B203" s="4"/>
+      <c r="C203" s="5"/>
+      <c r="D203" s="5" t="s">
         <v>342</v>
       </c>
+      <c r="E203" s="5"/>
+      <c r="F203" s="5"/>
+      <c r="G203" s="5"/>
+      <c r="H203" s="5"/>
+      <c r="I203" s="5"/>
       <c r="J203" s="4" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="204" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D204" s="1" t="s">
+      <c r="A204" s="4"/>
+      <c r="B204" s="4"/>
+      <c r="C204" s="5"/>
+      <c r="D204" s="5" t="s">
         <v>343</v>
       </c>
+      <c r="E204" s="5"/>
+      <c r="F204" s="5"/>
+      <c r="G204" s="5"/>
+      <c r="H204" s="5"/>
+      <c r="I204" s="5"/>
       <c r="J204" s="4" t="s">
         <v>345</v>
       </c>
@@ -5083,52 +6787,97 @@
       <c r="B205" s="4" t="s">
         <v>359</v>
       </c>
-      <c r="D205" s="1" t="s">
+      <c r="C205" s="5"/>
+      <c r="D205" s="5" t="s">
         <v>346</v>
       </c>
+      <c r="E205" s="5"/>
+      <c r="F205" s="5"/>
+      <c r="G205" s="5"/>
+      <c r="H205" s="5"/>
+      <c r="I205" s="5"/>
       <c r="J205" s="4" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="206" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D206" s="1" t="s">
+      <c r="A206" s="4"/>
+      <c r="B206" s="4"/>
+      <c r="C206" s="5"/>
+      <c r="D206" s="5" t="s">
         <v>348</v>
       </c>
+      <c r="E206" s="5"/>
+      <c r="F206" s="5"/>
+      <c r="G206" s="5"/>
+      <c r="H206" s="5"/>
+      <c r="I206" s="5"/>
       <c r="J206" s="4" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="207" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D207" s="1" t="s">
+      <c r="A207" s="4"/>
+      <c r="B207" s="4"/>
+      <c r="C207" s="5"/>
+      <c r="D207" s="5" t="s">
         <v>352</v>
       </c>
+      <c r="E207" s="5"/>
+      <c r="F207" s="5"/>
+      <c r="G207" s="5"/>
+      <c r="H207" s="5"/>
+      <c r="I207" s="5"/>
       <c r="J207" s="4" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="208" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D208" s="1" t="s">
+      <c r="A208" s="4"/>
+      <c r="B208" s="4"/>
+      <c r="C208" s="5"/>
+      <c r="D208" s="5" t="s">
         <v>351</v>
       </c>
+      <c r="E208" s="5"/>
+      <c r="F208" s="5"/>
+      <c r="G208" s="5"/>
+      <c r="H208" s="5"/>
+      <c r="I208" s="5"/>
       <c r="J208" s="4" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="209" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D209" s="1" t="s">
+      <c r="A209" s="4"/>
+      <c r="B209" s="4"/>
+      <c r="C209" s="5"/>
+      <c r="D209" s="5" t="s">
         <v>354</v>
       </c>
+      <c r="E209" s="5"/>
+      <c r="F209" s="5"/>
+      <c r="G209" s="5"/>
+      <c r="H209" s="5"/>
+      <c r="I209" s="5"/>
       <c r="J209" s="4" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="210" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C210" s="1" t="s">
+      <c r="A210" s="4"/>
+      <c r="B210" s="4"/>
+      <c r="C210" s="5" t="s">
         <v>356</v>
       </c>
-      <c r="D210" s="1" t="s">
+      <c r="D210" s="5" t="s">
         <v>357</v>
       </c>
+      <c r="E210" s="5"/>
+      <c r="F210" s="5"/>
+      <c r="G210" s="5"/>
+      <c r="H210" s="5"/>
+      <c r="I210" s="5"/>
       <c r="J210" s="4" t="s">
         <v>358</v>
       </c>
@@ -5140,105 +6889,207 @@
       <c r="B211" s="4" t="s">
         <v>360</v>
       </c>
-      <c r="D211" s="1" t="s">
+      <c r="C211" s="5"/>
+      <c r="D211" s="5" t="s">
         <v>362</v>
       </c>
+      <c r="E211" s="5"/>
+      <c r="F211" s="5"/>
+      <c r="G211" s="5"/>
+      <c r="H211" s="5"/>
+      <c r="I211" s="5"/>
       <c r="J211" s="4" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="212" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D212" s="1" t="s">
+      <c r="A212" s="4"/>
+      <c r="B212" s="4"/>
+      <c r="C212" s="5"/>
+      <c r="D212" s="5" t="s">
         <v>363</v>
       </c>
+      <c r="E212" s="5"/>
+      <c r="F212" s="5"/>
+      <c r="G212" s="5"/>
+      <c r="H212" s="5"/>
+      <c r="I212" s="5"/>
       <c r="J212" s="4" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="213" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D213" s="1" t="s">
+      <c r="A213" s="4"/>
+      <c r="B213" s="4"/>
+      <c r="C213" s="5"/>
+      <c r="D213" s="5" t="s">
         <v>365</v>
       </c>
+      <c r="E213" s="5"/>
+      <c r="F213" s="5"/>
+      <c r="G213" s="5"/>
+      <c r="H213" s="5"/>
+      <c r="I213" s="5"/>
       <c r="J213" s="4" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="214" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D214" s="1" t="s">
+      <c r="A214" s="4"/>
+      <c r="B214" s="4"/>
+      <c r="C214" s="5"/>
+      <c r="D214" s="5" t="s">
         <v>367</v>
       </c>
+      <c r="E214" s="5"/>
+      <c r="F214" s="5"/>
+      <c r="G214" s="5"/>
+      <c r="H214" s="5"/>
+      <c r="I214" s="5"/>
       <c r="J214" s="4" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="215" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D215" s="1" t="s">
+      <c r="A215" s="4"/>
+      <c r="B215" s="4"/>
+      <c r="C215" s="5"/>
+      <c r="D215" s="5" t="s">
         <v>369</v>
       </c>
+      <c r="E215" s="5"/>
+      <c r="F215" s="5"/>
+      <c r="G215" s="5"/>
+      <c r="H215" s="5"/>
+      <c r="I215" s="5"/>
       <c r="J215" s="4" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="216" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D216" s="1" t="s">
+      <c r="A216" s="4"/>
+      <c r="B216" s="4"/>
+      <c r="C216" s="5"/>
+      <c r="D216" s="5" t="s">
         <v>371</v>
       </c>
+      <c r="E216" s="5"/>
+      <c r="F216" s="5"/>
+      <c r="G216" s="5"/>
+      <c r="H216" s="5"/>
+      <c r="I216" s="5"/>
       <c r="J216" s="4" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="217" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D217" s="1" t="s">
+      <c r="A217" s="4"/>
+      <c r="B217" s="4"/>
+      <c r="C217" s="5"/>
+      <c r="D217" s="5" t="s">
         <v>376</v>
       </c>
+      <c r="E217" s="5"/>
+      <c r="F217" s="5"/>
+      <c r="G217" s="5"/>
+      <c r="H217" s="5"/>
+      <c r="I217" s="5"/>
       <c r="J217" s="4" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="218" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D218" s="1" t="s">
+      <c r="A218" s="4"/>
+      <c r="B218" s="4"/>
+      <c r="C218" s="5"/>
+      <c r="D218" s="5" t="s">
         <v>377</v>
       </c>
+      <c r="E218" s="5"/>
+      <c r="F218" s="5"/>
+      <c r="G218" s="5"/>
+      <c r="H218" s="5"/>
+      <c r="I218" s="5"/>
       <c r="J218" s="4" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="219" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D219" s="1" t="s">
+      <c r="A219" s="4"/>
+      <c r="B219" s="4"/>
+      <c r="C219" s="5"/>
+      <c r="D219" s="5" t="s">
         <v>378</v>
       </c>
+      <c r="E219" s="5"/>
+      <c r="F219" s="5"/>
+      <c r="G219" s="5"/>
+      <c r="H219" s="5"/>
+      <c r="I219" s="5"/>
       <c r="J219" s="4" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="220" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D220" s="1" t="s">
+      <c r="A220" s="4"/>
+      <c r="B220" s="4"/>
+      <c r="C220" s="5"/>
+      <c r="D220" s="5" t="s">
         <v>380</v>
       </c>
+      <c r="E220" s="5"/>
+      <c r="F220" s="5"/>
+      <c r="G220" s="5"/>
+      <c r="H220" s="5"/>
+      <c r="I220" s="5"/>
       <c r="J220" s="4" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="221" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D221" s="1" t="s">
+      <c r="A221" s="4"/>
+      <c r="B221" s="4"/>
+      <c r="C221" s="5"/>
+      <c r="D221" s="5" t="s">
         <v>381</v>
       </c>
+      <c r="E221" s="5"/>
+      <c r="F221" s="5"/>
+      <c r="G221" s="5"/>
+      <c r="H221" s="5"/>
+      <c r="I221" s="5"/>
       <c r="J221" s="4" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="222" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D222" s="1" t="s">
+      <c r="A222" s="4"/>
+      <c r="B222" s="4"/>
+      <c r="C222" s="5"/>
+      <c r="D222" s="5" t="s">
         <v>383</v>
       </c>
+      <c r="E222" s="5"/>
+      <c r="F222" s="5"/>
+      <c r="G222" s="5"/>
+      <c r="H222" s="5"/>
+      <c r="I222" s="5"/>
       <c r="J222" s="4" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="223" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D223" s="1" t="s">
+      <c r="A223" s="4"/>
+      <c r="B223" s="4"/>
+      <c r="C223" s="5"/>
+      <c r="D223" s="5" t="s">
         <v>385</v>
       </c>
+      <c r="E223" s="5"/>
+      <c r="F223" s="5"/>
+      <c r="G223" s="5"/>
+      <c r="H223" s="5"/>
+      <c r="I223" s="5"/>
       <c r="J223" s="4" t="s">
         <v>386</v>
       </c>
@@ -5250,73 +7101,143 @@
       <c r="B224" s="4" t="s">
         <v>397</v>
       </c>
-      <c r="D224" s="1" t="s">
+      <c r="C224" s="5"/>
+      <c r="D224" s="5" t="s">
         <v>387</v>
       </c>
+      <c r="E224" s="5"/>
+      <c r="F224" s="5"/>
+      <c r="G224" s="5"/>
+      <c r="H224" s="5"/>
+      <c r="I224" s="5"/>
       <c r="J224" s="4" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="225" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D225" s="1" t="s">
+      <c r="A225" s="4"/>
+      <c r="B225" s="4"/>
+      <c r="C225" s="5"/>
+      <c r="D225" s="5" t="s">
         <v>389</v>
       </c>
+      <c r="E225" s="5"/>
+      <c r="F225" s="5"/>
+      <c r="G225" s="5"/>
+      <c r="H225" s="5"/>
+      <c r="I225" s="5"/>
       <c r="J225" s="4" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="226" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D226" s="1" t="s">
+      <c r="A226" s="4"/>
+      <c r="B226" s="4"/>
+      <c r="C226" s="5"/>
+      <c r="D226" s="5" t="s">
         <v>391</v>
       </c>
+      <c r="E226" s="5"/>
+      <c r="F226" s="5"/>
+      <c r="G226" s="5"/>
+      <c r="H226" s="5"/>
+      <c r="I226" s="5"/>
       <c r="J226" s="4" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="227" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D227" s="1" t="s">
+      <c r="A227" s="4"/>
+      <c r="B227" s="4"/>
+      <c r="C227" s="5"/>
+      <c r="D227" s="5" t="s">
         <v>393</v>
       </c>
+      <c r="E227" s="5"/>
+      <c r="F227" s="5"/>
+      <c r="G227" s="5"/>
+      <c r="H227" s="5"/>
+      <c r="I227" s="5"/>
       <c r="J227" s="4" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="228" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D228" s="1" t="s">
+      <c r="A228" s="4"/>
+      <c r="B228" s="4"/>
+      <c r="C228" s="5"/>
+      <c r="D228" s="5" t="s">
         <v>395</v>
       </c>
+      <c r="E228" s="5"/>
+      <c r="F228" s="5"/>
+      <c r="G228" s="5"/>
+      <c r="H228" s="5"/>
+      <c r="I228" s="5"/>
       <c r="J228" s="4" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="229" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D229" s="1" t="s">
+      <c r="A229" s="4"/>
+      <c r="B229" s="4"/>
+      <c r="C229" s="5"/>
+      <c r="D229" s="5" t="s">
         <v>398</v>
       </c>
+      <c r="E229" s="5"/>
+      <c r="F229" s="5"/>
+      <c r="G229" s="5"/>
+      <c r="H229" s="5"/>
+      <c r="I229" s="5"/>
       <c r="J229" s="4" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="230" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D230" s="1" t="s">
+      <c r="A230" s="4"/>
+      <c r="B230" s="4"/>
+      <c r="C230" s="5"/>
+      <c r="D230" s="5" t="s">
         <v>400</v>
       </c>
+      <c r="E230" s="5"/>
+      <c r="F230" s="5"/>
+      <c r="G230" s="5"/>
+      <c r="H230" s="5"/>
+      <c r="I230" s="5"/>
       <c r="J230" s="4" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="231" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D231" s="1" t="s">
+      <c r="A231" s="4"/>
+      <c r="B231" s="4"/>
+      <c r="C231" s="5"/>
+      <c r="D231" s="5" t="s">
         <v>402</v>
       </c>
+      <c r="E231" s="5"/>
+      <c r="F231" s="5"/>
+      <c r="G231" s="5"/>
+      <c r="H231" s="5"/>
+      <c r="I231" s="5"/>
       <c r="J231" s="4" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="232" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D232" s="1" t="s">
+      <c r="A232" s="4"/>
+      <c r="B232" s="4"/>
+      <c r="C232" s="5"/>
+      <c r="D232" s="5" t="s">
         <v>404</v>
       </c>
+      <c r="E232" s="5"/>
+      <c r="F232" s="5"/>
+      <c r="G232" s="5"/>
+      <c r="H232" s="5"/>
+      <c r="I232" s="5"/>
       <c r="J232" s="4" t="s">
         <v>405</v>
       </c>
@@ -5328,54 +7249,109 @@
       <c r="B233" s="4" t="s">
         <v>406</v>
       </c>
-      <c r="D233" s="1" t="s">
+      <c r="C233" s="5"/>
+      <c r="D233" s="5" t="s">
         <v>408</v>
       </c>
+      <c r="E233" s="5"/>
+      <c r="F233" s="5"/>
+      <c r="G233" s="5"/>
+      <c r="H233" s="5"/>
+      <c r="I233" s="5"/>
       <c r="J233" s="4" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="234" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D234" s="1" t="s">
+      <c r="A234" s="4"/>
+      <c r="B234" s="4"/>
+      <c r="C234" s="5"/>
+      <c r="D234" s="5" t="s">
         <v>409</v>
       </c>
+      <c r="E234" s="5"/>
+      <c r="F234" s="5"/>
+      <c r="G234" s="5"/>
+      <c r="H234" s="5"/>
+      <c r="I234" s="5"/>
       <c r="J234" s="4" t="s">
         <v>410</v>
       </c>
     </row>
     <row r="235" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C235" s="1" t="s">
+      <c r="A235" s="4"/>
+      <c r="B235" s="4"/>
+      <c r="C235" s="5" t="s">
         <v>452</v>
       </c>
-      <c r="D235" s="1" t="s">
+      <c r="D235" s="5" t="s">
         <v>411</v>
       </c>
+      <c r="E235" s="5"/>
+      <c r="F235" s="5"/>
+      <c r="G235" s="5"/>
+      <c r="H235" s="5"/>
+      <c r="I235" s="5"/>
+      <c r="J235" s="4"/>
     </row>
     <row r="236" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D236" s="1" t="s">
+      <c r="A236" s="4"/>
+      <c r="B236" s="4"/>
+      <c r="C236" s="5"/>
+      <c r="D236" s="5" t="s">
         <v>412</v>
       </c>
+      <c r="E236" s="5"/>
+      <c r="F236" s="5"/>
+      <c r="G236" s="5"/>
+      <c r="H236" s="5"/>
+      <c r="I236" s="5"/>
+      <c r="J236" s="4"/>
     </row>
     <row r="237" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D237" s="1" t="s">
+      <c r="A237" s="4"/>
+      <c r="B237" s="4"/>
+      <c r="C237" s="5"/>
+      <c r="D237" s="5" t="s">
         <v>413</v>
       </c>
+      <c r="E237" s="5"/>
+      <c r="F237" s="5"/>
+      <c r="G237" s="5"/>
+      <c r="H237" s="5"/>
+      <c r="I237" s="5"/>
       <c r="J237" s="4" t="s">
         <v>414</v>
       </c>
     </row>
     <row r="238" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D238" s="1" t="s">
+      <c r="A238" s="4"/>
+      <c r="B238" s="4"/>
+      <c r="C238" s="5"/>
+      <c r="D238" s="5" t="s">
         <v>415</v>
       </c>
+      <c r="E238" s="5"/>
+      <c r="F238" s="5"/>
+      <c r="G238" s="5"/>
+      <c r="H238" s="5"/>
+      <c r="I238" s="5"/>
       <c r="J238" s="4" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="239" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D239" s="1" t="s">
+      <c r="A239" s="4"/>
+      <c r="B239" s="4"/>
+      <c r="C239" s="5"/>
+      <c r="D239" s="5" t="s">
         <v>417</v>
       </c>
+      <c r="E239" s="5"/>
+      <c r="F239" s="5"/>
+      <c r="G239" s="5"/>
+      <c r="H239" s="5"/>
+      <c r="I239" s="5"/>
       <c r="J239" s="4" t="s">
         <v>418</v>
       </c>
@@ -5387,92 +7363,177 @@
       <c r="B240" s="4" t="s">
         <v>421</v>
       </c>
-      <c r="D240" s="1" t="s">
+      <c r="C240" s="5"/>
+      <c r="D240" s="5" t="s">
         <v>419</v>
       </c>
+      <c r="E240" s="5"/>
+      <c r="F240" s="5"/>
+      <c r="G240" s="5"/>
+      <c r="H240" s="5"/>
+      <c r="I240" s="5"/>
       <c r="J240" s="4" t="s">
         <v>420</v>
       </c>
     </row>
     <row r="241" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D241" s="1" t="s">
+      <c r="A241" s="4"/>
+      <c r="B241" s="4"/>
+      <c r="C241" s="5"/>
+      <c r="D241" s="5" t="s">
         <v>422</v>
       </c>
+      <c r="E241" s="5"/>
+      <c r="F241" s="5"/>
+      <c r="G241" s="5"/>
+      <c r="H241" s="5"/>
+      <c r="I241" s="5"/>
       <c r="J241" s="4" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="242" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D242" s="1" t="s">
+      <c r="A242" s="4"/>
+      <c r="B242" s="4"/>
+      <c r="C242" s="5"/>
+      <c r="D242" s="5" t="s">
         <v>424</v>
       </c>
+      <c r="E242" s="5"/>
+      <c r="F242" s="5"/>
+      <c r="G242" s="5"/>
+      <c r="H242" s="5"/>
+      <c r="I242" s="5"/>
       <c r="J242" s="4" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="243" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C243" s="1" t="s">
+      <c r="A243" s="4"/>
+      <c r="B243" s="4"/>
+      <c r="C243" s="5" t="s">
         <v>429</v>
       </c>
-      <c r="D243" s="1" t="s">
+      <c r="D243" s="5" t="s">
         <v>451</v>
       </c>
+      <c r="E243" s="5"/>
+      <c r="F243" s="5"/>
+      <c r="G243" s="5"/>
+      <c r="H243" s="5"/>
+      <c r="I243" s="5"/>
       <c r="J243" s="4" t="s">
         <v>427</v>
       </c>
     </row>
     <row r="244" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D244" s="1" t="s">
+      <c r="A244" s="4"/>
+      <c r="B244" s="4"/>
+      <c r="C244" s="5"/>
+      <c r="D244" s="5" t="s">
         <v>430</v>
       </c>
+      <c r="E244" s="5"/>
+      <c r="F244" s="5"/>
+      <c r="G244" s="5"/>
+      <c r="H244" s="5"/>
+      <c r="I244" s="5"/>
       <c r="J244" s="4" t="s">
         <v>426</v>
       </c>
     </row>
     <row r="245" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D245" s="1" t="s">
+      <c r="A245" s="4"/>
+      <c r="B245" s="4"/>
+      <c r="C245" s="5"/>
+      <c r="D245" s="5" t="s">
         <v>432</v>
       </c>
+      <c r="E245" s="5"/>
+      <c r="F245" s="5"/>
+      <c r="G245" s="5"/>
+      <c r="H245" s="5"/>
+      <c r="I245" s="5"/>
       <c r="J245" s="4" t="s">
         <v>428</v>
       </c>
     </row>
     <row r="246" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D246" s="1" t="s">
+      <c r="A246" s="4"/>
+      <c r="B246" s="4"/>
+      <c r="C246" s="5"/>
+      <c r="D246" s="5" t="s">
         <v>431</v>
       </c>
+      <c r="E246" s="5"/>
+      <c r="F246" s="5"/>
+      <c r="G246" s="5"/>
+      <c r="H246" s="5"/>
+      <c r="I246" s="5"/>
       <c r="J246" s="4" t="s">
         <v>433</v>
       </c>
     </row>
     <row r="247" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D247" s="1" t="s">
+      <c r="A247" s="4"/>
+      <c r="B247" s="4"/>
+      <c r="C247" s="5"/>
+      <c r="D247" s="5" t="s">
         <v>434</v>
       </c>
+      <c r="E247" s="5"/>
+      <c r="F247" s="5"/>
+      <c r="G247" s="5"/>
+      <c r="H247" s="5"/>
+      <c r="I247" s="5"/>
       <c r="J247" s="4" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="248" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D248" s="1" t="s">
+      <c r="A248" s="4"/>
+      <c r="B248" s="4"/>
+      <c r="C248" s="5"/>
+      <c r="D248" s="5" t="s">
         <v>436</v>
       </c>
+      <c r="E248" s="5"/>
+      <c r="F248" s="5"/>
+      <c r="G248" s="5"/>
+      <c r="H248" s="5"/>
+      <c r="I248" s="5"/>
       <c r="J248" s="4" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="249" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D249" s="1" t="s">
+      <c r="A249" s="4"/>
+      <c r="B249" s="4"/>
+      <c r="C249" s="5"/>
+      <c r="D249" s="5" t="s">
         <v>438</v>
       </c>
+      <c r="E249" s="5"/>
+      <c r="F249" s="5"/>
+      <c r="G249" s="5"/>
+      <c r="H249" s="5"/>
+      <c r="I249" s="5"/>
       <c r="J249" s="4" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="250" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D250" s="1" t="s">
+      <c r="A250" s="4"/>
+      <c r="B250" s="4"/>
+      <c r="C250" s="5"/>
+      <c r="D250" s="5" t="s">
         <v>440</v>
       </c>
+      <c r="E250" s="5"/>
+      <c r="F250" s="5"/>
+      <c r="G250" s="5"/>
+      <c r="H250" s="5"/>
+      <c r="I250" s="5"/>
       <c r="J250" s="4" t="s">
         <v>441</v>
       </c>
@@ -5484,60 +7545,113 @@
       <c r="B251" s="4" t="s">
         <v>442</v>
       </c>
-      <c r="D251" s="1" t="s">
+      <c r="C251" s="5"/>
+      <c r="D251" s="5" t="s">
         <v>443</v>
       </c>
+      <c r="E251" s="5"/>
+      <c r="F251" s="5"/>
+      <c r="G251" s="5"/>
+      <c r="H251" s="5"/>
+      <c r="I251" s="5"/>
       <c r="J251" s="4" t="s">
         <v>446</v>
       </c>
     </row>
     <row r="252" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D252" s="1" t="s">
+      <c r="A252" s="4"/>
+      <c r="B252" s="4"/>
+      <c r="C252" s="5"/>
+      <c r="D252" s="5" t="s">
         <v>444</v>
       </c>
+      <c r="E252" s="5"/>
+      <c r="F252" s="5"/>
+      <c r="G252" s="5"/>
+      <c r="H252" s="5"/>
+      <c r="I252" s="5"/>
       <c r="J252" s="4" t="s">
         <v>446</v>
       </c>
     </row>
     <row r="253" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D253" s="1" t="s">
+      <c r="A253" s="4"/>
+      <c r="B253" s="4"/>
+      <c r="C253" s="5"/>
+      <c r="D253" s="5" t="s">
         <v>445</v>
       </c>
+      <c r="E253" s="5"/>
+      <c r="F253" s="5"/>
+      <c r="G253" s="5"/>
+      <c r="H253" s="5"/>
+      <c r="I253" s="5"/>
       <c r="J253" s="4" t="s">
         <v>446</v>
       </c>
     </row>
     <row r="254" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D254" s="1" t="s">
+      <c r="A254" s="4"/>
+      <c r="B254" s="4"/>
+      <c r="C254" s="5"/>
+      <c r="D254" s="5" t="s">
         <v>447</v>
       </c>
+      <c r="E254" s="5"/>
+      <c r="F254" s="5"/>
+      <c r="G254" s="5"/>
+      <c r="H254" s="5"/>
+      <c r="I254" s="5"/>
       <c r="J254" s="4" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="255" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D255" s="1" t="s">
+      <c r="A255" s="4"/>
+      <c r="B255" s="4"/>
+      <c r="C255" s="5"/>
+      <c r="D255" s="5" t="s">
         <v>449</v>
       </c>
+      <c r="E255" s="5"/>
+      <c r="F255" s="5"/>
+      <c r="G255" s="5"/>
+      <c r="H255" s="5"/>
+      <c r="I255" s="5"/>
       <c r="J255" s="4" t="s">
         <v>450</v>
       </c>
     </row>
     <row r="256" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C256" s="1" t="s">
+      <c r="A256" s="4"/>
+      <c r="B256" s="4"/>
+      <c r="C256" s="5" t="s">
         <v>453</v>
       </c>
-      <c r="D256" s="1" t="s">
+      <c r="D256" s="5" t="s">
         <v>454</v>
       </c>
+      <c r="E256" s="5"/>
+      <c r="F256" s="5"/>
+      <c r="G256" s="5"/>
+      <c r="H256" s="5"/>
+      <c r="I256" s="5"/>
       <c r="J256" s="4" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="257" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D257" s="1" t="s">
+      <c r="A257" s="4"/>
+      <c r="B257" s="4"/>
+      <c r="C257" s="5"/>
+      <c r="D257" s="5" t="s">
         <v>456</v>
       </c>
+      <c r="E257" s="5"/>
+      <c r="F257" s="5"/>
+      <c r="G257" s="5"/>
+      <c r="H257" s="5"/>
+      <c r="I257" s="5"/>
       <c r="J257" s="4" t="s">
         <v>457</v>
       </c>
@@ -5549,71 +7663,142 @@
       <c r="B258" s="4" t="s">
         <v>459</v>
       </c>
-      <c r="D258" s="1" t="s">
+      <c r="C258" s="5"/>
+      <c r="D258" s="5" t="s">
         <v>461</v>
       </c>
+      <c r="E258" s="5"/>
+      <c r="F258" s="5"/>
+      <c r="G258" s="5"/>
+      <c r="H258" s="5"/>
+      <c r="I258" s="5"/>
       <c r="J258" s="4" t="s">
         <v>462</v>
       </c>
     </row>
     <row r="259" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C259" s="1" t="s">
+      <c r="A259" s="4"/>
+      <c r="B259" s="4"/>
+      <c r="C259" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D259" s="1" t="s">
+      <c r="D259" s="5" t="s">
         <v>463</v>
       </c>
+      <c r="E259" s="5"/>
+      <c r="F259" s="5"/>
+      <c r="G259" s="5"/>
+      <c r="H259" s="5"/>
+      <c r="I259" s="5"/>
+      <c r="J259" s="4"/>
     </row>
     <row r="260" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D260" s="1" t="s">
+      <c r="A260" s="4"/>
+      <c r="B260" s="4"/>
+      <c r="C260" s="5"/>
+      <c r="D260" s="5" t="s">
         <v>464</v>
       </c>
+      <c r="E260" s="5"/>
+      <c r="F260" s="5"/>
+      <c r="G260" s="5"/>
+      <c r="H260" s="5"/>
+      <c r="I260" s="5"/>
+      <c r="J260" s="4"/>
     </row>
     <row r="261" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D261" s="1" t="s">
+      <c r="A261" s="4"/>
+      <c r="B261" s="4"/>
+      <c r="C261" s="5"/>
+      <c r="D261" s="5" t="s">
         <v>468</v>
       </c>
+      <c r="E261" s="5"/>
+      <c r="F261" s="5"/>
+      <c r="G261" s="5"/>
+      <c r="H261" s="5"/>
+      <c r="I261" s="5"/>
       <c r="J261" s="4" t="s">
         <v>465</v>
       </c>
     </row>
     <row r="262" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D262" s="1" t="s">
+      <c r="A262" s="4"/>
+      <c r="B262" s="4"/>
+      <c r="C262" s="5"/>
+      <c r="D262" s="5" t="s">
         <v>466</v>
       </c>
+      <c r="E262" s="5"/>
+      <c r="F262" s="5"/>
+      <c r="G262" s="5"/>
+      <c r="H262" s="5"/>
+      <c r="I262" s="5"/>
       <c r="J262" s="4" t="s">
         <v>469</v>
       </c>
     </row>
     <row r="263" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D263" s="1" t="s">
+      <c r="A263" s="4"/>
+      <c r="B263" s="4"/>
+      <c r="C263" s="5"/>
+      <c r="D263" s="5" t="s">
         <v>467</v>
       </c>
-      <c r="J263" s="6" t="s">
+      <c r="E263" s="5"/>
+      <c r="F263" s="5"/>
+      <c r="G263" s="5"/>
+      <c r="H263" s="5"/>
+      <c r="I263" s="5"/>
+      <c r="J263" s="4" t="s">
         <v>470</v>
       </c>
     </row>
     <row r="264" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D264" s="1" t="s">
+      <c r="A264" s="4"/>
+      <c r="B264" s="4"/>
+      <c r="C264" s="5"/>
+      <c r="D264" s="5" t="s">
         <v>471</v>
       </c>
-      <c r="J264" s="6" t="s">
+      <c r="E264" s="5"/>
+      <c r="F264" s="5"/>
+      <c r="G264" s="5"/>
+      <c r="H264" s="5"/>
+      <c r="I264" s="5"/>
+      <c r="J264" s="4" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="265" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D265" s="1" t="s">
+      <c r="A265" s="4"/>
+      <c r="B265" s="4"/>
+      <c r="C265" s="5"/>
+      <c r="D265" s="5" t="s">
         <v>472</v>
       </c>
-      <c r="J265" s="6" t="s">
+      <c r="E265" s="5"/>
+      <c r="F265" s="5"/>
+      <c r="G265" s="5"/>
+      <c r="H265" s="5"/>
+      <c r="I265" s="5"/>
+      <c r="J265" s="4" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="266" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D266" s="1" t="s">
+      <c r="A266" s="4"/>
+      <c r="B266" s="4"/>
+      <c r="C266" s="5"/>
+      <c r="D266" s="5" t="s">
         <v>485</v>
       </c>
-      <c r="J266" s="6" t="s">
+      <c r="E266" s="5"/>
+      <c r="F266" s="5"/>
+      <c r="G266" s="5"/>
+      <c r="H266" s="5"/>
+      <c r="I266" s="5"/>
+      <c r="J266" s="4" t="s">
         <v>475</v>
       </c>
     </row>
@@ -5624,50 +7809,96 @@
       <c r="B267" s="4" t="s">
         <v>476</v>
       </c>
-      <c r="D267" s="1" t="s">
+      <c r="C267" s="5"/>
+      <c r="D267" s="5" t="s">
         <v>477</v>
       </c>
-      <c r="J267" s="6" t="s">
+      <c r="E267" s="5"/>
+      <c r="F267" s="5"/>
+      <c r="G267" s="5"/>
+      <c r="H267" s="5"/>
+      <c r="I267" s="5"/>
+      <c r="J267" s="4" t="s">
         <v>478</v>
       </c>
     </row>
     <row r="268" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D268" s="1" t="s">
+      <c r="A268" s="4"/>
+      <c r="B268" s="4"/>
+      <c r="C268" s="5"/>
+      <c r="D268" s="5" t="s">
         <v>479</v>
       </c>
-      <c r="J268" s="6" t="s">
+      <c r="E268" s="5"/>
+      <c r="F268" s="5"/>
+      <c r="G268" s="5"/>
+      <c r="H268" s="5"/>
+      <c r="I268" s="5"/>
+      <c r="J268" s="4" t="s">
         <v>480</v>
       </c>
     </row>
     <row r="269" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D269" s="1" t="s">
+      <c r="A269" s="4"/>
+      <c r="B269" s="4"/>
+      <c r="C269" s="5"/>
+      <c r="D269" s="5" t="s">
         <v>481</v>
       </c>
-      <c r="J269" s="6" t="s">
+      <c r="E269" s="5"/>
+      <c r="F269" s="5"/>
+      <c r="G269" s="5"/>
+      <c r="H269" s="5"/>
+      <c r="I269" s="5"/>
+      <c r="J269" s="4" t="s">
         <v>482</v>
       </c>
     </row>
     <row r="270" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D270" s="1" t="s">
+      <c r="A270" s="4"/>
+      <c r="B270" s="4"/>
+      <c r="C270" s="5"/>
+      <c r="D270" s="5" t="s">
         <v>483</v>
       </c>
-      <c r="J270" s="6" t="s">
+      <c r="E270" s="5"/>
+      <c r="F270" s="5"/>
+      <c r="G270" s="5"/>
+      <c r="H270" s="5"/>
+      <c r="I270" s="5"/>
+      <c r="J270" s="4" t="s">
         <v>484</v>
       </c>
     </row>
     <row r="271" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D271" s="1" t="s">
+      <c r="A271" s="4"/>
+      <c r="B271" s="4"/>
+      <c r="C271" s="5"/>
+      <c r="D271" s="5" t="s">
         <v>486</v>
       </c>
-      <c r="J271" s="6" t="s">
+      <c r="E271" s="5"/>
+      <c r="F271" s="5"/>
+      <c r="G271" s="5"/>
+      <c r="H271" s="5"/>
+      <c r="I271" s="5"/>
+      <c r="J271" s="4" t="s">
         <v>487</v>
       </c>
     </row>
     <row r="272" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D272" s="1" t="s">
+      <c r="A272" s="4"/>
+      <c r="B272" s="4"/>
+      <c r="C272" s="5"/>
+      <c r="D272" s="5" t="s">
         <v>488</v>
       </c>
-      <c r="J272" s="6" t="s">
+      <c r="E272" s="5"/>
+      <c r="F272" s="5"/>
+      <c r="G272" s="5"/>
+      <c r="H272" s="5"/>
+      <c r="I272" s="5"/>
+      <c r="J272" s="4" t="s">
         <v>489</v>
       </c>
     </row>
@@ -5678,68 +7909,129 @@
       <c r="B273" s="4" t="s">
         <v>490</v>
       </c>
-      <c r="D273" s="1" t="s">
+      <c r="C273" s="5"/>
+      <c r="D273" s="5" t="s">
         <v>491</v>
       </c>
+      <c r="E273" s="5"/>
+      <c r="F273" s="5"/>
+      <c r="G273" s="5"/>
+      <c r="H273" s="5"/>
+      <c r="I273" s="5"/>
       <c r="J273" s="4" t="s">
         <v>492</v>
       </c>
     </row>
     <row r="274" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D274" s="1" t="s">
+      <c r="A274" s="4"/>
+      <c r="B274" s="4"/>
+      <c r="C274" s="5"/>
+      <c r="D274" s="5" t="s">
         <v>494</v>
       </c>
+      <c r="E274" s="5"/>
+      <c r="F274" s="5"/>
+      <c r="G274" s="5"/>
+      <c r="H274" s="5"/>
+      <c r="I274" s="5"/>
       <c r="J274" s="4" t="s">
         <v>493</v>
       </c>
     </row>
     <row r="275" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D275" s="1" t="s">
+      <c r="A275" s="4"/>
+      <c r="B275" s="4"/>
+      <c r="C275" s="5"/>
+      <c r="D275" s="5" t="s">
         <v>496</v>
       </c>
+      <c r="E275" s="5"/>
+      <c r="F275" s="5"/>
+      <c r="G275" s="5"/>
+      <c r="H275" s="5"/>
+      <c r="I275" s="5"/>
       <c r="J275" s="4" t="s">
         <v>497</v>
       </c>
     </row>
     <row r="276" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D276" s="1" t="s">
+      <c r="A276" s="4"/>
+      <c r="B276" s="4"/>
+      <c r="C276" s="5"/>
+      <c r="D276" s="5" t="s">
         <v>500</v>
       </c>
+      <c r="E276" s="5"/>
+      <c r="F276" s="5"/>
+      <c r="G276" s="5"/>
+      <c r="H276" s="5"/>
+      <c r="I276" s="5"/>
       <c r="J276" s="4" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="277" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D277" s="1" t="s">
+      <c r="A277" s="4"/>
+      <c r="B277" s="4"/>
+      <c r="C277" s="5"/>
+      <c r="D277" s="5" t="s">
         <v>499</v>
       </c>
+      <c r="E277" s="5"/>
+      <c r="F277" s="5"/>
+      <c r="G277" s="5"/>
+      <c r="H277" s="5"/>
+      <c r="I277" s="5"/>
       <c r="J277" s="4" t="s">
         <v>501</v>
       </c>
     </row>
     <row r="278" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C278" s="1" t="s">
+      <c r="A278" s="4"/>
+      <c r="B278" s="4"/>
+      <c r="C278" s="5" t="s">
         <v>495</v>
       </c>
-      <c r="D278" s="1" t="s">
+      <c r="D278" s="5" t="s">
         <v>502</v>
       </c>
+      <c r="E278" s="5"/>
+      <c r="F278" s="5"/>
+      <c r="G278" s="5"/>
+      <c r="H278" s="5"/>
+      <c r="I278" s="5"/>
       <c r="J278" s="4" t="s">
         <v>506</v>
       </c>
     </row>
     <row r="279" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D279" s="1" t="s">
+      <c r="A279" s="4"/>
+      <c r="B279" s="4"/>
+      <c r="C279" s="5"/>
+      <c r="D279" s="5" t="s">
         <v>503</v>
       </c>
+      <c r="E279" s="5"/>
+      <c r="F279" s="5"/>
+      <c r="G279" s="5"/>
+      <c r="H279" s="5"/>
+      <c r="I279" s="5"/>
       <c r="J279" s="4" t="s">
         <v>507</v>
       </c>
     </row>
     <row r="280" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D280" s="1" t="s">
+      <c r="A280" s="4"/>
+      <c r="B280" s="4"/>
+      <c r="C280" s="5"/>
+      <c r="D280" s="5" t="s">
         <v>504</v>
       </c>
+      <c r="E280" s="5"/>
+      <c r="F280" s="5"/>
+      <c r="G280" s="5"/>
+      <c r="H280" s="5"/>
+      <c r="I280" s="5"/>
       <c r="J280" s="4" t="s">
         <v>508</v>
       </c>
@@ -5751,76 +8043,145 @@
       <c r="B281" s="4" t="s">
         <v>505</v>
       </c>
-      <c r="D281" s="1" t="s">
+      <c r="C281" s="5"/>
+      <c r="D281" s="5" t="s">
         <v>515</v>
       </c>
+      <c r="E281" s="5"/>
+      <c r="F281" s="5"/>
+      <c r="G281" s="5"/>
+      <c r="H281" s="5"/>
+      <c r="I281" s="5"/>
       <c r="J281" s="4" t="s">
         <v>518</v>
       </c>
     </row>
     <row r="282" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D282" s="1" t="s">
+      <c r="A282" s="4"/>
+      <c r="B282" s="4"/>
+      <c r="C282" s="5"/>
+      <c r="D282" s="5" t="s">
         <v>516</v>
       </c>
+      <c r="E282" s="5"/>
+      <c r="F282" s="5"/>
+      <c r="G282" s="5"/>
+      <c r="H282" s="5"/>
+      <c r="I282" s="5"/>
       <c r="J282" s="4" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="283" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D283" s="7" t="s">
+      <c r="A283" s="4"/>
+      <c r="B283" s="4"/>
+      <c r="C283" s="5"/>
+      <c r="D283" s="5" t="s">
         <v>517</v>
       </c>
+      <c r="E283" s="5"/>
+      <c r="F283" s="5"/>
+      <c r="G283" s="5"/>
+      <c r="H283" s="5"/>
+      <c r="I283" s="5"/>
       <c r="J283" s="4" t="s">
         <v>520</v>
       </c>
     </row>
     <row r="284" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D284" s="1" t="s">
+      <c r="A284" s="4"/>
+      <c r="B284" s="4"/>
+      <c r="C284" s="5"/>
+      <c r="D284" s="5" t="s">
         <v>510</v>
       </c>
+      <c r="E284" s="5"/>
+      <c r="F284" s="5"/>
+      <c r="G284" s="5"/>
+      <c r="H284" s="5"/>
+      <c r="I284" s="5"/>
       <c r="J284" s="4" t="s">
         <v>512</v>
       </c>
     </row>
     <row r="285" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D285" s="1" t="s">
+      <c r="A285" s="4"/>
+      <c r="B285" s="4"/>
+      <c r="C285" s="5"/>
+      <c r="D285" s="5" t="s">
         <v>509</v>
       </c>
+      <c r="E285" s="5"/>
+      <c r="F285" s="5"/>
+      <c r="G285" s="5"/>
+      <c r="H285" s="5"/>
+      <c r="I285" s="5"/>
       <c r="J285" s="4" t="s">
         <v>513</v>
       </c>
     </row>
     <row r="286" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C286" s="1" t="s">
+      <c r="A286" s="4"/>
+      <c r="B286" s="4"/>
+      <c r="C286" s="5" t="s">
         <v>521</v>
       </c>
-      <c r="D286" s="1" t="s">
+      <c r="D286" s="5" t="s">
         <v>511</v>
       </c>
+      <c r="E286" s="5"/>
+      <c r="F286" s="5"/>
+      <c r="G286" s="5"/>
+      <c r="H286" s="5"/>
+      <c r="I286" s="5"/>
       <c r="J286" s="4" t="s">
         <v>514</v>
       </c>
     </row>
     <row r="287" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D287" s="1" t="s">
+      <c r="A287" s="4"/>
+      <c r="B287" s="4"/>
+      <c r="C287" s="5"/>
+      <c r="D287" s="5" t="s">
         <v>522</v>
       </c>
+      <c r="E287" s="5"/>
+      <c r="F287" s="5"/>
+      <c r="G287" s="5"/>
+      <c r="H287" s="5"/>
+      <c r="I287" s="5"/>
       <c r="J287" s="4" t="s">
         <v>525</v>
       </c>
     </row>
     <row r="288" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D288" s="1" t="s">
+      <c r="A288" s="4"/>
+      <c r="B288" s="4"/>
+      <c r="C288" s="5"/>
+      <c r="D288" s="5" t="s">
         <v>523</v>
       </c>
+      <c r="E288" s="5"/>
+      <c r="F288" s="5"/>
+      <c r="G288" s="5"/>
+      <c r="H288" s="5"/>
+      <c r="I288" s="5"/>
       <c r="J288" s="4" t="s">
         <v>525</v>
       </c>
     </row>
     <row r="289" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D289" s="1" t="s">
+      <c r="A289" s="4"/>
+      <c r="B289" s="4"/>
+      <c r="C289" s="5"/>
+      <c r="D289" s="5" t="s">
         <v>524</v>
       </c>
+      <c r="E289" s="5"/>
+      <c r="F289" s="5"/>
+      <c r="G289" s="5"/>
+      <c r="H289" s="5"/>
+      <c r="I289" s="5"/>
       <c r="J289" s="4" t="s">
         <v>525</v>
       </c>
@@ -5832,105 +8193,207 @@
       <c r="B290" s="4" t="s">
         <v>526</v>
       </c>
-      <c r="D290" s="1" t="s">
+      <c r="C290" s="5"/>
+      <c r="D290" s="5" t="s">
         <v>527</v>
       </c>
+      <c r="E290" s="5"/>
+      <c r="F290" s="5"/>
+      <c r="G290" s="5"/>
+      <c r="H290" s="5"/>
+      <c r="I290" s="5"/>
       <c r="J290" s="4" t="s">
         <v>528</v>
       </c>
     </row>
     <row r="291" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D291" s="1" t="s">
+      <c r="A291" s="4"/>
+      <c r="B291" s="4"/>
+      <c r="C291" s="5"/>
+      <c r="D291" s="5" t="s">
         <v>529</v>
       </c>
+      <c r="E291" s="5"/>
+      <c r="F291" s="5"/>
+      <c r="G291" s="5"/>
+      <c r="H291" s="5"/>
+      <c r="I291" s="5"/>
       <c r="J291" s="4" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="292" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D292" s="1" t="s">
+      <c r="A292" s="4"/>
+      <c r="B292" s="4"/>
+      <c r="C292" s="5"/>
+      <c r="D292" s="5" t="s">
         <v>531</v>
       </c>
+      <c r="E292" s="5"/>
+      <c r="F292" s="5"/>
+      <c r="G292" s="5"/>
+      <c r="H292" s="5"/>
+      <c r="I292" s="5"/>
       <c r="J292" s="4" t="s">
         <v>534</v>
       </c>
     </row>
     <row r="293" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D293" s="1" t="s">
+      <c r="A293" s="4"/>
+      <c r="B293" s="4"/>
+      <c r="C293" s="5"/>
+      <c r="D293" s="5" t="s">
         <v>532</v>
       </c>
+      <c r="E293" s="5"/>
+      <c r="F293" s="5"/>
+      <c r="G293" s="5"/>
+      <c r="H293" s="5"/>
+      <c r="I293" s="5"/>
       <c r="J293" s="4" t="s">
         <v>535</v>
       </c>
     </row>
     <row r="294" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D294" s="7" t="s">
+      <c r="A294" s="4"/>
+      <c r="B294" s="4"/>
+      <c r="C294" s="5"/>
+      <c r="D294" s="5" t="s">
         <v>533</v>
       </c>
+      <c r="E294" s="5"/>
+      <c r="F294" s="5"/>
+      <c r="G294" s="5"/>
+      <c r="H294" s="5"/>
+      <c r="I294" s="5"/>
       <c r="J294" s="4" t="s">
         <v>536</v>
       </c>
     </row>
     <row r="295" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D295" s="1" t="s">
+      <c r="A295" s="4"/>
+      <c r="B295" s="4"/>
+      <c r="C295" s="5"/>
+      <c r="D295" s="5" t="s">
         <v>537</v>
       </c>
+      <c r="E295" s="5"/>
+      <c r="F295" s="5"/>
+      <c r="G295" s="5"/>
+      <c r="H295" s="5"/>
+      <c r="I295" s="5"/>
       <c r="J295" s="4" t="s">
         <v>538</v>
       </c>
     </row>
     <row r="296" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D296" s="1" t="s">
+      <c r="A296" s="4"/>
+      <c r="B296" s="4"/>
+      <c r="C296" s="5"/>
+      <c r="D296" s="5" t="s">
         <v>539</v>
       </c>
+      <c r="E296" s="5"/>
+      <c r="F296" s="5"/>
+      <c r="G296" s="5"/>
+      <c r="H296" s="5"/>
+      <c r="I296" s="5"/>
       <c r="J296" s="4" t="s">
         <v>541</v>
       </c>
     </row>
     <row r="297" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D297" s="1" t="s">
+      <c r="A297" s="4"/>
+      <c r="B297" s="4"/>
+      <c r="C297" s="5"/>
+      <c r="D297" s="5" t="s">
         <v>540</v>
       </c>
+      <c r="E297" s="5"/>
+      <c r="F297" s="5"/>
+      <c r="G297" s="5"/>
+      <c r="H297" s="5"/>
+      <c r="I297" s="5"/>
       <c r="J297" s="4" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="298" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C298" s="1" t="s">
+      <c r="A298" s="4"/>
+      <c r="B298" s="4"/>
+      <c r="C298" s="5" t="s">
         <v>543</v>
       </c>
-      <c r="D298" s="1" t="s">
+      <c r="D298" s="5" t="s">
         <v>544</v>
       </c>
+      <c r="E298" s="5"/>
+      <c r="F298" s="5"/>
+      <c r="G298" s="5"/>
+      <c r="H298" s="5"/>
+      <c r="I298" s="5"/>
+      <c r="J298" s="4"/>
     </row>
     <row r="299" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D299" s="1" t="s">
+      <c r="A299" s="4"/>
+      <c r="B299" s="4"/>
+      <c r="C299" s="5"/>
+      <c r="D299" s="5" t="s">
         <v>545</v>
       </c>
+      <c r="E299" s="5"/>
+      <c r="F299" s="5"/>
+      <c r="G299" s="5"/>
+      <c r="H299" s="5"/>
+      <c r="I299" s="5"/>
       <c r="J299" s="4" t="s">
         <v>546</v>
       </c>
     </row>
     <row r="300" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D300" s="1" t="s">
+      <c r="A300" s="4"/>
+      <c r="B300" s="4"/>
+      <c r="C300" s="5"/>
+      <c r="D300" s="5" t="s">
         <v>547</v>
       </c>
+      <c r="E300" s="5"/>
+      <c r="F300" s="5"/>
+      <c r="G300" s="5"/>
+      <c r="H300" s="5"/>
+      <c r="I300" s="5"/>
       <c r="J300" s="4" t="s">
         <v>548</v>
       </c>
     </row>
     <row r="301" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D301" s="1" t="s">
+      <c r="A301" s="4"/>
+      <c r="B301" s="4"/>
+      <c r="C301" s="5"/>
+      <c r="D301" s="5" t="s">
         <v>549</v>
       </c>
+      <c r="E301" s="5"/>
+      <c r="F301" s="5"/>
+      <c r="G301" s="5"/>
+      <c r="H301" s="5"/>
+      <c r="I301" s="5"/>
       <c r="J301" s="4" t="s">
         <v>551</v>
       </c>
     </row>
     <row r="302" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D302" s="1" t="s">
+      <c r="A302" s="4"/>
+      <c r="B302" s="4"/>
+      <c r="C302" s="5"/>
+      <c r="D302" s="5" t="s">
         <v>550</v>
       </c>
+      <c r="E302" s="5"/>
+      <c r="F302" s="5"/>
+      <c r="G302" s="5"/>
+      <c r="H302" s="5"/>
+      <c r="I302" s="5"/>
       <c r="J302" s="4" t="s">
         <v>552</v>
       </c>
@@ -5942,79 +8405,147 @@
       <c r="B303" s="4" t="s">
         <v>553</v>
       </c>
-      <c r="C303" s="1" t="s">
+      <c r="C303" s="5" t="s">
         <v>333</v>
       </c>
-      <c r="D303" s="1" t="s">
+      <c r="D303" s="5" t="s">
         <v>554</v>
       </c>
+      <c r="E303" s="5"/>
+      <c r="F303" s="5"/>
+      <c r="G303" s="5"/>
+      <c r="H303" s="5"/>
+      <c r="I303" s="5"/>
       <c r="J303" s="4" t="s">
         <v>555</v>
       </c>
     </row>
     <row r="304" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D304" s="1" t="s">
+      <c r="A304" s="4"/>
+      <c r="B304" s="4"/>
+      <c r="C304" s="5"/>
+      <c r="D304" s="5" t="s">
         <v>556</v>
       </c>
+      <c r="E304" s="5"/>
+      <c r="F304" s="5"/>
+      <c r="G304" s="5"/>
+      <c r="H304" s="5"/>
+      <c r="I304" s="5"/>
       <c r="J304" s="4" t="s">
         <v>557</v>
       </c>
     </row>
     <row r="305" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D305" s="1" t="s">
+      <c r="A305" s="4"/>
+      <c r="B305" s="4"/>
+      <c r="C305" s="5"/>
+      <c r="D305" s="5" t="s">
         <v>558</v>
       </c>
+      <c r="E305" s="5"/>
+      <c r="F305" s="5"/>
+      <c r="G305" s="5"/>
+      <c r="H305" s="5"/>
+      <c r="I305" s="5"/>
       <c r="J305" s="4" t="s">
         <v>559</v>
       </c>
     </row>
     <row r="306" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D306" s="1" t="s">
+      <c r="A306" s="4"/>
+      <c r="B306" s="4"/>
+      <c r="C306" s="5"/>
+      <c r="D306" s="5" t="s">
         <v>560</v>
       </c>
+      <c r="E306" s="5"/>
+      <c r="F306" s="5"/>
+      <c r="G306" s="5"/>
+      <c r="H306" s="5"/>
+      <c r="I306" s="5"/>
       <c r="J306" s="4" t="s">
         <v>561</v>
       </c>
     </row>
     <row r="307" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D307" s="1" t="s">
+      <c r="A307" s="4"/>
+      <c r="B307" s="4"/>
+      <c r="C307" s="5"/>
+      <c r="D307" s="5" t="s">
         <v>562</v>
       </c>
+      <c r="E307" s="5"/>
+      <c r="F307" s="5"/>
+      <c r="G307" s="5"/>
+      <c r="H307" s="5"/>
+      <c r="I307" s="5"/>
       <c r="J307" s="4" t="s">
         <v>563</v>
       </c>
     </row>
     <row r="308" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D308" s="1" t="s">
+      <c r="A308" s="4"/>
+      <c r="B308" s="4"/>
+      <c r="C308" s="5"/>
+      <c r="D308" s="5" t="s">
         <v>564</v>
       </c>
+      <c r="E308" s="5"/>
+      <c r="F308" s="5"/>
+      <c r="G308" s="5"/>
+      <c r="H308" s="5"/>
+      <c r="I308" s="5"/>
       <c r="J308" s="4" t="s">
         <v>565</v>
       </c>
     </row>
     <row r="309" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D309" s="1" t="s">
+      <c r="A309" s="4"/>
+      <c r="B309" s="4"/>
+      <c r="C309" s="5"/>
+      <c r="D309" s="5" t="s">
         <v>566</v>
       </c>
+      <c r="E309" s="5"/>
+      <c r="F309" s="5"/>
+      <c r="G309" s="5"/>
+      <c r="H309" s="5"/>
+      <c r="I309" s="5"/>
       <c r="J309" s="4" t="s">
         <v>567</v>
       </c>
     </row>
     <row r="310" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D310" s="1" t="s">
+      <c r="A310" s="4"/>
+      <c r="B310" s="4"/>
+      <c r="C310" s="5"/>
+      <c r="D310" s="5" t="s">
         <v>568</v>
       </c>
+      <c r="E310" s="5"/>
+      <c r="F310" s="5"/>
+      <c r="G310" s="5"/>
+      <c r="H310" s="5"/>
+      <c r="I310" s="5"/>
       <c r="J310" s="4" t="s">
         <v>569</v>
       </c>
     </row>
     <row r="311" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C311" s="1" t="s">
+      <c r="A311" s="4"/>
+      <c r="B311" s="4"/>
+      <c r="C311" s="5" t="s">
         <v>570</v>
       </c>
-      <c r="D311" s="1" t="s">
+      <c r="D311" s="5" t="s">
         <v>571</v>
       </c>
+      <c r="E311" s="5"/>
+      <c r="F311" s="5"/>
+      <c r="G311" s="5"/>
+      <c r="H311" s="5"/>
+      <c r="I311" s="5"/>
       <c r="J311" s="4" t="s">
         <v>572</v>
       </c>
@@ -6026,28 +8557,49 @@
       <c r="B312" s="4" t="s">
         <v>573</v>
       </c>
-      <c r="C312" s="1" t="s">
+      <c r="C312" s="5" t="s">
         <v>495</v>
       </c>
-      <c r="D312" s="1" t="s">
+      <c r="D312" s="5" t="s">
         <v>574</v>
       </c>
+      <c r="E312" s="5"/>
+      <c r="F312" s="5"/>
+      <c r="G312" s="5"/>
+      <c r="H312" s="5"/>
+      <c r="I312" s="5"/>
       <c r="J312" s="4" t="s">
         <v>575</v>
       </c>
     </row>
     <row r="313" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D313" s="1" t="s">
+      <c r="A313" s="4"/>
+      <c r="B313" s="4"/>
+      <c r="C313" s="5"/>
+      <c r="D313" s="5" t="s">
         <v>576</v>
       </c>
+      <c r="E313" s="5"/>
+      <c r="F313" s="5"/>
+      <c r="G313" s="5"/>
+      <c r="H313" s="5"/>
+      <c r="I313" s="5"/>
       <c r="J313" s="4" t="s">
         <v>577</v>
       </c>
     </row>
     <row r="314" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D314" s="1" t="s">
+      <c r="A314" s="4"/>
+      <c r="B314" s="4"/>
+      <c r="C314" s="5"/>
+      <c r="D314" s="5" t="s">
         <v>578</v>
       </c>
+      <c r="E314" s="5"/>
+      <c r="F314" s="5"/>
+      <c r="G314" s="5"/>
+      <c r="H314" s="5"/>
+      <c r="I314" s="5"/>
       <c r="J314" s="4" t="s">
         <v>579</v>
       </c>
@@ -6059,42 +8611,102 @@
       <c r="B315" s="4" t="s">
         <v>580</v>
       </c>
-      <c r="D315" s="1" t="s">
+      <c r="C315" s="5"/>
+      <c r="D315" s="5" t="s">
         <v>581</v>
       </c>
+      <c r="E315" s="5"/>
+      <c r="F315" s="5"/>
+      <c r="G315" s="5"/>
+      <c r="H315" s="5"/>
+      <c r="I315" s="5"/>
+      <c r="J315" s="4"/>
     </row>
     <row r="316" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D316" s="1" t="s">
+      <c r="A316" s="4"/>
+      <c r="B316" s="4"/>
+      <c r="C316" s="5"/>
+      <c r="D316" s="5" t="s">
         <v>582</v>
       </c>
+      <c r="E316" s="5"/>
+      <c r="F316" s="5"/>
+      <c r="G316" s="5"/>
+      <c r="H316" s="5"/>
+      <c r="I316" s="5"/>
       <c r="J316" s="4" t="s">
         <v>583</v>
       </c>
     </row>
     <row r="317" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D317" s="1" t="s">
+      <c r="A317" s="4"/>
+      <c r="B317" s="4"/>
+      <c r="C317" s="5"/>
+      <c r="D317" s="5" t="s">
         <v>584</v>
       </c>
+      <c r="E317" s="5"/>
+      <c r="F317" s="5"/>
+      <c r="G317" s="5"/>
+      <c r="H317" s="5"/>
+      <c r="I317" s="5"/>
+      <c r="J317" s="4"/>
     </row>
     <row r="318" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D318" s="1" t="s">
+      <c r="A318" s="4"/>
+      <c r="B318" s="4"/>
+      <c r="C318" s="5"/>
+      <c r="D318" s="5" t="s">
         <v>585</v>
       </c>
+      <c r="E318" s="5"/>
+      <c r="F318" s="5"/>
+      <c r="G318" s="5"/>
+      <c r="H318" s="5"/>
+      <c r="I318" s="5"/>
+      <c r="J318" s="4"/>
     </row>
     <row r="319" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D319" s="1" t="s">
+      <c r="A319" s="4"/>
+      <c r="B319" s="4"/>
+      <c r="C319" s="5"/>
+      <c r="D319" s="5" t="s">
         <v>586</v>
       </c>
+      <c r="E319" s="5"/>
+      <c r="F319" s="5"/>
+      <c r="G319" s="5"/>
+      <c r="H319" s="5"/>
+      <c r="I319" s="5"/>
+      <c r="J319" s="4"/>
     </row>
     <row r="320" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D320" s="1" t="s">
+      <c r="A320" s="4"/>
+      <c r="B320" s="4"/>
+      <c r="C320" s="5"/>
+      <c r="D320" s="5" t="s">
         <v>587</v>
       </c>
+      <c r="E320" s="5"/>
+      <c r="F320" s="5"/>
+      <c r="G320" s="5"/>
+      <c r="H320" s="5"/>
+      <c r="I320" s="5"/>
+      <c r="J320" s="4"/>
     </row>
     <row r="321" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D321" s="1" t="s">
+      <c r="A321" s="4"/>
+      <c r="B321" s="4"/>
+      <c r="C321" s="5"/>
+      <c r="D321" s="5" t="s">
         <v>588</v>
       </c>
+      <c r="E321" s="5"/>
+      <c r="F321" s="5"/>
+      <c r="G321" s="5"/>
+      <c r="H321" s="5"/>
+      <c r="I321" s="5"/>
+      <c r="J321" s="4"/>
     </row>
     <row r="322" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A322" s="4">
@@ -6103,188 +8715,369 @@
       <c r="B322" s="4" t="s">
         <v>589</v>
       </c>
-      <c r="C322" s="1" t="s">
+      <c r="C322" s="5" t="s">
         <v>590</v>
       </c>
-      <c r="D322" s="1" t="s">
+      <c r="D322" s="5" t="s">
         <v>591</v>
       </c>
+      <c r="E322" s="5"/>
+      <c r="F322" s="5"/>
+      <c r="G322" s="5"/>
+      <c r="H322" s="5"/>
+      <c r="I322" s="5"/>
       <c r="J322" s="4" t="s">
         <v>592</v>
       </c>
     </row>
     <row r="323" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D323" s="1" t="s">
+      <c r="A323" s="4"/>
+      <c r="B323" s="4"/>
+      <c r="C323" s="5"/>
+      <c r="D323" s="5" t="s">
         <v>593</v>
       </c>
+      <c r="E323" s="5"/>
+      <c r="F323" s="5"/>
+      <c r="G323" s="5"/>
+      <c r="H323" s="5"/>
+      <c r="I323" s="5"/>
       <c r="J323" s="4" t="s">
         <v>594</v>
       </c>
     </row>
     <row r="324" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D324" s="1" t="s">
+      <c r="A324" s="4"/>
+      <c r="B324" s="4"/>
+      <c r="C324" s="5"/>
+      <c r="D324" s="5" t="s">
         <v>595</v>
       </c>
+      <c r="E324" s="5"/>
+      <c r="F324" s="5"/>
+      <c r="G324" s="5"/>
+      <c r="H324" s="5"/>
+      <c r="I324" s="5"/>
       <c r="J324" s="4" t="s">
         <v>596</v>
       </c>
     </row>
     <row r="325" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D325" s="1" t="s">
+      <c r="A325" s="4"/>
+      <c r="B325" s="4"/>
+      <c r="C325" s="5"/>
+      <c r="D325" s="5" t="s">
         <v>597</v>
       </c>
+      <c r="E325" s="5"/>
+      <c r="F325" s="5"/>
+      <c r="G325" s="5"/>
+      <c r="H325" s="5"/>
+      <c r="I325" s="5"/>
       <c r="J325" s="4" t="s">
         <v>598</v>
       </c>
     </row>
     <row r="326" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D326" s="1" t="s">
+      <c r="A326" s="4"/>
+      <c r="B326" s="4"/>
+      <c r="C326" s="5"/>
+      <c r="D326" s="5" t="s">
         <v>599</v>
       </c>
+      <c r="E326" s="5"/>
+      <c r="F326" s="5"/>
+      <c r="G326" s="5"/>
+      <c r="H326" s="5"/>
+      <c r="I326" s="5"/>
       <c r="J326" s="4" t="s">
         <v>600</v>
       </c>
     </row>
     <row r="327" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D327" s="1" t="s">
+      <c r="A327" s="4"/>
+      <c r="B327" s="4"/>
+      <c r="C327" s="5"/>
+      <c r="D327" s="5" t="s">
         <v>601</v>
       </c>
+      <c r="E327" s="5"/>
+      <c r="F327" s="5"/>
+      <c r="G327" s="5"/>
+      <c r="H327" s="5"/>
+      <c r="I327" s="5"/>
       <c r="J327" s="4" t="s">
         <v>602</v>
       </c>
     </row>
     <row r="328" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D328" s="1" t="s">
+      <c r="A328" s="4"/>
+      <c r="B328" s="4"/>
+      <c r="C328" s="5"/>
+      <c r="D328" s="5" t="s">
         <v>603</v>
       </c>
+      <c r="E328" s="5"/>
+      <c r="F328" s="5"/>
+      <c r="G328" s="5"/>
+      <c r="H328" s="5"/>
+      <c r="I328" s="5"/>
       <c r="J328" s="4" t="s">
         <v>604</v>
       </c>
     </row>
     <row r="329" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D329" s="1" t="s">
+      <c r="A329" s="4"/>
+      <c r="B329" s="4"/>
+      <c r="C329" s="5"/>
+      <c r="D329" s="5" t="s">
         <v>605</v>
       </c>
+      <c r="E329" s="5"/>
+      <c r="F329" s="5"/>
+      <c r="G329" s="5"/>
+      <c r="H329" s="5"/>
+      <c r="I329" s="5"/>
       <c r="J329" s="4" t="s">
         <v>606</v>
       </c>
     </row>
     <row r="330" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D330" s="1" t="s">
+      <c r="A330" s="4"/>
+      <c r="B330" s="4"/>
+      <c r="C330" s="5"/>
+      <c r="D330" s="5" t="s">
         <v>607</v>
       </c>
+      <c r="E330" s="5"/>
+      <c r="F330" s="5"/>
+      <c r="G330" s="5"/>
+      <c r="H330" s="5"/>
+      <c r="I330" s="5"/>
       <c r="J330" s="4" t="s">
         <v>608</v>
       </c>
     </row>
     <row r="331" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D331" s="1" t="s">
+      <c r="A331" s="4"/>
+      <c r="B331" s="4"/>
+      <c r="C331" s="5"/>
+      <c r="D331" s="5" t="s">
         <v>609</v>
       </c>
+      <c r="E331" s="5"/>
+      <c r="F331" s="5"/>
+      <c r="G331" s="5"/>
+      <c r="H331" s="5"/>
+      <c r="I331" s="5"/>
       <c r="J331" s="4" t="s">
         <v>610</v>
       </c>
     </row>
     <row r="332" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D332" s="1" t="s">
+      <c r="A332" s="4"/>
+      <c r="B332" s="4"/>
+      <c r="C332" s="5"/>
+      <c r="D332" s="5" t="s">
         <v>611</v>
       </c>
+      <c r="E332" s="5"/>
+      <c r="F332" s="5"/>
+      <c r="G332" s="5"/>
+      <c r="H332" s="5"/>
+      <c r="I332" s="5"/>
       <c r="J332" s="4" t="s">
         <v>612</v>
       </c>
     </row>
     <row r="333" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D333" s="1" t="s">
+      <c r="A333" s="4"/>
+      <c r="B333" s="4"/>
+      <c r="C333" s="5"/>
+      <c r="D333" s="5" t="s">
         <v>613</v>
       </c>
+      <c r="E333" s="5"/>
+      <c r="F333" s="5"/>
+      <c r="G333" s="5"/>
+      <c r="H333" s="5"/>
+      <c r="I333" s="5"/>
       <c r="J333" s="4" t="s">
         <v>614</v>
       </c>
     </row>
     <row r="334" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D334" s="1" t="s">
+      <c r="A334" s="4"/>
+      <c r="B334" s="4"/>
+      <c r="C334" s="5"/>
+      <c r="D334" s="5" t="s">
         <v>615</v>
       </c>
+      <c r="E334" s="5"/>
+      <c r="F334" s="5"/>
+      <c r="G334" s="5"/>
+      <c r="H334" s="5"/>
+      <c r="I334" s="5"/>
       <c r="J334" s="4" t="s">
         <v>616</v>
       </c>
     </row>
     <row r="335" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D335" s="1" t="s">
+      <c r="A335" s="4"/>
+      <c r="B335" s="4"/>
+      <c r="C335" s="5"/>
+      <c r="D335" s="5" t="s">
         <v>617</v>
       </c>
+      <c r="E335" s="5"/>
+      <c r="F335" s="5"/>
+      <c r="G335" s="5"/>
+      <c r="H335" s="5"/>
+      <c r="I335" s="5"/>
       <c r="J335" s="4" t="s">
         <v>618</v>
       </c>
     </row>
     <row r="336" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D336" s="1" t="s">
+      <c r="A336" s="4"/>
+      <c r="B336" s="4"/>
+      <c r="C336" s="5"/>
+      <c r="D336" s="5" t="s">
         <v>619</v>
       </c>
+      <c r="E336" s="5"/>
+      <c r="F336" s="5"/>
+      <c r="G336" s="5"/>
+      <c r="H336" s="5"/>
+      <c r="I336" s="5"/>
       <c r="J336" s="4" t="s">
         <v>620</v>
       </c>
     </row>
     <row r="337" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D337" s="1" t="s">
+      <c r="A337" s="4"/>
+      <c r="B337" s="4"/>
+      <c r="C337" s="5"/>
+      <c r="D337" s="5" t="s">
         <v>621</v>
       </c>
+      <c r="E337" s="5"/>
+      <c r="F337" s="5"/>
+      <c r="G337" s="5"/>
+      <c r="H337" s="5"/>
+      <c r="I337" s="5"/>
       <c r="J337" s="4" t="s">
         <v>622</v>
       </c>
     </row>
     <row r="338" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D338" s="1" t="s">
+      <c r="A338" s="4"/>
+      <c r="B338" s="4"/>
+      <c r="C338" s="5"/>
+      <c r="D338" s="5" t="s">
         <v>623</v>
       </c>
+      <c r="E338" s="5"/>
+      <c r="F338" s="5"/>
+      <c r="G338" s="5"/>
+      <c r="H338" s="5"/>
+      <c r="I338" s="5"/>
       <c r="J338" s="4" t="s">
         <v>624</v>
       </c>
     </row>
     <row r="339" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D339" s="1" t="s">
+      <c r="A339" s="4"/>
+      <c r="B339" s="4"/>
+      <c r="C339" s="5"/>
+      <c r="D339" s="5" t="s">
         <v>625</v>
       </c>
+      <c r="E339" s="5"/>
+      <c r="F339" s="5"/>
+      <c r="G339" s="5"/>
+      <c r="H339" s="5"/>
+      <c r="I339" s="5"/>
       <c r="J339" s="4" t="s">
         <v>626</v>
       </c>
     </row>
     <row r="340" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D340" s="1" t="s">
+      <c r="A340" s="4"/>
+      <c r="B340" s="4"/>
+      <c r="C340" s="5"/>
+      <c r="D340" s="5" t="s">
         <v>627</v>
       </c>
+      <c r="E340" s="5"/>
+      <c r="F340" s="5"/>
+      <c r="G340" s="5"/>
+      <c r="H340" s="5"/>
+      <c r="I340" s="5"/>
       <c r="J340" s="4" t="s">
         <v>628</v>
       </c>
     </row>
     <row r="341" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D341" s="1" t="s">
+      <c r="A341" s="4"/>
+      <c r="B341" s="4"/>
+      <c r="C341" s="5"/>
+      <c r="D341" s="5" t="s">
         <v>629</v>
       </c>
+      <c r="E341" s="5"/>
+      <c r="F341" s="5"/>
+      <c r="G341" s="5"/>
+      <c r="H341" s="5"/>
+      <c r="I341" s="5"/>
       <c r="J341" s="4" t="s">
         <v>630</v>
       </c>
     </row>
     <row r="342" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D342" s="1" t="s">
+      <c r="A342" s="4"/>
+      <c r="B342" s="4"/>
+      <c r="C342" s="5"/>
+      <c r="D342" s="5" t="s">
         <v>631</v>
       </c>
+      <c r="E342" s="5"/>
+      <c r="F342" s="5"/>
+      <c r="G342" s="5"/>
+      <c r="H342" s="5"/>
+      <c r="I342" s="5"/>
       <c r="J342" s="4" t="s">
         <v>632</v>
       </c>
     </row>
     <row r="343" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D343" s="1" t="s">
+      <c r="A343" s="4"/>
+      <c r="B343" s="4"/>
+      <c r="C343" s="5"/>
+      <c r="D343" s="5" t="s">
         <v>633</v>
       </c>
+      <c r="E343" s="5"/>
+      <c r="F343" s="5"/>
+      <c r="G343" s="5"/>
+      <c r="H343" s="5"/>
+      <c r="I343" s="5"/>
       <c r="J343" s="4" t="s">
         <v>634</v>
       </c>
     </row>
     <row r="344" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D344" s="1" t="s">
+      <c r="A344" s="4"/>
+      <c r="B344" s="4"/>
+      <c r="C344" s="5"/>
+      <c r="D344" s="5" t="s">
         <v>635</v>
       </c>
+      <c r="E344" s="5"/>
+      <c r="F344" s="5"/>
+      <c r="G344" s="5"/>
+      <c r="H344" s="5"/>
+      <c r="I344" s="5"/>
       <c r="J344" s="4" t="s">
         <v>636</v>
       </c>
@@ -6296,92 +9089,177 @@
       <c r="B345" s="4" t="s">
         <v>637</v>
       </c>
-      <c r="D345" s="1" t="s">
+      <c r="C345" s="5"/>
+      <c r="D345" s="5" t="s">
         <v>638</v>
       </c>
+      <c r="E345" s="5"/>
+      <c r="F345" s="5"/>
+      <c r="G345" s="5"/>
+      <c r="H345" s="5"/>
+      <c r="I345" s="5"/>
       <c r="J345" s="4" t="s">
         <v>639</v>
       </c>
     </row>
     <row r="346" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D346" s="1" t="s">
+      <c r="A346" s="4"/>
+      <c r="B346" s="4"/>
+      <c r="C346" s="5"/>
+      <c r="D346" s="5" t="s">
         <v>640</v>
       </c>
+      <c r="E346" s="5"/>
+      <c r="F346" s="5"/>
+      <c r="G346" s="5"/>
+      <c r="H346" s="5"/>
+      <c r="I346" s="5"/>
       <c r="J346" s="4" t="s">
         <v>641</v>
       </c>
     </row>
     <row r="347" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D347" s="1" t="s">
+      <c r="A347" s="4"/>
+      <c r="B347" s="4"/>
+      <c r="C347" s="5"/>
+      <c r="D347" s="5" t="s">
         <v>642</v>
       </c>
+      <c r="E347" s="5"/>
+      <c r="F347" s="5"/>
+      <c r="G347" s="5"/>
+      <c r="H347" s="5"/>
+      <c r="I347" s="5"/>
       <c r="J347" s="4" t="s">
         <v>643</v>
       </c>
     </row>
     <row r="348" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D348" s="1" t="s">
+      <c r="A348" s="4"/>
+      <c r="B348" s="4"/>
+      <c r="C348" s="5"/>
+      <c r="D348" s="5" t="s">
         <v>644</v>
       </c>
+      <c r="E348" s="5"/>
+      <c r="F348" s="5"/>
+      <c r="G348" s="5"/>
+      <c r="H348" s="5"/>
+      <c r="I348" s="5"/>
       <c r="J348" s="4" t="s">
         <v>645</v>
       </c>
     </row>
     <row r="349" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D349" s="1" t="s">
+      <c r="A349" s="4"/>
+      <c r="B349" s="4"/>
+      <c r="C349" s="5"/>
+      <c r="D349" s="5" t="s">
         <v>646</v>
       </c>
+      <c r="E349" s="5"/>
+      <c r="F349" s="5"/>
+      <c r="G349" s="5"/>
+      <c r="H349" s="5"/>
+      <c r="I349" s="5"/>
       <c r="J349" s="4" t="s">
         <v>647</v>
       </c>
     </row>
     <row r="350" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D350" s="1" t="s">
+      <c r="A350" s="4"/>
+      <c r="B350" s="4"/>
+      <c r="C350" s="5"/>
+      <c r="D350" s="5" t="s">
         <v>648</v>
       </c>
+      <c r="E350" s="5"/>
+      <c r="F350" s="5"/>
+      <c r="G350" s="5"/>
+      <c r="H350" s="5"/>
+      <c r="I350" s="5"/>
       <c r="J350" s="4" t="s">
         <v>649</v>
       </c>
     </row>
     <row r="351" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D351" s="1" t="s">
+      <c r="A351" s="4"/>
+      <c r="B351" s="4"/>
+      <c r="C351" s="5"/>
+      <c r="D351" s="5" t="s">
         <v>650</v>
       </c>
+      <c r="E351" s="5"/>
+      <c r="F351" s="5"/>
+      <c r="G351" s="5"/>
+      <c r="H351" s="5"/>
+      <c r="I351" s="5"/>
       <c r="J351" s="4" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="352" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D352" s="1" t="s">
+      <c r="A352" s="4"/>
+      <c r="B352" s="4"/>
+      <c r="C352" s="5"/>
+      <c r="D352" s="5" t="s">
         <v>652</v>
       </c>
+      <c r="E352" s="5"/>
+      <c r="F352" s="5"/>
+      <c r="G352" s="5"/>
+      <c r="H352" s="5"/>
+      <c r="I352" s="5"/>
       <c r="J352" s="4" t="s">
         <v>653</v>
       </c>
     </row>
     <row r="353" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D353" s="1" t="s">
+      <c r="A353" s="4"/>
+      <c r="B353" s="4"/>
+      <c r="C353" s="5"/>
+      <c r="D353" s="5" t="s">
         <v>654</v>
       </c>
+      <c r="E353" s="5"/>
+      <c r="F353" s="5"/>
+      <c r="G353" s="5"/>
+      <c r="H353" s="5"/>
+      <c r="I353" s="5"/>
       <c r="J353" s="4" t="s">
         <v>655</v>
       </c>
     </row>
     <row r="354" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D354" s="1" t="s">
+      <c r="A354" s="4"/>
+      <c r="B354" s="4"/>
+      <c r="C354" s="5"/>
+      <c r="D354" s="5" t="s">
         <v>656</v>
       </c>
+      <c r="E354" s="5"/>
+      <c r="F354" s="5"/>
+      <c r="G354" s="5"/>
+      <c r="H354" s="5"/>
+      <c r="I354" s="5"/>
       <c r="J354" s="4" t="s">
         <v>657</v>
       </c>
     </row>
     <row r="355" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C355" s="1" t="s">
+      <c r="A355" s="4"/>
+      <c r="B355" s="4"/>
+      <c r="C355" s="5" t="s">
         <v>658</v>
       </c>
-      <c r="D355" s="1" t="s">
+      <c r="D355" s="5" t="s">
         <v>659</v>
       </c>
+      <c r="E355" s="5"/>
+      <c r="F355" s="5"/>
+      <c r="G355" s="5"/>
+      <c r="H355" s="5"/>
+      <c r="I355" s="5"/>
       <c r="J355" s="4" t="s">
         <v>660</v>
       </c>
@@ -6393,137 +9271,271 @@
       <c r="B356" s="4" t="s">
         <v>661</v>
       </c>
-      <c r="D356" s="1" t="s">
+      <c r="C356" s="5"/>
+      <c r="D356" s="5" t="s">
         <v>662</v>
       </c>
+      <c r="E356" s="5"/>
+      <c r="F356" s="5"/>
+      <c r="G356" s="5"/>
+      <c r="H356" s="5"/>
+      <c r="I356" s="5"/>
       <c r="J356" s="4" t="s">
         <v>663</v>
       </c>
     </row>
     <row r="357" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D357" s="1" t="s">
+      <c r="A357" s="4"/>
+      <c r="B357" s="4"/>
+      <c r="C357" s="5"/>
+      <c r="D357" s="5" t="s">
         <v>664</v>
       </c>
+      <c r="E357" s="5"/>
+      <c r="F357" s="5"/>
+      <c r="G357" s="5"/>
+      <c r="H357" s="5"/>
+      <c r="I357" s="5"/>
       <c r="J357" s="4" t="s">
         <v>665</v>
       </c>
     </row>
     <row r="358" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D358" s="1" t="s">
+      <c r="A358" s="4"/>
+      <c r="B358" s="4"/>
+      <c r="C358" s="5"/>
+      <c r="D358" s="5" t="s">
         <v>666</v>
       </c>
+      <c r="E358" s="5"/>
+      <c r="F358" s="5"/>
+      <c r="G358" s="5"/>
+      <c r="H358" s="5"/>
+      <c r="I358" s="5"/>
       <c r="J358" s="4" t="s">
         <v>667</v>
       </c>
     </row>
     <row r="359" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D359" s="1" t="s">
+      <c r="A359" s="4"/>
+      <c r="B359" s="4"/>
+      <c r="C359" s="5"/>
+      <c r="D359" s="5" t="s">
         <v>668</v>
       </c>
+      <c r="E359" s="5"/>
+      <c r="F359" s="5"/>
+      <c r="G359" s="5"/>
+      <c r="H359" s="5"/>
+      <c r="I359" s="5"/>
       <c r="J359" s="4" t="s">
         <v>669</v>
       </c>
     </row>
     <row r="360" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D360" s="1" t="s">
+      <c r="A360" s="4"/>
+      <c r="B360" s="4"/>
+      <c r="C360" s="5"/>
+      <c r="D360" s="5" t="s">
         <v>670</v>
       </c>
+      <c r="E360" s="5"/>
+      <c r="F360" s="5"/>
+      <c r="G360" s="5"/>
+      <c r="H360" s="5"/>
+      <c r="I360" s="5"/>
       <c r="J360" s="4" t="s">
         <v>671</v>
       </c>
     </row>
     <row r="361" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D361" s="1" t="s">
+      <c r="A361" s="4"/>
+      <c r="B361" s="4"/>
+      <c r="C361" s="5"/>
+      <c r="D361" s="5" t="s">
         <v>672</v>
       </c>
+      <c r="E361" s="5"/>
+      <c r="F361" s="5"/>
+      <c r="G361" s="5"/>
+      <c r="H361" s="5"/>
+      <c r="I361" s="5"/>
       <c r="J361" s="4" t="s">
         <v>673</v>
       </c>
     </row>
     <row r="362" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D362" s="1" t="s">
+      <c r="A362" s="4"/>
+      <c r="B362" s="4"/>
+      <c r="C362" s="5"/>
+      <c r="D362" s="5" t="s">
         <v>674</v>
       </c>
+      <c r="E362" s="5"/>
+      <c r="F362" s="5"/>
+      <c r="G362" s="5"/>
+      <c r="H362" s="5"/>
+      <c r="I362" s="5"/>
       <c r="J362" s="4" t="s">
         <v>675</v>
       </c>
     </row>
     <row r="363" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D363" s="1" t="s">
+      <c r="A363" s="4"/>
+      <c r="B363" s="4"/>
+      <c r="C363" s="5"/>
+      <c r="D363" s="5" t="s">
         <v>676</v>
       </c>
+      <c r="E363" s="5"/>
+      <c r="F363" s="5"/>
+      <c r="G363" s="5"/>
+      <c r="H363" s="5"/>
+      <c r="I363" s="5"/>
       <c r="J363" s="4" t="s">
         <v>677</v>
       </c>
     </row>
     <row r="364" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D364" s="1" t="s">
+      <c r="A364" s="4"/>
+      <c r="B364" s="4"/>
+      <c r="C364" s="5"/>
+      <c r="D364" s="5" t="s">
         <v>678</v>
       </c>
+      <c r="E364" s="5"/>
+      <c r="F364" s="5"/>
+      <c r="G364" s="5"/>
+      <c r="H364" s="5"/>
+      <c r="I364" s="5"/>
       <c r="J364" s="4" t="s">
         <v>679</v>
       </c>
     </row>
     <row r="365" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D365" s="1" t="s">
+      <c r="A365" s="4"/>
+      <c r="B365" s="4"/>
+      <c r="C365" s="5"/>
+      <c r="D365" s="5" t="s">
         <v>680</v>
       </c>
+      <c r="E365" s="5"/>
+      <c r="F365" s="5"/>
+      <c r="G365" s="5"/>
+      <c r="H365" s="5"/>
+      <c r="I365" s="5"/>
       <c r="J365" s="4" t="s">
         <v>681</v>
       </c>
     </row>
     <row r="366" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D366" s="1" t="s">
+      <c r="A366" s="4"/>
+      <c r="B366" s="4"/>
+      <c r="C366" s="5"/>
+      <c r="D366" s="5" t="s">
         <v>682</v>
       </c>
+      <c r="E366" s="5"/>
+      <c r="F366" s="5"/>
+      <c r="G366" s="5"/>
+      <c r="H366" s="5"/>
+      <c r="I366" s="5"/>
       <c r="J366" s="4" t="s">
         <v>683</v>
       </c>
     </row>
     <row r="367" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D367" s="1" t="s">
+      <c r="A367" s="4"/>
+      <c r="B367" s="4"/>
+      <c r="C367" s="5"/>
+      <c r="D367" s="5" t="s">
         <v>684</v>
       </c>
+      <c r="E367" s="5"/>
+      <c r="F367" s="5"/>
+      <c r="G367" s="5"/>
+      <c r="H367" s="5"/>
+      <c r="I367" s="5"/>
       <c r="J367" s="4" t="s">
         <v>685</v>
       </c>
     </row>
     <row r="368" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D368" s="1" t="s">
+      <c r="A368" s="4"/>
+      <c r="B368" s="4"/>
+      <c r="C368" s="5"/>
+      <c r="D368" s="5" t="s">
         <v>686</v>
       </c>
+      <c r="E368" s="5"/>
+      <c r="F368" s="5"/>
+      <c r="G368" s="5"/>
+      <c r="H368" s="5"/>
+      <c r="I368" s="5"/>
       <c r="J368" s="4" t="s">
         <v>687</v>
       </c>
     </row>
     <row r="369" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D369" s="1" t="s">
+      <c r="A369" s="4"/>
+      <c r="B369" s="4"/>
+      <c r="C369" s="5"/>
+      <c r="D369" s="5" t="s">
         <v>688</v>
       </c>
+      <c r="E369" s="5"/>
+      <c r="F369" s="5"/>
+      <c r="G369" s="5"/>
+      <c r="H369" s="5"/>
+      <c r="I369" s="5"/>
       <c r="J369" s="4" t="s">
         <v>689</v>
       </c>
     </row>
     <row r="370" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D370" s="1" t="s">
+      <c r="A370" s="4"/>
+      <c r="B370" s="4"/>
+      <c r="C370" s="5"/>
+      <c r="D370" s="5" t="s">
         <v>690</v>
       </c>
+      <c r="E370" s="5"/>
+      <c r="F370" s="5"/>
+      <c r="G370" s="5"/>
+      <c r="H370" s="5"/>
+      <c r="I370" s="5"/>
       <c r="J370" s="4" t="s">
         <v>691</v>
       </c>
     </row>
     <row r="371" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D371" s="1" t="s">
+      <c r="A371" s="4"/>
+      <c r="B371" s="4"/>
+      <c r="C371" s="5"/>
+      <c r="D371" s="5" t="s">
         <v>692</v>
       </c>
+      <c r="E371" s="5"/>
+      <c r="F371" s="5"/>
+      <c r="G371" s="5"/>
+      <c r="H371" s="5"/>
+      <c r="I371" s="5"/>
       <c r="J371" s="4" t="s">
         <v>693</v>
       </c>
     </row>
     <row r="372" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D372" s="1" t="s">
+      <c r="A372" s="4"/>
+      <c r="B372" s="4"/>
+      <c r="C372" s="5"/>
+      <c r="D372" s="5" t="s">
         <v>694</v>
       </c>
+      <c r="E372" s="5"/>
+      <c r="F372" s="5"/>
+      <c r="G372" s="5"/>
+      <c r="H372" s="5"/>
+      <c r="I372" s="5"/>
       <c r="J372" s="4" t="s">
         <v>695</v>
       </c>
@@ -6535,163 +9547,563 @@
       <c r="B373" s="4" t="s">
         <v>696</v>
       </c>
-      <c r="D373" s="1" t="s">
+      <c r="C373" s="5"/>
+      <c r="D373" s="5" t="s">
         <v>697</v>
       </c>
+      <c r="E373" s="5"/>
+      <c r="F373" s="5"/>
+      <c r="G373" s="5"/>
+      <c r="H373" s="5"/>
+      <c r="I373" s="5"/>
       <c r="J373" s="4" t="s">
         <v>698</v>
       </c>
     </row>
     <row r="374" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D374" s="1" t="s">
+      <c r="A374" s="4"/>
+      <c r="B374" s="4"/>
+      <c r="C374" s="5"/>
+      <c r="D374" s="5" t="s">
         <v>699</v>
       </c>
+      <c r="E374" s="5"/>
+      <c r="F374" s="5"/>
+      <c r="G374" s="5"/>
+      <c r="H374" s="5"/>
+      <c r="I374" s="5"/>
       <c r="J374" s="4" t="s">
         <v>700</v>
       </c>
     </row>
     <row r="375" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D375" s="1" t="s">
+      <c r="A375" s="4"/>
+      <c r="B375" s="4"/>
+      <c r="C375" s="5"/>
+      <c r="D375" s="5" t="s">
         <v>701</v>
       </c>
+      <c r="E375" s="5"/>
+      <c r="F375" s="5"/>
+      <c r="G375" s="5"/>
+      <c r="H375" s="5"/>
+      <c r="I375" s="5"/>
       <c r="J375" s="4" t="s">
         <v>702</v>
       </c>
     </row>
     <row r="376" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D376" s="1" t="s">
+      <c r="A376" s="4"/>
+      <c r="B376" s="4"/>
+      <c r="C376" s="5"/>
+      <c r="D376" s="5" t="s">
         <v>703</v>
       </c>
+      <c r="E376" s="5"/>
+      <c r="F376" s="5"/>
+      <c r="G376" s="5"/>
+      <c r="H376" s="5"/>
+      <c r="I376" s="5"/>
       <c r="J376" s="4" t="s">
         <v>704</v>
       </c>
     </row>
     <row r="377" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D377" s="1" t="s">
+      <c r="A377" s="4"/>
+      <c r="B377" s="4"/>
+      <c r="C377" s="5"/>
+      <c r="D377" s="5" t="s">
         <v>705</v>
       </c>
+      <c r="E377" s="5"/>
+      <c r="F377" s="5"/>
+      <c r="G377" s="5"/>
+      <c r="H377" s="5"/>
+      <c r="I377" s="5"/>
       <c r="J377" s="4" t="s">
         <v>706</v>
       </c>
     </row>
     <row r="378" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D378" s="1" t="s">
+      <c r="A378" s="4"/>
+      <c r="B378" s="4"/>
+      <c r="C378" s="5"/>
+      <c r="D378" s="5" t="s">
         <v>707</v>
       </c>
+      <c r="E378" s="5"/>
+      <c r="F378" s="5"/>
+      <c r="G378" s="5"/>
+      <c r="H378" s="5"/>
+      <c r="I378" s="5"/>
       <c r="J378" s="4" t="s">
         <v>708</v>
       </c>
     </row>
     <row r="379" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D379" s="1" t="s">
+      <c r="A379" s="4"/>
+      <c r="B379" s="4"/>
+      <c r="C379" s="5"/>
+      <c r="D379" s="5" t="s">
         <v>709</v>
       </c>
+      <c r="E379" s="5"/>
+      <c r="F379" s="5"/>
+      <c r="G379" s="5"/>
+      <c r="H379" s="5"/>
+      <c r="I379" s="5"/>
       <c r="J379" s="4" t="s">
         <v>710</v>
       </c>
     </row>
     <row r="380" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D380" s="1" t="s">
+      <c r="A380" s="4"/>
+      <c r="B380" s="4"/>
+      <c r="C380" s="5"/>
+      <c r="D380" s="5" t="s">
         <v>711</v>
       </c>
+      <c r="E380" s="5"/>
+      <c r="F380" s="5"/>
+      <c r="G380" s="5"/>
+      <c r="H380" s="5"/>
+      <c r="I380" s="5"/>
       <c r="J380" s="4" t="s">
         <v>712</v>
       </c>
     </row>
     <row r="381" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D381" s="1" t="s">
+      <c r="A381" s="4"/>
+      <c r="B381" s="4"/>
+      <c r="C381" s="5"/>
+      <c r="D381" s="5" t="s">
         <v>713</v>
       </c>
+      <c r="E381" s="5"/>
+      <c r="F381" s="5"/>
+      <c r="G381" s="5"/>
+      <c r="H381" s="5"/>
+      <c r="I381" s="5"/>
       <c r="J381" s="4" t="s">
         <v>714</v>
       </c>
     </row>
     <row r="382" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D382" s="1" t="s">
+      <c r="A382" s="4"/>
+      <c r="B382" s="4"/>
+      <c r="C382" s="5"/>
+      <c r="D382" s="5" t="s">
         <v>715</v>
       </c>
+      <c r="E382" s="5"/>
+      <c r="F382" s="5"/>
+      <c r="G382" s="5"/>
+      <c r="H382" s="5"/>
+      <c r="I382" s="5"/>
       <c r="J382" s="4" t="s">
         <v>716</v>
       </c>
     </row>
     <row r="383" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D383" s="1" t="s">
+      <c r="A383" s="4"/>
+      <c r="B383" s="4"/>
+      <c r="C383" s="5"/>
+      <c r="D383" s="5" t="s">
         <v>717</v>
       </c>
+      <c r="E383" s="5"/>
+      <c r="F383" s="5"/>
+      <c r="G383" s="5"/>
+      <c r="H383" s="5"/>
+      <c r="I383" s="5"/>
       <c r="J383" s="4" t="s">
         <v>718</v>
       </c>
     </row>
     <row r="384" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D384" s="1" t="s">
+      <c r="A384" s="4"/>
+      <c r="B384" s="4"/>
+      <c r="C384" s="5"/>
+      <c r="D384" s="5" t="s">
         <v>719</v>
       </c>
+      <c r="E384" s="5"/>
+      <c r="F384" s="5"/>
+      <c r="G384" s="5"/>
+      <c r="H384" s="5"/>
+      <c r="I384" s="5"/>
       <c r="J384" s="4" t="s">
         <v>720</v>
       </c>
     </row>
-    <row r="385" spans="4:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D385" s="1" t="s">
+    <row r="385" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A385" s="5"/>
+      <c r="B385" s="5"/>
+      <c r="C385" s="5"/>
+      <c r="D385" s="5" t="s">
         <v>721</v>
       </c>
+      <c r="E385" s="5"/>
+      <c r="F385" s="5"/>
+      <c r="G385" s="5"/>
+      <c r="H385" s="5"/>
+      <c r="I385" s="5"/>
       <c r="J385" s="4" t="s">
         <v>722</v>
       </c>
     </row>
-    <row r="386" spans="4:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D386" s="1" t="s">
+    <row r="386" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A386" s="5"/>
+      <c r="B386" s="5"/>
+      <c r="C386" s="5"/>
+      <c r="D386" s="5" t="s">
         <v>723</v>
       </c>
+      <c r="E386" s="5"/>
+      <c r="F386" s="5"/>
+      <c r="G386" s="5"/>
+      <c r="H386" s="5"/>
+      <c r="I386" s="5"/>
       <c r="J386" s="4" t="s">
         <v>724</v>
       </c>
     </row>
-    <row r="387" spans="4:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D387" s="1" t="s">
+    <row r="387" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A387" s="5"/>
+      <c r="B387" s="5"/>
+      <c r="C387" s="5"/>
+      <c r="D387" s="5" t="s">
         <v>725</v>
       </c>
+      <c r="E387" s="5"/>
+      <c r="F387" s="5"/>
+      <c r="G387" s="5"/>
+      <c r="H387" s="5"/>
+      <c r="I387" s="5"/>
       <c r="J387" s="4" t="s">
         <v>726</v>
       </c>
     </row>
-    <row r="388" spans="4:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D388" s="1" t="s">
+    <row r="388" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A388" s="5"/>
+      <c r="B388" s="5"/>
+      <c r="C388" s="5"/>
+      <c r="D388" s="5" t="s">
         <v>727</v>
       </c>
+      <c r="E388" s="5"/>
+      <c r="F388" s="5"/>
+      <c r="G388" s="5"/>
+      <c r="H388" s="5"/>
+      <c r="I388" s="5"/>
       <c r="J388" s="4" t="s">
         <v>728</v>
       </c>
     </row>
-    <row r="389" spans="4:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D389" s="1" t="s">
+    <row r="389" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A389" s="5"/>
+      <c r="B389" s="5"/>
+      <c r="C389" s="5"/>
+      <c r="D389" s="5" t="s">
         <v>729</v>
       </c>
+      <c r="E389" s="5"/>
+      <c r="F389" s="5"/>
+      <c r="G389" s="5"/>
+      <c r="H389" s="5"/>
+      <c r="I389" s="5"/>
       <c r="J389" s="4" t="s">
         <v>730</v>
       </c>
     </row>
-    <row r="390" spans="4:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D390" s="1" t="s">
+    <row r="390" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A390" s="5"/>
+      <c r="B390" s="5"/>
+      <c r="C390" s="5"/>
+      <c r="D390" s="5" t="s">
         <v>731</v>
       </c>
+      <c r="E390" s="5"/>
+      <c r="F390" s="5"/>
+      <c r="G390" s="5"/>
+      <c r="H390" s="5"/>
+      <c r="I390" s="5"/>
       <c r="J390" s="4" t="s">
         <v>732</v>
       </c>
     </row>
-    <row r="391" spans="4:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D391" s="1" t="s">
+    <row r="391" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A391" s="5"/>
+      <c r="B391" s="5"/>
+      <c r="C391" s="5"/>
+      <c r="D391" s="5" t="s">
         <v>733</v>
       </c>
+      <c r="E391" s="5"/>
+      <c r="F391" s="5"/>
+      <c r="G391" s="5"/>
+      <c r="H391" s="5"/>
+      <c r="I391" s="5"/>
       <c r="J391" s="4" t="s">
         <v>734</v>
       </c>
     </row>
-    <row r="392" spans="4:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D392" s="1" t="s">
+    <row r="392" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A392" s="5"/>
+      <c r="B392" s="5"/>
+      <c r="C392" s="5"/>
+      <c r="D392" s="5" t="s">
         <v>735</v>
       </c>
+      <c r="E392" s="5"/>
+      <c r="F392" s="5"/>
+      <c r="G392" s="5"/>
+      <c r="H392" s="5"/>
+      <c r="I392" s="5"/>
       <c r="J392" s="4" t="s">
         <v>736</v>
+      </c>
+    </row>
+    <row r="393" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A393" s="4">
+        <v>36</v>
+      </c>
+      <c r="B393" s="4" t="s">
+        <v>737</v>
+      </c>
+      <c r="C393" s="5" t="s">
+        <v>738</v>
+      </c>
+      <c r="D393" s="5" t="s">
+        <v>739</v>
+      </c>
+      <c r="E393" s="5"/>
+      <c r="F393" s="5"/>
+      <c r="G393" s="5"/>
+      <c r="H393" s="5"/>
+      <c r="I393" s="5"/>
+      <c r="J393" s="4"/>
+    </row>
+    <row r="394" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A394" s="4"/>
+      <c r="B394" s="4"/>
+      <c r="C394" s="5"/>
+      <c r="D394" s="5" t="s">
+        <v>740</v>
+      </c>
+      <c r="E394" s="5"/>
+      <c r="F394" s="5"/>
+      <c r="G394" s="5"/>
+      <c r="H394" s="5"/>
+      <c r="I394" s="5"/>
+      <c r="J394" s="4"/>
+    </row>
+    <row r="395" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A395" s="4"/>
+      <c r="B395" s="4"/>
+      <c r="C395" s="5"/>
+      <c r="D395" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="E395" s="5"/>
+      <c r="F395" s="5"/>
+      <c r="G395" s="5"/>
+      <c r="H395" s="5"/>
+      <c r="I395" s="5"/>
+      <c r="J395" s="4" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="396" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A396" s="4"/>
+      <c r="B396" s="4"/>
+      <c r="C396" s="5"/>
+      <c r="D396" s="5" t="s">
+        <v>743</v>
+      </c>
+      <c r="E396" s="5"/>
+      <c r="F396" s="5"/>
+      <c r="G396" s="5"/>
+      <c r="H396" s="5"/>
+      <c r="I396" s="5"/>
+      <c r="J396" s="4" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="397" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A397" s="4"/>
+      <c r="B397" s="4"/>
+      <c r="C397" s="5"/>
+      <c r="D397" s="5" t="s">
+        <v>745</v>
+      </c>
+      <c r="E397" s="5"/>
+      <c r="F397" s="5"/>
+      <c r="G397" s="5"/>
+      <c r="H397" s="5"/>
+      <c r="I397" s="5"/>
+      <c r="J397" s="4" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="398" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A398" s="4"/>
+      <c r="B398" s="4"/>
+      <c r="C398" s="5"/>
+      <c r="D398" s="5" t="s">
+        <v>747</v>
+      </c>
+      <c r="E398" s="5"/>
+      <c r="F398" s="5"/>
+      <c r="G398" s="5"/>
+      <c r="H398" s="5"/>
+      <c r="I398" s="5"/>
+      <c r="J398" s="4" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="399" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A399" s="4"/>
+      <c r="B399" s="4"/>
+      <c r="C399" s="5"/>
+      <c r="D399" s="5" t="s">
+        <v>749</v>
+      </c>
+      <c r="E399" s="5"/>
+      <c r="F399" s="5"/>
+      <c r="G399" s="5"/>
+      <c r="H399" s="5"/>
+      <c r="I399" s="5"/>
+      <c r="J399" s="4" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="400" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A400" s="4"/>
+      <c r="B400" s="4"/>
+      <c r="C400" s="5"/>
+      <c r="D400" s="5" t="s">
+        <v>751</v>
+      </c>
+      <c r="E400" s="5"/>
+      <c r="F400" s="5"/>
+      <c r="G400" s="5"/>
+      <c r="H400" s="5"/>
+      <c r="I400" s="5"/>
+      <c r="J400" s="4" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="401" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A401" s="4"/>
+      <c r="B401" s="4"/>
+      <c r="C401" s="5"/>
+      <c r="D401" s="5" t="s">
+        <v>753</v>
+      </c>
+      <c r="E401" s="5"/>
+      <c r="F401" s="5"/>
+      <c r="G401" s="5"/>
+      <c r="H401" s="5"/>
+      <c r="I401" s="5"/>
+      <c r="J401" s="4" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="402" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A402" s="4"/>
+      <c r="B402" s="4"/>
+      <c r="C402" s="5"/>
+      <c r="D402" s="5" t="s">
+        <v>755</v>
+      </c>
+      <c r="E402" s="5"/>
+      <c r="F402" s="5"/>
+      <c r="G402" s="5"/>
+      <c r="H402" s="5"/>
+      <c r="I402" s="5"/>
+      <c r="J402" s="4" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="403" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A403" s="4"/>
+      <c r="B403" s="4"/>
+      <c r="C403" s="5"/>
+      <c r="D403" s="5" t="s">
+        <v>757</v>
+      </c>
+      <c r="E403" s="5"/>
+      <c r="F403" s="5"/>
+      <c r="G403" s="5"/>
+      <c r="H403" s="5"/>
+      <c r="I403" s="5"/>
+      <c r="J403" s="4" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="404" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A404" s="4"/>
+      <c r="B404" s="4"/>
+      <c r="C404" s="5"/>
+      <c r="D404" s="5" t="s">
+        <v>759</v>
+      </c>
+      <c r="E404" s="5"/>
+      <c r="F404" s="5"/>
+      <c r="G404" s="5"/>
+      <c r="H404" s="5"/>
+      <c r="I404" s="5"/>
+      <c r="J404" s="4" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="405" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A405" s="4"/>
+      <c r="B405" s="4"/>
+      <c r="C405" s="5"/>
+      <c r="D405" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E405" s="5"/>
+      <c r="F405" s="5"/>
+      <c r="G405" s="5"/>
+      <c r="H405" s="5"/>
+      <c r="I405" s="5"/>
+      <c r="J405" s="4" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="406" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A406" s="4"/>
+      <c r="B406" s="4"/>
+      <c r="C406" s="5"/>
+      <c r="D406" s="5" t="s">
+        <v>762</v>
+      </c>
+      <c r="E406" s="5"/>
+      <c r="F406" s="5"/>
+      <c r="G406" s="5"/>
+      <c r="H406" s="5"/>
+      <c r="I406" s="5"/>
+      <c r="J406" s="4" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="407" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A407" s="4"/>
+      <c r="B407" s="4"/>
+      <c r="C407" s="5"/>
+      <c r="D407" s="5" t="s">
+        <v>764</v>
+      </c>
+      <c r="E407" s="5"/>
+      <c r="F407" s="5"/>
+      <c r="G407" s="5"/>
+      <c r="H407" s="5"/>
+      <c r="I407" s="5"/>
+      <c r="J407" s="4" t="s">
+        <v>765</v>
       </c>
     </row>
   </sheetData>

--- a/java01t/index.xlsx
+++ b/java01t/index.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="25711"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="25808"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="766">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="887" uniqueCount="876">
   <si>
     <t>주제</t>
   </si>
@@ -2322,6 +2322,336 @@
   </si>
   <si>
     <t>web1t: step03/ex1/test13.html</t>
+  </si>
+  <si>
+    <t>4월21일</t>
+  </si>
+  <si>
+    <t xml:space="preserve">숫자 다루기 </t>
+  </si>
+  <si>
+    <t>web1t: step03/ex1/test14.html</t>
+  </si>
+  <si>
+    <t>배열 다루기</t>
+  </si>
+  <si>
+    <t>web1t: step03/ex1/test15.html</t>
+  </si>
+  <si>
+    <t>배열 다루기2</t>
+  </si>
+  <si>
+    <t>web1t: step03/ex1/test16.html</t>
+  </si>
+  <si>
+    <t>형변환</t>
+  </si>
+  <si>
+    <t>web1t: step03/ex1/test17.html</t>
+  </si>
+  <si>
+    <t>비교 연산자(== 와 ===): 암시적 형변환 알고리즘</t>
+  </si>
+  <si>
+    <t>web1t: step03/ex1/test18.html</t>
+  </si>
+  <si>
+    <t>비교 연산자와 암시적 형변환2</t>
+  </si>
+  <si>
+    <t>web1t: step03/ex1/test19.html</t>
+  </si>
+  <si>
+    <t>선택 연산자: || 와 &amp;&amp;</t>
+  </si>
+  <si>
+    <t>web1t: step03/ex2/test01.html</t>
+  </si>
+  <si>
+    <t>조건문: if</t>
+  </si>
+  <si>
+    <t>web1t: step03/ex2/test02.html</t>
+  </si>
+  <si>
+    <t>조건문: else의 소속</t>
+  </si>
+  <si>
+    <t>web1t: step03/ex2/test03.html</t>
+  </si>
+  <si>
+    <t>조건문: switch</t>
+  </si>
+  <si>
+    <t>web1t: step03/ex2/test04.html</t>
+  </si>
+  <si>
+    <t>반복문: while, do ~ while</t>
+  </si>
+  <si>
+    <t>web1t: step03/ex2/test05.html</t>
+  </si>
+  <si>
+    <t>반복문: for, for ~ in</t>
+  </si>
+  <si>
+    <t>web1t: step03/ex2/test06.html</t>
+  </si>
+  <si>
+    <t>4월22일</t>
+  </si>
+  <si>
+    <t>함수 정의</t>
+  </si>
+  <si>
+    <t>web1t: step03/ex3/test01.html</t>
+  </si>
+  <si>
+    <t>익명 함수 정의</t>
+  </si>
+  <si>
+    <t>web1t: step03/ex3/test02.html</t>
+  </si>
+  <si>
+    <t>함수 레퍼런스</t>
+  </si>
+  <si>
+    <t>web1t: step03/ex3/test03.html</t>
+  </si>
+  <si>
+    <t>함수 레퍼런스와 클로저</t>
+  </si>
+  <si>
+    <t>web1t: step03/ex3/test04.html</t>
+  </si>
+  <si>
+    <t>내장 파라미터 배열 arguments</t>
+  </si>
+  <si>
+    <t>web1t: step03/ex3/test05.html</t>
+  </si>
+  <si>
+    <t>변수와 함수의 호이스팅</t>
+  </si>
+  <si>
+    <t>web1t: step03/ex3/test06.html</t>
+  </si>
+  <si>
+    <t>자바스크립트 OOP</t>
+  </si>
+  <si>
+    <t>객체 생성</t>
+  </si>
+  <si>
+    <t>web1t: step03/ex4/test01.html</t>
+  </si>
+  <si>
+    <t>객체 초기화</t>
+  </si>
+  <si>
+    <t>web1t: step03/ex4/test02.html</t>
+  </si>
+  <si>
+    <t>객체 생성 단축 표기법: {}</t>
+  </si>
+  <si>
+    <t>web1t: step03/ex4/test03.html</t>
+  </si>
+  <si>
+    <t>클로저를 이용한 캡슐화 구현</t>
+  </si>
+  <si>
+    <t>web1t: step03/ex4/test04.html</t>
+  </si>
+  <si>
+    <t>prototype 사용</t>
+  </si>
+  <si>
+    <t>web1t: step03/ex4/test05.html</t>
+  </si>
+  <si>
+    <t>4월23일</t>
+  </si>
+  <si>
+    <t>ECMSScript 5에서 제공하는 객체 생성 방법: Object.create()</t>
+  </si>
+  <si>
+    <t>web1t: step03/ex4/test06.html</t>
+  </si>
+  <si>
+    <t>프로퍼티 상세히 정의하기: defineProperty(), hasOwnProperty() 등</t>
+  </si>
+  <si>
+    <t>web1t: step03/ex4/test07.html</t>
+  </si>
+  <si>
+    <t>프로퍼티 제거하기: delete</t>
+  </si>
+  <si>
+    <t>web1t: step03/ex4/test08.html</t>
+  </si>
+  <si>
+    <t>객체 직렬화: JSON</t>
+  </si>
+  <si>
+    <t>web1t: step03/ex4/test09.html</t>
+  </si>
+  <si>
+    <t>생성자 함수 패키징</t>
+  </si>
+  <si>
+    <t>web1t: step03/ex5/test01.html</t>
+  </si>
+  <si>
+    <t>함수 파라미터 생략 여부 검사</t>
+  </si>
+  <si>
+    <t>web1t: step03/ex5/test02.html</t>
+  </si>
+  <si>
+    <t>예외 던지기</t>
+  </si>
+  <si>
+    <t>web1t: step03/ex5/test03.html</t>
+  </si>
+  <si>
+    <t>예외 처리: Error()와 예외 처리</t>
+  </si>
+  <si>
+    <t>web1t: step03/ex5/test04.html</t>
+  </si>
+  <si>
+    <t>NodeJS</t>
+  </si>
+  <si>
+    <t>nodejs 이클립스 플러그인 설치</t>
+  </si>
+  <si>
+    <t>초 간단 웹 서버 만들기</t>
+  </si>
+  <si>
+    <t>node1t: src/ex1/test01.js</t>
+  </si>
+  <si>
+    <t>응답 헤더 다루기</t>
+  </si>
+  <si>
+    <t>node1t: src/ex1/test02.js</t>
+  </si>
+  <si>
+    <t>응답 내용 다루기</t>
+  </si>
+  <si>
+    <t>node1t: src/ex1/test03.js</t>
+  </si>
+  <si>
+    <t>응답 내용의 문자셋 지정</t>
+  </si>
+  <si>
+    <t>node1t: src/ex1/test04.js</t>
+  </si>
+  <si>
+    <t>요청 기본 정보 알아내기</t>
+  </si>
+  <si>
+    <t>node1t: src/ex1/test05.js</t>
+  </si>
+  <si>
+    <t>요청 URL 정보 추출하기</t>
+  </si>
+  <si>
+    <t>node1t: src/ex1/test06.js</t>
+  </si>
+  <si>
+    <t>요청 파라미터 추출하기</t>
+  </si>
+  <si>
+    <t>node1t: src/ex1/test07.js</t>
+  </si>
+  <si>
+    <t>이름을 파라미터로 받아서 출력하기</t>
+  </si>
+  <si>
+    <t>node1t: src/ex1/test08.js</t>
+  </si>
+  <si>
+    <t>특정 경로의 요청만 처리하기</t>
+  </si>
+  <si>
+    <t>node1t: src/ex1/test09.js</t>
+  </si>
+  <si>
+    <t>4월24일</t>
+  </si>
+  <si>
+    <t>계산기 만들기</t>
+  </si>
+  <si>
+    <t>node1t: src/ex1/test10.js</t>
+  </si>
+  <si>
+    <t>계산기 폼 만들기</t>
+  </si>
+  <si>
+    <t>web1t: step04/ex1/calcForm.html</t>
+  </si>
+  <si>
+    <t>mysql 서버 연결 및 select</t>
+  </si>
+  <si>
+    <t>node1t: src/ex2/test01.js</t>
+  </si>
+  <si>
+    <t>insert</t>
+  </si>
+  <si>
+    <t>node1t: src/ex2/test02.js</t>
+  </si>
+  <si>
+    <t>delete</t>
+  </si>
+  <si>
+    <t>node1t: src/ex2/test03.js</t>
+  </si>
+  <si>
+    <t>udpate</t>
+  </si>
+  <si>
+    <t>node1t: src/ex2/test04.js</t>
+  </si>
+  <si>
+    <t>게시판 만들기: 기본 구조</t>
+  </si>
+  <si>
+    <t>node1t: src/ex3/test01.js</t>
+  </si>
+  <si>
+    <t>게시판 만들기: URL과 핸들러 매핑</t>
+  </si>
+  <si>
+    <t>node1t: src/ex3/test02.js</t>
+  </si>
+  <si>
+    <t>게시판 만들기: 입력 폼</t>
+  </si>
+  <si>
+    <t>node1t: src/ex3/test03.js</t>
+  </si>
+  <si>
+    <t>게시판 만들기: POST 요청 처리</t>
+  </si>
+  <si>
+    <t>node1t: src/ex3/test04.js</t>
+  </si>
+  <si>
+    <t>미니 Express 프레임워크 만들기</t>
+  </si>
+  <si>
+    <t>node1t: src/ex4/*</t>
+  </si>
+  <si>
+    <t>4월25일</t>
   </si>
 </sst>
 </file>
@@ -3580,10 +3910,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J407"/>
+  <dimension ref="A1:J460"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A378" workbookViewId="0">
-      <selection sqref="A1:J407"/>
+    <sheetView tabSelected="1" topLeftCell="A434" workbookViewId="0">
+      <selection activeCell="A461" sqref="A461"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -3614,7 +3944,7 @@
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
+      <c r="J1" s="6"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
@@ -3632,7 +3962,7 @@
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
+      <c r="J2" s="6"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
@@ -3646,7 +3976,7 @@
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
+      <c r="J3" s="6"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
@@ -3660,7 +3990,7 @@
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
+      <c r="J4" s="6"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
@@ -3674,7 +4004,7 @@
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
+      <c r="J5" s="6"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
@@ -3688,7 +4018,7 @@
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
+      <c r="J6" s="6"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
@@ -3702,7 +4032,7 @@
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
+      <c r="J7" s="6"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
@@ -3716,7 +4046,7 @@
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
+      <c r="J8" s="6"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
@@ -3734,7 +4064,7 @@
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
+      <c r="J9" s="6"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
@@ -3748,7 +4078,7 @@
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
+      <c r="J10" s="6"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
@@ -3762,7 +4092,7 @@
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
+      <c r="J11" s="6"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
@@ -3776,7 +4106,7 @@
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
+      <c r="J12" s="6"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
@@ -3790,7 +4120,7 @@
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
+      <c r="J13" s="6"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
@@ -3804,7 +4134,7 @@
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
+      <c r="J14" s="6"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
@@ -3818,7 +4148,7 @@
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
+      <c r="J15" s="6"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
@@ -3836,7 +4166,7 @@
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
+      <c r="J16" s="6"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
@@ -3850,7 +4180,7 @@
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
+      <c r="J17" s="6"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
@@ -3864,7 +4194,7 @@
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
+      <c r="J18" s="6"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
@@ -3878,7 +4208,7 @@
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
+      <c r="J19" s="6"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
@@ -3892,7 +4222,7 @@
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
+      <c r="J20" s="6"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
@@ -3906,7 +4236,7 @@
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
+      <c r="J21" s="6"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="5"/>
@@ -3920,7 +4250,7 @@
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
       <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
+      <c r="J22" s="6"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="5"/>
@@ -3934,7 +4264,7 @@
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
+      <c r="J23" s="6"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
@@ -3948,7 +4278,7 @@
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
+      <c r="J24" s="6"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="5"/>
@@ -3962,7 +4292,7 @@
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
+      <c r="J25" s="6"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="5"/>
@@ -3976,7 +4306,7 @@
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
       <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
+      <c r="J26" s="6"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="5"/>
@@ -3990,7 +4320,7 @@
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
       <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
+      <c r="J27" s="6"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="5"/>
@@ -4004,7 +4334,7 @@
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
       <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
+      <c r="J28" s="6"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="5"/>
@@ -4018,7 +4348,7 @@
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
       <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
+      <c r="J29" s="6"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="5"/>
@@ -4032,7 +4362,7 @@
       <c r="G30" s="5"/>
       <c r="H30" s="5"/>
       <c r="I30" s="5"/>
-      <c r="J30" s="5"/>
+      <c r="J30" s="6"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="5"/>
@@ -4046,7 +4376,7 @@
       <c r="G31" s="5"/>
       <c r="H31" s="5"/>
       <c r="I31" s="5"/>
-      <c r="J31" s="5"/>
+      <c r="J31" s="6"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="5"/>
@@ -4060,7 +4390,7 @@
       <c r="G32" s="5"/>
       <c r="H32" s="5"/>
       <c r="I32" s="5"/>
-      <c r="J32" s="5"/>
+      <c r="J32" s="6"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="5"/>
@@ -4074,7 +4404,7 @@
       <c r="G33" s="5"/>
       <c r="H33" s="5"/>
       <c r="I33" s="5"/>
-      <c r="J33" s="5"/>
+      <c r="J33" s="6"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="5"/>
@@ -4088,7 +4418,7 @@
       <c r="G34" s="5"/>
       <c r="H34" s="5"/>
       <c r="I34" s="5"/>
-      <c r="J34" s="5"/>
+      <c r="J34" s="6"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="5"/>
@@ -4102,7 +4432,7 @@
       <c r="G35" s="5"/>
       <c r="H35" s="5"/>
       <c r="I35" s="5"/>
-      <c r="J35" s="5"/>
+      <c r="J35" s="6"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="5"/>
@@ -4116,7 +4446,7 @@
       <c r="G36" s="6"/>
       <c r="H36" s="6"/>
       <c r="I36" s="5"/>
-      <c r="J36" s="5"/>
+      <c r="J36" s="6"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="5"/>
@@ -4130,7 +4460,7 @@
       <c r="G37" s="5"/>
       <c r="H37" s="5"/>
       <c r="I37" s="5"/>
-      <c r="J37" s="5"/>
+      <c r="J37" s="6"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="5"/>
@@ -4144,7 +4474,7 @@
       <c r="G38" s="5"/>
       <c r="H38" s="5"/>
       <c r="I38" s="5"/>
-      <c r="J38" s="5"/>
+      <c r="J38" s="6"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="5"/>
@@ -4158,7 +4488,7 @@
       <c r="G39" s="5"/>
       <c r="H39" s="5"/>
       <c r="I39" s="5"/>
-      <c r="J39" s="5"/>
+      <c r="J39" s="6"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="5"/>
@@ -4172,7 +4502,7 @@
       <c r="G40" s="5"/>
       <c r="H40" s="5"/>
       <c r="I40" s="5"/>
-      <c r="J40" s="5"/>
+      <c r="J40" s="6"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="5"/>
@@ -4186,7 +4516,7 @@
       <c r="G41" s="5"/>
       <c r="H41" s="5"/>
       <c r="I41" s="5"/>
-      <c r="J41" s="5"/>
+      <c r="J41" s="6"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="5"/>
@@ -4200,7 +4530,7 @@
       <c r="G42" s="5"/>
       <c r="H42" s="5"/>
       <c r="I42" s="5"/>
-      <c r="J42" s="5"/>
+      <c r="J42" s="6"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="5"/>
@@ -4214,7 +4544,7 @@
       <c r="G43" s="5"/>
       <c r="H43" s="5"/>
       <c r="I43" s="5"/>
-      <c r="J43" s="5"/>
+      <c r="J43" s="6"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="5"/>
@@ -4228,7 +4558,7 @@
       <c r="G44" s="5"/>
       <c r="H44" s="5"/>
       <c r="I44" s="5"/>
-      <c r="J44" s="5"/>
+      <c r="J44" s="6"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="5"/>
@@ -4242,7 +4572,7 @@
       <c r="G45" s="5"/>
       <c r="H45" s="5"/>
       <c r="I45" s="5"/>
-      <c r="J45" s="5"/>
+      <c r="J45" s="6"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="5"/>
@@ -4256,7 +4586,7 @@
       <c r="G46" s="5"/>
       <c r="H46" s="5"/>
       <c r="I46" s="5"/>
-      <c r="J46" s="5"/>
+      <c r="J46" s="6"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="5"/>
@@ -4270,7 +4600,7 @@
       <c r="G47" s="5"/>
       <c r="H47" s="5"/>
       <c r="I47" s="5"/>
-      <c r="J47" s="5"/>
+      <c r="J47" s="6"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="5"/>
@@ -4284,7 +4614,7 @@
       <c r="G48" s="5"/>
       <c r="H48" s="5"/>
       <c r="I48" s="5"/>
-      <c r="J48" s="5"/>
+      <c r="J48" s="6"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="4"/>
@@ -4298,7 +4628,7 @@
       <c r="G49" s="5"/>
       <c r="H49" s="5"/>
       <c r="I49" s="5"/>
-      <c r="J49" s="5"/>
+      <c r="J49" s="6"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>
@@ -4312,7 +4642,7 @@
       <c r="G50" s="5"/>
       <c r="H50" s="5"/>
       <c r="I50" s="5"/>
-      <c r="J50" s="5"/>
+      <c r="J50" s="6"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="4"/>
@@ -4326,7 +4656,7 @@
       <c r="G51" s="5"/>
       <c r="H51" s="5"/>
       <c r="I51" s="5"/>
-      <c r="J51" s="5"/>
+      <c r="J51" s="6"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="4"/>
@@ -4340,7 +4670,7 @@
       <c r="G52" s="5"/>
       <c r="H52" s="5"/>
       <c r="I52" s="5"/>
-      <c r="J52" s="5"/>
+      <c r="J52" s="6"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
@@ -4358,7 +4688,7 @@
       <c r="G53" s="5"/>
       <c r="H53" s="5"/>
       <c r="I53" s="5"/>
-      <c r="J53" s="5"/>
+      <c r="J53" s="6"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="4"/>
@@ -4372,7 +4702,7 @@
       <c r="G54" s="5"/>
       <c r="H54" s="5"/>
       <c r="I54" s="5"/>
-      <c r="J54" s="5"/>
+      <c r="J54" s="6"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="4"/>
@@ -4386,7 +4716,7 @@
       <c r="G55" s="5"/>
       <c r="H55" s="5"/>
       <c r="I55" s="5"/>
-      <c r="J55" s="5"/>
+      <c r="J55" s="6"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="4"/>
@@ -4400,7 +4730,7 @@
       <c r="G56" s="5"/>
       <c r="H56" s="5"/>
       <c r="I56" s="5"/>
-      <c r="J56" s="5"/>
+      <c r="J56" s="6"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="4"/>
@@ -4414,7 +4744,7 @@
       <c r="G57" s="5"/>
       <c r="H57" s="5"/>
       <c r="I57" s="5"/>
-      <c r="J57" s="5"/>
+      <c r="J57" s="6"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="4"/>
@@ -4428,7 +4758,7 @@
       <c r="G58" s="5"/>
       <c r="H58" s="5"/>
       <c r="I58" s="5"/>
-      <c r="J58" s="5"/>
+      <c r="J58" s="6"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="4"/>
@@ -4442,7 +4772,7 @@
       <c r="G59" s="5"/>
       <c r="H59" s="5"/>
       <c r="I59" s="5"/>
-      <c r="J59" s="5"/>
+      <c r="J59" s="6"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="4"/>
@@ -4456,7 +4786,7 @@
       <c r="G60" s="5"/>
       <c r="H60" s="5"/>
       <c r="I60" s="5"/>
-      <c r="J60" s="5"/>
+      <c r="J60" s="6"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="4"/>
@@ -4470,7 +4800,7 @@
       <c r="G61" s="5"/>
       <c r="H61" s="5"/>
       <c r="I61" s="5"/>
-      <c r="J61" s="5"/>
+      <c r="J61" s="6"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="4"/>
@@ -4484,7 +4814,7 @@
       <c r="G62" s="5"/>
       <c r="H62" s="5"/>
       <c r="I62" s="5"/>
-      <c r="J62" s="5"/>
+      <c r="J62" s="6"/>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="4"/>
@@ -4498,7 +4828,7 @@
       <c r="G63" s="5"/>
       <c r="H63" s="5"/>
       <c r="I63" s="5"/>
-      <c r="J63" s="5"/>
+      <c r="J63" s="6"/>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="4"/>
@@ -4512,7 +4842,7 @@
       <c r="G64" s="5"/>
       <c r="H64" s="5"/>
       <c r="I64" s="5"/>
-      <c r="J64" s="5"/>
+      <c r="J64" s="6"/>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="4"/>
@@ -4526,7 +4856,7 @@
       <c r="G65" s="5"/>
       <c r="H65" s="5"/>
       <c r="I65" s="5"/>
-      <c r="J65" s="4"/>
+      <c r="J65" s="6"/>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="4"/>
@@ -4540,7 +4870,7 @@
       <c r="G66" s="5"/>
       <c r="H66" s="5"/>
       <c r="I66" s="5"/>
-      <c r="J66" s="4"/>
+      <c r="J66" s="6"/>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="4"/>
@@ -4554,7 +4884,7 @@
       <c r="G67" s="5"/>
       <c r="H67" s="5"/>
       <c r="I67" s="5"/>
-      <c r="J67" s="4"/>
+      <c r="J67" s="6"/>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="4"/>
@@ -4568,7 +4898,7 @@
       <c r="G68" s="5"/>
       <c r="H68" s="5"/>
       <c r="I68" s="5"/>
-      <c r="J68" s="4"/>
+      <c r="J68" s="6"/>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="4"/>
@@ -4582,7 +4912,7 @@
       <c r="G69" s="5"/>
       <c r="H69" s="5"/>
       <c r="I69" s="5"/>
-      <c r="J69" s="4"/>
+      <c r="J69" s="6"/>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="4"/>
@@ -4596,7 +4926,7 @@
       <c r="G70" s="5"/>
       <c r="H70" s="5"/>
       <c r="I70" s="5"/>
-      <c r="J70" s="4"/>
+      <c r="J70" s="6"/>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="4"/>
@@ -4610,7 +4940,7 @@
       <c r="G71" s="5"/>
       <c r="H71" s="5"/>
       <c r="I71" s="5"/>
-      <c r="J71" s="4" t="s">
+      <c r="J71" s="6" t="s">
         <v>126</v>
       </c>
     </row>
@@ -4626,7 +4956,7 @@
       <c r="G72" s="5"/>
       <c r="H72" s="5"/>
       <c r="I72" s="5"/>
-      <c r="J72" s="4"/>
+      <c r="J72" s="6"/>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="4"/>
@@ -4640,7 +4970,7 @@
       <c r="G73" s="5"/>
       <c r="H73" s="5"/>
       <c r="I73" s="5"/>
-      <c r="J73" s="4"/>
+      <c r="J73" s="6"/>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="4"/>
@@ -4654,7 +4984,7 @@
       <c r="G74" s="5"/>
       <c r="H74" s="5"/>
       <c r="I74" s="5"/>
-      <c r="J74" s="4" t="s">
+      <c r="J74" s="6" t="s">
         <v>127</v>
       </c>
     </row>
@@ -4670,7 +5000,7 @@
       <c r="G75" s="5"/>
       <c r="H75" s="5"/>
       <c r="I75" s="5"/>
-      <c r="J75" s="4" t="s">
+      <c r="J75" s="6" t="s">
         <v>128</v>
       </c>
     </row>
@@ -4686,7 +5016,7 @@
       <c r="G76" s="5"/>
       <c r="H76" s="5"/>
       <c r="I76" s="5"/>
-      <c r="J76" s="4" t="s">
+      <c r="J76" s="6" t="s">
         <v>129</v>
       </c>
     </row>
@@ -4708,7 +5038,7 @@
       <c r="G77" s="5"/>
       <c r="H77" s="5"/>
       <c r="I77" s="5"/>
-      <c r="J77" s="4" t="s">
+      <c r="J77" s="6" t="s">
         <v>130</v>
       </c>
     </row>
@@ -4724,7 +5054,7 @@
       <c r="G78" s="5"/>
       <c r="H78" s="5"/>
       <c r="I78" s="5"/>
-      <c r="J78" s="4"/>
+      <c r="J78" s="6"/>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="4"/>
@@ -4740,7 +5070,7 @@
       <c r="G79" s="5"/>
       <c r="H79" s="5"/>
       <c r="I79" s="5"/>
-      <c r="J79" s="4" t="s">
+      <c r="J79" s="6" t="s">
         <v>81</v>
       </c>
     </row>
@@ -4756,7 +5086,7 @@
       <c r="G80" s="5"/>
       <c r="H80" s="5"/>
       <c r="I80" s="5"/>
-      <c r="J80" s="4"/>
+      <c r="J80" s="6"/>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="4"/>
@@ -4770,7 +5100,7 @@
       <c r="G81" s="5"/>
       <c r="H81" s="5"/>
       <c r="I81" s="5"/>
-      <c r="J81" s="4"/>
+      <c r="J81" s="6"/>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="4"/>
@@ -4784,7 +5114,7 @@
       <c r="G82" s="5"/>
       <c r="H82" s="5"/>
       <c r="I82" s="5"/>
-      <c r="J82" s="4" t="s">
+      <c r="J82" s="6" t="s">
         <v>114</v>
       </c>
     </row>
@@ -4800,7 +5130,7 @@
       <c r="G83" s="5"/>
       <c r="H83" s="5"/>
       <c r="I83" s="5"/>
-      <c r="J83" s="4"/>
+      <c r="J83" s="6"/>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="4"/>
@@ -4814,7 +5144,7 @@
       <c r="G84" s="5"/>
       <c r="H84" s="5"/>
       <c r="I84" s="5"/>
-      <c r="J84" s="4" t="s">
+      <c r="J84" s="6" t="s">
         <v>115</v>
       </c>
     </row>
@@ -4830,7 +5160,7 @@
       <c r="G85" s="5"/>
       <c r="H85" s="5"/>
       <c r="I85" s="5"/>
-      <c r="J85" s="4" t="s">
+      <c r="J85" s="6" t="s">
         <v>116</v>
       </c>
     </row>
@@ -4846,7 +5176,7 @@
       <c r="G86" s="5"/>
       <c r="H86" s="5"/>
       <c r="I86" s="5"/>
-      <c r="J86" s="4"/>
+      <c r="J86" s="6"/>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" s="4"/>
@@ -4860,7 +5190,7 @@
       <c r="G87" s="5"/>
       <c r="H87" s="5"/>
       <c r="I87" s="5"/>
-      <c r="J87" s="4"/>
+      <c r="J87" s="6"/>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" s="4"/>
@@ -4874,7 +5204,7 @@
       <c r="G88" s="5"/>
       <c r="H88" s="5"/>
       <c r="I88" s="5"/>
-      <c r="J88" s="4" t="s">
+      <c r="J88" s="6" t="s">
         <v>105</v>
       </c>
     </row>
@@ -4890,7 +5220,7 @@
       <c r="G89" s="5"/>
       <c r="H89" s="5"/>
       <c r="I89" s="5"/>
-      <c r="J89" s="4"/>
+      <c r="J89" s="6"/>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" s="4"/>
@@ -4904,7 +5234,7 @@
       <c r="G90" s="5"/>
       <c r="H90" s="5"/>
       <c r="I90" s="5"/>
-      <c r="J90" s="4" t="s">
+      <c r="J90" s="6" t="s">
         <v>106</v>
       </c>
     </row>
@@ -4920,7 +5250,7 @@
       <c r="G91" s="5"/>
       <c r="H91" s="5"/>
       <c r="I91" s="5"/>
-      <c r="J91" s="4" t="s">
+      <c r="J91" s="6" t="s">
         <v>107</v>
       </c>
     </row>
@@ -4936,7 +5266,7 @@
       <c r="G92" s="5"/>
       <c r="H92" s="5"/>
       <c r="I92" s="5"/>
-      <c r="J92" s="4" t="s">
+      <c r="J92" s="6" t="s">
         <v>108</v>
       </c>
     </row>
@@ -4956,7 +5286,7 @@
       <c r="G93" s="5"/>
       <c r="H93" s="5"/>
       <c r="I93" s="5"/>
-      <c r="J93" s="4" t="s">
+      <c r="J93" s="6" t="s">
         <v>109</v>
       </c>
     </row>
@@ -4972,7 +5302,7 @@
       <c r="G94" s="5"/>
       <c r="H94" s="5"/>
       <c r="I94" s="5"/>
-      <c r="J94" s="4"/>
+      <c r="J94" s="6"/>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" s="4"/>
@@ -4986,7 +5316,7 @@
       <c r="G95" s="5"/>
       <c r="H95" s="5"/>
       <c r="I95" s="5"/>
-      <c r="J95" s="4"/>
+      <c r="J95" s="6"/>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" s="4"/>
@@ -5000,7 +5330,7 @@
       <c r="G96" s="5"/>
       <c r="H96" s="5"/>
       <c r="I96" s="5"/>
-      <c r="J96" s="4" t="s">
+      <c r="J96" s="6" t="s">
         <v>110</v>
       </c>
     </row>
@@ -5016,7 +5346,7 @@
       <c r="G97" s="5"/>
       <c r="H97" s="5"/>
       <c r="I97" s="5"/>
-      <c r="J97" s="4" t="s">
+      <c r="J97" s="6" t="s">
         <v>111</v>
       </c>
     </row>
@@ -5032,7 +5362,7 @@
       <c r="G98" s="5"/>
       <c r="H98" s="5"/>
       <c r="I98" s="5"/>
-      <c r="J98" s="4" t="s">
+      <c r="J98" s="6" t="s">
         <v>112</v>
       </c>
     </row>
@@ -5048,7 +5378,7 @@
       <c r="G99" s="5"/>
       <c r="H99" s="5"/>
       <c r="I99" s="5"/>
-      <c r="J99" s="4" t="s">
+      <c r="J99" s="6" t="s">
         <v>113</v>
       </c>
     </row>
@@ -5064,7 +5394,7 @@
       <c r="G100" s="5"/>
       <c r="H100" s="5"/>
       <c r="I100" s="5"/>
-      <c r="J100" s="4"/>
+      <c r="J100" s="6"/>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" s="4"/>
@@ -5078,7 +5408,7 @@
       <c r="G101" s="5"/>
       <c r="H101" s="5"/>
       <c r="I101" s="5"/>
-      <c r="J101" s="4" t="s">
+      <c r="J101" s="6" t="s">
         <v>103</v>
       </c>
     </row>
@@ -5094,7 +5424,7 @@
       <c r="G102" s="5"/>
       <c r="H102" s="5"/>
       <c r="I102" s="5"/>
-      <c r="J102" s="4" t="s">
+      <c r="J102" s="6" t="s">
         <v>104</v>
       </c>
     </row>
@@ -5110,7 +5440,7 @@
       <c r="G103" s="5"/>
       <c r="H103" s="5"/>
       <c r="I103" s="5"/>
-      <c r="J103" s="4" t="s">
+      <c r="J103" s="6" t="s">
         <v>132</v>
       </c>
     </row>
@@ -5126,7 +5456,7 @@
       <c r="G104" s="5"/>
       <c r="H104" s="5"/>
       <c r="I104" s="5"/>
-      <c r="J104" s="4" t="s">
+      <c r="J104" s="6" t="s">
         <v>108</v>
       </c>
     </row>
@@ -5146,7 +5476,7 @@
       <c r="G105" s="5"/>
       <c r="H105" s="5"/>
       <c r="I105" s="5"/>
-      <c r="J105" s="4"/>
+      <c r="J105" s="6"/>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" s="4"/>
@@ -5160,7 +5490,7 @@
       <c r="G106" s="5"/>
       <c r="H106" s="5"/>
       <c r="I106" s="5"/>
-      <c r="J106" s="4" t="s">
+      <c r="J106" s="6" t="s">
         <v>137</v>
       </c>
     </row>
@@ -5176,7 +5506,7 @@
       <c r="G107" s="5"/>
       <c r="H107" s="5"/>
       <c r="I107" s="5"/>
-      <c r="J107" s="4" t="s">
+      <c r="J107" s="6" t="s">
         <v>139</v>
       </c>
     </row>
@@ -5192,7 +5522,7 @@
       <c r="G108" s="5"/>
       <c r="H108" s="5"/>
       <c r="I108" s="5"/>
-      <c r="J108" s="4" t="s">
+      <c r="J108" s="6" t="s">
         <v>141</v>
       </c>
     </row>
@@ -5208,7 +5538,7 @@
       <c r="G109" s="5"/>
       <c r="H109" s="5"/>
       <c r="I109" s="5"/>
-      <c r="J109" s="4" t="s">
+      <c r="J109" s="6" t="s">
         <v>142</v>
       </c>
     </row>
@@ -5224,7 +5554,7 @@
       <c r="G110" s="5"/>
       <c r="H110" s="5"/>
       <c r="I110" s="5"/>
-      <c r="J110" s="4" t="s">
+      <c r="J110" s="6" t="s">
         <v>147</v>
       </c>
     </row>
@@ -5240,7 +5570,7 @@
       <c r="G111" s="5"/>
       <c r="H111" s="5"/>
       <c r="I111" s="5"/>
-      <c r="J111" s="4" t="s">
+      <c r="J111" s="6" t="s">
         <v>148</v>
       </c>
     </row>
@@ -5256,7 +5586,7 @@
       <c r="G112" s="5"/>
       <c r="H112" s="5"/>
       <c r="I112" s="5"/>
-      <c r="J112" s="4" t="s">
+      <c r="J112" s="6" t="s">
         <v>149</v>
       </c>
     </row>
@@ -5272,7 +5602,7 @@
       <c r="G113" s="5"/>
       <c r="H113" s="5"/>
       <c r="I113" s="5"/>
-      <c r="J113" s="4" t="s">
+      <c r="J113" s="6" t="s">
         <v>150</v>
       </c>
     </row>
@@ -5288,7 +5618,7 @@
       <c r="G114" s="5"/>
       <c r="H114" s="5"/>
       <c r="I114" s="5"/>
-      <c r="J114" s="4" t="s">
+      <c r="J114" s="6" t="s">
         <v>152</v>
       </c>
     </row>
@@ -5304,7 +5634,7 @@
       <c r="G115" s="5"/>
       <c r="H115" s="5"/>
       <c r="I115" s="5"/>
-      <c r="J115" s="4" t="s">
+      <c r="J115" s="6" t="s">
         <v>154</v>
       </c>
     </row>
@@ -5320,7 +5650,7 @@
       <c r="G116" s="5"/>
       <c r="H116" s="5"/>
       <c r="I116" s="5"/>
-      <c r="J116" s="4" t="s">
+      <c r="J116" s="6" t="s">
         <v>157</v>
       </c>
     </row>
@@ -5336,7 +5666,7 @@
       <c r="G117" s="5"/>
       <c r="H117" s="5"/>
       <c r="I117" s="5"/>
-      <c r="J117" s="4" t="s">
+      <c r="J117" s="6" t="s">
         <v>158</v>
       </c>
     </row>
@@ -5356,7 +5686,7 @@
       <c r="G118" s="5"/>
       <c r="H118" s="5"/>
       <c r="I118" s="5"/>
-      <c r="J118" s="4"/>
+      <c r="J118" s="6"/>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119" s="4"/>
@@ -5370,7 +5700,7 @@
       <c r="G119" s="5"/>
       <c r="H119" s="5"/>
       <c r="I119" s="5"/>
-      <c r="J119" s="4" t="s">
+      <c r="J119" s="6" t="s">
         <v>163</v>
       </c>
     </row>
@@ -5386,7 +5716,7 @@
       <c r="G120" s="5"/>
       <c r="H120" s="5"/>
       <c r="I120" s="5"/>
-      <c r="J120" s="4" t="s">
+      <c r="J120" s="6" t="s">
         <v>164</v>
       </c>
     </row>
@@ -5402,7 +5732,7 @@
       <c r="G121" s="5"/>
       <c r="H121" s="5"/>
       <c r="I121" s="5"/>
-      <c r="J121" s="4" t="s">
+      <c r="J121" s="6" t="s">
         <v>166</v>
       </c>
     </row>
@@ -5418,7 +5748,7 @@
       <c r="G122" s="5"/>
       <c r="H122" s="5"/>
       <c r="I122" s="5"/>
-      <c r="J122" s="4" t="s">
+      <c r="J122" s="6" t="s">
         <v>168</v>
       </c>
     </row>
@@ -5434,7 +5764,7 @@
       <c r="G123" s="5"/>
       <c r="H123" s="5"/>
       <c r="I123" s="5"/>
-      <c r="J123" s="4" t="s">
+      <c r="J123" s="6" t="s">
         <v>170</v>
       </c>
     </row>
@@ -5450,7 +5780,7 @@
       <c r="G124" s="5"/>
       <c r="H124" s="5"/>
       <c r="I124" s="5"/>
-      <c r="J124" s="4" t="s">
+      <c r="J124" s="6" t="s">
         <v>171</v>
       </c>
     </row>
@@ -5466,7 +5796,7 @@
       <c r="G125" s="5"/>
       <c r="H125" s="5"/>
       <c r="I125" s="5"/>
-      <c r="J125" s="4" t="s">
+      <c r="J125" s="6" t="s">
         <v>174</v>
       </c>
     </row>
@@ -5486,7 +5816,7 @@
       <c r="G126" s="5"/>
       <c r="H126" s="5"/>
       <c r="I126" s="5"/>
-      <c r="J126" s="4"/>
+      <c r="J126" s="6"/>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127" s="4"/>
@@ -5500,7 +5830,7 @@
       <c r="G127" s="5"/>
       <c r="H127" s="5"/>
       <c r="I127" s="5"/>
-      <c r="J127" s="4" t="s">
+      <c r="J127" s="6" t="s">
         <v>178</v>
       </c>
     </row>
@@ -5516,7 +5846,7 @@
       <c r="G128" s="5"/>
       <c r="H128" s="5"/>
       <c r="I128" s="5"/>
-      <c r="J128" s="4" t="s">
+      <c r="J128" s="6" t="s">
         <v>180</v>
       </c>
     </row>
@@ -5532,7 +5862,7 @@
       <c r="G129" s="5"/>
       <c r="H129" s="5"/>
       <c r="I129" s="5"/>
-      <c r="J129" s="4" t="s">
+      <c r="J129" s="6" t="s">
         <v>181</v>
       </c>
     </row>
@@ -5548,7 +5878,7 @@
       <c r="G130" s="5"/>
       <c r="H130" s="5"/>
       <c r="I130" s="5"/>
-      <c r="J130" s="4" t="s">
+      <c r="J130" s="6" t="s">
         <v>184</v>
       </c>
     </row>
@@ -5564,7 +5894,7 @@
       <c r="G131" s="5"/>
       <c r="H131" s="5"/>
       <c r="I131" s="5"/>
-      <c r="J131" s="4" t="s">
+      <c r="J131" s="6" t="s">
         <v>186</v>
       </c>
     </row>
@@ -5580,7 +5910,7 @@
       <c r="G132" s="5"/>
       <c r="H132" s="5"/>
       <c r="I132" s="5"/>
-      <c r="J132" s="4" t="s">
+      <c r="J132" s="6" t="s">
         <v>188</v>
       </c>
     </row>
@@ -5596,7 +5926,7 @@
       <c r="G133" s="5"/>
       <c r="H133" s="5"/>
       <c r="I133" s="5"/>
-      <c r="J133" s="4" t="s">
+      <c r="J133" s="6" t="s">
         <v>189</v>
       </c>
     </row>
@@ -5612,7 +5942,7 @@
       <c r="G134" s="5"/>
       <c r="H134" s="5"/>
       <c r="I134" s="5"/>
-      <c r="J134" s="4" t="s">
+      <c r="J134" s="6" t="s">
         <v>192</v>
       </c>
     </row>
@@ -5632,7 +5962,7 @@
       <c r="G135" s="5"/>
       <c r="H135" s="5"/>
       <c r="I135" s="5"/>
-      <c r="J135" s="4" t="s">
+      <c r="J135" s="6" t="s">
         <v>195</v>
       </c>
     </row>
@@ -5648,7 +5978,7 @@
       <c r="G136" s="5"/>
       <c r="H136" s="5"/>
       <c r="I136" s="5"/>
-      <c r="J136" s="4" t="s">
+      <c r="J136" s="6" t="s">
         <v>197</v>
       </c>
     </row>
@@ -5664,7 +5994,7 @@
       <c r="G137" s="5"/>
       <c r="H137" s="5"/>
       <c r="I137" s="5"/>
-      <c r="J137" s="4" t="s">
+      <c r="J137" s="6" t="s">
         <v>199</v>
       </c>
     </row>
@@ -5680,7 +6010,7 @@
       <c r="G138" s="5"/>
       <c r="H138" s="5"/>
       <c r="I138" s="5"/>
-      <c r="J138" s="4" t="s">
+      <c r="J138" s="6" t="s">
         <v>201</v>
       </c>
     </row>
@@ -5696,7 +6026,7 @@
       <c r="G139" s="5"/>
       <c r="H139" s="5"/>
       <c r="I139" s="5"/>
-      <c r="J139" s="4" t="s">
+      <c r="J139" s="6" t="s">
         <v>202</v>
       </c>
     </row>
@@ -5712,7 +6042,7 @@
       <c r="G140" s="5"/>
       <c r="H140" s="5"/>
       <c r="I140" s="5"/>
-      <c r="J140" s="4" t="s">
+      <c r="J140" s="6" t="s">
         <v>207</v>
       </c>
     </row>
@@ -5728,7 +6058,7 @@
       <c r="G141" s="5"/>
       <c r="H141" s="5"/>
       <c r="I141" s="5"/>
-      <c r="J141" s="4" t="s">
+      <c r="J141" s="6" t="s">
         <v>205</v>
       </c>
     </row>
@@ -5744,7 +6074,7 @@
       <c r="G142" s="5"/>
       <c r="H142" s="5"/>
       <c r="I142" s="5"/>
-      <c r="J142" s="4" t="s">
+      <c r="J142" s="6" t="s">
         <v>209</v>
       </c>
     </row>
@@ -5764,7 +6094,7 @@
       <c r="G143" s="5"/>
       <c r="H143" s="5"/>
       <c r="I143" s="5"/>
-      <c r="J143" s="4" t="s">
+      <c r="J143" s="6" t="s">
         <v>211</v>
       </c>
     </row>
@@ -5780,7 +6110,7 @@
       <c r="G144" s="5"/>
       <c r="H144" s="5"/>
       <c r="I144" s="5"/>
-      <c r="J144" s="4" t="s">
+      <c r="J144" s="6" t="s">
         <v>214</v>
       </c>
     </row>
@@ -5796,7 +6126,7 @@
       <c r="G145" s="5"/>
       <c r="H145" s="5"/>
       <c r="I145" s="5"/>
-      <c r="J145" s="4" t="s">
+      <c r="J145" s="6" t="s">
         <v>215</v>
       </c>
     </row>
@@ -5812,7 +6142,7 @@
       <c r="G146" s="5"/>
       <c r="H146" s="5"/>
       <c r="I146" s="5"/>
-      <c r="J146" s="4" t="s">
+      <c r="J146" s="6" t="s">
         <v>218</v>
       </c>
     </row>
@@ -5828,7 +6158,7 @@
       <c r="G147" s="5"/>
       <c r="H147" s="5"/>
       <c r="I147" s="5"/>
-      <c r="J147" s="4" t="s">
+      <c r="J147" s="6" t="s">
         <v>220</v>
       </c>
     </row>
@@ -5844,7 +6174,7 @@
       <c r="G148" s="5"/>
       <c r="H148" s="5"/>
       <c r="I148" s="5"/>
-      <c r="J148" s="4" t="s">
+      <c r="J148" s="6" t="s">
         <v>222</v>
       </c>
     </row>
@@ -5860,7 +6190,7 @@
       <c r="G149" s="5"/>
       <c r="H149" s="5"/>
       <c r="I149" s="5"/>
-      <c r="J149" s="4" t="s">
+      <c r="J149" s="6" t="s">
         <v>224</v>
       </c>
     </row>
@@ -5876,7 +6206,7 @@
       <c r="G150" s="5"/>
       <c r="H150" s="5"/>
       <c r="I150" s="5"/>
-      <c r="J150" s="4" t="s">
+      <c r="J150" s="6" t="s">
         <v>226</v>
       </c>
     </row>
@@ -5892,7 +6222,7 @@
       <c r="G151" s="5"/>
       <c r="H151" s="5"/>
       <c r="I151" s="5"/>
-      <c r="J151" s="4" t="s">
+      <c r="J151" s="6" t="s">
         <v>228</v>
       </c>
     </row>
@@ -5908,7 +6238,7 @@
       <c r="G152" s="5"/>
       <c r="H152" s="5"/>
       <c r="I152" s="5"/>
-      <c r="J152" s="4" t="s">
+      <c r="J152" s="6" t="s">
         <v>230</v>
       </c>
     </row>
@@ -5924,7 +6254,7 @@
       <c r="G153" s="5"/>
       <c r="H153" s="5"/>
       <c r="I153" s="5"/>
-      <c r="J153" s="4" t="s">
+      <c r="J153" s="6" t="s">
         <v>232</v>
       </c>
     </row>
@@ -5944,7 +6274,7 @@
       <c r="G154" s="5"/>
       <c r="H154" s="5"/>
       <c r="I154" s="5"/>
-      <c r="J154" s="4"/>
+      <c r="J154" s="6"/>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A155" s="4"/>
@@ -5960,7 +6290,7 @@
       <c r="G155" s="5"/>
       <c r="H155" s="5"/>
       <c r="I155" s="5"/>
-      <c r="J155" s="4" t="s">
+      <c r="J155" s="6" t="s">
         <v>236</v>
       </c>
     </row>
@@ -5976,7 +6306,7 @@
       <c r="G156" s="5"/>
       <c r="H156" s="5"/>
       <c r="I156" s="5"/>
-      <c r="J156" s="4" t="s">
+      <c r="J156" s="6" t="s">
         <v>238</v>
       </c>
     </row>
@@ -5992,7 +6322,7 @@
       <c r="G157" s="5"/>
       <c r="H157" s="5"/>
       <c r="I157" s="5"/>
-      <c r="J157" s="4" t="s">
+      <c r="J157" s="6" t="s">
         <v>240</v>
       </c>
     </row>
@@ -6008,7 +6338,7 @@
       <c r="G158" s="5"/>
       <c r="H158" s="5"/>
       <c r="I158" s="5"/>
-      <c r="J158" s="4" t="s">
+      <c r="J158" s="6" t="s">
         <v>242</v>
       </c>
     </row>
@@ -6024,7 +6354,7 @@
       <c r="G159" s="5"/>
       <c r="H159" s="5"/>
       <c r="I159" s="5"/>
-      <c r="J159" s="4" t="s">
+      <c r="J159" s="6" t="s">
         <v>244</v>
       </c>
     </row>
@@ -6040,7 +6370,7 @@
       <c r="G160" s="5"/>
       <c r="H160" s="5"/>
       <c r="I160" s="5"/>
-      <c r="J160" s="4" t="s">
+      <c r="J160" s="6" t="s">
         <v>246</v>
       </c>
     </row>
@@ -6056,7 +6386,7 @@
       <c r="G161" s="5"/>
       <c r="H161" s="5"/>
       <c r="I161" s="5"/>
-      <c r="J161" s="4" t="s">
+      <c r="J161" s="6" t="s">
         <v>248</v>
       </c>
     </row>
@@ -6072,7 +6402,7 @@
       <c r="G162" s="5"/>
       <c r="H162" s="5"/>
       <c r="I162" s="5"/>
-      <c r="J162" s="4" t="s">
+      <c r="J162" s="6" t="s">
         <v>250</v>
       </c>
     </row>
@@ -6088,7 +6418,7 @@
       <c r="G163" s="5"/>
       <c r="H163" s="5"/>
       <c r="I163" s="5"/>
-      <c r="J163" s="4" t="s">
+      <c r="J163" s="6" t="s">
         <v>252</v>
       </c>
     </row>
@@ -6104,7 +6434,7 @@
       <c r="G164" s="5"/>
       <c r="H164" s="5"/>
       <c r="I164" s="5"/>
-      <c r="J164" s="4" t="s">
+      <c r="J164" s="6" t="s">
         <v>254</v>
       </c>
     </row>
@@ -6122,7 +6452,7 @@
       <c r="G165" s="5"/>
       <c r="H165" s="5"/>
       <c r="I165" s="5"/>
-      <c r="J165" s="4" t="s">
+      <c r="J165" s="6" t="s">
         <v>257</v>
       </c>
     </row>
@@ -6138,7 +6468,7 @@
       <c r="G166" s="5"/>
       <c r="H166" s="5"/>
       <c r="I166" s="5"/>
-      <c r="J166" s="4" t="s">
+      <c r="J166" s="6" t="s">
         <v>260</v>
       </c>
     </row>
@@ -6154,7 +6484,7 @@
       <c r="G167" s="5"/>
       <c r="H167" s="5"/>
       <c r="I167" s="5"/>
-      <c r="J167" s="4" t="s">
+      <c r="J167" s="6" t="s">
         <v>261</v>
       </c>
     </row>
@@ -6174,7 +6504,7 @@
       <c r="G168" s="5"/>
       <c r="H168" s="5"/>
       <c r="I168" s="5"/>
-      <c r="J168" s="4" t="s">
+      <c r="J168" s="6" t="s">
         <v>264</v>
       </c>
     </row>
@@ -6190,7 +6520,7 @@
       <c r="G169" s="5"/>
       <c r="H169" s="5"/>
       <c r="I169" s="5"/>
-      <c r="J169" s="4" t="s">
+      <c r="J169" s="6" t="s">
         <v>263</v>
       </c>
     </row>
@@ -6206,7 +6536,7 @@
       <c r="G170" s="5"/>
       <c r="H170" s="5"/>
       <c r="I170" s="5"/>
-      <c r="J170" s="4" t="s">
+      <c r="J170" s="6" t="s">
         <v>268</v>
       </c>
     </row>
@@ -6222,7 +6552,7 @@
       <c r="G171" s="5"/>
       <c r="H171" s="5"/>
       <c r="I171" s="5"/>
-      <c r="J171" s="4" t="s">
+      <c r="J171" s="6" t="s">
         <v>270</v>
       </c>
     </row>
@@ -6242,7 +6572,7 @@
       <c r="G172" s="5"/>
       <c r="H172" s="5"/>
       <c r="I172" s="5"/>
-      <c r="J172" s="4" t="s">
+      <c r="J172" s="6" t="s">
         <v>279</v>
       </c>
     </row>
@@ -6260,7 +6590,7 @@
       <c r="G173" s="5"/>
       <c r="H173" s="5"/>
       <c r="I173" s="5"/>
-      <c r="J173" s="4" t="s">
+      <c r="J173" s="6" t="s">
         <v>275</v>
       </c>
     </row>
@@ -6276,7 +6606,7 @@
       <c r="G174" s="5"/>
       <c r="H174" s="5"/>
       <c r="I174" s="5"/>
-      <c r="J174" s="4" t="s">
+      <c r="J174" s="6" t="s">
         <v>276</v>
       </c>
     </row>
@@ -6292,7 +6622,7 @@
       <c r="G175" s="5"/>
       <c r="H175" s="5"/>
       <c r="I175" s="5"/>
-      <c r="J175" s="4" t="s">
+      <c r="J175" s="6" t="s">
         <v>278</v>
       </c>
     </row>
@@ -6308,7 +6638,7 @@
       <c r="G176" s="5"/>
       <c r="H176" s="5"/>
       <c r="I176" s="5"/>
-      <c r="J176" s="4" t="s">
+      <c r="J176" s="6" t="s">
         <v>281</v>
       </c>
     </row>
@@ -6324,7 +6654,7 @@
       <c r="G177" s="5"/>
       <c r="H177" s="5"/>
       <c r="I177" s="5"/>
-      <c r="J177" s="4" t="s">
+      <c r="J177" s="6" t="s">
         <v>282</v>
       </c>
     </row>
@@ -6346,7 +6676,7 @@
       <c r="G178" s="5"/>
       <c r="H178" s="5"/>
       <c r="I178" s="5"/>
-      <c r="J178" s="4" t="s">
+      <c r="J178" s="6" t="s">
         <v>285</v>
       </c>
     </row>
@@ -6362,7 +6692,7 @@
       <c r="G179" s="5"/>
       <c r="H179" s="5"/>
       <c r="I179" s="5"/>
-      <c r="J179" s="4" t="s">
+      <c r="J179" s="6" t="s">
         <v>286</v>
       </c>
     </row>
@@ -6378,7 +6708,7 @@
       <c r="G180" s="5"/>
       <c r="H180" s="5"/>
       <c r="I180" s="5"/>
-      <c r="J180" s="4" t="s">
+      <c r="J180" s="6" t="s">
         <v>287</v>
       </c>
     </row>
@@ -6394,7 +6724,7 @@
       <c r="G181" s="5"/>
       <c r="H181" s="5"/>
       <c r="I181" s="5"/>
-      <c r="J181" s="4" t="s">
+      <c r="J181" s="6" t="s">
         <v>288</v>
       </c>
     </row>
@@ -6410,7 +6740,7 @@
       <c r="G182" s="5"/>
       <c r="H182" s="5"/>
       <c r="I182" s="5"/>
-      <c r="J182" s="4" t="s">
+      <c r="J182" s="6" t="s">
         <v>289</v>
       </c>
     </row>
@@ -6426,7 +6756,7 @@
       <c r="G183" s="5"/>
       <c r="H183" s="5"/>
       <c r="I183" s="5"/>
-      <c r="J183" s="4" t="s">
+      <c r="J183" s="6" t="s">
         <v>290</v>
       </c>
     </row>
@@ -6442,7 +6772,7 @@
       <c r="G184" s="5"/>
       <c r="H184" s="5"/>
       <c r="I184" s="5"/>
-      <c r="J184" s="4" t="s">
+      <c r="J184" s="6" t="s">
         <v>291</v>
       </c>
     </row>
@@ -6458,7 +6788,7 @@
       <c r="G185" s="5"/>
       <c r="H185" s="5"/>
       <c r="I185" s="5"/>
-      <c r="J185" s="4" t="s">
+      <c r="J185" s="6" t="s">
         <v>292</v>
       </c>
     </row>
@@ -6474,7 +6804,7 @@
       <c r="G186" s="5"/>
       <c r="H186" s="5"/>
       <c r="I186" s="5"/>
-      <c r="J186" s="4" t="s">
+      <c r="J186" s="6" t="s">
         <v>294</v>
       </c>
     </row>
@@ -6492,7 +6822,7 @@
       <c r="G187" s="5"/>
       <c r="H187" s="5"/>
       <c r="I187" s="5"/>
-      <c r="J187" s="4" t="s">
+      <c r="J187" s="6" t="s">
         <v>296</v>
       </c>
     </row>
@@ -6512,7 +6842,7 @@
       <c r="G188" s="5"/>
       <c r="H188" s="5"/>
       <c r="I188" s="5"/>
-      <c r="J188" s="4" t="s">
+      <c r="J188" s="6" t="s">
         <v>296</v>
       </c>
     </row>
@@ -6528,7 +6858,7 @@
       <c r="G189" s="5"/>
       <c r="H189" s="5"/>
       <c r="I189" s="5"/>
-      <c r="J189" s="4" t="s">
+      <c r="J189" s="6" t="s">
         <v>312</v>
       </c>
     </row>
@@ -6544,7 +6874,7 @@
       <c r="G190" s="5"/>
       <c r="H190" s="5"/>
       <c r="I190" s="5"/>
-      <c r="J190" s="4" t="s">
+      <c r="J190" s="6" t="s">
         <v>314</v>
       </c>
     </row>
@@ -6562,7 +6892,7 @@
       <c r="G191" s="5"/>
       <c r="H191" s="5"/>
       <c r="I191" s="5"/>
-      <c r="J191" s="4" t="s">
+      <c r="J191" s="6" t="s">
         <v>317</v>
       </c>
     </row>
@@ -6578,7 +6908,7 @@
       <c r="G192" s="5"/>
       <c r="H192" s="5"/>
       <c r="I192" s="5"/>
-      <c r="J192" s="4" t="s">
+      <c r="J192" s="6" t="s">
         <v>319</v>
       </c>
     </row>
@@ -6594,7 +6924,7 @@
       <c r="G193" s="5"/>
       <c r="H193" s="5"/>
       <c r="I193" s="5"/>
-      <c r="J193" s="4" t="s">
+      <c r="J193" s="6" t="s">
         <v>321</v>
       </c>
     </row>
@@ -6610,7 +6940,7 @@
       <c r="G194" s="5"/>
       <c r="H194" s="5"/>
       <c r="I194" s="5"/>
-      <c r="J194" s="4" t="s">
+      <c r="J194" s="6" t="s">
         <v>323</v>
       </c>
     </row>
@@ -6630,7 +6960,7 @@
       <c r="G195" s="5"/>
       <c r="H195" s="5"/>
       <c r="I195" s="5"/>
-      <c r="J195" s="4" t="s">
+      <c r="J195" s="6" t="s">
         <v>326</v>
       </c>
     </row>
@@ -6646,7 +6976,7 @@
       <c r="G196" s="5"/>
       <c r="H196" s="5"/>
       <c r="I196" s="5"/>
-      <c r="J196" s="4" t="s">
+      <c r="J196" s="6" t="s">
         <v>328</v>
       </c>
     </row>
@@ -6662,7 +6992,7 @@
       <c r="G197" s="5"/>
       <c r="H197" s="5"/>
       <c r="I197" s="5"/>
-      <c r="J197" s="4" t="s">
+      <c r="J197" s="6" t="s">
         <v>330</v>
       </c>
     </row>
@@ -6678,7 +7008,7 @@
       <c r="G198" s="5"/>
       <c r="H198" s="5"/>
       <c r="I198" s="5"/>
-      <c r="J198" s="4" t="s">
+      <c r="J198" s="6" t="s">
         <v>332</v>
       </c>
     </row>
@@ -6694,7 +7024,7 @@
       <c r="G199" s="5"/>
       <c r="H199" s="5"/>
       <c r="I199" s="5"/>
-      <c r="J199" s="4" t="s">
+      <c r="J199" s="6" t="s">
         <v>335</v>
       </c>
     </row>
@@ -6712,7 +7042,7 @@
       <c r="G200" s="5"/>
       <c r="H200" s="5"/>
       <c r="I200" s="5"/>
-      <c r="J200" s="4" t="s">
+      <c r="J200" s="6" t="s">
         <v>337</v>
       </c>
     </row>
@@ -6728,7 +7058,7 @@
       <c r="G201" s="5"/>
       <c r="H201" s="5"/>
       <c r="I201" s="5"/>
-      <c r="J201" s="4" t="s">
+      <c r="J201" s="6" t="s">
         <v>339</v>
       </c>
     </row>
@@ -6744,7 +7074,7 @@
       <c r="G202" s="5"/>
       <c r="H202" s="5"/>
       <c r="I202" s="5"/>
-      <c r="J202" s="4" t="s">
+      <c r="J202" s="6" t="s">
         <v>340</v>
       </c>
     </row>
@@ -6760,7 +7090,7 @@
       <c r="G203" s="5"/>
       <c r="H203" s="5"/>
       <c r="I203" s="5"/>
-      <c r="J203" s="4" t="s">
+      <c r="J203" s="6" t="s">
         <v>344</v>
       </c>
     </row>
@@ -6776,7 +7106,7 @@
       <c r="G204" s="5"/>
       <c r="H204" s="5"/>
       <c r="I204" s="5"/>
-      <c r="J204" s="4" t="s">
+      <c r="J204" s="6" t="s">
         <v>345</v>
       </c>
     </row>
@@ -6796,7 +7126,7 @@
       <c r="G205" s="5"/>
       <c r="H205" s="5"/>
       <c r="I205" s="5"/>
-      <c r="J205" s="4" t="s">
+      <c r="J205" s="6" t="s">
         <v>347</v>
       </c>
     </row>
@@ -6812,7 +7142,7 @@
       <c r="G206" s="5"/>
       <c r="H206" s="5"/>
       <c r="I206" s="5"/>
-      <c r="J206" s="4" t="s">
+      <c r="J206" s="6" t="s">
         <v>349</v>
       </c>
     </row>
@@ -6828,7 +7158,7 @@
       <c r="G207" s="5"/>
       <c r="H207" s="5"/>
       <c r="I207" s="5"/>
-      <c r="J207" s="4" t="s">
+      <c r="J207" s="6" t="s">
         <v>350</v>
       </c>
     </row>
@@ -6844,7 +7174,7 @@
       <c r="G208" s="5"/>
       <c r="H208" s="5"/>
       <c r="I208" s="5"/>
-      <c r="J208" s="4" t="s">
+      <c r="J208" s="6" t="s">
         <v>353</v>
       </c>
     </row>
@@ -6860,7 +7190,7 @@
       <c r="G209" s="5"/>
       <c r="H209" s="5"/>
       <c r="I209" s="5"/>
-      <c r="J209" s="4" t="s">
+      <c r="J209" s="6" t="s">
         <v>355</v>
       </c>
     </row>
@@ -6878,7 +7208,7 @@
       <c r="G210" s="5"/>
       <c r="H210" s="5"/>
       <c r="I210" s="5"/>
-      <c r="J210" s="4" t="s">
+      <c r="J210" s="6" t="s">
         <v>358</v>
       </c>
     </row>
@@ -6898,7 +7228,7 @@
       <c r="G211" s="5"/>
       <c r="H211" s="5"/>
       <c r="I211" s="5"/>
-      <c r="J211" s="4" t="s">
+      <c r="J211" s="6" t="s">
         <v>361</v>
       </c>
     </row>
@@ -6914,7 +7244,7 @@
       <c r="G212" s="5"/>
       <c r="H212" s="5"/>
       <c r="I212" s="5"/>
-      <c r="J212" s="4" t="s">
+      <c r="J212" s="6" t="s">
         <v>364</v>
       </c>
     </row>
@@ -6930,7 +7260,7 @@
       <c r="G213" s="5"/>
       <c r="H213" s="5"/>
       <c r="I213" s="5"/>
-      <c r="J213" s="4" t="s">
+      <c r="J213" s="6" t="s">
         <v>366</v>
       </c>
     </row>
@@ -6946,7 +7276,7 @@
       <c r="G214" s="5"/>
       <c r="H214" s="5"/>
       <c r="I214" s="5"/>
-      <c r="J214" s="4" t="s">
+      <c r="J214" s="6" t="s">
         <v>368</v>
       </c>
     </row>
@@ -6962,7 +7292,7 @@
       <c r="G215" s="5"/>
       <c r="H215" s="5"/>
       <c r="I215" s="5"/>
-      <c r="J215" s="4" t="s">
+      <c r="J215" s="6" t="s">
         <v>370</v>
       </c>
     </row>
@@ -6978,7 +7308,7 @@
       <c r="G216" s="5"/>
       <c r="H216" s="5"/>
       <c r="I216" s="5"/>
-      <c r="J216" s="4" t="s">
+      <c r="J216" s="6" t="s">
         <v>372</v>
       </c>
     </row>
@@ -6994,7 +7324,7 @@
       <c r="G217" s="5"/>
       <c r="H217" s="5"/>
       <c r="I217" s="5"/>
-      <c r="J217" s="4" t="s">
+      <c r="J217" s="6" t="s">
         <v>373</v>
       </c>
     </row>
@@ -7010,7 +7340,7 @@
       <c r="G218" s="5"/>
       <c r="H218" s="5"/>
       <c r="I218" s="5"/>
-      <c r="J218" s="4" t="s">
+      <c r="J218" s="6" t="s">
         <v>374</v>
       </c>
     </row>
@@ -7026,7 +7356,7 @@
       <c r="G219" s="5"/>
       <c r="H219" s="5"/>
       <c r="I219" s="5"/>
-      <c r="J219" s="4" t="s">
+      <c r="J219" s="6" t="s">
         <v>375</v>
       </c>
     </row>
@@ -7042,7 +7372,7 @@
       <c r="G220" s="5"/>
       <c r="H220" s="5"/>
       <c r="I220" s="5"/>
-      <c r="J220" s="4" t="s">
+      <c r="J220" s="6" t="s">
         <v>379</v>
       </c>
     </row>
@@ -7058,7 +7388,7 @@
       <c r="G221" s="5"/>
       <c r="H221" s="5"/>
       <c r="I221" s="5"/>
-      <c r="J221" s="4" t="s">
+      <c r="J221" s="6" t="s">
         <v>382</v>
       </c>
     </row>
@@ -7074,7 +7404,7 @@
       <c r="G222" s="5"/>
       <c r="H222" s="5"/>
       <c r="I222" s="5"/>
-      <c r="J222" s="4" t="s">
+      <c r="J222" s="6" t="s">
         <v>384</v>
       </c>
     </row>
@@ -7090,7 +7420,7 @@
       <c r="G223" s="5"/>
       <c r="H223" s="5"/>
       <c r="I223" s="5"/>
-      <c r="J223" s="4" t="s">
+      <c r="J223" s="6" t="s">
         <v>386</v>
       </c>
     </row>
@@ -7110,7 +7440,7 @@
       <c r="G224" s="5"/>
       <c r="H224" s="5"/>
       <c r="I224" s="5"/>
-      <c r="J224" s="4" t="s">
+      <c r="J224" s="6" t="s">
         <v>388</v>
       </c>
     </row>
@@ -7126,7 +7456,7 @@
       <c r="G225" s="5"/>
       <c r="H225" s="5"/>
       <c r="I225" s="5"/>
-      <c r="J225" s="4" t="s">
+      <c r="J225" s="6" t="s">
         <v>390</v>
       </c>
     </row>
@@ -7142,7 +7472,7 @@
       <c r="G226" s="5"/>
       <c r="H226" s="5"/>
       <c r="I226" s="5"/>
-      <c r="J226" s="4" t="s">
+      <c r="J226" s="6" t="s">
         <v>392</v>
       </c>
     </row>
@@ -7158,7 +7488,7 @@
       <c r="G227" s="5"/>
       <c r="H227" s="5"/>
       <c r="I227" s="5"/>
-      <c r="J227" s="4" t="s">
+      <c r="J227" s="6" t="s">
         <v>394</v>
       </c>
     </row>
@@ -7174,7 +7504,7 @@
       <c r="G228" s="5"/>
       <c r="H228" s="5"/>
       <c r="I228" s="5"/>
-      <c r="J228" s="4" t="s">
+      <c r="J228" s="6" t="s">
         <v>396</v>
       </c>
     </row>
@@ -7190,7 +7520,7 @@
       <c r="G229" s="5"/>
       <c r="H229" s="5"/>
       <c r="I229" s="5"/>
-      <c r="J229" s="4" t="s">
+      <c r="J229" s="6" t="s">
         <v>399</v>
       </c>
     </row>
@@ -7206,7 +7536,7 @@
       <c r="G230" s="5"/>
       <c r="H230" s="5"/>
       <c r="I230" s="5"/>
-      <c r="J230" s="4" t="s">
+      <c r="J230" s="6" t="s">
         <v>401</v>
       </c>
     </row>
@@ -7222,7 +7552,7 @@
       <c r="G231" s="5"/>
       <c r="H231" s="5"/>
       <c r="I231" s="5"/>
-      <c r="J231" s="4" t="s">
+      <c r="J231" s="6" t="s">
         <v>403</v>
       </c>
     </row>
@@ -7238,7 +7568,7 @@
       <c r="G232" s="5"/>
       <c r="H232" s="5"/>
       <c r="I232" s="5"/>
-      <c r="J232" s="4" t="s">
+      <c r="J232" s="6" t="s">
         <v>405</v>
       </c>
     </row>
@@ -7258,7 +7588,7 @@
       <c r="G233" s="5"/>
       <c r="H233" s="5"/>
       <c r="I233" s="5"/>
-      <c r="J233" s="4" t="s">
+      <c r="J233" s="6" t="s">
         <v>407</v>
       </c>
     </row>
@@ -7274,7 +7604,7 @@
       <c r="G234" s="5"/>
       <c r="H234" s="5"/>
       <c r="I234" s="5"/>
-      <c r="J234" s="4" t="s">
+      <c r="J234" s="6" t="s">
         <v>410</v>
       </c>
     </row>
@@ -7292,7 +7622,7 @@
       <c r="G235" s="5"/>
       <c r="H235" s="5"/>
       <c r="I235" s="5"/>
-      <c r="J235" s="4"/>
+      <c r="J235" s="6"/>
     </row>
     <row r="236" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A236" s="4"/>
@@ -7306,7 +7636,7 @@
       <c r="G236" s="5"/>
       <c r="H236" s="5"/>
       <c r="I236" s="5"/>
-      <c r="J236" s="4"/>
+      <c r="J236" s="6"/>
     </row>
     <row r="237" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A237" s="4"/>
@@ -7320,7 +7650,7 @@
       <c r="G237" s="5"/>
       <c r="H237" s="5"/>
       <c r="I237" s="5"/>
-      <c r="J237" s="4" t="s">
+      <c r="J237" s="6" t="s">
         <v>414</v>
       </c>
     </row>
@@ -7336,7 +7666,7 @@
       <c r="G238" s="5"/>
       <c r="H238" s="5"/>
       <c r="I238" s="5"/>
-      <c r="J238" s="4" t="s">
+      <c r="J238" s="6" t="s">
         <v>416</v>
       </c>
     </row>
@@ -7352,7 +7682,7 @@
       <c r="G239" s="5"/>
       <c r="H239" s="5"/>
       <c r="I239" s="5"/>
-      <c r="J239" s="4" t="s">
+      <c r="J239" s="6" t="s">
         <v>418</v>
       </c>
     </row>
@@ -7372,7 +7702,7 @@
       <c r="G240" s="5"/>
       <c r="H240" s="5"/>
       <c r="I240" s="5"/>
-      <c r="J240" s="4" t="s">
+      <c r="J240" s="6" t="s">
         <v>420</v>
       </c>
     </row>
@@ -7388,7 +7718,7 @@
       <c r="G241" s="5"/>
       <c r="H241" s="5"/>
       <c r="I241" s="5"/>
-      <c r="J241" s="4" t="s">
+      <c r="J241" s="6" t="s">
         <v>423</v>
       </c>
     </row>
@@ -7404,7 +7734,7 @@
       <c r="G242" s="5"/>
       <c r="H242" s="5"/>
       <c r="I242" s="5"/>
-      <c r="J242" s="4" t="s">
+      <c r="J242" s="6" t="s">
         <v>425</v>
       </c>
     </row>
@@ -7422,7 +7752,7 @@
       <c r="G243" s="5"/>
       <c r="H243" s="5"/>
       <c r="I243" s="5"/>
-      <c r="J243" s="4" t="s">
+      <c r="J243" s="6" t="s">
         <v>427</v>
       </c>
     </row>
@@ -7438,7 +7768,7 @@
       <c r="G244" s="5"/>
       <c r="H244" s="5"/>
       <c r="I244" s="5"/>
-      <c r="J244" s="4" t="s">
+      <c r="J244" s="6" t="s">
         <v>426</v>
       </c>
     </row>
@@ -7454,7 +7784,7 @@
       <c r="G245" s="5"/>
       <c r="H245" s="5"/>
       <c r="I245" s="5"/>
-      <c r="J245" s="4" t="s">
+      <c r="J245" s="6" t="s">
         <v>428</v>
       </c>
     </row>
@@ -7470,7 +7800,7 @@
       <c r="G246" s="5"/>
       <c r="H246" s="5"/>
       <c r="I246" s="5"/>
-      <c r="J246" s="4" t="s">
+      <c r="J246" s="6" t="s">
         <v>433</v>
       </c>
     </row>
@@ -7486,7 +7816,7 @@
       <c r="G247" s="5"/>
       <c r="H247" s="5"/>
       <c r="I247" s="5"/>
-      <c r="J247" s="4" t="s">
+      <c r="J247" s="6" t="s">
         <v>435</v>
       </c>
     </row>
@@ -7502,7 +7832,7 @@
       <c r="G248" s="5"/>
       <c r="H248" s="5"/>
       <c r="I248" s="5"/>
-      <c r="J248" s="4" t="s">
+      <c r="J248" s="6" t="s">
         <v>437</v>
       </c>
     </row>
@@ -7518,7 +7848,7 @@
       <c r="G249" s="5"/>
       <c r="H249" s="5"/>
       <c r="I249" s="5"/>
-      <c r="J249" s="4" t="s">
+      <c r="J249" s="6" t="s">
         <v>439</v>
       </c>
     </row>
@@ -7534,7 +7864,7 @@
       <c r="G250" s="5"/>
       <c r="H250" s="5"/>
       <c r="I250" s="5"/>
-      <c r="J250" s="4" t="s">
+      <c r="J250" s="6" t="s">
         <v>441</v>
       </c>
     </row>
@@ -7554,7 +7884,7 @@
       <c r="G251" s="5"/>
       <c r="H251" s="5"/>
       <c r="I251" s="5"/>
-      <c r="J251" s="4" t="s">
+      <c r="J251" s="6" t="s">
         <v>446</v>
       </c>
     </row>
@@ -7570,7 +7900,7 @@
       <c r="G252" s="5"/>
       <c r="H252" s="5"/>
       <c r="I252" s="5"/>
-      <c r="J252" s="4" t="s">
+      <c r="J252" s="6" t="s">
         <v>446</v>
       </c>
     </row>
@@ -7586,7 +7916,7 @@
       <c r="G253" s="5"/>
       <c r="H253" s="5"/>
       <c r="I253" s="5"/>
-      <c r="J253" s="4" t="s">
+      <c r="J253" s="6" t="s">
         <v>446</v>
       </c>
     </row>
@@ -7602,7 +7932,7 @@
       <c r="G254" s="5"/>
       <c r="H254" s="5"/>
       <c r="I254" s="5"/>
-      <c r="J254" s="4" t="s">
+      <c r="J254" s="6" t="s">
         <v>448</v>
       </c>
     </row>
@@ -7618,7 +7948,7 @@
       <c r="G255" s="5"/>
       <c r="H255" s="5"/>
       <c r="I255" s="5"/>
-      <c r="J255" s="4" t="s">
+      <c r="J255" s="6" t="s">
         <v>450</v>
       </c>
     </row>
@@ -7636,7 +7966,7 @@
       <c r="G256" s="5"/>
       <c r="H256" s="5"/>
       <c r="I256" s="5"/>
-      <c r="J256" s="4" t="s">
+      <c r="J256" s="6" t="s">
         <v>455</v>
       </c>
     </row>
@@ -7652,7 +7982,7 @@
       <c r="G257" s="5"/>
       <c r="H257" s="5"/>
       <c r="I257" s="5"/>
-      <c r="J257" s="4" t="s">
+      <c r="J257" s="6" t="s">
         <v>457</v>
       </c>
     </row>
@@ -7672,7 +8002,7 @@
       <c r="G258" s="5"/>
       <c r="H258" s="5"/>
       <c r="I258" s="5"/>
-      <c r="J258" s="4" t="s">
+      <c r="J258" s="6" t="s">
         <v>462</v>
       </c>
     </row>
@@ -7690,7 +8020,7 @@
       <c r="G259" s="5"/>
       <c r="H259" s="5"/>
       <c r="I259" s="5"/>
-      <c r="J259" s="4"/>
+      <c r="J259" s="6"/>
     </row>
     <row r="260" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A260" s="4"/>
@@ -7704,7 +8034,7 @@
       <c r="G260" s="5"/>
       <c r="H260" s="5"/>
       <c r="I260" s="5"/>
-      <c r="J260" s="4"/>
+      <c r="J260" s="6"/>
     </row>
     <row r="261" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A261" s="4"/>
@@ -7718,7 +8048,7 @@
       <c r="G261" s="5"/>
       <c r="H261" s="5"/>
       <c r="I261" s="5"/>
-      <c r="J261" s="4" t="s">
+      <c r="J261" s="6" t="s">
         <v>465</v>
       </c>
     </row>
@@ -7734,7 +8064,7 @@
       <c r="G262" s="5"/>
       <c r="H262" s="5"/>
       <c r="I262" s="5"/>
-      <c r="J262" s="4" t="s">
+      <c r="J262" s="6" t="s">
         <v>469</v>
       </c>
     </row>
@@ -7750,7 +8080,7 @@
       <c r="G263" s="5"/>
       <c r="H263" s="5"/>
       <c r="I263" s="5"/>
-      <c r="J263" s="4" t="s">
+      <c r="J263" s="6" t="s">
         <v>470</v>
       </c>
     </row>
@@ -7766,7 +8096,7 @@
       <c r="G264" s="5"/>
       <c r="H264" s="5"/>
       <c r="I264" s="5"/>
-      <c r="J264" s="4" t="s">
+      <c r="J264" s="6" t="s">
         <v>473</v>
       </c>
     </row>
@@ -7782,7 +8112,7 @@
       <c r="G265" s="5"/>
       <c r="H265" s="5"/>
       <c r="I265" s="5"/>
-      <c r="J265" s="4" t="s">
+      <c r="J265" s="6" t="s">
         <v>474</v>
       </c>
     </row>
@@ -7798,7 +8128,7 @@
       <c r="G266" s="5"/>
       <c r="H266" s="5"/>
       <c r="I266" s="5"/>
-      <c r="J266" s="4" t="s">
+      <c r="J266" s="6" t="s">
         <v>475</v>
       </c>
     </row>
@@ -7818,7 +8148,7 @@
       <c r="G267" s="5"/>
       <c r="H267" s="5"/>
       <c r="I267" s="5"/>
-      <c r="J267" s="4" t="s">
+      <c r="J267" s="6" t="s">
         <v>478</v>
       </c>
     </row>
@@ -7834,7 +8164,7 @@
       <c r="G268" s="5"/>
       <c r="H268" s="5"/>
       <c r="I268" s="5"/>
-      <c r="J268" s="4" t="s">
+      <c r="J268" s="6" t="s">
         <v>480</v>
       </c>
     </row>
@@ -7850,7 +8180,7 @@
       <c r="G269" s="5"/>
       <c r="H269" s="5"/>
       <c r="I269" s="5"/>
-      <c r="J269" s="4" t="s">
+      <c r="J269" s="6" t="s">
         <v>482</v>
       </c>
     </row>
@@ -7866,7 +8196,7 @@
       <c r="G270" s="5"/>
       <c r="H270" s="5"/>
       <c r="I270" s="5"/>
-      <c r="J270" s="4" t="s">
+      <c r="J270" s="6" t="s">
         <v>484</v>
       </c>
     </row>
@@ -7882,7 +8212,7 @@
       <c r="G271" s="5"/>
       <c r="H271" s="5"/>
       <c r="I271" s="5"/>
-      <c r="J271" s="4" t="s">
+      <c r="J271" s="6" t="s">
         <v>487</v>
       </c>
     </row>
@@ -7898,7 +8228,7 @@
       <c r="G272" s="5"/>
       <c r="H272" s="5"/>
       <c r="I272" s="5"/>
-      <c r="J272" s="4" t="s">
+      <c r="J272" s="6" t="s">
         <v>489</v>
       </c>
     </row>
@@ -7918,7 +8248,7 @@
       <c r="G273" s="5"/>
       <c r="H273" s="5"/>
       <c r="I273" s="5"/>
-      <c r="J273" s="4" t="s">
+      <c r="J273" s="6" t="s">
         <v>492</v>
       </c>
     </row>
@@ -7934,7 +8264,7 @@
       <c r="G274" s="5"/>
       <c r="H274" s="5"/>
       <c r="I274" s="5"/>
-      <c r="J274" s="4" t="s">
+      <c r="J274" s="6" t="s">
         <v>493</v>
       </c>
     </row>
@@ -7950,7 +8280,7 @@
       <c r="G275" s="5"/>
       <c r="H275" s="5"/>
       <c r="I275" s="5"/>
-      <c r="J275" s="4" t="s">
+      <c r="J275" s="6" t="s">
         <v>497</v>
       </c>
     </row>
@@ -7966,7 +8296,7 @@
       <c r="G276" s="5"/>
       <c r="H276" s="5"/>
       <c r="I276" s="5"/>
-      <c r="J276" s="4" t="s">
+      <c r="J276" s="6" t="s">
         <v>498</v>
       </c>
     </row>
@@ -7982,7 +8312,7 @@
       <c r="G277" s="5"/>
       <c r="H277" s="5"/>
       <c r="I277" s="5"/>
-      <c r="J277" s="4" t="s">
+      <c r="J277" s="6" t="s">
         <v>501</v>
       </c>
     </row>
@@ -8000,7 +8330,7 @@
       <c r="G278" s="5"/>
       <c r="H278" s="5"/>
       <c r="I278" s="5"/>
-      <c r="J278" s="4" t="s">
+      <c r="J278" s="6" t="s">
         <v>506</v>
       </c>
     </row>
@@ -8016,7 +8346,7 @@
       <c r="G279" s="5"/>
       <c r="H279" s="5"/>
       <c r="I279" s="5"/>
-      <c r="J279" s="4" t="s">
+      <c r="J279" s="6" t="s">
         <v>507</v>
       </c>
     </row>
@@ -8032,7 +8362,7 @@
       <c r="G280" s="5"/>
       <c r="H280" s="5"/>
       <c r="I280" s="5"/>
-      <c r="J280" s="4" t="s">
+      <c r="J280" s="6" t="s">
         <v>508</v>
       </c>
     </row>
@@ -8052,7 +8382,7 @@
       <c r="G281" s="5"/>
       <c r="H281" s="5"/>
       <c r="I281" s="5"/>
-      <c r="J281" s="4" t="s">
+      <c r="J281" s="6" t="s">
         <v>518</v>
       </c>
     </row>
@@ -8068,7 +8398,7 @@
       <c r="G282" s="5"/>
       <c r="H282" s="5"/>
       <c r="I282" s="5"/>
-      <c r="J282" s="4" t="s">
+      <c r="J282" s="6" t="s">
         <v>519</v>
       </c>
     </row>
@@ -8084,7 +8414,7 @@
       <c r="G283" s="5"/>
       <c r="H283" s="5"/>
       <c r="I283" s="5"/>
-      <c r="J283" s="4" t="s">
+      <c r="J283" s="6" t="s">
         <v>520</v>
       </c>
     </row>
@@ -8100,7 +8430,7 @@
       <c r="G284" s="5"/>
       <c r="H284" s="5"/>
       <c r="I284" s="5"/>
-      <c r="J284" s="4" t="s">
+      <c r="J284" s="6" t="s">
         <v>512</v>
       </c>
     </row>
@@ -8116,7 +8446,7 @@
       <c r="G285" s="5"/>
       <c r="H285" s="5"/>
       <c r="I285" s="5"/>
-      <c r="J285" s="4" t="s">
+      <c r="J285" s="6" t="s">
         <v>513</v>
       </c>
     </row>
@@ -8134,7 +8464,7 @@
       <c r="G286" s="5"/>
       <c r="H286" s="5"/>
       <c r="I286" s="5"/>
-      <c r="J286" s="4" t="s">
+      <c r="J286" s="6" t="s">
         <v>514</v>
       </c>
     </row>
@@ -8150,7 +8480,7 @@
       <c r="G287" s="5"/>
       <c r="H287" s="5"/>
       <c r="I287" s="5"/>
-      <c r="J287" s="4" t="s">
+      <c r="J287" s="6" t="s">
         <v>525</v>
       </c>
     </row>
@@ -8166,7 +8496,7 @@
       <c r="G288" s="5"/>
       <c r="H288" s="5"/>
       <c r="I288" s="5"/>
-      <c r="J288" s="4" t="s">
+      <c r="J288" s="6" t="s">
         <v>525</v>
       </c>
     </row>
@@ -8182,7 +8512,7 @@
       <c r="G289" s="5"/>
       <c r="H289" s="5"/>
       <c r="I289" s="5"/>
-      <c r="J289" s="4" t="s">
+      <c r="J289" s="6" t="s">
         <v>525</v>
       </c>
     </row>
@@ -8202,7 +8532,7 @@
       <c r="G290" s="5"/>
       <c r="H290" s="5"/>
       <c r="I290" s="5"/>
-      <c r="J290" s="4" t="s">
+      <c r="J290" s="6" t="s">
         <v>528</v>
       </c>
     </row>
@@ -8218,7 +8548,7 @@
       <c r="G291" s="5"/>
       <c r="H291" s="5"/>
       <c r="I291" s="5"/>
-      <c r="J291" s="4" t="s">
+      <c r="J291" s="6" t="s">
         <v>530</v>
       </c>
     </row>
@@ -8234,7 +8564,7 @@
       <c r="G292" s="5"/>
       <c r="H292" s="5"/>
       <c r="I292" s="5"/>
-      <c r="J292" s="4" t="s">
+      <c r="J292" s="6" t="s">
         <v>534</v>
       </c>
     </row>
@@ -8250,7 +8580,7 @@
       <c r="G293" s="5"/>
       <c r="H293" s="5"/>
       <c r="I293" s="5"/>
-      <c r="J293" s="4" t="s">
+      <c r="J293" s="6" t="s">
         <v>535</v>
       </c>
     </row>
@@ -8266,7 +8596,7 @@
       <c r="G294" s="5"/>
       <c r="H294" s="5"/>
       <c r="I294" s="5"/>
-      <c r="J294" s="4" t="s">
+      <c r="J294" s="6" t="s">
         <v>536</v>
       </c>
     </row>
@@ -8282,7 +8612,7 @@
       <c r="G295" s="5"/>
       <c r="H295" s="5"/>
       <c r="I295" s="5"/>
-      <c r="J295" s="4" t="s">
+      <c r="J295" s="6" t="s">
         <v>538</v>
       </c>
     </row>
@@ -8298,7 +8628,7 @@
       <c r="G296" s="5"/>
       <c r="H296" s="5"/>
       <c r="I296" s="5"/>
-      <c r="J296" s="4" t="s">
+      <c r="J296" s="6" t="s">
         <v>541</v>
       </c>
     </row>
@@ -8314,7 +8644,7 @@
       <c r="G297" s="5"/>
       <c r="H297" s="5"/>
       <c r="I297" s="5"/>
-      <c r="J297" s="4" t="s">
+      <c r="J297" s="6" t="s">
         <v>542</v>
       </c>
     </row>
@@ -8332,7 +8662,7 @@
       <c r="G298" s="5"/>
       <c r="H298" s="5"/>
       <c r="I298" s="5"/>
-      <c r="J298" s="4"/>
+      <c r="J298" s="6"/>
     </row>
     <row r="299" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A299" s="4"/>
@@ -8346,7 +8676,7 @@
       <c r="G299" s="5"/>
       <c r="H299" s="5"/>
       <c r="I299" s="5"/>
-      <c r="J299" s="4" t="s">
+      <c r="J299" s="6" t="s">
         <v>546</v>
       </c>
     </row>
@@ -8362,7 +8692,7 @@
       <c r="G300" s="5"/>
       <c r="H300" s="5"/>
       <c r="I300" s="5"/>
-      <c r="J300" s="4" t="s">
+      <c r="J300" s="6" t="s">
         <v>548</v>
       </c>
     </row>
@@ -8378,7 +8708,7 @@
       <c r="G301" s="5"/>
       <c r="H301" s="5"/>
       <c r="I301" s="5"/>
-      <c r="J301" s="4" t="s">
+      <c r="J301" s="6" t="s">
         <v>551</v>
       </c>
     </row>
@@ -8394,7 +8724,7 @@
       <c r="G302" s="5"/>
       <c r="H302" s="5"/>
       <c r="I302" s="5"/>
-      <c r="J302" s="4" t="s">
+      <c r="J302" s="6" t="s">
         <v>552</v>
       </c>
     </row>
@@ -8416,7 +8746,7 @@
       <c r="G303" s="5"/>
       <c r="H303" s="5"/>
       <c r="I303" s="5"/>
-      <c r="J303" s="4" t="s">
+      <c r="J303" s="6" t="s">
         <v>555</v>
       </c>
     </row>
@@ -8432,7 +8762,7 @@
       <c r="G304" s="5"/>
       <c r="H304" s="5"/>
       <c r="I304" s="5"/>
-      <c r="J304" s="4" t="s">
+      <c r="J304" s="6" t="s">
         <v>557</v>
       </c>
     </row>
@@ -8448,7 +8778,7 @@
       <c r="G305" s="5"/>
       <c r="H305" s="5"/>
       <c r="I305" s="5"/>
-      <c r="J305" s="4" t="s">
+      <c r="J305" s="6" t="s">
         <v>559</v>
       </c>
     </row>
@@ -8464,7 +8794,7 @@
       <c r="G306" s="5"/>
       <c r="H306" s="5"/>
       <c r="I306" s="5"/>
-      <c r="J306" s="4" t="s">
+      <c r="J306" s="6" t="s">
         <v>561</v>
       </c>
     </row>
@@ -8480,7 +8810,7 @@
       <c r="G307" s="5"/>
       <c r="H307" s="5"/>
       <c r="I307" s="5"/>
-      <c r="J307" s="4" t="s">
+      <c r="J307" s="6" t="s">
         <v>563</v>
       </c>
     </row>
@@ -8496,7 +8826,7 @@
       <c r="G308" s="5"/>
       <c r="H308" s="5"/>
       <c r="I308" s="5"/>
-      <c r="J308" s="4" t="s">
+      <c r="J308" s="6" t="s">
         <v>565</v>
       </c>
     </row>
@@ -8512,7 +8842,7 @@
       <c r="G309" s="5"/>
       <c r="H309" s="5"/>
       <c r="I309" s="5"/>
-      <c r="J309" s="4" t="s">
+      <c r="J309" s="6" t="s">
         <v>567</v>
       </c>
     </row>
@@ -8528,7 +8858,7 @@
       <c r="G310" s="5"/>
       <c r="H310" s="5"/>
       <c r="I310" s="5"/>
-      <c r="J310" s="4" t="s">
+      <c r="J310" s="6" t="s">
         <v>569</v>
       </c>
     </row>
@@ -8546,7 +8876,7 @@
       <c r="G311" s="5"/>
       <c r="H311" s="5"/>
       <c r="I311" s="5"/>
-      <c r="J311" s="4" t="s">
+      <c r="J311" s="6" t="s">
         <v>572</v>
       </c>
     </row>
@@ -8568,7 +8898,7 @@
       <c r="G312" s="5"/>
       <c r="H312" s="5"/>
       <c r="I312" s="5"/>
-      <c r="J312" s="4" t="s">
+      <c r="J312" s="6" t="s">
         <v>575</v>
       </c>
     </row>
@@ -8584,7 +8914,7 @@
       <c r="G313" s="5"/>
       <c r="H313" s="5"/>
       <c r="I313" s="5"/>
-      <c r="J313" s="4" t="s">
+      <c r="J313" s="6" t="s">
         <v>577</v>
       </c>
     </row>
@@ -8600,7 +8930,7 @@
       <c r="G314" s="5"/>
       <c r="H314" s="5"/>
       <c r="I314" s="5"/>
-      <c r="J314" s="4" t="s">
+      <c r="J314" s="6" t="s">
         <v>579</v>
       </c>
     </row>
@@ -8620,7 +8950,7 @@
       <c r="G315" s="5"/>
       <c r="H315" s="5"/>
       <c r="I315" s="5"/>
-      <c r="J315" s="4"/>
+      <c r="J315" s="6"/>
     </row>
     <row r="316" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A316" s="4"/>
@@ -8634,7 +8964,7 @@
       <c r="G316" s="5"/>
       <c r="H316" s="5"/>
       <c r="I316" s="5"/>
-      <c r="J316" s="4" t="s">
+      <c r="J316" s="6" t="s">
         <v>583</v>
       </c>
     </row>
@@ -8650,7 +8980,7 @@
       <c r="G317" s="5"/>
       <c r="H317" s="5"/>
       <c r="I317" s="5"/>
-      <c r="J317" s="4"/>
+      <c r="J317" s="6"/>
     </row>
     <row r="318" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A318" s="4"/>
@@ -8664,7 +8994,7 @@
       <c r="G318" s="5"/>
       <c r="H318" s="5"/>
       <c r="I318" s="5"/>
-      <c r="J318" s="4"/>
+      <c r="J318" s="6"/>
     </row>
     <row r="319" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A319" s="4"/>
@@ -8678,7 +9008,7 @@
       <c r="G319" s="5"/>
       <c r="H319" s="5"/>
       <c r="I319" s="5"/>
-      <c r="J319" s="4"/>
+      <c r="J319" s="6"/>
     </row>
     <row r="320" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A320" s="4"/>
@@ -8692,7 +9022,7 @@
       <c r="G320" s="5"/>
       <c r="H320" s="5"/>
       <c r="I320" s="5"/>
-      <c r="J320" s="4"/>
+      <c r="J320" s="6"/>
     </row>
     <row r="321" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A321" s="4"/>
@@ -8706,7 +9036,7 @@
       <c r="G321" s="5"/>
       <c r="H321" s="5"/>
       <c r="I321" s="5"/>
-      <c r="J321" s="4"/>
+      <c r="J321" s="6"/>
     </row>
     <row r="322" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A322" s="4">
@@ -8726,7 +9056,7 @@
       <c r="G322" s="5"/>
       <c r="H322" s="5"/>
       <c r="I322" s="5"/>
-      <c r="J322" s="4" t="s">
+      <c r="J322" s="6" t="s">
         <v>592</v>
       </c>
     </row>
@@ -8742,7 +9072,7 @@
       <c r="G323" s="5"/>
       <c r="H323" s="5"/>
       <c r="I323" s="5"/>
-      <c r="J323" s="4" t="s">
+      <c r="J323" s="6" t="s">
         <v>594</v>
       </c>
     </row>
@@ -8758,7 +9088,7 @@
       <c r="G324" s="5"/>
       <c r="H324" s="5"/>
       <c r="I324" s="5"/>
-      <c r="J324" s="4" t="s">
+      <c r="J324" s="6" t="s">
         <v>596</v>
       </c>
     </row>
@@ -8774,7 +9104,7 @@
       <c r="G325" s="5"/>
       <c r="H325" s="5"/>
       <c r="I325" s="5"/>
-      <c r="J325" s="4" t="s">
+      <c r="J325" s="6" t="s">
         <v>598</v>
       </c>
     </row>
@@ -8790,7 +9120,7 @@
       <c r="G326" s="5"/>
       <c r="H326" s="5"/>
       <c r="I326" s="5"/>
-      <c r="J326" s="4" t="s">
+      <c r="J326" s="6" t="s">
         <v>600</v>
       </c>
     </row>
@@ -8806,7 +9136,7 @@
       <c r="G327" s="5"/>
       <c r="H327" s="5"/>
       <c r="I327" s="5"/>
-      <c r="J327" s="4" t="s">
+      <c r="J327" s="6" t="s">
         <v>602</v>
       </c>
     </row>
@@ -8822,7 +9152,7 @@
       <c r="G328" s="5"/>
       <c r="H328" s="5"/>
       <c r="I328" s="5"/>
-      <c r="J328" s="4" t="s">
+      <c r="J328" s="6" t="s">
         <v>604</v>
       </c>
     </row>
@@ -8838,7 +9168,7 @@
       <c r="G329" s="5"/>
       <c r="H329" s="5"/>
       <c r="I329" s="5"/>
-      <c r="J329" s="4" t="s">
+      <c r="J329" s="6" t="s">
         <v>606</v>
       </c>
     </row>
@@ -8854,7 +9184,7 @@
       <c r="G330" s="5"/>
       <c r="H330" s="5"/>
       <c r="I330" s="5"/>
-      <c r="J330" s="4" t="s">
+      <c r="J330" s="6" t="s">
         <v>608</v>
       </c>
     </row>
@@ -8870,7 +9200,7 @@
       <c r="G331" s="5"/>
       <c r="H331" s="5"/>
       <c r="I331" s="5"/>
-      <c r="J331" s="4" t="s">
+      <c r="J331" s="6" t="s">
         <v>610</v>
       </c>
     </row>
@@ -8886,7 +9216,7 @@
       <c r="G332" s="5"/>
       <c r="H332" s="5"/>
       <c r="I332" s="5"/>
-      <c r="J332" s="4" t="s">
+      <c r="J332" s="6" t="s">
         <v>612</v>
       </c>
     </row>
@@ -8902,7 +9232,7 @@
       <c r="G333" s="5"/>
       <c r="H333" s="5"/>
       <c r="I333" s="5"/>
-      <c r="J333" s="4" t="s">
+      <c r="J333" s="6" t="s">
         <v>614</v>
       </c>
     </row>
@@ -8918,7 +9248,7 @@
       <c r="G334" s="5"/>
       <c r="H334" s="5"/>
       <c r="I334" s="5"/>
-      <c r="J334" s="4" t="s">
+      <c r="J334" s="6" t="s">
         <v>616</v>
       </c>
     </row>
@@ -8934,7 +9264,7 @@
       <c r="G335" s="5"/>
       <c r="H335" s="5"/>
       <c r="I335" s="5"/>
-      <c r="J335" s="4" t="s">
+      <c r="J335" s="6" t="s">
         <v>618</v>
       </c>
     </row>
@@ -8950,7 +9280,7 @@
       <c r="G336" s="5"/>
       <c r="H336" s="5"/>
       <c r="I336" s="5"/>
-      <c r="J336" s="4" t="s">
+      <c r="J336" s="6" t="s">
         <v>620</v>
       </c>
     </row>
@@ -8966,7 +9296,7 @@
       <c r="G337" s="5"/>
       <c r="H337" s="5"/>
       <c r="I337" s="5"/>
-      <c r="J337" s="4" t="s">
+      <c r="J337" s="6" t="s">
         <v>622</v>
       </c>
     </row>
@@ -8982,7 +9312,7 @@
       <c r="G338" s="5"/>
       <c r="H338" s="5"/>
       <c r="I338" s="5"/>
-      <c r="J338" s="4" t="s">
+      <c r="J338" s="6" t="s">
         <v>624</v>
       </c>
     </row>
@@ -8998,7 +9328,7 @@
       <c r="G339" s="5"/>
       <c r="H339" s="5"/>
       <c r="I339" s="5"/>
-      <c r="J339" s="4" t="s">
+      <c r="J339" s="6" t="s">
         <v>626</v>
       </c>
     </row>
@@ -9014,7 +9344,7 @@
       <c r="G340" s="5"/>
       <c r="H340" s="5"/>
       <c r="I340" s="5"/>
-      <c r="J340" s="4" t="s">
+      <c r="J340" s="6" t="s">
         <v>628</v>
       </c>
     </row>
@@ -9030,7 +9360,7 @@
       <c r="G341" s="5"/>
       <c r="H341" s="5"/>
       <c r="I341" s="5"/>
-      <c r="J341" s="4" t="s">
+      <c r="J341" s="6" t="s">
         <v>630</v>
       </c>
     </row>
@@ -9046,7 +9376,7 @@
       <c r="G342" s="5"/>
       <c r="H342" s="5"/>
       <c r="I342" s="5"/>
-      <c r="J342" s="4" t="s">
+      <c r="J342" s="6" t="s">
         <v>632</v>
       </c>
     </row>
@@ -9062,7 +9392,7 @@
       <c r="G343" s="5"/>
       <c r="H343" s="5"/>
       <c r="I343" s="5"/>
-      <c r="J343" s="4" t="s">
+      <c r="J343" s="6" t="s">
         <v>634</v>
       </c>
     </row>
@@ -9078,7 +9408,7 @@
       <c r="G344" s="5"/>
       <c r="H344" s="5"/>
       <c r="I344" s="5"/>
-      <c r="J344" s="4" t="s">
+      <c r="J344" s="6" t="s">
         <v>636</v>
       </c>
     </row>
@@ -9098,7 +9428,7 @@
       <c r="G345" s="5"/>
       <c r="H345" s="5"/>
       <c r="I345" s="5"/>
-      <c r="J345" s="4" t="s">
+      <c r="J345" s="6" t="s">
         <v>639</v>
       </c>
     </row>
@@ -9114,7 +9444,7 @@
       <c r="G346" s="5"/>
       <c r="H346" s="5"/>
       <c r="I346" s="5"/>
-      <c r="J346" s="4" t="s">
+      <c r="J346" s="6" t="s">
         <v>641</v>
       </c>
     </row>
@@ -9130,7 +9460,7 @@
       <c r="G347" s="5"/>
       <c r="H347" s="5"/>
       <c r="I347" s="5"/>
-      <c r="J347" s="4" t="s">
+      <c r="J347" s="6" t="s">
         <v>643</v>
       </c>
     </row>
@@ -9146,7 +9476,7 @@
       <c r="G348" s="5"/>
       <c r="H348" s="5"/>
       <c r="I348" s="5"/>
-      <c r="J348" s="4" t="s">
+      <c r="J348" s="6" t="s">
         <v>645</v>
       </c>
     </row>
@@ -9162,7 +9492,7 @@
       <c r="G349" s="5"/>
       <c r="H349" s="5"/>
       <c r="I349" s="5"/>
-      <c r="J349" s="4" t="s">
+      <c r="J349" s="6" t="s">
         <v>647</v>
       </c>
     </row>
@@ -9178,7 +9508,7 @@
       <c r="G350" s="5"/>
       <c r="H350" s="5"/>
       <c r="I350" s="5"/>
-      <c r="J350" s="4" t="s">
+      <c r="J350" s="6" t="s">
         <v>649</v>
       </c>
     </row>
@@ -9194,7 +9524,7 @@
       <c r="G351" s="5"/>
       <c r="H351" s="5"/>
       <c r="I351" s="5"/>
-      <c r="J351" s="4" t="s">
+      <c r="J351" s="6" t="s">
         <v>651</v>
       </c>
     </row>
@@ -9210,7 +9540,7 @@
       <c r="G352" s="5"/>
       <c r="H352" s="5"/>
       <c r="I352" s="5"/>
-      <c r="J352" s="4" t="s">
+      <c r="J352" s="6" t="s">
         <v>653</v>
       </c>
     </row>
@@ -9226,7 +9556,7 @@
       <c r="G353" s="5"/>
       <c r="H353" s="5"/>
       <c r="I353" s="5"/>
-      <c r="J353" s="4" t="s">
+      <c r="J353" s="6" t="s">
         <v>655</v>
       </c>
     </row>
@@ -9242,7 +9572,7 @@
       <c r="G354" s="5"/>
       <c r="H354" s="5"/>
       <c r="I354" s="5"/>
-      <c r="J354" s="4" t="s">
+      <c r="J354" s="6" t="s">
         <v>657</v>
       </c>
     </row>
@@ -9260,7 +9590,7 @@
       <c r="G355" s="5"/>
       <c r="H355" s="5"/>
       <c r="I355" s="5"/>
-      <c r="J355" s="4" t="s">
+      <c r="J355" s="6" t="s">
         <v>660</v>
       </c>
     </row>
@@ -9280,7 +9610,7 @@
       <c r="G356" s="5"/>
       <c r="H356" s="5"/>
       <c r="I356" s="5"/>
-      <c r="J356" s="4" t="s">
+      <c r="J356" s="6" t="s">
         <v>663</v>
       </c>
     </row>
@@ -9296,7 +9626,7 @@
       <c r="G357" s="5"/>
       <c r="H357" s="5"/>
       <c r="I357" s="5"/>
-      <c r="J357" s="4" t="s">
+      <c r="J357" s="6" t="s">
         <v>665</v>
       </c>
     </row>
@@ -9312,7 +9642,7 @@
       <c r="G358" s="5"/>
       <c r="H358" s="5"/>
       <c r="I358" s="5"/>
-      <c r="J358" s="4" t="s">
+      <c r="J358" s="6" t="s">
         <v>667</v>
       </c>
     </row>
@@ -9328,7 +9658,7 @@
       <c r="G359" s="5"/>
       <c r="H359" s="5"/>
       <c r="I359" s="5"/>
-      <c r="J359" s="4" t="s">
+      <c r="J359" s="6" t="s">
         <v>669</v>
       </c>
     </row>
@@ -9344,7 +9674,7 @@
       <c r="G360" s="5"/>
       <c r="H360" s="5"/>
       <c r="I360" s="5"/>
-      <c r="J360" s="4" t="s">
+      <c r="J360" s="6" t="s">
         <v>671</v>
       </c>
     </row>
@@ -9360,7 +9690,7 @@
       <c r="G361" s="5"/>
       <c r="H361" s="5"/>
       <c r="I361" s="5"/>
-      <c r="J361" s="4" t="s">
+      <c r="J361" s="6" t="s">
         <v>673</v>
       </c>
     </row>
@@ -9376,7 +9706,7 @@
       <c r="G362" s="5"/>
       <c r="H362" s="5"/>
       <c r="I362" s="5"/>
-      <c r="J362" s="4" t="s">
+      <c r="J362" s="6" t="s">
         <v>675</v>
       </c>
     </row>
@@ -9392,7 +9722,7 @@
       <c r="G363" s="5"/>
       <c r="H363" s="5"/>
       <c r="I363" s="5"/>
-      <c r="J363" s="4" t="s">
+      <c r="J363" s="6" t="s">
         <v>677</v>
       </c>
     </row>
@@ -9408,7 +9738,7 @@
       <c r="G364" s="5"/>
       <c r="H364" s="5"/>
       <c r="I364" s="5"/>
-      <c r="J364" s="4" t="s">
+      <c r="J364" s="6" t="s">
         <v>679</v>
       </c>
     </row>
@@ -9424,7 +9754,7 @@
       <c r="G365" s="5"/>
       <c r="H365" s="5"/>
       <c r="I365" s="5"/>
-      <c r="J365" s="4" t="s">
+      <c r="J365" s="6" t="s">
         <v>681</v>
       </c>
     </row>
@@ -9440,7 +9770,7 @@
       <c r="G366" s="5"/>
       <c r="H366" s="5"/>
       <c r="I366" s="5"/>
-      <c r="J366" s="4" t="s">
+      <c r="J366" s="6" t="s">
         <v>683</v>
       </c>
     </row>
@@ -9456,7 +9786,7 @@
       <c r="G367" s="5"/>
       <c r="H367" s="5"/>
       <c r="I367" s="5"/>
-      <c r="J367" s="4" t="s">
+      <c r="J367" s="6" t="s">
         <v>685</v>
       </c>
     </row>
@@ -9472,7 +9802,7 @@
       <c r="G368" s="5"/>
       <c r="H368" s="5"/>
       <c r="I368" s="5"/>
-      <c r="J368" s="4" t="s">
+      <c r="J368" s="6" t="s">
         <v>687</v>
       </c>
     </row>
@@ -9488,7 +9818,7 @@
       <c r="G369" s="5"/>
       <c r="H369" s="5"/>
       <c r="I369" s="5"/>
-      <c r="J369" s="4" t="s">
+      <c r="J369" s="6" t="s">
         <v>689</v>
       </c>
     </row>
@@ -9504,7 +9834,7 @@
       <c r="G370" s="5"/>
       <c r="H370" s="5"/>
       <c r="I370" s="5"/>
-      <c r="J370" s="4" t="s">
+      <c r="J370" s="6" t="s">
         <v>691</v>
       </c>
     </row>
@@ -9520,7 +9850,7 @@
       <c r="G371" s="5"/>
       <c r="H371" s="5"/>
       <c r="I371" s="5"/>
-      <c r="J371" s="4" t="s">
+      <c r="J371" s="6" t="s">
         <v>693</v>
       </c>
     </row>
@@ -9536,7 +9866,7 @@
       <c r="G372" s="5"/>
       <c r="H372" s="5"/>
       <c r="I372" s="5"/>
-      <c r="J372" s="4" t="s">
+      <c r="J372" s="6" t="s">
         <v>695</v>
       </c>
     </row>
@@ -9556,7 +9886,7 @@
       <c r="G373" s="5"/>
       <c r="H373" s="5"/>
       <c r="I373" s="5"/>
-      <c r="J373" s="4" t="s">
+      <c r="J373" s="6" t="s">
         <v>698</v>
       </c>
     </row>
@@ -9572,7 +9902,7 @@
       <c r="G374" s="5"/>
       <c r="H374" s="5"/>
       <c r="I374" s="5"/>
-      <c r="J374" s="4" t="s">
+      <c r="J374" s="6" t="s">
         <v>700</v>
       </c>
     </row>
@@ -9588,7 +9918,7 @@
       <c r="G375" s="5"/>
       <c r="H375" s="5"/>
       <c r="I375" s="5"/>
-      <c r="J375" s="4" t="s">
+      <c r="J375" s="6" t="s">
         <v>702</v>
       </c>
     </row>
@@ -9604,7 +9934,7 @@
       <c r="G376" s="5"/>
       <c r="H376" s="5"/>
       <c r="I376" s="5"/>
-      <c r="J376" s="4" t="s">
+      <c r="J376" s="6" t="s">
         <v>704</v>
       </c>
     </row>
@@ -9620,7 +9950,7 @@
       <c r="G377" s="5"/>
       <c r="H377" s="5"/>
       <c r="I377" s="5"/>
-      <c r="J377" s="4" t="s">
+      <c r="J377" s="6" t="s">
         <v>706</v>
       </c>
     </row>
@@ -9636,7 +9966,7 @@
       <c r="G378" s="5"/>
       <c r="H378" s="5"/>
       <c r="I378" s="5"/>
-      <c r="J378" s="4" t="s">
+      <c r="J378" s="6" t="s">
         <v>708</v>
       </c>
     </row>
@@ -9652,7 +9982,7 @@
       <c r="G379" s="5"/>
       <c r="H379" s="5"/>
       <c r="I379" s="5"/>
-      <c r="J379" s="4" t="s">
+      <c r="J379" s="6" t="s">
         <v>710</v>
       </c>
     </row>
@@ -9668,7 +9998,7 @@
       <c r="G380" s="5"/>
       <c r="H380" s="5"/>
       <c r="I380" s="5"/>
-      <c r="J380" s="4" t="s">
+      <c r="J380" s="6" t="s">
         <v>712</v>
       </c>
     </row>
@@ -9684,7 +10014,7 @@
       <c r="G381" s="5"/>
       <c r="H381" s="5"/>
       <c r="I381" s="5"/>
-      <c r="J381" s="4" t="s">
+      <c r="J381" s="6" t="s">
         <v>714</v>
       </c>
     </row>
@@ -9700,7 +10030,7 @@
       <c r="G382" s="5"/>
       <c r="H382" s="5"/>
       <c r="I382" s="5"/>
-      <c r="J382" s="4" t="s">
+      <c r="J382" s="6" t="s">
         <v>716</v>
       </c>
     </row>
@@ -9716,7 +10046,7 @@
       <c r="G383" s="5"/>
       <c r="H383" s="5"/>
       <c r="I383" s="5"/>
-      <c r="J383" s="4" t="s">
+      <c r="J383" s="6" t="s">
         <v>718</v>
       </c>
     </row>
@@ -9732,7 +10062,7 @@
       <c r="G384" s="5"/>
       <c r="H384" s="5"/>
       <c r="I384" s="5"/>
-      <c r="J384" s="4" t="s">
+      <c r="J384" s="6" t="s">
         <v>720</v>
       </c>
     </row>
@@ -9748,7 +10078,7 @@
       <c r="G385" s="5"/>
       <c r="H385" s="5"/>
       <c r="I385" s="5"/>
-      <c r="J385" s="4" t="s">
+      <c r="J385" s="6" t="s">
         <v>722</v>
       </c>
     </row>
@@ -9764,7 +10094,7 @@
       <c r="G386" s="5"/>
       <c r="H386" s="5"/>
       <c r="I386" s="5"/>
-      <c r="J386" s="4" t="s">
+      <c r="J386" s="6" t="s">
         <v>724</v>
       </c>
     </row>
@@ -9780,7 +10110,7 @@
       <c r="G387" s="5"/>
       <c r="H387" s="5"/>
       <c r="I387" s="5"/>
-      <c r="J387" s="4" t="s">
+      <c r="J387" s="6" t="s">
         <v>726</v>
       </c>
     </row>
@@ -9796,7 +10126,7 @@
       <c r="G388" s="5"/>
       <c r="H388" s="5"/>
       <c r="I388" s="5"/>
-      <c r="J388" s="4" t="s">
+      <c r="J388" s="6" t="s">
         <v>728</v>
       </c>
     </row>
@@ -9812,7 +10142,7 @@
       <c r="G389" s="5"/>
       <c r="H389" s="5"/>
       <c r="I389" s="5"/>
-      <c r="J389" s="4" t="s">
+      <c r="J389" s="6" t="s">
         <v>730</v>
       </c>
     </row>
@@ -9828,7 +10158,7 @@
       <c r="G390" s="5"/>
       <c r="H390" s="5"/>
       <c r="I390" s="5"/>
-      <c r="J390" s="4" t="s">
+      <c r="J390" s="6" t="s">
         <v>732</v>
       </c>
     </row>
@@ -9844,7 +10174,7 @@
       <c r="G391" s="5"/>
       <c r="H391" s="5"/>
       <c r="I391" s="5"/>
-      <c r="J391" s="4" t="s">
+      <c r="J391" s="6" t="s">
         <v>734</v>
       </c>
     </row>
@@ -9860,7 +10190,7 @@
       <c r="G392" s="5"/>
       <c r="H392" s="5"/>
       <c r="I392" s="5"/>
-      <c r="J392" s="4" t="s">
+      <c r="J392" s="6" t="s">
         <v>736</v>
       </c>
     </row>
@@ -9882,7 +10212,7 @@
       <c r="G393" s="5"/>
       <c r="H393" s="5"/>
       <c r="I393" s="5"/>
-      <c r="J393" s="4"/>
+      <c r="J393" s="6"/>
     </row>
     <row r="394" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A394" s="4"/>
@@ -9896,7 +10226,7 @@
       <c r="G394" s="5"/>
       <c r="H394" s="5"/>
       <c r="I394" s="5"/>
-      <c r="J394" s="4"/>
+      <c r="J394" s="6"/>
     </row>
     <row r="395" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A395" s="4"/>
@@ -9910,7 +10240,7 @@
       <c r="G395" s="5"/>
       <c r="H395" s="5"/>
       <c r="I395" s="5"/>
-      <c r="J395" s="4" t="s">
+      <c r="J395" s="6" t="s">
         <v>742</v>
       </c>
     </row>
@@ -9926,7 +10256,7 @@
       <c r="G396" s="5"/>
       <c r="H396" s="5"/>
       <c r="I396" s="5"/>
-      <c r="J396" s="4" t="s">
+      <c r="J396" s="6" t="s">
         <v>744</v>
       </c>
     </row>
@@ -9942,7 +10272,7 @@
       <c r="G397" s="5"/>
       <c r="H397" s="5"/>
       <c r="I397" s="5"/>
-      <c r="J397" s="4" t="s">
+      <c r="J397" s="6" t="s">
         <v>746</v>
       </c>
     </row>
@@ -9958,7 +10288,7 @@
       <c r="G398" s="5"/>
       <c r="H398" s="5"/>
       <c r="I398" s="5"/>
-      <c r="J398" s="4" t="s">
+      <c r="J398" s="6" t="s">
         <v>748</v>
       </c>
     </row>
@@ -9974,7 +10304,7 @@
       <c r="G399" s="5"/>
       <c r="H399" s="5"/>
       <c r="I399" s="5"/>
-      <c r="J399" s="4" t="s">
+      <c r="J399" s="6" t="s">
         <v>750</v>
       </c>
     </row>
@@ -9990,7 +10320,7 @@
       <c r="G400" s="5"/>
       <c r="H400" s="5"/>
       <c r="I400" s="5"/>
-      <c r="J400" s="4" t="s">
+      <c r="J400" s="6" t="s">
         <v>752</v>
       </c>
     </row>
@@ -10006,7 +10336,7 @@
       <c r="G401" s="5"/>
       <c r="H401" s="5"/>
       <c r="I401" s="5"/>
-      <c r="J401" s="4" t="s">
+      <c r="J401" s="6" t="s">
         <v>754</v>
       </c>
     </row>
@@ -10022,7 +10352,7 @@
       <c r="G402" s="5"/>
       <c r="H402" s="5"/>
       <c r="I402" s="5"/>
-      <c r="J402" s="4" t="s">
+      <c r="J402" s="6" t="s">
         <v>756</v>
       </c>
     </row>
@@ -10038,7 +10368,7 @@
       <c r="G403" s="5"/>
       <c r="H403" s="5"/>
       <c r="I403" s="5"/>
-      <c r="J403" s="4" t="s">
+      <c r="J403" s="6" t="s">
         <v>758</v>
       </c>
     </row>
@@ -10054,7 +10384,7 @@
       <c r="G404" s="5"/>
       <c r="H404" s="5"/>
       <c r="I404" s="5"/>
-      <c r="J404" s="4" t="s">
+      <c r="J404" s="6" t="s">
         <v>760</v>
       </c>
     </row>
@@ -10070,7 +10400,7 @@
       <c r="G405" s="5"/>
       <c r="H405" s="5"/>
       <c r="I405" s="5"/>
-      <c r="J405" s="4" t="s">
+      <c r="J405" s="6" t="s">
         <v>761</v>
       </c>
     </row>
@@ -10086,7 +10416,7 @@
       <c r="G406" s="5"/>
       <c r="H406" s="5"/>
       <c r="I406" s="5"/>
-      <c r="J406" s="4" t="s">
+      <c r="J406" s="6" t="s">
         <v>763</v>
       </c>
     </row>
@@ -10102,8 +10432,866 @@
       <c r="G407" s="5"/>
       <c r="H407" s="5"/>
       <c r="I407" s="5"/>
-      <c r="J407" s="4" t="s">
+      <c r="J407" s="6" t="s">
         <v>765</v>
+      </c>
+    </row>
+    <row r="408" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A408" s="4">
+        <v>37</v>
+      </c>
+      <c r="B408" s="4" t="s">
+        <v>766</v>
+      </c>
+      <c r="C408" s="5"/>
+      <c r="D408" s="5" t="s">
+        <v>767</v>
+      </c>
+      <c r="E408" s="5"/>
+      <c r="F408" s="5"/>
+      <c r="G408" s="5"/>
+      <c r="H408" s="5"/>
+      <c r="I408" s="5"/>
+      <c r="J408" s="6" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="409" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A409" s="4"/>
+      <c r="B409" s="4"/>
+      <c r="C409" s="5"/>
+      <c r="D409" s="5" t="s">
+        <v>769</v>
+      </c>
+      <c r="E409" s="5"/>
+      <c r="F409" s="5"/>
+      <c r="G409" s="5"/>
+      <c r="H409" s="5"/>
+      <c r="I409" s="5"/>
+      <c r="J409" s="6" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="410" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A410" s="4"/>
+      <c r="B410" s="4"/>
+      <c r="C410" s="5"/>
+      <c r="D410" s="5" t="s">
+        <v>771</v>
+      </c>
+      <c r="E410" s="5"/>
+      <c r="F410" s="5"/>
+      <c r="G410" s="5"/>
+      <c r="H410" s="5"/>
+      <c r="I410" s="5"/>
+      <c r="J410" s="6" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="411" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A411" s="4"/>
+      <c r="B411" s="4"/>
+      <c r="C411" s="5"/>
+      <c r="D411" s="5" t="s">
+        <v>773</v>
+      </c>
+      <c r="E411" s="5"/>
+      <c r="F411" s="5"/>
+      <c r="G411" s="5"/>
+      <c r="H411" s="5"/>
+      <c r="I411" s="5"/>
+      <c r="J411" s="6" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="412" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A412" s="4"/>
+      <c r="B412" s="4"/>
+      <c r="C412" s="5"/>
+      <c r="D412" s="5" t="s">
+        <v>775</v>
+      </c>
+      <c r="E412" s="5"/>
+      <c r="F412" s="5"/>
+      <c r="G412" s="5"/>
+      <c r="H412" s="5"/>
+      <c r="I412" s="5"/>
+      <c r="J412" s="6" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="413" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A413" s="4"/>
+      <c r="B413" s="4"/>
+      <c r="C413" s="5"/>
+      <c r="D413" s="5" t="s">
+        <v>777</v>
+      </c>
+      <c r="E413" s="5"/>
+      <c r="F413" s="5"/>
+      <c r="G413" s="5"/>
+      <c r="H413" s="5"/>
+      <c r="I413" s="5"/>
+      <c r="J413" s="6" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="414" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A414" s="4"/>
+      <c r="B414" s="4"/>
+      <c r="C414" s="5"/>
+      <c r="D414" s="5" t="s">
+        <v>779</v>
+      </c>
+      <c r="E414" s="5"/>
+      <c r="F414" s="5"/>
+      <c r="G414" s="5"/>
+      <c r="H414" s="5"/>
+      <c r="I414" s="5"/>
+      <c r="J414" s="6" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="415" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A415" s="4"/>
+      <c r="B415" s="4"/>
+      <c r="C415" s="5"/>
+      <c r="D415" s="5" t="s">
+        <v>781</v>
+      </c>
+      <c r="E415" s="5"/>
+      <c r="F415" s="5"/>
+      <c r="G415" s="5"/>
+      <c r="H415" s="5"/>
+      <c r="I415" s="5"/>
+      <c r="J415" s="6" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="416" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A416" s="4"/>
+      <c r="B416" s="4"/>
+      <c r="C416" s="5"/>
+      <c r="D416" s="5" t="s">
+        <v>783</v>
+      </c>
+      <c r="E416" s="5"/>
+      <c r="F416" s="5"/>
+      <c r="G416" s="5"/>
+      <c r="H416" s="5"/>
+      <c r="I416" s="5"/>
+      <c r="J416" s="6" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="417" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A417" s="4"/>
+      <c r="B417" s="4"/>
+      <c r="C417" s="5"/>
+      <c r="D417" s="5" t="s">
+        <v>785</v>
+      </c>
+      <c r="E417" s="5"/>
+      <c r="F417" s="5"/>
+      <c r="G417" s="5"/>
+      <c r="H417" s="5"/>
+      <c r="I417" s="5"/>
+      <c r="J417" s="6" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="418" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A418" s="4"/>
+      <c r="B418" s="4"/>
+      <c r="C418" s="5"/>
+      <c r="D418" s="5" t="s">
+        <v>787</v>
+      </c>
+      <c r="E418" s="5"/>
+      <c r="F418" s="5"/>
+      <c r="G418" s="5"/>
+      <c r="H418" s="5"/>
+      <c r="I418" s="5"/>
+      <c r="J418" s="6" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="419" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A419" s="4"/>
+      <c r="B419" s="4"/>
+      <c r="C419" s="5"/>
+      <c r="D419" s="5" t="s">
+        <v>789</v>
+      </c>
+      <c r="E419" s="5"/>
+      <c r="F419" s="5"/>
+      <c r="G419" s="5"/>
+      <c r="H419" s="5"/>
+      <c r="I419" s="5"/>
+      <c r="J419" s="6" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="420" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A420" s="4">
+        <v>38</v>
+      </c>
+      <c r="B420" s="4" t="s">
+        <v>791</v>
+      </c>
+      <c r="C420" s="5"/>
+      <c r="D420" s="5" t="s">
+        <v>792</v>
+      </c>
+      <c r="E420" s="5"/>
+      <c r="F420" s="5"/>
+      <c r="G420" s="5"/>
+      <c r="H420" s="5"/>
+      <c r="I420" s="5"/>
+      <c r="J420" s="6" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="421" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A421" s="4"/>
+      <c r="B421" s="4"/>
+      <c r="C421" s="5"/>
+      <c r="D421" s="5" t="s">
+        <v>794</v>
+      </c>
+      <c r="E421" s="5"/>
+      <c r="F421" s="5"/>
+      <c r="G421" s="5"/>
+      <c r="H421" s="5"/>
+      <c r="I421" s="5"/>
+      <c r="J421" s="6" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="422" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A422" s="4"/>
+      <c r="B422" s="4"/>
+      <c r="C422" s="5"/>
+      <c r="D422" s="5" t="s">
+        <v>796</v>
+      </c>
+      <c r="E422" s="5"/>
+      <c r="F422" s="5"/>
+      <c r="G422" s="5"/>
+      <c r="H422" s="5"/>
+      <c r="I422" s="5"/>
+      <c r="J422" s="6" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="423" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A423" s="4"/>
+      <c r="B423" s="4"/>
+      <c r="C423" s="5"/>
+      <c r="D423" s="5" t="s">
+        <v>798</v>
+      </c>
+      <c r="E423" s="5"/>
+      <c r="F423" s="5"/>
+      <c r="G423" s="5"/>
+      <c r="H423" s="5"/>
+      <c r="I423" s="5"/>
+      <c r="J423" s="6" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="424" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A424" s="4"/>
+      <c r="B424" s="4"/>
+      <c r="C424" s="5"/>
+      <c r="D424" s="5" t="s">
+        <v>800</v>
+      </c>
+      <c r="E424" s="5"/>
+      <c r="F424" s="5"/>
+      <c r="G424" s="5"/>
+      <c r="H424" s="5"/>
+      <c r="I424" s="5"/>
+      <c r="J424" s="6" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="425" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A425" s="4"/>
+      <c r="B425" s="4"/>
+      <c r="C425" s="5"/>
+      <c r="D425" s="5" t="s">
+        <v>802</v>
+      </c>
+      <c r="E425" s="5"/>
+      <c r="F425" s="5"/>
+      <c r="G425" s="5"/>
+      <c r="H425" s="5"/>
+      <c r="I425" s="5"/>
+      <c r="J425" s="6" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="426" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A426" s="4"/>
+      <c r="B426" s="4"/>
+      <c r="C426" s="5" t="s">
+        <v>804</v>
+      </c>
+      <c r="D426" s="5" t="s">
+        <v>805</v>
+      </c>
+      <c r="E426" s="5"/>
+      <c r="F426" s="5"/>
+      <c r="G426" s="5"/>
+      <c r="H426" s="5"/>
+      <c r="I426" s="5"/>
+      <c r="J426" s="6" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="427" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A427" s="4"/>
+      <c r="B427" s="4"/>
+      <c r="C427" s="5"/>
+      <c r="D427" s="5" t="s">
+        <v>807</v>
+      </c>
+      <c r="E427" s="5"/>
+      <c r="F427" s="5"/>
+      <c r="G427" s="5"/>
+      <c r="H427" s="5"/>
+      <c r="I427" s="5"/>
+      <c r="J427" s="6" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="428" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A428" s="4"/>
+      <c r="B428" s="4"/>
+      <c r="C428" s="5"/>
+      <c r="D428" s="5" t="s">
+        <v>809</v>
+      </c>
+      <c r="E428" s="5"/>
+      <c r="F428" s="5"/>
+      <c r="G428" s="5"/>
+      <c r="H428" s="5"/>
+      <c r="I428" s="5"/>
+      <c r="J428" s="6" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="429" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A429" s="4"/>
+      <c r="B429" s="4"/>
+      <c r="C429" s="5"/>
+      <c r="D429" s="5" t="s">
+        <v>811</v>
+      </c>
+      <c r="E429" s="5"/>
+      <c r="F429" s="5"/>
+      <c r="G429" s="5"/>
+      <c r="H429" s="5"/>
+      <c r="I429" s="5"/>
+      <c r="J429" s="6" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="430" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A430" s="4"/>
+      <c r="B430" s="4"/>
+      <c r="C430" s="5"/>
+      <c r="D430" s="5" t="s">
+        <v>813</v>
+      </c>
+      <c r="E430" s="5"/>
+      <c r="F430" s="5"/>
+      <c r="G430" s="5"/>
+      <c r="H430" s="5"/>
+      <c r="I430" s="5"/>
+      <c r="J430" s="6" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="431" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A431" s="4">
+        <v>39</v>
+      </c>
+      <c r="B431" s="4" t="s">
+        <v>815</v>
+      </c>
+      <c r="C431" s="5"/>
+      <c r="D431" s="5" t="s">
+        <v>816</v>
+      </c>
+      <c r="E431" s="5"/>
+      <c r="F431" s="5"/>
+      <c r="G431" s="5"/>
+      <c r="H431" s="5"/>
+      <c r="I431" s="5"/>
+      <c r="J431" s="6" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="432" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A432" s="4"/>
+      <c r="B432" s="4"/>
+      <c r="C432" s="5"/>
+      <c r="D432" s="5" t="s">
+        <v>818</v>
+      </c>
+      <c r="E432" s="5"/>
+      <c r="F432" s="5"/>
+      <c r="G432" s="5"/>
+      <c r="H432" s="5"/>
+      <c r="I432" s="5"/>
+      <c r="J432" s="6" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="433" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A433" s="4"/>
+      <c r="B433" s="4"/>
+      <c r="C433" s="5"/>
+      <c r="D433" s="5" t="s">
+        <v>820</v>
+      </c>
+      <c r="E433" s="5"/>
+      <c r="F433" s="5"/>
+      <c r="G433" s="5"/>
+      <c r="H433" s="5"/>
+      <c r="I433" s="5"/>
+      <c r="J433" s="6" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="434" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A434" s="4"/>
+      <c r="B434" s="4"/>
+      <c r="C434" s="5"/>
+      <c r="D434" s="5" t="s">
+        <v>822</v>
+      </c>
+      <c r="E434" s="5"/>
+      <c r="F434" s="5"/>
+      <c r="G434" s="5"/>
+      <c r="H434" s="5"/>
+      <c r="I434" s="5"/>
+      <c r="J434" s="6" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="435" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A435" s="4"/>
+      <c r="B435" s="4"/>
+      <c r="C435" s="5"/>
+      <c r="D435" s="5" t="s">
+        <v>824</v>
+      </c>
+      <c r="E435" s="5"/>
+      <c r="F435" s="5"/>
+      <c r="G435" s="5"/>
+      <c r="H435" s="5"/>
+      <c r="I435" s="5"/>
+      <c r="J435" s="6" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="436" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A436" s="4"/>
+      <c r="B436" s="4"/>
+      <c r="C436" s="5"/>
+      <c r="D436" s="5" t="s">
+        <v>826</v>
+      </c>
+      <c r="E436" s="5"/>
+      <c r="F436" s="5"/>
+      <c r="G436" s="5"/>
+      <c r="H436" s="5"/>
+      <c r="I436" s="5"/>
+      <c r="J436" s="6" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="437" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A437" s="4"/>
+      <c r="B437" s="4"/>
+      <c r="C437" s="5"/>
+      <c r="D437" s="5" t="s">
+        <v>828</v>
+      </c>
+      <c r="E437" s="5"/>
+      <c r="F437" s="5"/>
+      <c r="G437" s="5"/>
+      <c r="H437" s="5"/>
+      <c r="I437" s="5"/>
+      <c r="J437" s="6" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="438" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A438" s="4"/>
+      <c r="B438" s="4"/>
+      <c r="C438" s="5"/>
+      <c r="D438" s="5" t="s">
+        <v>830</v>
+      </c>
+      <c r="E438" s="5"/>
+      <c r="F438" s="5"/>
+      <c r="G438" s="5"/>
+      <c r="H438" s="5"/>
+      <c r="I438" s="5"/>
+      <c r="J438" s="6" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="439" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A439" s="4"/>
+      <c r="B439" s="4"/>
+      <c r="C439" s="5" t="s">
+        <v>832</v>
+      </c>
+      <c r="D439" s="5" t="s">
+        <v>833</v>
+      </c>
+      <c r="E439" s="5"/>
+      <c r="F439" s="5"/>
+      <c r="G439" s="5"/>
+      <c r="H439" s="5"/>
+      <c r="I439" s="5"/>
+      <c r="J439" s="6"/>
+    </row>
+    <row r="440" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A440" s="4"/>
+      <c r="B440" s="4"/>
+      <c r="C440" s="5"/>
+      <c r="D440" s="5" t="s">
+        <v>834</v>
+      </c>
+      <c r="E440" s="5"/>
+      <c r="F440" s="5"/>
+      <c r="G440" s="5"/>
+      <c r="H440" s="5"/>
+      <c r="I440" s="5"/>
+      <c r="J440" s="6" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="441" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A441" s="4"/>
+      <c r="B441" s="4"/>
+      <c r="C441" s="5"/>
+      <c r="D441" s="5" t="s">
+        <v>836</v>
+      </c>
+      <c r="E441" s="5"/>
+      <c r="F441" s="5"/>
+      <c r="G441" s="5"/>
+      <c r="H441" s="5"/>
+      <c r="I441" s="5"/>
+      <c r="J441" s="6" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="442" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A442" s="4"/>
+      <c r="B442" s="4"/>
+      <c r="C442" s="5"/>
+      <c r="D442" s="5" t="s">
+        <v>838</v>
+      </c>
+      <c r="E442" s="5"/>
+      <c r="F442" s="5"/>
+      <c r="G442" s="5"/>
+      <c r="H442" s="5"/>
+      <c r="I442" s="5"/>
+      <c r="J442" s="6" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="443" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A443" s="4"/>
+      <c r="B443" s="4"/>
+      <c r="C443" s="5"/>
+      <c r="D443" s="5" t="s">
+        <v>840</v>
+      </c>
+      <c r="E443" s="5"/>
+      <c r="F443" s="5"/>
+      <c r="G443" s="5"/>
+      <c r="H443" s="5"/>
+      <c r="I443" s="5"/>
+      <c r="J443" s="6" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="444" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A444" s="4"/>
+      <c r="B444" s="4"/>
+      <c r="C444" s="5"/>
+      <c r="D444" s="5" t="s">
+        <v>842</v>
+      </c>
+      <c r="E444" s="5"/>
+      <c r="F444" s="5"/>
+      <c r="G444" s="5"/>
+      <c r="H444" s="5"/>
+      <c r="I444" s="5"/>
+      <c r="J444" s="6" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="445" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A445" s="4"/>
+      <c r="B445" s="4"/>
+      <c r="C445" s="5"/>
+      <c r="D445" s="5" t="s">
+        <v>844</v>
+      </c>
+      <c r="E445" s="5"/>
+      <c r="F445" s="5"/>
+      <c r="G445" s="5"/>
+      <c r="H445" s="5"/>
+      <c r="I445" s="5"/>
+      <c r="J445" s="6" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="446" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A446" s="4"/>
+      <c r="B446" s="4"/>
+      <c r="C446" s="5"/>
+      <c r="D446" s="5" t="s">
+        <v>846</v>
+      </c>
+      <c r="E446" s="5"/>
+      <c r="F446" s="5"/>
+      <c r="G446" s="5"/>
+      <c r="H446" s="5"/>
+      <c r="I446" s="5"/>
+      <c r="J446" s="6" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="447" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A447" s="4"/>
+      <c r="B447" s="4"/>
+      <c r="C447" s="5"/>
+      <c r="D447" s="5" t="s">
+        <v>848</v>
+      </c>
+      <c r="E447" s="5"/>
+      <c r="F447" s="5"/>
+      <c r="G447" s="5"/>
+      <c r="H447" s="5"/>
+      <c r="I447" s="5"/>
+      <c r="J447" s="6" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="448" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A448" s="4"/>
+      <c r="B448" s="4"/>
+      <c r="C448" s="5"/>
+      <c r="D448" s="5" t="s">
+        <v>850</v>
+      </c>
+      <c r="E448" s="5"/>
+      <c r="F448" s="5"/>
+      <c r="G448" s="5"/>
+      <c r="H448" s="5"/>
+      <c r="I448" s="5"/>
+      <c r="J448" s="6" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="449" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A449" s="4">
+        <v>40</v>
+      </c>
+      <c r="B449" s="4" t="s">
+        <v>852</v>
+      </c>
+      <c r="C449" s="5"/>
+      <c r="D449" s="5" t="s">
+        <v>853</v>
+      </c>
+      <c r="E449" s="5"/>
+      <c r="F449" s="5"/>
+      <c r="G449" s="5"/>
+      <c r="H449" s="5"/>
+      <c r="I449" s="5"/>
+      <c r="J449" s="6" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="450" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A450" s="4"/>
+      <c r="B450" s="4"/>
+      <c r="C450" s="5"/>
+      <c r="D450" s="5" t="s">
+        <v>855</v>
+      </c>
+      <c r="E450" s="5"/>
+      <c r="F450" s="5"/>
+      <c r="G450" s="5"/>
+      <c r="H450" s="5"/>
+      <c r="I450" s="5"/>
+      <c r="J450" s="6" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="451" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A451" s="5"/>
+      <c r="B451" s="5"/>
+      <c r="C451" s="5"/>
+      <c r="D451" s="5" t="s">
+        <v>857</v>
+      </c>
+      <c r="E451" s="5"/>
+      <c r="F451" s="5"/>
+      <c r="G451" s="5"/>
+      <c r="H451" s="5"/>
+      <c r="I451" s="5"/>
+      <c r="J451" s="6" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="452" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A452" s="4"/>
+      <c r="B452" s="4"/>
+      <c r="C452" s="5"/>
+      <c r="D452" s="5" t="s">
+        <v>859</v>
+      </c>
+      <c r="E452" s="5"/>
+      <c r="F452" s="5"/>
+      <c r="G452" s="5"/>
+      <c r="H452" s="5"/>
+      <c r="I452" s="5"/>
+      <c r="J452" s="6" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="453" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A453" s="4"/>
+      <c r="B453" s="4"/>
+      <c r="C453" s="5"/>
+      <c r="D453" s="5" t="s">
+        <v>861</v>
+      </c>
+      <c r="E453" s="5"/>
+      <c r="F453" s="5"/>
+      <c r="G453" s="5"/>
+      <c r="H453" s="5"/>
+      <c r="I453" s="5"/>
+      <c r="J453" s="6" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="454" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A454" s="4"/>
+      <c r="B454" s="4"/>
+      <c r="C454" s="5"/>
+      <c r="D454" s="5" t="s">
+        <v>863</v>
+      </c>
+      <c r="E454" s="5"/>
+      <c r="F454" s="5"/>
+      <c r="G454" s="5"/>
+      <c r="H454" s="5"/>
+      <c r="I454" s="5"/>
+      <c r="J454" s="6" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="455" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A455" s="4"/>
+      <c r="B455" s="4"/>
+      <c r="C455" s="5"/>
+      <c r="D455" s="5" t="s">
+        <v>865</v>
+      </c>
+      <c r="E455" s="5"/>
+      <c r="F455" s="5"/>
+      <c r="G455" s="5"/>
+      <c r="H455" s="5"/>
+      <c r="I455" s="5"/>
+      <c r="J455" s="6" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="456" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A456" s="4"/>
+      <c r="B456" s="4"/>
+      <c r="C456" s="5"/>
+      <c r="D456" s="5" t="s">
+        <v>867</v>
+      </c>
+      <c r="E456" s="5"/>
+      <c r="F456" s="5"/>
+      <c r="G456" s="5"/>
+      <c r="H456" s="5"/>
+      <c r="I456" s="5"/>
+      <c r="J456" s="6" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="457" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A457" s="4"/>
+      <c r="B457" s="4"/>
+      <c r="C457" s="5"/>
+      <c r="D457" s="5" t="s">
+        <v>869</v>
+      </c>
+      <c r="E457" s="5"/>
+      <c r="F457" s="5"/>
+      <c r="G457" s="5"/>
+      <c r="H457" s="5"/>
+      <c r="I457" s="5"/>
+      <c r="J457" s="6" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="458" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A458" s="4"/>
+      <c r="B458" s="4"/>
+      <c r="C458" s="5"/>
+      <c r="D458" s="5" t="s">
+        <v>871</v>
+      </c>
+      <c r="E458" s="5"/>
+      <c r="F458" s="5"/>
+      <c r="G458" s="5"/>
+      <c r="H458" s="5"/>
+      <c r="I458" s="5"/>
+      <c r="J458" s="6" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="459" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A459" s="4"/>
+      <c r="B459" s="4"/>
+      <c r="C459" s="5"/>
+      <c r="D459" s="5" t="s">
+        <v>873</v>
+      </c>
+      <c r="E459" s="5"/>
+      <c r="F459" s="5"/>
+      <c r="G459" s="5"/>
+      <c r="H459" s="5"/>
+      <c r="I459" s="5"/>
+      <c r="J459" s="6" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="460" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A460" s="3">
+        <v>41</v>
+      </c>
+      <c r="B460" s="3" t="s">
+        <v>875</v>
       </c>
     </row>
   </sheetData>

--- a/java01t/index.xlsx
+++ b/java01t/index.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="887" uniqueCount="876">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="972" uniqueCount="961">
   <si>
     <t>주제</t>
   </si>
@@ -2648,10 +2648,265 @@
     <t>미니 Express 프레임워크 만들기</t>
   </si>
   <si>
-    <t>node1t: src/ex4/*</t>
-  </si>
-  <si>
-    <t>4월25일</t>
+    <t>node1t: src/ex4/test01.js</t>
+  </si>
+  <si>
+    <t>미니 Express: 게시물 목록 조회</t>
+  </si>
+  <si>
+    <t>node1t: src/ex4/test02.js</t>
+  </si>
+  <si>
+    <t>4월27일</t>
+  </si>
+  <si>
+    <t>미니 Express: 게시물 상세정보 조회</t>
+  </si>
+  <si>
+    <t>node1t: src/ex4/test03.js</t>
+  </si>
+  <si>
+    <t>미니 Express: 게시물 변경</t>
+  </si>
+  <si>
+    <t>node1t: src/ex4/test04.js</t>
+  </si>
+  <si>
+    <t>미니 Express: 게시물 삭제</t>
+  </si>
+  <si>
+    <t>node1t: src/ex4/test05.js</t>
+  </si>
+  <si>
+    <t>자바스크립트 고급 기술</t>
+  </si>
+  <si>
+    <t>이벤트 처리: onclick 프로퍼티</t>
+  </si>
+  <si>
+    <t>web1t: step05/test01.html</t>
+  </si>
+  <si>
+    <t>이벤트 처리: addEventListener()</t>
+  </si>
+  <si>
+    <t>web1t: step05/test02.html</t>
+  </si>
+  <si>
+    <t>이벤트 처리: 웹 브라우저 호환</t>
+  </si>
+  <si>
+    <t>web1t: step05/test03.html</t>
+  </si>
+  <si>
+    <t>이벤트 처리: 인라인 자바스크립트</t>
+  </si>
+  <si>
+    <t>web1t: step05/test04.html</t>
+  </si>
+  <si>
+    <t>이벤트 처리: onclick과 addEventListener()의 함수 호출 순서</t>
+  </si>
+  <si>
+    <t>web1t: step05/test05.html</t>
+  </si>
+  <si>
+    <t>이벤트 처리: 이벤트 처리 구동 원리</t>
+  </si>
+  <si>
+    <t>web1t: step05/test06.html</t>
+  </si>
+  <si>
+    <t>이벤트 처리: 캡쳐 단계에서 호출될 리스너 등록하기</t>
+  </si>
+  <si>
+    <t>web1t: step05/test07.html</t>
+  </si>
+  <si>
+    <t>이벤트 처리: 버블 차단. event.stopPropatation()</t>
+  </si>
+  <si>
+    <t>web1t: step05/test08.html</t>
+  </si>
+  <si>
+    <t>이벤트 처리: 즉시 차단. event.stopImmediatePropatation()</t>
+  </si>
+  <si>
+    <t>web1t: step05/test09.html</t>
+  </si>
+  <si>
+    <t>이벤트 처리: submit 이벤트. event.preventDefault()</t>
+  </si>
+  <si>
+    <t>web1t: step05/test10.html</t>
+  </si>
+  <si>
+    <t>이벤트 처리: submit 이벤트. retun false.</t>
+  </si>
+  <si>
+    <t>web1t: step05/test11.html</t>
+  </si>
+  <si>
+    <t>DOM 다루기: 아이디로 엘리먼트 찾기</t>
+  </si>
+  <si>
+    <t>web1t: step06/test01.html</t>
+  </si>
+  <si>
+    <t>DOM 다루기: 태그 이름으로 엘리먼트 찾기</t>
+  </si>
+  <si>
+    <t>web1t: step06/test02.html</t>
+  </si>
+  <si>
+    <t>DOM 다루기: 스타일 클래스 이름으로 엘리먼트 찾기</t>
+  </si>
+  <si>
+    <t>web1t: step06/test03.html</t>
+  </si>
+  <si>
+    <t>DOM 다루기: CSS 셀렉터로 엘리먼트 찾기</t>
+  </si>
+  <si>
+    <t>web1t: step06/test04.html</t>
+  </si>
+  <si>
+    <t>DOM 다루기: 컨텐츠 및 값 설정하기</t>
+  </si>
+  <si>
+    <t>web1t: step06/test05.html</t>
+  </si>
+  <si>
+    <t>DOM 다루기: 엘리먼트의 스타일 다루기</t>
+  </si>
+  <si>
+    <t>web1t: step06/test06.html</t>
+  </si>
+  <si>
+    <t>DOM 다루기: 자식 엘리먼트 다루기</t>
+  </si>
+  <si>
+    <t>web1t: step06/test07.html</t>
+  </si>
+  <si>
+    <t>비동기 요청처리: XMLHttpRequest() 소개</t>
+  </si>
+  <si>
+    <t>web1t: step07/ex1/test01.html, sub01.html</t>
+  </si>
+  <si>
+    <t>4월28일</t>
+  </si>
+  <si>
+    <t>비동기 요청처리: 동기 요청의 문제점</t>
+  </si>
+  <si>
+    <t>web1t: step07/ex2/test01.html, sub01.jsp</t>
+  </si>
+  <si>
+    <t>비동기 요청처리: 비동기 요청의 문제점</t>
+  </si>
+  <si>
+    <t>web1t: step07/ex2/test02.html</t>
+  </si>
+  <si>
+    <t>비동기 요청처리: 비동기 요청 상태</t>
+  </si>
+  <si>
+    <t>web1t: step07/ex2/test03.html</t>
+  </si>
+  <si>
+    <t>비동기 요청처리: 비동기 요청의 응답 결과 가져오기</t>
+  </si>
+  <si>
+    <t>web1t: step07/ex2/test04.html</t>
+  </si>
+  <si>
+    <t>비동기 요청처리: POST 요청</t>
+  </si>
+  <si>
+    <t>web1t: step07/ex3/test01.html, hello.jsp</t>
+  </si>
+  <si>
+    <t>비동기 요청처리: 한글 데이터 보내기(URL 인코딩)</t>
+  </si>
+  <si>
+    <t>web1t: step07/ex3/test02.html</t>
+  </si>
+  <si>
+    <t>비동기 요청처리: AJAX의 제약조건 확인</t>
+  </si>
+  <si>
+    <t>web1t: step07/ex4/test01.html</t>
+  </si>
+  <si>
+    <t>node01t: src/ex5/test01.js</t>
+  </si>
+  <si>
+    <t>비동기 요청처리: AJAX의 제약조건 해결</t>
+  </si>
+  <si>
+    <t>web1t: step07/ex4/test02.html</t>
+  </si>
+  <si>
+    <t>node01t: src/ex5/test02.js</t>
+  </si>
+  <si>
+    <t>비동기 게시판 만들기: /board/list.do AJAX 요청 처리</t>
+  </si>
+  <si>
+    <t>web1t: step08/ex1/board01.html</t>
+  </si>
+  <si>
+    <t>node01t: src/ex6/test01.js</t>
+  </si>
+  <si>
+    <t>비동기 게시판 만들기: JSON 형식으로 게시물 목록 데이터 받기</t>
+  </si>
+  <si>
+    <t>web1t: step08/ex1/board02.html</t>
+  </si>
+  <si>
+    <t>node01t: src/ex6/test02.js</t>
+  </si>
+  <si>
+    <t>비동기 게시판 만들기: JSON 형식 데이터로 tr 태그 만들기</t>
+  </si>
+  <si>
+    <t>web1t: step08/ex1/board03.html</t>
+  </si>
+  <si>
+    <t>비동기 게시판 만들기: 게시물 등록 폼 추가 및 등록 이벤트 처리</t>
+  </si>
+  <si>
+    <t>web1t: step08/ex1/board04.html</t>
+  </si>
+  <si>
+    <t>비동기 게시판 만들기: 게시물 등록 처리</t>
+  </si>
+  <si>
+    <t>web1t: step08/ex1/board05.html</t>
+  </si>
+  <si>
+    <t>node01t: src/ex6/test03.js</t>
+  </si>
+  <si>
+    <t>비동기 게시판 만들기: 게시물 상세보기</t>
+  </si>
+  <si>
+    <t>web1t: step08/ex1/board06*.html</t>
+  </si>
+  <si>
+    <t>node01t: src/ex6/test04.js</t>
+  </si>
+  <si>
+    <t>비동기 게시판 만들기: 게시물 삭제하기</t>
+  </si>
+  <si>
+    <t>web1t: step08/ex1/board07.html</t>
+  </si>
+  <si>
+    <t>node01t: src/ex6/test05.js</t>
   </si>
 </sst>
 </file>
@@ -3910,10 +4165,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J460"/>
+  <dimension ref="A1:J504"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A434" workbookViewId="0">
-      <selection activeCell="A461" sqref="A461"/>
+    <sheetView tabSelected="1" topLeftCell="A482" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -11287,11 +11542,719 @@
       </c>
     </row>
     <row r="460" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A460" s="3">
+      <c r="A460" s="4"/>
+      <c r="B460" s="4"/>
+      <c r="C460" s="5"/>
+      <c r="D460" s="5" t="s">
+        <v>875</v>
+      </c>
+      <c r="E460" s="5"/>
+      <c r="F460" s="5"/>
+      <c r="G460" s="5"/>
+      <c r="H460" s="5"/>
+      <c r="I460" s="5"/>
+      <c r="J460" s="6" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="461" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A461" s="4">
         <v>41</v>
       </c>
-      <c r="B460" s="3" t="s">
-        <v>875</v>
+      <c r="B461" s="4" t="s">
+        <v>877</v>
+      </c>
+      <c r="C461" s="5"/>
+      <c r="D461" s="5" t="s">
+        <v>878</v>
+      </c>
+      <c r="E461" s="5"/>
+      <c r="F461" s="5"/>
+      <c r="G461" s="5"/>
+      <c r="H461" s="5"/>
+      <c r="I461" s="5"/>
+      <c r="J461" s="6" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="462" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A462" s="4"/>
+      <c r="B462" s="4"/>
+      <c r="C462" s="5"/>
+      <c r="D462" s="5" t="s">
+        <v>880</v>
+      </c>
+      <c r="E462" s="5"/>
+      <c r="F462" s="5"/>
+      <c r="G462" s="5"/>
+      <c r="H462" s="5"/>
+      <c r="I462" s="5"/>
+      <c r="J462" s="6" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="463" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A463" s="4"/>
+      <c r="B463" s="4"/>
+      <c r="C463" s="5"/>
+      <c r="D463" s="5" t="s">
+        <v>882</v>
+      </c>
+      <c r="E463" s="5"/>
+      <c r="F463" s="5"/>
+      <c r="G463" s="5"/>
+      <c r="H463" s="5"/>
+      <c r="I463" s="5"/>
+      <c r="J463" s="6" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="464" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A464" s="4"/>
+      <c r="B464" s="4"/>
+      <c r="C464" s="5" t="s">
+        <v>884</v>
+      </c>
+      <c r="D464" s="5" t="s">
+        <v>885</v>
+      </c>
+      <c r="E464" s="5"/>
+      <c r="F464" s="5"/>
+      <c r="G464" s="5"/>
+      <c r="H464" s="5"/>
+      <c r="I464" s="5"/>
+      <c r="J464" s="6" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="465" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A465" s="4"/>
+      <c r="B465" s="4"/>
+      <c r="C465" s="5"/>
+      <c r="D465" s="5" t="s">
+        <v>887</v>
+      </c>
+      <c r="E465" s="5"/>
+      <c r="F465" s="5"/>
+      <c r="G465" s="5"/>
+      <c r="H465" s="5"/>
+      <c r="I465" s="5"/>
+      <c r="J465" s="6" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="466" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A466" s="4"/>
+      <c r="B466" s="4"/>
+      <c r="C466" s="5"/>
+      <c r="D466" s="5" t="s">
+        <v>889</v>
+      </c>
+      <c r="E466" s="5"/>
+      <c r="F466" s="5"/>
+      <c r="G466" s="5"/>
+      <c r="H466" s="5"/>
+      <c r="I466" s="5"/>
+      <c r="J466" s="6" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="467" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A467" s="4"/>
+      <c r="B467" s="4"/>
+      <c r="C467" s="5"/>
+      <c r="D467" s="5" t="s">
+        <v>891</v>
+      </c>
+      <c r="E467" s="5"/>
+      <c r="F467" s="5"/>
+      <c r="G467" s="5"/>
+      <c r="H467" s="5"/>
+      <c r="I467" s="5"/>
+      <c r="J467" s="6" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="468" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A468" s="4"/>
+      <c r="B468" s="4"/>
+      <c r="C468" s="5"/>
+      <c r="D468" s="5" t="s">
+        <v>893</v>
+      </c>
+      <c r="E468" s="5"/>
+      <c r="F468" s="5"/>
+      <c r="G468" s="5"/>
+      <c r="H468" s="5"/>
+      <c r="I468" s="5"/>
+      <c r="J468" s="6" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="469" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A469" s="4"/>
+      <c r="B469" s="4"/>
+      <c r="C469" s="5"/>
+      <c r="D469" s="5" t="s">
+        <v>895</v>
+      </c>
+      <c r="E469" s="5"/>
+      <c r="F469" s="5"/>
+      <c r="G469" s="5"/>
+      <c r="H469" s="5"/>
+      <c r="I469" s="5"/>
+      <c r="J469" s="6" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="470" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A470" s="4"/>
+      <c r="B470" s="4"/>
+      <c r="C470" s="5"/>
+      <c r="D470" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="E470" s="5"/>
+      <c r="F470" s="5"/>
+      <c r="G470" s="5"/>
+      <c r="H470" s="5"/>
+      <c r="I470" s="5"/>
+      <c r="J470" s="6" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="471" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A471" s="4"/>
+      <c r="B471" s="4"/>
+      <c r="C471" s="5"/>
+      <c r="D471" s="5" t="s">
+        <v>899</v>
+      </c>
+      <c r="E471" s="5"/>
+      <c r="F471" s="5"/>
+      <c r="G471" s="5"/>
+      <c r="H471" s="5"/>
+      <c r="I471" s="5"/>
+      <c r="J471" s="6" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="472" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A472" s="4"/>
+      <c r="B472" s="4"/>
+      <c r="C472" s="5"/>
+      <c r="D472" s="5" t="s">
+        <v>901</v>
+      </c>
+      <c r="E472" s="5"/>
+      <c r="F472" s="5"/>
+      <c r="G472" s="5"/>
+      <c r="H472" s="5"/>
+      <c r="I472" s="5"/>
+      <c r="J472" s="6" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="473" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A473" s="4"/>
+      <c r="B473" s="4"/>
+      <c r="C473" s="5"/>
+      <c r="D473" s="5" t="s">
+        <v>903</v>
+      </c>
+      <c r="E473" s="5"/>
+      <c r="F473" s="5"/>
+      <c r="G473" s="5"/>
+      <c r="H473" s="5"/>
+      <c r="I473" s="5"/>
+      <c r="J473" s="6" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="474" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A474" s="4"/>
+      <c r="B474" s="4"/>
+      <c r="C474" s="5"/>
+      <c r="D474" s="5" t="s">
+        <v>905</v>
+      </c>
+      <c r="E474" s="5"/>
+      <c r="F474" s="5"/>
+      <c r="G474" s="5"/>
+      <c r="H474" s="5"/>
+      <c r="I474" s="5"/>
+      <c r="J474" s="6" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="475" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A475" s="4"/>
+      <c r="B475" s="4"/>
+      <c r="C475" s="5"/>
+      <c r="D475" s="5" t="s">
+        <v>907</v>
+      </c>
+      <c r="E475" s="5"/>
+      <c r="F475" s="5"/>
+      <c r="G475" s="5"/>
+      <c r="H475" s="5"/>
+      <c r="I475" s="5"/>
+      <c r="J475" s="6" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="476" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A476" s="4"/>
+      <c r="B476" s="4"/>
+      <c r="C476" s="5"/>
+      <c r="D476" s="5" t="s">
+        <v>909</v>
+      </c>
+      <c r="E476" s="5"/>
+      <c r="F476" s="5"/>
+      <c r="G476" s="5"/>
+      <c r="H476" s="5"/>
+      <c r="I476" s="5"/>
+      <c r="J476" s="6" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="477" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A477" s="4"/>
+      <c r="B477" s="4"/>
+      <c r="C477" s="5"/>
+      <c r="D477" s="5" t="s">
+        <v>911</v>
+      </c>
+      <c r="E477" s="5"/>
+      <c r="F477" s="5"/>
+      <c r="G477" s="5"/>
+      <c r="H477" s="5"/>
+      <c r="I477" s="5"/>
+      <c r="J477" s="6" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="478" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A478" s="4"/>
+      <c r="B478" s="4"/>
+      <c r="C478" s="5"/>
+      <c r="D478" s="5" t="s">
+        <v>913</v>
+      </c>
+      <c r="E478" s="5"/>
+      <c r="F478" s="5"/>
+      <c r="G478" s="5"/>
+      <c r="H478" s="5"/>
+      <c r="I478" s="5"/>
+      <c r="J478" s="6" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="479" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A479" s="4"/>
+      <c r="B479" s="4"/>
+      <c r="C479" s="5"/>
+      <c r="D479" s="5" t="s">
+        <v>915</v>
+      </c>
+      <c r="E479" s="5"/>
+      <c r="F479" s="5"/>
+      <c r="G479" s="5"/>
+      <c r="H479" s="5"/>
+      <c r="I479" s="5"/>
+      <c r="J479" s="6" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="480" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A480" s="4"/>
+      <c r="B480" s="4"/>
+      <c r="C480" s="5"/>
+      <c r="D480" s="5" t="s">
+        <v>917</v>
+      </c>
+      <c r="E480" s="5"/>
+      <c r="F480" s="5"/>
+      <c r="G480" s="5"/>
+      <c r="H480" s="5"/>
+      <c r="I480" s="5"/>
+      <c r="J480" s="6" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="481" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A481" s="4"/>
+      <c r="B481" s="4"/>
+      <c r="C481" s="5"/>
+      <c r="D481" s="5" t="s">
+        <v>919</v>
+      </c>
+      <c r="E481" s="5"/>
+      <c r="F481" s="5"/>
+      <c r="G481" s="5"/>
+      <c r="H481" s="5"/>
+      <c r="I481" s="5"/>
+      <c r="J481" s="6" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="482" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A482" s="4"/>
+      <c r="B482" s="4"/>
+      <c r="C482" s="5"/>
+      <c r="D482" s="5" t="s">
+        <v>921</v>
+      </c>
+      <c r="E482" s="5"/>
+      <c r="F482" s="5"/>
+      <c r="G482" s="5"/>
+      <c r="H482" s="5"/>
+      <c r="I482" s="5"/>
+      <c r="J482" s="6" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="483" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A483" s="4">
+        <v>42</v>
+      </c>
+      <c r="B483" s="4" t="s">
+        <v>923</v>
+      </c>
+      <c r="C483" s="5"/>
+      <c r="D483" s="5" t="s">
+        <v>924</v>
+      </c>
+      <c r="E483" s="5"/>
+      <c r="F483" s="5"/>
+      <c r="G483" s="5"/>
+      <c r="H483" s="5"/>
+      <c r="I483" s="5"/>
+      <c r="J483" s="6" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="484" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A484" s="4"/>
+      <c r="B484" s="4"/>
+      <c r="C484" s="5"/>
+      <c r="D484" s="5" t="s">
+        <v>926</v>
+      </c>
+      <c r="E484" s="5"/>
+      <c r="F484" s="5"/>
+      <c r="G484" s="5"/>
+      <c r="H484" s="5"/>
+      <c r="I484" s="5"/>
+      <c r="J484" s="6" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="485" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A485" s="4"/>
+      <c r="B485" s="4"/>
+      <c r="C485" s="5"/>
+      <c r="D485" s="5" t="s">
+        <v>928</v>
+      </c>
+      <c r="E485" s="5"/>
+      <c r="F485" s="5"/>
+      <c r="G485" s="5"/>
+      <c r="H485" s="5"/>
+      <c r="I485" s="5"/>
+      <c r="J485" s="6" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="486" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A486" s="4"/>
+      <c r="B486" s="4"/>
+      <c r="C486" s="5"/>
+      <c r="D486" s="5" t="s">
+        <v>930</v>
+      </c>
+      <c r="E486" s="5"/>
+      <c r="F486" s="5"/>
+      <c r="G486" s="5"/>
+      <c r="H486" s="5"/>
+      <c r="I486" s="5"/>
+      <c r="J486" s="6" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="487" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A487" s="4"/>
+      <c r="B487" s="4"/>
+      <c r="C487" s="5"/>
+      <c r="D487" s="5" t="s">
+        <v>932</v>
+      </c>
+      <c r="E487" s="5"/>
+      <c r="F487" s="5"/>
+      <c r="G487" s="5"/>
+      <c r="H487" s="5"/>
+      <c r="I487" s="5"/>
+      <c r="J487" s="6" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="488" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A488" s="4"/>
+      <c r="B488" s="4"/>
+      <c r="C488" s="5"/>
+      <c r="D488" s="5" t="s">
+        <v>934</v>
+      </c>
+      <c r="E488" s="5"/>
+      <c r="F488" s="5"/>
+      <c r="G488" s="5"/>
+      <c r="H488" s="5"/>
+      <c r="I488" s="5"/>
+      <c r="J488" s="6" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="489" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A489" s="4"/>
+      <c r="B489" s="4"/>
+      <c r="C489" s="5"/>
+      <c r="D489" s="5" t="s">
+        <v>936</v>
+      </c>
+      <c r="E489" s="5"/>
+      <c r="F489" s="5"/>
+      <c r="G489" s="5"/>
+      <c r="H489" s="5"/>
+      <c r="I489" s="5"/>
+      <c r="J489" s="6" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="490" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A490" s="4"/>
+      <c r="B490" s="4"/>
+      <c r="C490" s="5"/>
+      <c r="D490" s="5"/>
+      <c r="E490" s="5"/>
+      <c r="F490" s="5"/>
+      <c r="G490" s="5"/>
+      <c r="H490" s="5"/>
+      <c r="I490" s="5"/>
+      <c r="J490" s="6" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="491" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A491" s="4"/>
+      <c r="B491" s="4"/>
+      <c r="C491" s="5"/>
+      <c r="D491" s="5" t="s">
+        <v>939</v>
+      </c>
+      <c r="E491" s="5"/>
+      <c r="F491" s="5"/>
+      <c r="G491" s="5"/>
+      <c r="H491" s="5"/>
+      <c r="I491" s="5"/>
+      <c r="J491" s="6" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="492" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A492" s="4"/>
+      <c r="B492" s="4"/>
+      <c r="C492" s="5"/>
+      <c r="D492" s="5"/>
+      <c r="E492" s="5"/>
+      <c r="F492" s="5"/>
+      <c r="G492" s="5"/>
+      <c r="H492" s="5"/>
+      <c r="I492" s="5"/>
+      <c r="J492" s="6" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="493" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A493" s="4"/>
+      <c r="B493" s="4"/>
+      <c r="C493" s="5"/>
+      <c r="D493" s="5" t="s">
+        <v>942</v>
+      </c>
+      <c r="E493" s="5"/>
+      <c r="F493" s="5"/>
+      <c r="G493" s="5"/>
+      <c r="H493" s="5"/>
+      <c r="I493" s="5"/>
+      <c r="J493" s="6" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="494" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A494" s="4"/>
+      <c r="B494" s="4"/>
+      <c r="C494" s="5"/>
+      <c r="D494" s="5"/>
+      <c r="E494" s="5"/>
+      <c r="F494" s="5"/>
+      <c r="G494" s="5"/>
+      <c r="H494" s="5"/>
+      <c r="I494" s="5"/>
+      <c r="J494" s="6" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="495" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A495" s="4"/>
+      <c r="B495" s="4"/>
+      <c r="C495" s="5"/>
+      <c r="D495" s="5" t="s">
+        <v>945</v>
+      </c>
+      <c r="E495" s="5"/>
+      <c r="F495" s="5"/>
+      <c r="G495" s="5"/>
+      <c r="H495" s="5"/>
+      <c r="I495" s="5"/>
+      <c r="J495" s="6" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="496" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A496" s="4"/>
+      <c r="B496" s="4"/>
+      <c r="C496" s="5"/>
+      <c r="D496" s="5"/>
+      <c r="E496" s="5"/>
+      <c r="F496" s="5"/>
+      <c r="G496" s="5"/>
+      <c r="H496" s="5"/>
+      <c r="I496" s="5"/>
+      <c r="J496" s="6" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="497" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A497" s="4"/>
+      <c r="B497" s="4"/>
+      <c r="C497" s="5"/>
+      <c r="D497" s="5" t="s">
+        <v>948</v>
+      </c>
+      <c r="E497" s="5"/>
+      <c r="F497" s="5"/>
+      <c r="G497" s="5"/>
+      <c r="H497" s="5"/>
+      <c r="I497" s="5"/>
+      <c r="J497" s="6" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="498" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A498" s="4"/>
+      <c r="B498" s="4"/>
+      <c r="C498" s="5"/>
+      <c r="D498" s="5" t="s">
+        <v>950</v>
+      </c>
+      <c r="E498" s="5"/>
+      <c r="F498" s="5"/>
+      <c r="G498" s="5"/>
+      <c r="H498" s="5"/>
+      <c r="I498" s="5"/>
+      <c r="J498" s="6" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="499" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A499" s="4"/>
+      <c r="B499" s="4"/>
+      <c r="C499" s="5"/>
+      <c r="D499" s="5" t="s">
+        <v>952</v>
+      </c>
+      <c r="E499" s="5"/>
+      <c r="F499" s="5"/>
+      <c r="G499" s="5"/>
+      <c r="H499" s="5"/>
+      <c r="I499" s="5"/>
+      <c r="J499" s="6" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="500" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A500" s="4"/>
+      <c r="B500" s="4"/>
+      <c r="C500" s="5"/>
+      <c r="D500" s="5"/>
+      <c r="E500" s="5"/>
+      <c r="F500" s="5"/>
+      <c r="G500" s="5"/>
+      <c r="H500" s="5"/>
+      <c r="I500" s="5"/>
+      <c r="J500" s="6" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="501" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A501" s="4"/>
+      <c r="B501" s="4"/>
+      <c r="C501" s="5"/>
+      <c r="D501" s="5" t="s">
+        <v>955</v>
+      </c>
+      <c r="E501" s="5"/>
+      <c r="F501" s="5"/>
+      <c r="G501" s="5"/>
+      <c r="H501" s="5"/>
+      <c r="I501" s="5"/>
+      <c r="J501" s="6" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="502" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A502" s="4"/>
+      <c r="B502" s="4"/>
+      <c r="C502" s="5"/>
+      <c r="D502" s="5"/>
+      <c r="E502" s="5"/>
+      <c r="F502" s="5"/>
+      <c r="G502" s="5"/>
+      <c r="H502" s="5"/>
+      <c r="I502" s="5"/>
+      <c r="J502" s="6" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="503" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A503" s="4"/>
+      <c r="B503" s="4"/>
+      <c r="C503" s="5"/>
+      <c r="D503" s="5" t="s">
+        <v>958</v>
+      </c>
+      <c r="E503" s="5"/>
+      <c r="F503" s="5"/>
+      <c r="G503" s="5"/>
+      <c r="H503" s="5"/>
+      <c r="I503" s="5"/>
+      <c r="J503" s="6" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="504" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A504" s="4"/>
+      <c r="B504" s="4"/>
+      <c r="C504" s="5"/>
+      <c r="D504" s="5"/>
+      <c r="E504" s="5"/>
+      <c r="F504" s="5"/>
+      <c r="G504" s="5"/>
+      <c r="H504" s="5"/>
+      <c r="I504" s="5"/>
+      <c r="J504" s="6" t="s">
+        <v>960</v>
       </c>
     </row>
   </sheetData>

--- a/java01t/index.xlsx
+++ b/java01t/index.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="972" uniqueCount="961">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="991" uniqueCount="980">
   <si>
     <t>주제</t>
   </si>
@@ -2906,7 +2906,64 @@
     <t>web1t: step08/ex1/board07.html</t>
   </si>
   <si>
-    <t>node01t: src/ex6/test05.js</t>
+    <t>4월29일</t>
+  </si>
+  <si>
+    <t>비동기 게시판 만들기: 게시물 변경하기, 조회수 증가</t>
+  </si>
+  <si>
+    <t>web1t: step08/ex1/board08.html</t>
+  </si>
+  <si>
+    <t>node01t: src/ex6/test06.js</t>
+  </si>
+  <si>
+    <t>원격 메서드 호출: RMI, CORBA, WebService, RESTful</t>
+  </si>
+  <si>
+    <t>step22/ex2/*, step22/ex3/*</t>
+  </si>
+  <si>
+    <t>비동기 게시판 만들기: 서버 응답 데이터의 형식 정리. REST 서비스 준비</t>
+  </si>
+  <si>
+    <t>web1t: step08/ex1/board09.html</t>
+  </si>
+  <si>
+    <t>node01t: src/ex6/test07.js</t>
+  </si>
+  <si>
+    <t>비동기 게시판 만들기: 테이블 데이터만 다시 로딩하기</t>
+  </si>
+  <si>
+    <t>web1t: step08/ex1/board10.html</t>
+  </si>
+  <si>
+    <t>비동기 게시판 만들기: 입력폼 상태 및 항목을 초기화하기</t>
+  </si>
+  <si>
+    <t>web1t: step08/ex1/board11.html</t>
+  </si>
+  <si>
+    <t>비동기 게시판 만들기: 버튼 이벤트를 강제로 발생시켜 reset 수행하기</t>
+  </si>
+  <si>
+    <t>web1t: step08/ex1/board12.html</t>
+  </si>
+  <si>
+    <t>mini jQuery 만들기</t>
+  </si>
+  <si>
+    <t>HTML과 자바스크립트 분리하기</t>
+  </si>
+  <si>
+    <t>web1t: step08/ex2/*</t>
+  </si>
+  <si>
+    <t>AJAX 함수 만들기</t>
+  </si>
+  <si>
+    <t>web1t: step08/ex3/*</t>
   </si>
 </sst>
 </file>
@@ -3394,7 +3451,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3410,6 +3467,9 @@
     </xf>
     <xf numFmtId="16" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="419">
@@ -4165,10 +4225,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J504"/>
+  <dimension ref="A1:J513"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A482" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A486" workbookViewId="0">
+      <selection activeCell="C506" sqref="C506"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -12244,17 +12304,86 @@
       </c>
     </row>
     <row r="504" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A504" s="4"/>
-      <c r="B504" s="4"/>
-      <c r="C504" s="5"/>
-      <c r="D504" s="5"/>
-      <c r="E504" s="5"/>
-      <c r="F504" s="5"/>
-      <c r="G504" s="5"/>
-      <c r="H504" s="5"/>
-      <c r="I504" s="5"/>
-      <c r="J504" s="6" t="s">
+      <c r="A504" s="3">
+        <v>43</v>
+      </c>
+      <c r="B504" s="3" t="s">
         <v>960</v>
+      </c>
+      <c r="D504" s="1" t="s">
+        <v>961</v>
+      </c>
+      <c r="J504" s="8" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="505" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J505" s="8" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="506" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D506" s="1" t="s">
+        <v>964</v>
+      </c>
+      <c r="J506" s="8" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="507" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D507" s="1" t="s">
+        <v>966</v>
+      </c>
+      <c r="J507" s="8" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="508" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J508" s="8" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="509" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D509" s="1" t="s">
+        <v>969</v>
+      </c>
+      <c r="J509" s="8" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="510" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D510" s="1" t="s">
+        <v>971</v>
+      </c>
+      <c r="J510" s="8" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="511" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D511" s="1" t="s">
+        <v>973</v>
+      </c>
+      <c r="J511" s="8" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="512" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C512" s="1" t="s">
+        <v>975</v>
+      </c>
+      <c r="D512" s="1" t="s">
+        <v>976</v>
+      </c>
+      <c r="J512" s="8" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="513" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D513" s="1" t="s">
+        <v>978</v>
+      </c>
+      <c r="J513" s="8" t="s">
+        <v>979</v>
       </c>
     </row>
   </sheetData>

--- a/java01t/index.xlsx
+++ b/java01t/index.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="991" uniqueCount="980">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1018" uniqueCount="1007">
   <si>
     <t>주제</t>
   </si>
@@ -2964,6 +2964,87 @@
   </si>
   <si>
     <t>web1t: step08/ex3/*</t>
+  </si>
+  <si>
+    <t>4월30일</t>
+  </si>
+  <si>
+    <t>엘리먼트 찾는 함수 만들기: bit()</t>
+  </si>
+  <si>
+    <t>web1t: step08/ex4/board01.js</t>
+  </si>
+  <si>
+    <t>함수 이름 단순화 하기: $의 사용</t>
+  </si>
+  <si>
+    <t>web1t: step08/ex4/board02.js</t>
+  </si>
+  <si>
+    <t>다양한 도우미 함수 만들기: val(), attr(), css(), text()</t>
+  </si>
+  <si>
+    <t>web1t: step08/ex4/board03.js</t>
+  </si>
+  <si>
+    <t>하나의 함수를 겟터와 셋터로 사용하기, 이벤트 등록 함수 click()</t>
+  </si>
+  <si>
+    <t>web1t: step08/ex4/board04.js</t>
+  </si>
+  <si>
+    <t>자식태그 추가 삭제하는 함수 추가: append(), remove()</t>
+  </si>
+  <si>
+    <t>web1t: step08/ex4/board05.js</t>
+  </si>
+  <si>
+    <t>자식 태그를 부모에 추가하는 함수 추가: appendTo()</t>
+  </si>
+  <si>
+    <t>web1t: step08/ex4/board06.js</t>
+  </si>
+  <si>
+    <t>bit()에 태그 생성 기능 추가</t>
+  </si>
+  <si>
+    <t>web1t: step08/ex4/board.js</t>
+  </si>
+  <si>
+    <t>공통 함수를 별도의 파일로 분리하기</t>
+  </si>
+  <si>
+    <t>web1t: step08/ex5/*</t>
+  </si>
+  <si>
+    <t>ajax() 함수를 bit()에 묶기</t>
+  </si>
+  <si>
+    <t>web1t: step08/ex6/*</t>
+  </si>
+  <si>
+    <t>bit.js 압축하기</t>
+  </si>
+  <si>
+    <t>web1t: step08/ex7/*</t>
+  </si>
+  <si>
+    <t>jQuery 사용</t>
+  </si>
+  <si>
+    <t>web1t: step08/ex8/*</t>
+  </si>
+  <si>
+    <t>부트스트랩 사용</t>
+  </si>
+  <si>
+    <t>web1t: step08/ex9/*</t>
+  </si>
+  <si>
+    <t>폰갭 적용: miniExpress.js에서 host 값 생략하기</t>
+  </si>
+  <si>
+    <t>node01t: src/ex6/miniExpress.js 변경</t>
   </si>
 </sst>
 </file>
@@ -4225,10 +4306,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J513"/>
+  <dimension ref="A1:J526"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A486" workbookViewId="0">
-      <selection activeCell="C506" sqref="C506"/>
+    <sheetView tabSelected="1" topLeftCell="A502" workbookViewId="0">
+      <selection activeCell="C529" sqref="C529"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -12378,12 +12459,122 @@
         <v>977</v>
       </c>
     </row>
-    <row r="513" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D513" s="1" t="s">
         <v>978</v>
       </c>
       <c r="J513" s="8" t="s">
         <v>979</v>
+      </c>
+    </row>
+    <row r="514" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A514" s="3">
+        <v>44</v>
+      </c>
+      <c r="B514" s="3" t="s">
+        <v>980</v>
+      </c>
+      <c r="D514" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="J514" s="8" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="515" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D515" s="1" t="s">
+        <v>983</v>
+      </c>
+      <c r="J515" s="8" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="516" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D516" s="1" t="s">
+        <v>985</v>
+      </c>
+      <c r="J516" s="8" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="517" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D517" s="1" t="s">
+        <v>987</v>
+      </c>
+      <c r="J517" s="8" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="518" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D518" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="J518" s="8" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="519" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D519" s="1" t="s">
+        <v>991</v>
+      </c>
+      <c r="J519" s="8" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="520" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D520" s="1" t="s">
+        <v>993</v>
+      </c>
+      <c r="J520" s="8" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="521" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D521" s="1" t="s">
+        <v>995</v>
+      </c>
+      <c r="J521" s="8" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="522" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D522" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="J522" s="8" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="523" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D523" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="J523" s="8" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="524" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D524" s="1" t="s">
+        <v>1001</v>
+      </c>
+      <c r="J524" s="8" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="525" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D525" s="1" t="s">
+        <v>1003</v>
+      </c>
+      <c r="J525" s="8" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="526" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D526" s="1" t="s">
+        <v>1005</v>
+      </c>
+      <c r="J526" s="8" t="s">
+        <v>1006</v>
       </c>
     </row>
   </sheetData>
